--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="0119" sheetId="2" r:id="rId1"/>
-    <sheet name="0109" sheetId="1" r:id="rId2"/>
-    <sheet name="202312" sheetId="4" r:id="rId3"/>
+    <sheet name="0126" sheetId="6" r:id="rId1"/>
+    <sheet name="0119" sheetId="2" r:id="rId2"/>
+    <sheet name="0109" sheetId="1" r:id="rId3"/>
+    <sheet name="202312" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="569">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,6 +2037,40 @@
   </si>
   <si>
     <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0101M0</t>
+  </si>
+  <si>
+    <t>내 연금정보</t>
+  </si>
+  <si>
+    <t>UHKF0201M0</t>
+  </si>
+  <si>
+    <t>종합재무설계내역 조회</t>
+  </si>
+  <si>
+    <t>UHKF0301M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 조회</t>
+  </si>
+  <si>
+    <t>/html/UHKF/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0101M0_내연금정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0201M0_종합재무설계내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0301M0_종합진단내역조회.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2347,7 +2382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2438,119 +2473,125 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2832,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2863,6 +2904,325 @@
         <v>129</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>565</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="28"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="28"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="28"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" ht="33" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -2961,10 +3321,10 @@
         <v>22</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="55" t="s">
         <v>143</v>
       </c>
       <c r="G6" s="20"/>
@@ -2980,8 +3340,8 @@
         <v>24</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="29"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
@@ -2995,8 +3355,8 @@
         <v>26</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
@@ -3010,8 +3370,8 @@
         <v>28</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="29"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
@@ -3082,10 +3442,10 @@
         <v>36</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="55" t="s">
         <v>143</v>
       </c>
       <c r="G13" s="20"/>
@@ -3101,8 +3461,8 @@
         <v>38</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="55"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
@@ -3116,10 +3476,10 @@
         <v>40</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="55" t="s">
         <v>143</v>
       </c>
       <c r="G15" s="20"/>
@@ -3135,8 +3495,8 @@
         <v>42</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="29"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
@@ -3150,8 +3510,8 @@
         <v>44</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="29"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
@@ -3165,8 +3525,8 @@
         <v>46</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="29"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
@@ -3180,8 +3540,8 @@
         <v>48</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="29"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
@@ -3195,8 +3555,8 @@
         <v>50</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="29"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="55"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
@@ -3210,8 +3570,8 @@
         <v>52</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="55"/>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7">
@@ -3225,8 +3585,8 @@
         <v>54</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="29"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
@@ -3240,8 +3600,8 @@
         <v>56</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
@@ -3255,8 +3615,8 @@
         <v>58</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
@@ -3270,8 +3630,8 @@
         <v>60</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
@@ -3285,8 +3645,8 @@
         <v>62</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="55"/>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
@@ -3300,8 +3660,8 @@
         <v>64</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="29"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="55"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
@@ -3315,8 +3675,8 @@
         <v>66</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="29"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
@@ -3330,8 +3690,8 @@
         <v>68</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="29"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="55"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
@@ -3345,8 +3705,8 @@
         <v>70</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="29"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
@@ -3360,46 +3720,46 @@
         <v>72</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="55"/>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A32" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="63" t="s">
+      <c r="A32" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="64" t="s">
+      <c r="C32" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="F32" s="67" t="s">
+      <c r="F32" s="53" t="s">
         <v>143</v>
       </c>
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="C33" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="D33" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="36" t="s">
         <v>143</v>
       </c>
       <c r="G33" s="20"/>
@@ -3453,10 +3813,10 @@
         <v>83</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="28" t="s">
+      <c r="E36" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="55" t="s">
         <v>143</v>
       </c>
       <c r="G36" s="20"/>
@@ -3472,8 +3832,8 @@
         <v>122</v>
       </c>
       <c r="D37" s="19"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7">
@@ -3487,8 +3847,8 @@
         <v>87</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
@@ -3749,10 +4109,10 @@
         <v>113</v>
       </c>
       <c r="D52" s="26"/>
-      <c r="E52" s="28" t="s">
+      <c r="E52" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="F52" s="29" t="s">
+      <c r="F52" s="55" t="s">
         <v>143</v>
       </c>
       <c r="G52" s="20"/>
@@ -3768,8 +4128,8 @@
         <v>115</v>
       </c>
       <c r="D53" s="26"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="55"/>
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7">
@@ -3783,8 +4143,8 @@
         <v>117</v>
       </c>
       <c r="D54" s="26"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="29"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7">
@@ -3953,12 +4313,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3967,35 +4327,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="43" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="57"/>
+      <c r="A2" s="43"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33" customHeight="1">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="45" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4014,12 +4374,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:E14"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4066,7 +4426,7 @@
       <c r="C2" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>388</v>
       </c>
       <c r="E2" s="25" t="s">
@@ -4078,16 +4438,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="51" t="s">
+      <c r="A3" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="60" t="s">
         <v>389</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -4099,11 +4459,11 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="34" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="33" t="s">
         <v>393</v>
       </c>
       <c r="F4" s="23" t="s">
@@ -4112,11 +4472,11 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="34" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="33" t="s">
         <v>394</v>
       </c>
       <c r="F5" s="23" t="s">
@@ -4125,11 +4485,11 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="34" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="33" t="s">
         <v>395</v>
       </c>
       <c r="F6" s="23" t="s">
@@ -4147,7 +4507,7 @@
       <c r="C7" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>390</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -4168,7 +4528,7 @@
       <c r="C8" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="8" t="s">
         <v>397</v>
       </c>
@@ -4187,11 +4547,11 @@
       <c r="C9" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="30"/>
+      <c r="E9" s="63" t="s">
         <v>398</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G9" s="24"/>
@@ -4206,9 +4566,9 @@
       <c r="C10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -4221,7 +4581,7 @@
       <c r="C11" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="8" t="s">
         <v>399</v>
       </c>
@@ -4240,11 +4600,11 @@
       <c r="C12" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="24"/>
@@ -4259,9 +4619,9 @@
       <c r="C13" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="67"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -4274,9 +4634,9 @@
       <c r="C14" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="38"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -4289,7 +4649,7 @@
       <c r="C15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="8" t="s">
         <v>401</v>
       </c>
@@ -4308,11 +4668,11 @@
       <c r="C16" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="35" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G16" s="24"/>
@@ -4327,9 +4687,9 @@
       <c r="C17" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -4342,9 +4702,9 @@
       <c r="C18" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="38"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -4357,7 +4717,7 @@
       <c r="C19" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="8" t="s">
         <v>403</v>
       </c>
@@ -4376,11 +4736,11 @@
       <c r="C20" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="35" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G20" s="24"/>
@@ -4395,9 +4755,9 @@
       <c r="C21" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="38"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -4410,7 +4770,7 @@
       <c r="C22" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="8" t="s">
         <v>405</v>
       </c>
@@ -4429,7 +4789,7 @@
       <c r="C23" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="8" t="s">
         <v>406</v>
       </c>
@@ -4448,7 +4808,7 @@
       <c r="C24" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="30"/>
       <c r="E24" s="8" t="s">
         <v>407</v>
       </c>
@@ -4467,7 +4827,7 @@
       <c r="C25" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="8" t="s">
         <v>553</v>
       </c>
@@ -4488,7 +4848,7 @@
       <c r="C26" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="30"/>
       <c r="E26" s="8" t="s">
         <v>408</v>
       </c>
@@ -4507,7 +4867,7 @@
       <c r="C27" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="8" t="s">
         <v>410</v>
       </c>
@@ -4526,7 +4886,7 @@
       <c r="C28" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="8" t="s">
         <v>411</v>
       </c>
@@ -4545,8 +4905,8 @@
       <c r="C29" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="41" t="s">
+      <c r="D29" s="30"/>
+      <c r="E29" s="34" t="s">
         <v>412</v>
       </c>
       <c r="F29" s="23" t="s">
@@ -4564,7 +4924,7 @@
       <c r="C30" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="30"/>
       <c r="E30" s="8" t="s">
         <v>413</v>
       </c>
@@ -4583,7 +4943,7 @@
       <c r="C31" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="30"/>
       <c r="E31" s="8" t="s">
         <v>414</v>
       </c>
@@ -4602,7 +4962,7 @@
       <c r="C32" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="30"/>
       <c r="E32" s="8" t="s">
         <v>415</v>
       </c>
@@ -4621,7 +4981,7 @@
       <c r="C33" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="30"/>
       <c r="E33" s="8" t="s">
         <v>416</v>
       </c>
@@ -4640,7 +5000,7 @@
       <c r="C34" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="8" t="s">
         <v>420</v>
       </c>
@@ -4659,7 +5019,7 @@
       <c r="C35" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="30"/>
       <c r="E35" s="8" t="s">
         <v>421</v>
       </c>
@@ -4680,7 +5040,7 @@
       <c r="C36" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="8" t="s">
         <v>422</v>
       </c>
@@ -4699,7 +5059,7 @@
       <c r="C37" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="30"/>
       <c r="E37" s="8" t="s">
         <v>423</v>
       </c>
@@ -4718,8 +5078,8 @@
       <c r="C38" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="42" t="s">
+      <c r="D38" s="30"/>
+      <c r="E38" s="35" t="s">
         <v>427</v>
       </c>
       <c r="F38" s="23" t="s">
@@ -4737,7 +5097,7 @@
       <c r="C39" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="8" t="s">
         <v>421</v>
       </c>
@@ -4758,7 +5118,7 @@
       <c r="C40" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="30"/>
       <c r="E40" s="8" t="s">
         <v>428</v>
       </c>
@@ -4777,7 +5137,7 @@
       <c r="C41" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="30"/>
       <c r="E41" s="8" t="s">
         <v>433</v>
       </c>
@@ -4796,7 +5156,7 @@
       <c r="C42" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="30"/>
       <c r="E42" s="8" t="s">
         <v>434</v>
       </c>
@@ -4815,7 +5175,7 @@
       <c r="C43" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D43" s="31"/>
+      <c r="D43" s="30"/>
       <c r="E43" s="8" t="s">
         <v>552</v>
       </c>
@@ -4834,7 +5194,7 @@
       <c r="C44" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="31" t="s">
         <v>391</v>
       </c>
       <c r="E44" s="8" t="s">
@@ -4855,7 +5215,7 @@
       <c r="C45" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D45" s="31"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="8" t="s">
         <v>440</v>
       </c>
@@ -4874,7 +5234,7 @@
       <c r="C46" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D46" s="31"/>
+      <c r="D46" s="30"/>
       <c r="E46" s="8" t="s">
         <v>441</v>
       </c>
@@ -4893,7 +5253,7 @@
       <c r="C47" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="31"/>
+      <c r="D47" s="30"/>
       <c r="E47" s="8" t="s">
         <v>442</v>
       </c>
@@ -4912,7 +5272,7 @@
       <c r="C48" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D48" s="31"/>
+      <c r="D48" s="30"/>
       <c r="E48" s="8" t="s">
         <v>437</v>
       </c>
@@ -4931,7 +5291,7 @@
       <c r="C49" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D49" s="31"/>
+      <c r="D49" s="30"/>
       <c r="E49" s="8" t="s">
         <v>438</v>
       </c>
@@ -4950,7 +5310,7 @@
       <c r="C50" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="D50" s="31"/>
+      <c r="D50" s="30"/>
       <c r="E50" s="8" t="s">
         <v>439</v>
       </c>
@@ -4969,7 +5329,7 @@
       <c r="C51" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="D51" s="31"/>
+      <c r="D51" s="30"/>
       <c r="E51" s="8" t="s">
         <v>444</v>
       </c>
@@ -4988,7 +5348,7 @@
       <c r="C52" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="D52" s="31"/>
+      <c r="D52" s="30"/>
       <c r="E52" s="8" t="s">
         <v>446</v>
       </c>
@@ -5007,7 +5367,7 @@
       <c r="C53" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D53" s="31"/>
+      <c r="D53" s="30"/>
       <c r="E53" s="8" t="s">
         <v>447</v>
       </c>
@@ -5026,7 +5386,7 @@
       <c r="C54" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="D54" s="31"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="8" t="s">
         <v>448</v>
       </c>
@@ -5045,7 +5405,7 @@
       <c r="C55" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="D55" s="31"/>
+      <c r="D55" s="30"/>
       <c r="E55" s="8" t="s">
         <v>449</v>
       </c>
@@ -5064,7 +5424,7 @@
       <c r="C56" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="D56" s="30"/>
       <c r="E56" s="8" t="s">
         <v>450</v>
       </c>
@@ -5083,7 +5443,7 @@
       <c r="C57" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="30"/>
       <c r="E57" s="8" t="s">
         <v>452</v>
       </c>
@@ -5102,7 +5462,7 @@
       <c r="C58" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="D58" s="31"/>
+      <c r="D58" s="30"/>
       <c r="E58" s="8" t="s">
         <v>453</v>
       </c>
@@ -5121,7 +5481,7 @@
       <c r="C59" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="D59" s="31"/>
+      <c r="D59" s="30"/>
       <c r="E59" s="8" t="s">
         <v>455</v>
       </c>
@@ -5140,7 +5500,7 @@
       <c r="C60" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D60" s="31"/>
+      <c r="D60" s="30"/>
       <c r="E60" s="8" t="s">
         <v>457</v>
       </c>
@@ -5159,7 +5519,7 @@
       <c r="C61" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="D61" s="31"/>
+      <c r="D61" s="30"/>
       <c r="E61" s="8" t="s">
         <v>458</v>
       </c>
@@ -5178,7 +5538,7 @@
       <c r="C62" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="30"/>
       <c r="E62" s="8" t="s">
         <v>459</v>
       </c>
@@ -5197,7 +5557,7 @@
       <c r="C63" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="D63" s="31"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="8" t="s">
         <v>460</v>
       </c>
@@ -5216,7 +5576,7 @@
       <c r="C64" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="D64" s="31"/>
+      <c r="D64" s="30"/>
       <c r="E64" s="8" t="s">
         <v>461</v>
       </c>
@@ -5235,7 +5595,7 @@
       <c r="C65" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D65" s="31"/>
+      <c r="D65" s="30"/>
       <c r="E65" s="8" t="s">
         <v>462</v>
       </c>
@@ -5254,7 +5614,7 @@
       <c r="C66" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="D66" s="31"/>
+      <c r="D66" s="30"/>
       <c r="E66" s="8" t="s">
         <v>464</v>
       </c>
@@ -5273,7 +5633,7 @@
       <c r="C67" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="31"/>
+      <c r="D67" s="30"/>
       <c r="E67" s="8" t="s">
         <v>465</v>
       </c>
@@ -5292,7 +5652,7 @@
       <c r="C68" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D68" s="31"/>
+      <c r="D68" s="30"/>
       <c r="E68" s="8" t="s">
         <v>466</v>
       </c>
@@ -5311,8 +5671,8 @@
       <c r="C69" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="41" t="s">
+      <c r="D69" s="30"/>
+      <c r="E69" s="34" t="s">
         <v>470</v>
       </c>
       <c r="F69" s="23" t="s">
@@ -5330,7 +5690,7 @@
       <c r="C70" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="D70" s="31"/>
+      <c r="D70" s="30"/>
       <c r="E70" s="8" t="s">
         <v>467</v>
       </c>
@@ -5349,7 +5709,7 @@
       <c r="C71" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="30"/>
       <c r="E71" s="8" t="s">
         <v>468</v>
       </c>
@@ -5368,7 +5728,7 @@
       <c r="C72" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="D72" s="31"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="8" t="s">
         <v>469</v>
       </c>
@@ -5387,7 +5747,7 @@
       <c r="C73" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D73" s="31"/>
+      <c r="D73" s="30"/>
       <c r="E73" s="8" t="s">
         <v>471</v>
       </c>
@@ -5406,7 +5766,7 @@
       <c r="C74" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="D74" s="31"/>
+      <c r="D74" s="30"/>
       <c r="E74" s="8" t="s">
         <v>472</v>
       </c>
@@ -5425,7 +5785,7 @@
       <c r="C75" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="31"/>
+      <c r="D75" s="30"/>
       <c r="E75" s="8" t="s">
         <v>473</v>
       </c>
@@ -5444,7 +5804,7 @@
       <c r="C76" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="31"/>
+      <c r="D76" s="30"/>
       <c r="E76" s="8" t="s">
         <v>474</v>
       </c>
@@ -5463,7 +5823,7 @@
       <c r="C77" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="D77" s="31"/>
+      <c r="D77" s="30"/>
       <c r="E77" s="8" t="s">
         <v>476</v>
       </c>
@@ -5482,7 +5842,7 @@
       <c r="C78" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D78" s="31"/>
+      <c r="D78" s="30"/>
       <c r="E78" s="8" t="s">
         <v>477</v>
       </c>
@@ -5501,7 +5861,7 @@
       <c r="C79" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D79" s="31"/>
+      <c r="D79" s="30"/>
       <c r="E79" s="8" t="s">
         <v>478</v>
       </c>
@@ -5520,7 +5880,7 @@
       <c r="C80" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="D80" s="31"/>
+      <c r="D80" s="30"/>
       <c r="E80" s="8" t="s">
         <v>477</v>
       </c>
@@ -5539,7 +5899,7 @@
       <c r="C81" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="D81" s="31"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="8" t="s">
         <v>492</v>
       </c>
@@ -5558,7 +5918,7 @@
       <c r="C82" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="D82" s="31"/>
+      <c r="D82" s="30"/>
       <c r="E82" s="8" t="s">
         <v>479</v>
       </c>
@@ -5577,7 +5937,7 @@
       <c r="C83" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="D83" s="31"/>
+      <c r="D83" s="30"/>
       <c r="E83" s="8" t="s">
         <v>480</v>
       </c>
@@ -5596,7 +5956,7 @@
       <c r="C84" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="D84" s="31"/>
+      <c r="D84" s="30"/>
       <c r="E84" s="8" t="s">
         <v>490</v>
       </c>
@@ -5615,7 +5975,7 @@
       <c r="C85" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D85" s="31"/>
+      <c r="D85" s="30"/>
       <c r="E85" s="8" t="s">
         <v>477</v>
       </c>
@@ -5634,7 +5994,7 @@
       <c r="C86" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="D86" s="31"/>
+      <c r="D86" s="30"/>
       <c r="E86" s="8" t="s">
         <v>488</v>
       </c>
@@ -5653,7 +6013,7 @@
       <c r="C87" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="D87" s="32"/>
+      <c r="D87" s="31"/>
       <c r="E87" s="8" t="s">
         <v>481</v>
       </c>
@@ -5672,7 +6032,7 @@
       <c r="C88" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="D88" s="31"/>
+      <c r="D88" s="30"/>
       <c r="E88" s="8" t="s">
         <v>486</v>
       </c>
@@ -5825,10 +6185,10 @@
         <v>506</v>
       </c>
       <c r="D96" s="6"/>
-      <c r="E96" s="35" t="s">
+      <c r="E96" s="63" t="s">
         <v>494</v>
       </c>
-      <c r="F96" s="37" t="s">
+      <c r="F96" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G96" s="24"/>
@@ -5844,8 +6204,8 @@
         <v>505</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="40"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="67"/>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7">
@@ -5859,8 +6219,8 @@
         <v>502</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="40"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="67"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -5874,8 +6234,8 @@
         <v>503</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="40"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="67"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -5889,8 +6249,8 @@
         <v>504</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="40"/>
+      <c r="E100" s="64"/>
+      <c r="F100" s="67"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -5904,8 +6264,8 @@
         <v>500</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="40"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="67"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -5919,8 +6279,8 @@
         <v>501</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="36"/>
-      <c r="F102" s="38"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="68"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -6158,10 +6518,10 @@
         <v>361</v>
       </c>
       <c r="D115" s="6"/>
-      <c r="E115" s="35" t="s">
+      <c r="E115" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="F115" s="37" t="s">
+      <c r="F115" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G115" s="24"/>
@@ -6177,8 +6537,8 @@
         <v>363</v>
       </c>
       <c r="D116" s="6"/>
-      <c r="E116" s="39"/>
-      <c r="F116" s="40"/>
+      <c r="E116" s="64"/>
+      <c r="F116" s="67"/>
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7">
@@ -6192,8 +6552,8 @@
         <v>365</v>
       </c>
       <c r="D117" s="6"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="38"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="68"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7">
@@ -6245,10 +6605,10 @@
         <v>371</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="44" t="s">
+      <c r="E120" s="69" t="s">
         <v>524</v>
       </c>
-      <c r="F120" s="37" t="s">
+      <c r="F120" s="66" t="s">
         <v>143</v>
       </c>
       <c r="G120" s="24"/>
@@ -6264,8 +6624,8 @@
         <v>373</v>
       </c>
       <c r="D121" s="6"/>
-      <c r="E121" s="44"/>
-      <c r="F121" s="40"/>
+      <c r="E121" s="69"/>
+      <c r="F121" s="67"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -6279,8 +6639,8 @@
         <v>375</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="44"/>
-      <c r="F122" s="40"/>
+      <c r="E122" s="69"/>
+      <c r="F122" s="67"/>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7">
@@ -6294,8 +6654,8 @@
         <v>377</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="44"/>
-      <c r="F123" s="40"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="67"/>
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7">
@@ -6309,63 +6669,63 @@
         <v>378</v>
       </c>
       <c r="D124" s="6"/>
-      <c r="E124" s="44"/>
-      <c r="F124" s="38"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="68"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="47" t="s">
+      <c r="A125" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="C125" s="48" t="s">
+      <c r="C125" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D125" s="46"/>
-      <c r="E125" s="49" t="s">
+      <c r="D125" s="38"/>
+      <c r="E125" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="F125" s="46" t="s">
+      <c r="F125" s="38" t="s">
         <v>545</v>
       </c>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="50" t="s">
+      <c r="A126" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="C126" s="48" t="s">
+      <c r="C126" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="46"/>
-      <c r="E126" s="49" t="s">
+      <c r="D126" s="38"/>
+      <c r="E126" s="41" t="s">
         <v>527</v>
       </c>
-      <c r="F126" s="46" t="s">
+      <c r="F126" s="38" t="s">
         <v>546</v>
       </c>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
-      <c r="A127" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="50" t="s">
+      <c r="A127" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="48" t="s">
+      <c r="C127" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D127" s="46"/>
-      <c r="E127" s="49" t="s">
+      <c r="D127" s="38"/>
+      <c r="E127" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="F127" s="46" t="s">
+      <c r="F127" s="38" t="s">
         <v>546</v>
       </c>
       <c r="G127" s="24"/>
@@ -6390,39 +6750,39 @@
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
-      <c r="A129" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="50" t="s">
+      <c r="A129" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="48" t="s">
+      <c r="C129" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="46"/>
-      <c r="E129" s="48" t="s">
+      <c r="D129" s="38"/>
+      <c r="E129" s="40" t="s">
         <v>530</v>
       </c>
-      <c r="F129" s="46" t="s">
+      <c r="F129" s="38" t="s">
         <v>547</v>
       </c>
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="50" t="s">
+      <c r="B130" s="42" t="s">
         <v>548</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C130" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="D130" s="46"/>
-      <c r="E130" s="48" t="s">
+      <c r="D130" s="38"/>
+      <c r="E130" s="40" t="s">
         <v>538</v>
       </c>
-      <c r="F130" s="46" t="s">
+      <c r="F130" s="38" t="s">
         <v>547</v>
       </c>
       <c r="G130" s="24"/>
@@ -6476,7 +6836,7 @@
         <v>536</v>
       </c>
       <c r="D133" s="6"/>
-      <c r="E133" s="45" t="s">
+      <c r="E133" s="37" t="s">
         <v>539</v>
       </c>
       <c r="F133" s="23" t="s">
@@ -6542,11 +6902,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E96:E102"/>
-    <mergeCell ref="F96:F102"/>
     <mergeCell ref="E115:E117"/>
     <mergeCell ref="F115:F117"/>
     <mergeCell ref="E120:E124"/>
@@ -6560,6 +6915,11 @@
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E96:E102"/>
+    <mergeCell ref="F96:F102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="0126" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="679">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,10 +309,6 @@
     <t>CSA자격증 교육신청</t>
   </si>
   <si>
-    <t>UHKP2301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>CSA자격증 교육신청 개인정보 이용 동의</t>
   </si>
   <si>
@@ -553,30 +549,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UHKP0701M0_CSA자격시험 및 시험결과 공고.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP0801M0_CSA자격시험 및 시험결과 공고 상세.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP0901M0_CSA 자격시험 응시안내.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1001M0_CSA자격증 교육일정 공고 상세.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UHKP2301M0_UHKP1901M0_[공통]개인정보 이용 동의.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKP0701M0_CSA자격시험 및 시험결과 공고.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP0801M0_CSA자격시험 및 시험결과 공고 상세.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP0901M0_CSA 자격시험 응시안내.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP1001M0_CSA자격증 교육일정 공고 상세.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP2301M0_UHKP1901M0_[공통]개인정보 이용 동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKP1201M0_CSA자격증제도 운영규칙.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +593,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKP1101M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKP1801M0_[UHKP1802P0_UHKP2001M0_UHKP1101M0]_CSA 자격시험 원서접수.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -731,12 +719,6 @@
     <t>온라인상담</t>
   </si>
   <si>
-    <t>UHKC1302P0</t>
-  </si>
-  <si>
-    <t>온라인상담 비밀번호 확인</t>
-  </si>
-  <si>
     <t>UHKC1401M0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1435,10 +1417,6 @@
   </si>
   <si>
     <t>UHKC1401M0_온라인상담_글보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 확인 공통</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1900,10 +1878,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD5801M0_노후를위한국민연금준비정도알아보기.html ●</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내연금정보조회 개인정보동의</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1920,10 +1894,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">UHKD6601M0_내연금알아보기_내연금정보조회_개인정보동의.html ● </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKD6701M0_내연금알아보기_내연금정보조회.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2004,26 +1974,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NOID_pop_비밀번호입력.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NOID_pop_비밀번호입력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOID_pop_비밀번호입력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2071,6 +2025,461 @@
   </si>
   <si>
     <t>UHKF0301M0_종합진단내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0401M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(기본사항)</t>
+  </si>
+  <si>
+    <t>UHKF0501M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(재무)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0601M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(건강)</t>
+  </si>
+  <si>
+    <t>UHKF0701M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(여가활동)</t>
+  </si>
+  <si>
+    <t>UHKF0801M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(대인관계)</t>
+  </si>
+  <si>
+    <t>UHKF0901M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(종합진단결과)</t>
+  </si>
+  <si>
+    <t>UHKF1001M0</t>
+  </si>
+  <si>
+    <t>교육신청 내역 조회</t>
+  </si>
+  <si>
+    <t>UHKF1201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA교육 수료내역 조회</t>
+  </si>
+  <si>
+    <t>UHKF1501M0</t>
+  </si>
+  <si>
+    <t>CSA시험 수험표 출력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA시험 수험표 출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1601M0</t>
+  </si>
+  <si>
+    <t>CSA시험 나의결과 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA합격증서 출력</t>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합진단 내역 실천과제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이력 조회(CSA외)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2001M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 CSA내역 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2101M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA교육이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA시험이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA보수교육이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1602P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA시험 결과 상세 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2501M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA합격증서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 자격증 등록.조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>여가활동 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대인관계 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0401M0_[UHKF0501M0~UHKF0901M0]종합진단내역조회상세_Tab.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1602P0_pop_01.html, UHKF1602P0_pop_02.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>no id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 교육 수료증 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인에만 존재함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 이용동의 공통 레이아웃 포맷(내용이 달라지는 부분 확인 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격증서 이미지 필요함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1101M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD5801M0_노후를위한국민연금준비정도알아보기.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD6601M0_내연금알아보기_내연금정보조회_개인정보동의.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 선택</t>
+  </si>
+  <si>
+    <t>UHKC0102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0_서비스선택.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1001M0_교육신청내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1201M0_CSA교육수료내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1501M0_CSA시험수험표출력조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1502P0_ printpop_CSA시험수험표출력.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1601M0_CSA시험결과보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2502P0_ printpop_CSA합격증서출력.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1901M0_종합진단내역실천과제.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2001M0_나의CSA내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2001M0_[UHKF2101M0~UHKF2401M0]나의CSA내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2501M0_합격증서조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0_CSA자격증등록조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0_재무실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0_건강실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0_여가활동실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0_대인관계실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1201M0_printpop_CSA교육수료증출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKC/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2701M0_교육신청_단체_개인정보동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1302P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1302P0_UHKC2902P0_비밀번호입력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인상담 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UHKC1302P0 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육신청현황(단체) 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP2301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 자격시험 원서접수 개인정보 이용 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP2301M0_CSA자격증교육신청개인정보이용동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1901M0_CSA자격시험원서접수개인정보이용동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사소개(서울북부)</t>
+  </si>
+  <si>
+    <t>UHKC3301M0</t>
+  </si>
+  <si>
+    <t>강사소개(서울남부)</t>
+  </si>
+  <si>
+    <t>UHKC3401M0</t>
+  </si>
+  <si>
+    <t>강사소개(경인)</t>
+  </si>
+  <si>
+    <t>UHKC3501M0</t>
+  </si>
+  <si>
+    <t>강사소개(대전)</t>
+  </si>
+  <si>
+    <t>UHKC3601M0</t>
+  </si>
+  <si>
+    <t>강사소개(광주)</t>
+  </si>
+  <si>
+    <t>UHKC3701M0</t>
+  </si>
+  <si>
+    <t>강사소개(대구)</t>
+  </si>
+  <si>
+    <t>UHKC3801M0</t>
+  </si>
+  <si>
+    <t>강사소개(부산)</t>
+  </si>
+  <si>
+    <t>강사소개 상세</t>
+  </si>
+  <si>
+    <t>UHKC3201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3802P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3201M0_강사소개_서울북부.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일 레이아웃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2186,7 +2595,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2217,8 +2626,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2376,13 +2797,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2467,92 +2910,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2563,35 +3045,80 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2873,10 +3400,856 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="78.625" style="76" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="77"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="54" t="s">
+        <v>555</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="77"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="54" t="s">
+        <v>556</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="77"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="60" t="s">
+        <v>613</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>619</v>
+      </c>
+      <c r="G5" s="77"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="77"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="77"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="77"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="77"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="56" t="s">
+        <v>629</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="77"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="77"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="56" t="s">
+        <v>631</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="77"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="56" t="s">
+        <v>632</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" s="77"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="56" t="s">
+        <v>633</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>579</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>580</v>
+      </c>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85" t="s">
+        <v>634</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>620</v>
+      </c>
+      <c r="G16" s="86" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="77"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="56" t="s">
+        <v>636</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="77"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="F19" s="63" t="s">
+        <v>619</v>
+      </c>
+      <c r="G19" s="77"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="77"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="77"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D22" s="19"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="77"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="D23" s="19"/>
+      <c r="E23" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G23" s="77"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24" s="56" t="s">
+        <v>638</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="77"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="F25" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="77"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>604</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="78" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="77"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17" t="s">
+        <v>606</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="78" t="s">
+        <v>641</v>
+      </c>
+      <c r="F27" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="77"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="78" t="s">
+        <v>642</v>
+      </c>
+      <c r="F28" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G28" s="77"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="78" t="s">
+        <v>643</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="77"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="89" t="s">
+        <v>617</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>615</v>
+      </c>
+      <c r="C30" s="90" t="s">
+        <v>616</v>
+      </c>
+      <c r="D30" s="89"/>
+      <c r="E30" s="91" t="s">
+        <v>644</v>
+      </c>
+      <c r="F30" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G30" s="93" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1">
+      <c r="A31" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="95" t="s">
+        <v>627</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>626</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>645</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>628</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="88" customFormat="1">
+      <c r="A32" s="95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="97"/>
+      <c r="E32" s="55" t="s">
+        <v>646</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="94" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="88" customFormat="1">
+      <c r="A33" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>660</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="60" t="s">
+        <v>676</v>
+      </c>
+      <c r="F33" s="79" t="s">
+        <v>677</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="88" customFormat="1">
+      <c r="A34" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>662</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="61"/>
+    </row>
+    <row r="35" spans="1:7" s="88" customFormat="1">
+      <c r="A35" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>664</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="61"/>
+    </row>
+    <row r="36" spans="1:7" s="88" customFormat="1">
+      <c r="A36" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>666</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="61"/>
+    </row>
+    <row r="37" spans="1:7" s="88" customFormat="1">
+      <c r="A37" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>668</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="61"/>
+    </row>
+    <row r="38" spans="1:7" s="88" customFormat="1">
+      <c r="A38" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>670</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="61"/>
+    </row>
+    <row r="39" spans="1:7" s="88" customFormat="1">
+      <c r="A39" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>672</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="62"/>
+    </row>
+    <row r="40" spans="1:7" s="88" customFormat="1">
+      <c r="A40" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="87"/>
+    </row>
+    <row r="41" spans="1:7" s="88" customFormat="1">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="87"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="77"/>
+    </row>
+    <row r="43" spans="1:7" ht="33" customHeight="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="74"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="27"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E44" s="75" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="F5:F10"/>
+    <mergeCell ref="E5:E10"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2901,332 +4274,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>131</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>559</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>560</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>565</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="28"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" ht="33" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -3237,19 +4291,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="20"/>
     </row>
@@ -3265,10 +4319,10 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -3284,10 +4338,10 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -3303,10 +4357,10 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -3321,11 +4375,11 @@
         <v>22</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>143</v>
+      <c r="E6" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>142</v>
       </c>
       <c r="G6" s="20"/>
     </row>
@@ -3340,8 +4394,8 @@
         <v>24</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="55"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
@@ -3355,8 +4409,8 @@
         <v>26</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
@@ -3370,8 +4424,8 @@
         <v>28</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
@@ -3386,10 +4440,10 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -3405,10 +4459,10 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -3424,10 +4478,10 @@
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="20"/>
     </row>
@@ -3442,11 +4496,11 @@
         <v>36</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="55" t="s">
-        <v>143</v>
+      <c r="E13" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="20"/>
     </row>
@@ -3461,8 +4515,8 @@
         <v>38</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
@@ -3476,11 +4530,11 @@
         <v>40</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" s="55" t="s">
-        <v>143</v>
+      <c r="E15" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>142</v>
       </c>
       <c r="G15" s="20"/>
     </row>
@@ -3495,8 +4549,8 @@
         <v>42</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="55"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="1:7">
@@ -3510,8 +4564,8 @@
         <v>44</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="55"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="20"/>
     </row>
     <row r="18" spans="1:7">
@@ -3525,8 +4579,8 @@
         <v>46</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="55"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="58"/>
       <c r="G18" s="20"/>
     </row>
     <row r="19" spans="1:7">
@@ -3540,8 +4594,8 @@
         <v>48</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="55"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="58"/>
       <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
@@ -3555,8 +4609,8 @@
         <v>50</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="55"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="58"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21" spans="1:7">
@@ -3570,8 +4624,8 @@
         <v>52</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="55"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="58"/>
       <c r="G21" s="20"/>
     </row>
     <row r="22" spans="1:7">
@@ -3585,8 +4639,8 @@
         <v>54</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="55"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
@@ -3600,8 +4654,8 @@
         <v>56</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="55"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:7">
@@ -3615,8 +4669,8 @@
         <v>58</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="55"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" spans="1:7">
@@ -3630,8 +4684,8 @@
         <v>60</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="55"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" spans="1:7">
@@ -3645,8 +4699,8 @@
         <v>62</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="55"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="20"/>
     </row>
     <row r="27" spans="1:7">
@@ -3660,8 +4714,8 @@
         <v>64</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="55"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="1:7">
@@ -3675,8 +4729,8 @@
         <v>66</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="55"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="20"/>
     </row>
     <row r="29" spans="1:7">
@@ -3690,8 +4744,8 @@
         <v>68</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="55"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:7">
@@ -3705,8 +4759,8 @@
         <v>70</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="55"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:7">
@@ -3720,47 +4774,47 @@
         <v>72</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="55"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A32" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="F32" s="53" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="G32" s="20"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>143</v>
+      <c r="F33" s="34" t="s">
+        <v>142</v>
       </c>
       <c r="G33" s="20"/>
     </row>
@@ -3776,10 +4830,10 @@
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="20"/>
     </row>
@@ -3795,10 +4849,10 @@
       </c>
       <c r="D35" s="19"/>
       <c r="E35" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="20"/>
     </row>
@@ -3813,27 +4867,27 @@
         <v>83</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="F36" s="55" t="s">
-        <v>143</v>
+      <c r="E36" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>142</v>
       </c>
       <c r="G36" s="20"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="C37" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="D37" s="19"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="55"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" spans="1:7">
@@ -3841,14 +4895,14 @@
         <v>10</v>
       </c>
       <c r="B38" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="20"/>
     </row>
     <row r="39" spans="1:7">
@@ -3856,17 +4910,17 @@
         <v>10</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>84</v>
+        <v>657</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>85</v>
+        <v>656</v>
       </c>
       <c r="D39" s="19"/>
       <c r="E39" s="20" t="s">
-        <v>152</v>
+        <v>659</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="20"/>
     </row>
@@ -3875,36 +4929,36 @@
         <v>10</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>88</v>
+        <v>655</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D40" s="19"/>
-      <c r="E40" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G40" s="20"/>
+      <c r="E40" s="52" t="s">
+        <v>658</v>
+      </c>
+      <c r="F40" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G41" s="20"/>
     </row>
@@ -3913,17 +4967,17 @@
         <v>10</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G42" s="20"/>
     </row>
@@ -3932,55 +4986,55 @@
         <v>10</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="17" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="17" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="20" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G45" s="20"/>
     </row>
@@ -3989,17 +5043,17 @@
         <v>10</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>99</v>
+        <v>623</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="20" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="20"/>
     </row>
@@ -4008,36 +5062,38 @@
         <v>10</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G47" s="20"/>
+        <v>142</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48" s="20"/>
     </row>
@@ -4046,17 +5102,17 @@
         <v>10</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G49" s="20"/>
     </row>
@@ -4065,17 +5121,17 @@
         <v>10</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" s="20"/>
     </row>
@@ -4084,157 +5140,157 @@
         <v>10</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" s="20"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="17" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="55" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>142</v>
       </c>
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B53" s="17" t="s">
-        <v>114</v>
-      </c>
       <c r="C53" s="25" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D53" s="26"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="55"/>
+      <c r="E53" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="F53" s="58" t="s">
+        <v>142</v>
+      </c>
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D54" s="26"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="55"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="26"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="20"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F55" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G55" s="20"/>
-    </row>
-    <row r="56" spans="1:7" ht="33" customHeight="1">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="27"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
+      <c r="D56" s="26"/>
+      <c r="E56" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7" ht="33" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="D58" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E58" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>555</v>
-      </c>
-      <c r="G58" s="8"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>168</v>
+      <c r="B59" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="E59" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="G59" s="8"/>
     </row>
@@ -4243,17 +5299,17 @@
         <v>10</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="G60" s="8"/>
     </row>
@@ -4262,44 +5318,63 @@
         <v>10</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="G61" s="8"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>171</v>
+        <v>126</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="G63" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E53:E55"/>
     <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F53:F55"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
@@ -4318,7 +5393,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4327,35 +5402,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="43"/>
+      <c r="A2" s="41"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="43" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="43" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4378,8 +5453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G136"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4404,13 +5479,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -4421,79 +5496,79 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="60" t="s">
+      <c r="F4" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>392</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="33" t="s">
-        <v>394</v>
-      </c>
       <c r="F5" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="33" t="s">
-        <v>395</v>
+      <c r="A6" s="72"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="31" t="s">
+        <v>390</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -4502,19 +5577,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>390</v>
+        <v>176</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>385</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -4523,17 +5598,17 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="30"/>
+        <v>177</v>
+      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G8" s="24"/>
     </row>
@@ -4542,17 +5617,17 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="63" t="s">
-        <v>398</v>
-      </c>
-      <c r="F9" s="66" t="s">
-        <v>143</v>
+        <v>179</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="63" t="s">
+        <v>142</v>
       </c>
       <c r="G9" s="24"/>
     </row>
@@ -4561,14 +5636,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="68"/>
+        <v>180</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -4576,17 +5651,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="30"/>
+        <v>181</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G11" s="24"/>
     </row>
@@ -4595,17 +5670,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="F12" s="66" t="s">
-        <v>143</v>
+        <v>182</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="60" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>142</v>
       </c>
       <c r="G12" s="24"/>
     </row>
@@ -4614,14 +5689,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="67"/>
+        <v>254</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -4629,14 +5704,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="68"/>
+        <v>184</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="65"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -4644,17 +5719,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>186</v>
+      </c>
+      <c r="D15" s="28"/>
       <c r="E15" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -4663,17 +5738,17 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="63" t="s">
-        <v>402</v>
-      </c>
-      <c r="F16" s="66" t="s">
-        <v>143</v>
+        <v>188</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="60" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16" s="63" t="s">
+        <v>142</v>
       </c>
       <c r="G16" s="24"/>
     </row>
@@ -4682,14 +5757,14 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="67"/>
+        <v>189</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -4697,14 +5772,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="68"/>
+        <v>191</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -4712,17 +5787,17 @@
         <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="D19" s="30"/>
+        <v>192</v>
+      </c>
+      <c r="D19" s="28"/>
       <c r="E19" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G19" s="24"/>
     </row>
@@ -4731,17 +5806,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="63" t="s">
-        <v>404</v>
-      </c>
-      <c r="F20" s="66" t="s">
-        <v>143</v>
+        <v>193</v>
+      </c>
+      <c r="D20" s="28"/>
+      <c r="E20" s="60" t="s">
+        <v>399</v>
+      </c>
+      <c r="F20" s="63" t="s">
+        <v>142</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -4750,14 +5825,14 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="68"/>
+        <v>194</v>
+      </c>
+      <c r="D21" s="28"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -4765,17 +5840,17 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="30"/>
+        <v>195</v>
+      </c>
+      <c r="D22" s="28"/>
       <c r="E22" s="8" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G22" s="24"/>
     </row>
@@ -4784,17 +5859,17 @@
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="30"/>
+        <v>197</v>
+      </c>
+      <c r="D23" s="28"/>
       <c r="E23" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G23" s="24"/>
     </row>
@@ -4803,17 +5878,17 @@
         <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="30"/>
+        <v>198</v>
+      </c>
+      <c r="D24" s="28"/>
       <c r="E24" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" s="24"/>
     </row>
@@ -4821,21 +5896,21 @@
       <c r="A25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>202</v>
+      <c r="B25" s="23" t="s">
+        <v>648</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D25" s="30"/>
+        <v>651</v>
+      </c>
+      <c r="D25" s="23"/>
       <c r="E25" s="8" t="s">
-        <v>553</v>
+        <v>650</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>409</v>
+        <v>142</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4843,17 +5918,17 @@
         <v>10</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="30"/>
+        <v>200</v>
+      </c>
+      <c r="D26" s="28"/>
       <c r="E26" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -4862,17 +5937,17 @@
         <v>10</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="30"/>
+        <v>202</v>
+      </c>
+      <c r="D27" s="28"/>
       <c r="E27" s="8" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27" s="24"/>
     </row>
@@ -4881,17 +5956,17 @@
         <v>10</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="30"/>
+        <v>203</v>
+      </c>
+      <c r="D28" s="28"/>
       <c r="E28" s="8" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="24"/>
     </row>
@@ -4900,17 +5975,17 @@
         <v>10</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="34" t="s">
-        <v>412</v>
+        <v>205</v>
+      </c>
+      <c r="D29" s="28"/>
+      <c r="E29" s="32" t="s">
+        <v>406</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G29" s="24"/>
     </row>
@@ -4919,17 +5994,17 @@
         <v>10</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30" s="30"/>
+        <v>207</v>
+      </c>
+      <c r="D30" s="28"/>
       <c r="E30" s="8" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="24"/>
     </row>
@@ -4938,17 +6013,17 @@
         <v>10</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D31" s="30"/>
+        <v>209</v>
+      </c>
+      <c r="D31" s="28"/>
       <c r="E31" s="8" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G31" s="24"/>
     </row>
@@ -4957,17 +6032,17 @@
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D32" s="30"/>
+        <v>211</v>
+      </c>
+      <c r="D32" s="28"/>
       <c r="E32" s="8" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -4976,17 +6051,17 @@
         <v>10</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="D33" s="30"/>
+        <v>412</v>
+      </c>
+      <c r="D33" s="28"/>
       <c r="E33" s="8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G33" s="24"/>
     </row>
@@ -4995,17 +6070,17 @@
         <v>10</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="D34" s="30"/>
+        <v>413</v>
+      </c>
+      <c r="D34" s="28"/>
       <c r="E34" s="8" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G34" s="24"/>
     </row>
@@ -5014,20 +6089,20 @@
         <v>10</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D35" s="30"/>
+        <v>212</v>
+      </c>
+      <c r="D35" s="28"/>
       <c r="E35" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5035,17 +6110,17 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="30"/>
+        <v>213</v>
+      </c>
+      <c r="D36" s="28"/>
       <c r="E36" s="8" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G36" s="24"/>
     </row>
@@ -5054,17 +6129,17 @@
         <v>10</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D37" s="30"/>
+        <v>419</v>
+      </c>
+      <c r="D37" s="28"/>
       <c r="E37" s="8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" s="24"/>
     </row>
@@ -5073,17 +6148,17 @@
         <v>10</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="35" t="s">
-        <v>427</v>
+        <v>420</v>
+      </c>
+      <c r="D38" s="28"/>
+      <c r="E38" s="33" t="s">
+        <v>421</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="24"/>
     </row>
@@ -5092,20 +6167,20 @@
         <v>10</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D39" s="30"/>
+        <v>267</v>
+      </c>
+      <c r="D39" s="28"/>
       <c r="E39" s="8" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -5113,17 +6188,17 @@
         <v>10</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D40" s="30"/>
+        <v>214</v>
+      </c>
+      <c r="D40" s="28"/>
       <c r="E40" s="8" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G40" s="24"/>
     </row>
@@ -5132,95 +6207,97 @@
         <v>10</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="D41" s="30"/>
+        <v>426</v>
+      </c>
+      <c r="D41" s="28"/>
       <c r="E41" s="8" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>431</v>
+        <v>9</v>
+      </c>
+      <c r="B42" s="53" t="s">
+        <v>653</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="D42" s="30"/>
+        <v>654</v>
+      </c>
+      <c r="D42" s="53"/>
       <c r="E42" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F42" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G42" s="24"/>
+        <v>650</v>
+      </c>
+      <c r="F42" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>549</v>
+        <v>425</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="30"/>
+        <v>420</v>
+      </c>
+      <c r="D43" s="28"/>
       <c r="E43" s="8" t="s">
-        <v>552</v>
+        <v>428</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>220</v>
+        <v>541</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D44" s="31" t="s">
-        <v>391</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D44" s="28"/>
       <c r="E44" s="8" t="s">
-        <v>436</v>
+        <v>542</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>435</v>
+        <v>142</v>
       </c>
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D45" s="30"/>
+        <v>216</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>386</v>
+      </c>
       <c r="E45" s="8" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>143</v>
+        <v>429</v>
       </c>
       <c r="G45" s="24"/>
     </row>
@@ -5229,17 +6306,17 @@
         <v>9</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D46" s="30"/>
+        <v>217</v>
+      </c>
+      <c r="D46" s="28"/>
       <c r="E46" s="8" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G46" s="24"/>
     </row>
@@ -5248,36 +6325,36 @@
         <v>9</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="D47" s="30"/>
+        <v>272</v>
+      </c>
+      <c r="D47" s="28"/>
       <c r="E47" s="8" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>224</v>
+        <v>273</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="D48" s="30"/>
+        <v>218</v>
+      </c>
+      <c r="D48" s="28"/>
       <c r="E48" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G48" s="24"/>
     </row>
@@ -5286,55 +6363,55 @@
         <v>10</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="30"/>
+        <v>274</v>
+      </c>
+      <c r="D49" s="28"/>
       <c r="E49" s="8" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D50" s="30"/>
+        <v>220</v>
+      </c>
+      <c r="D50" s="28"/>
       <c r="E50" s="8" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>443</v>
+        <v>276</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D51" s="30"/>
+        <v>221</v>
+      </c>
+      <c r="D51" s="28"/>
       <c r="E51" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G51" s="24"/>
     </row>
@@ -5343,17 +6420,17 @@
         <v>10</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>228</v>
+        <v>437</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D52" s="30"/>
+        <v>222</v>
+      </c>
+      <c r="D52" s="28"/>
       <c r="E52" s="8" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G52" s="24"/>
     </row>
@@ -5362,17 +6439,17 @@
         <v>10</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="D53" s="30"/>
+        <v>439</v>
+      </c>
+      <c r="D53" s="28"/>
       <c r="E53" s="8" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G53" s="24"/>
     </row>
@@ -5381,17 +6458,17 @@
         <v>10</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>282</v>
+        <v>224</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D54" s="30"/>
+        <v>225</v>
+      </c>
+      <c r="D54" s="28"/>
       <c r="E54" s="8" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G54" s="24"/>
     </row>
@@ -5400,17 +6477,17 @@
         <v>10</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="D55" s="30"/>
+        <v>226</v>
+      </c>
+      <c r="D55" s="28"/>
       <c r="E55" s="8" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G55" s="24"/>
     </row>
@@ -5419,17 +6496,17 @@
         <v>10</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D56" s="30"/>
+        <v>228</v>
+      </c>
+      <c r="D56" s="28"/>
       <c r="E56" s="8" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G56" s="24"/>
     </row>
@@ -5438,17 +6515,17 @@
         <v>10</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="D57" s="30"/>
+        <v>230</v>
+      </c>
+      <c r="D57" s="28"/>
       <c r="E57" s="8" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G57" s="24"/>
     </row>
@@ -5457,17 +6534,17 @@
         <v>10</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="30"/>
+        <v>445</v>
+      </c>
+      <c r="D58" s="28"/>
       <c r="E58" s="8" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G58" s="24"/>
     </row>
@@ -5476,17 +6553,17 @@
         <v>10</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="D59" s="30"/>
+        <v>278</v>
+      </c>
+      <c r="D59" s="28"/>
       <c r="E59" s="8" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G59" s="24"/>
     </row>
@@ -5495,17 +6572,17 @@
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>456</v>
+        <v>279</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D60" s="30"/>
+        <v>448</v>
+      </c>
+      <c r="D60" s="28"/>
       <c r="E60" s="8" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G60" s="24"/>
     </row>
@@ -5514,17 +6591,17 @@
         <v>10</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>239</v>
+        <v>450</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D61" s="30"/>
+        <v>233</v>
+      </c>
+      <c r="D61" s="28"/>
       <c r="E61" s="8" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G61" s="24"/>
     </row>
@@ -5533,17 +6610,17 @@
         <v>10</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D62" s="30"/>
+        <v>235</v>
+      </c>
+      <c r="D62" s="28"/>
       <c r="E62" s="8" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G62" s="24"/>
     </row>
@@ -5552,17 +6629,17 @@
         <v>10</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D63" s="30"/>
+        <v>237</v>
+      </c>
+      <c r="D63" s="28"/>
       <c r="E63" s="8" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G63" s="24"/>
     </row>
@@ -5571,17 +6648,17 @@
         <v>10</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="D64" s="30"/>
+        <v>239</v>
+      </c>
+      <c r="D64" s="28"/>
       <c r="E64" s="8" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G64" s="24"/>
     </row>
@@ -5590,17 +6667,17 @@
         <v>10</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D65" s="30"/>
+        <v>281</v>
+      </c>
+      <c r="D65" s="28"/>
       <c r="E65" s="8" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G65" s="24"/>
     </row>
@@ -5609,17 +6686,17 @@
         <v>10</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="D66" s="30"/>
+        <v>241</v>
+      </c>
+      <c r="D66" s="28"/>
       <c r="E66" s="8" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G66" s="24"/>
     </row>
@@ -5628,17 +6705,17 @@
         <v>10</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D67" s="30"/>
+        <v>457</v>
+      </c>
+      <c r="D67" s="28"/>
       <c r="E67" s="8" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G67" s="24"/>
     </row>
@@ -5647,17 +6724,17 @@
         <v>10</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D68" s="30"/>
+        <v>282</v>
+      </c>
+      <c r="D68" s="28"/>
       <c r="E68" s="8" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G68" s="24"/>
     </row>
@@ -5666,36 +6743,36 @@
         <v>10</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="D69" s="30"/>
-      <c r="E69" s="34" t="s">
-        <v>470</v>
+        <v>245</v>
+      </c>
+      <c r="D69" s="28"/>
+      <c r="E69" s="8" t="s">
+        <v>460</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="8" t="s">
-        <v>467</v>
+        <v>247</v>
+      </c>
+      <c r="D70" s="28"/>
+      <c r="E70" s="32" t="s">
+        <v>464</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G70" s="24"/>
     </row>
@@ -5704,17 +6781,17 @@
         <v>9</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D71" s="30"/>
+        <v>284</v>
+      </c>
+      <c r="D71" s="28"/>
       <c r="E71" s="8" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G71" s="24"/>
     </row>
@@ -5723,74 +6800,74 @@
         <v>9</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D72" s="30"/>
+        <v>286</v>
+      </c>
+      <c r="D72" s="28"/>
       <c r="E72" s="8" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="30"/>
+        <v>288</v>
+      </c>
+      <c r="D73" s="28"/>
       <c r="E73" s="8" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D74" s="30"/>
+        <v>290</v>
+      </c>
+      <c r="D74" s="28"/>
       <c r="E74" s="8" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D75" s="30"/>
+        <v>292</v>
+      </c>
+      <c r="D75" s="28"/>
       <c r="E75" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G75" s="24"/>
     </row>
@@ -5799,17 +6876,17 @@
         <v>10</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D76" s="30"/>
+        <v>294</v>
+      </c>
+      <c r="D76" s="28"/>
       <c r="E76" s="8" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G76" s="24"/>
     </row>
@@ -5818,17 +6895,17 @@
         <v>10</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="D77" s="30"/>
+        <v>296</v>
+      </c>
+      <c r="D77" s="28"/>
       <c r="E77" s="8" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G77" s="24"/>
     </row>
@@ -5837,93 +6914,93 @@
         <v>10</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="D78" s="30"/>
+        <v>469</v>
+      </c>
+      <c r="D78" s="28"/>
       <c r="E78" s="8" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D79" s="30"/>
+        <v>299</v>
+      </c>
+      <c r="D79" s="28"/>
       <c r="E79" s="8" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="D80" s="30"/>
+        <v>301</v>
+      </c>
+      <c r="D80" s="28"/>
       <c r="E80" s="8" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>491</v>
+        <v>302</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="D81" s="30"/>
+        <v>303</v>
+      </c>
+      <c r="D81" s="28"/>
       <c r="E81" s="8" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>310</v>
+        <v>485</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="D82" s="30"/>
+        <v>304</v>
+      </c>
+      <c r="D82" s="28"/>
       <c r="E82" s="8" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G82" s="24"/>
     </row>
@@ -5932,188 +7009,188 @@
         <v>10</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="D83" s="30"/>
+        <v>306</v>
+      </c>
+      <c r="D83" s="28"/>
       <c r="E83" s="8" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="D84" s="30"/>
+        <v>308</v>
+      </c>
+      <c r="D84" s="28"/>
       <c r="E84" s="8" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D85" s="30"/>
+        <v>483</v>
+      </c>
+      <c r="D85" s="28"/>
       <c r="E85" s="8" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="30"/>
+        <v>311</v>
+      </c>
+      <c r="D86" s="28"/>
       <c r="E86" s="8" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D87" s="31"/>
+        <v>313</v>
+      </c>
+      <c r="D87" s="28"/>
       <c r="E87" s="8" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>321</v>
+        <v>10</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D88" s="30"/>
+        <v>315</v>
+      </c>
+      <c r="D88" s="29"/>
       <c r="E88" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>10</v>
+        <v>316</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D89" s="17"/>
+        <v>318</v>
+      </c>
+      <c r="D89" s="28"/>
       <c r="E89" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D90" s="9"/>
+        <v>320</v>
+      </c>
+      <c r="D90" s="17"/>
       <c r="E90" s="8" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="D91" s="6"/>
+        <v>322</v>
+      </c>
+      <c r="D91" s="9"/>
       <c r="E91" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="8" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G92" s="24"/>
     </row>
@@ -6122,74 +7199,74 @@
         <v>9</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="8" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="8" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>493</v>
+        <v>331</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>506</v>
+        <v>332</v>
       </c>
       <c r="D96" s="6"/>
-      <c r="E96" s="63" t="s">
-        <v>494</v>
-      </c>
-      <c r="F96" s="66" t="s">
-        <v>143</v>
+      <c r="E96" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="G96" s="24"/>
     </row>
@@ -6198,14 +7275,18 @@
         <v>10</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>338</v>
+        <v>487</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="67"/>
+      <c r="E97" s="60" t="s">
+        <v>488</v>
+      </c>
+      <c r="F97" s="63" t="s">
+        <v>142</v>
+      </c>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7">
@@ -6213,14 +7294,14 @@
         <v>10</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="67"/>
+      <c r="E98" s="61"/>
+      <c r="F98" s="64"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -6228,14 +7309,14 @@
         <v>10</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>495</v>
+        <v>334</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="67"/>
+      <c r="E99" s="61"/>
+      <c r="F99" s="64"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -6243,14 +7324,14 @@
         <v>10</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="64"/>
-      <c r="F100" s="67"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="64"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -6258,14 +7339,14 @@
         <v>10</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="67"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="64"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -6273,33 +7354,29 @@
         <v>10</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="68"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="64"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>340</v>
+        <v>492</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>341</v>
+        <v>495</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>143</v>
-      </c>
+      <c r="E103" s="62"/>
+      <c r="F103" s="65"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -6307,36 +7384,36 @@
         <v>9</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>508</v>
+        <v>335</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>499</v>
+        <v>336</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="8" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>342</v>
+        <v>502</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="8" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G105" s="24"/>
     </row>
@@ -6345,52 +7422,52 @@
         <v>10</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>344</v>
+        <v>504</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="8" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D107" s="6"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="23"/>
+      <c r="E107" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>142</v>
+      </c>
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D108" s="6"/>
-      <c r="E108" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>143</v>
-      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="23"/>
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7">
@@ -6398,17 +7475,17 @@
         <v>10</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="8" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G109" s="24"/>
     </row>
@@ -6417,17 +7494,17 @@
         <v>10</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="8" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G110" s="24"/>
     </row>
@@ -6436,17 +7513,17 @@
         <v>10</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="8" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G111" s="24"/>
     </row>
@@ -6455,17 +7532,17 @@
         <v>10</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>517</v>
+        <v>349</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="8" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G112" s="24"/>
     </row>
@@ -6474,17 +7551,17 @@
         <v>10</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="8" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G113" s="24"/>
     </row>
@@ -6493,17 +7570,17 @@
         <v>10</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="8" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G114" s="24"/>
     </row>
@@ -6512,17 +7589,17 @@
         <v>10</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="D115" s="6"/>
-      <c r="E115" s="63" t="s">
-        <v>521</v>
-      </c>
-      <c r="F115" s="66" t="s">
-        <v>143</v>
+      <c r="E115" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="G115" s="24"/>
     </row>
@@ -6531,14 +7608,18 @@
         <v>10</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="D116" s="6"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="67"/>
+      <c r="E116" s="60" t="s">
+        <v>515</v>
+      </c>
+      <c r="F116" s="63" t="s">
+        <v>142</v>
+      </c>
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7">
@@ -6546,14 +7627,14 @@
         <v>10</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D117" s="6"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="68"/>
+      <c r="E117" s="61"/>
+      <c r="F117" s="64"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7">
@@ -6561,18 +7642,14 @@
         <v>10</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>143</v>
-      </c>
+      <c r="E118" s="62"/>
+      <c r="F118" s="65"/>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7">
@@ -6580,17 +7657,17 @@
         <v>10</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G119" s="24"/>
     </row>
@@ -6599,17 +7676,17 @@
         <v>10</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="D120" s="6"/>
-      <c r="E120" s="69" t="s">
-        <v>524</v>
-      </c>
-      <c r="F120" s="66" t="s">
-        <v>143</v>
+      <c r="E120" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="G120" s="24"/>
     </row>
@@ -6618,14 +7695,18 @@
         <v>10</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D121" s="6"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="67"/>
+      <c r="E121" s="66" t="s">
+        <v>624</v>
+      </c>
+      <c r="F121" s="63" t="s">
+        <v>142</v>
+      </c>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -6633,14 +7714,14 @@
         <v>10</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="69"/>
-      <c r="F122" s="67"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="64"/>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7">
@@ -6648,14 +7729,14 @@
         <v>10</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="69"/>
-      <c r="F123" s="67"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="64"/>
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7">
@@ -6663,146 +7744,142 @@
         <v>10</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>541</v>
+        <v>371</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D124" s="6"/>
-      <c r="E124" s="69"/>
-      <c r="F124" s="68"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="64"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7">
-      <c r="A125" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B125" s="39" t="s">
-        <v>542</v>
-      </c>
-      <c r="C125" s="40" t="s">
+      <c r="A125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="24"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="C126" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D125" s="38"/>
-      <c r="E125" s="41" t="s">
-        <v>526</v>
-      </c>
-      <c r="F125" s="38" t="s">
-        <v>545</v>
-      </c>
-      <c r="G125" s="24"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="C126" s="40" t="s">
+      <c r="D126" s="36"/>
+      <c r="E126" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="F126" s="36" t="s">
+        <v>537</v>
+      </c>
+      <c r="G126" s="24"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="40" t="s">
+        <v>535</v>
+      </c>
+      <c r="C127" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D126" s="38"/>
-      <c r="E126" s="41" t="s">
-        <v>527</v>
-      </c>
-      <c r="F126" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="42" t="s">
+      <c r="D127" s="36"/>
+      <c r="E127" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="F127" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C127" s="40" t="s">
+      <c r="C128" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D128" s="36"/>
+      <c r="E128" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="F128" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="G128" s="24"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="D127" s="38"/>
-      <c r="E127" s="41" t="s">
-        <v>528</v>
-      </c>
-      <c r="F127" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="D128" s="6"/>
-      <c r="E128" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="G128" s="24"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="42" t="s">
+      <c r="C130" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="40" t="s">
-        <v>127</v>
-      </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="40" t="s">
+      <c r="D130" s="36"/>
+      <c r="E130" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="F130" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="G130" s="24"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>540</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D131" s="36"/>
+      <c r="E131" s="38" t="s">
         <v>530</v>
       </c>
-      <c r="F129" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="G129" s="24"/>
-    </row>
-    <row r="130" spans="1:7">
-      <c r="A130" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" s="42" t="s">
-        <v>548</v>
-      </c>
-      <c r="C130" s="40" t="s">
-        <v>544</v>
-      </c>
-      <c r="D130" s="38"/>
-      <c r="E130" s="40" t="s">
-        <v>538</v>
-      </c>
-      <c r="F130" s="38" t="s">
-        <v>547</v>
-      </c>
-      <c r="G130" s="24"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="D131" s="6"/>
-      <c r="E131" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>540</v>
+      <c r="F131" s="36" t="s">
+        <v>539</v>
       </c>
       <c r="G131" s="24"/>
     </row>
@@ -6811,17 +7888,17 @@
         <v>9</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>143</v>
+        <v>532</v>
       </c>
       <c r="G132" s="24"/>
     </row>
@@ -6830,17 +7907,17 @@
         <v>9</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>382</v>
+        <v>526</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>536</v>
+        <v>376</v>
       </c>
       <c r="D133" s="6"/>
-      <c r="E133" s="37" t="s">
-        <v>539</v>
+      <c r="E133" s="8" t="s">
+        <v>527</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G133" s="24"/>
     </row>
@@ -6849,63 +7926,69 @@
         <v>9</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D134" s="6"/>
-      <c r="E134" s="8" t="s">
-        <v>538</v>
+      <c r="E134" s="35" t="s">
+        <v>531</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B136" s="23" t="s">
-        <v>554</v>
+        <v>10</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D136" s="23"/>
+        <v>380</v>
+      </c>
+      <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>143</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="G136" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="F115:F117"/>
-    <mergeCell ref="E120:E124"/>
-    <mergeCell ref="F120:F124"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="F116:F118"/>
+    <mergeCell ref="E121:E125"/>
+    <mergeCell ref="F121:F125"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
@@ -6915,11 +7998,6 @@
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E96:E102"/>
-    <mergeCell ref="F96:F102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="690">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,9 +275,6 @@
   </si>
   <si>
     <t>UHKD8101M0</t>
-  </si>
-  <si>
-    <t>기초연금모의계산 결과</t>
   </si>
   <si>
     <t>화면유형</t>
@@ -2480,6 +2477,53 @@
   </si>
   <si>
     <t>동일 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 결과조회</t>
+  </si>
+  <si>
+    <t>기초연금모의계산 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8401M0_재무계산기_재무건전성분석_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8301M0_재무계산기_재무건전성분석.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 결과출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKD/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0_재무건전성분석결과출력.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2487,7 +2531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2594,8 +2638,16 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2638,8 +2690,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2783,21 +2841,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
@@ -2825,7 +2868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2928,197 +2971,224 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3400,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3412,14 +3482,14 @@
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="78.625" style="76" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.625" style="58" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -3428,13 +3498,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="73" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>129</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -3445,799 +3515,973 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>548</v>
-      </c>
       <c r="D2" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="E2" s="54" t="s">
-        <v>554</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="77"/>
+      <c r="F2" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>550</v>
-      </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="77"/>
+      <c r="E3" s="47" t="s">
+        <v>554</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>552</v>
-      </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="54" t="s">
-        <v>556</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="77"/>
+      <c r="E4" s="47" t="s">
+        <v>555</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="59"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>558</v>
-      </c>
       <c r="D5" s="19"/>
-      <c r="E5" s="60" t="s">
-        <v>613</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>619</v>
-      </c>
-      <c r="G5" s="77"/>
+      <c r="E5" s="78" t="s">
+        <v>612</v>
+      </c>
+      <c r="F5" s="81" t="s">
+        <v>618</v>
+      </c>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>560</v>
-      </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="77"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>562</v>
-      </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="77"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="59"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>564</v>
-      </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="77"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="59"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>566</v>
-      </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="77"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>568</v>
-      </c>
       <c r="D10" s="19"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="77"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="56" t="s">
-        <v>629</v>
-      </c>
-      <c r="F11" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G11" s="77"/>
+      <c r="E11" s="49" t="s">
+        <v>628</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>572</v>
-      </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="F12" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="77"/>
+      <c r="E12" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>574</v>
-      </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="56" t="s">
-        <v>631</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="77"/>
+      <c r="E13" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="F13" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>576</v>
-      </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="56" t="s">
-        <v>632</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="77"/>
+      <c r="E14" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="49" t="s">
+        <v>632</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="59"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="62" t="s">
         <v>578</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="56" t="s">
+      <c r="C16" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65" t="s">
         <v>633</v>
       </c>
-      <c r="F15" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="77"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>579</v>
-      </c>
-      <c r="C16" s="83" t="s">
-        <v>580</v>
-      </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85" t="s">
-        <v>634</v>
-      </c>
-      <c r="F16" s="82" t="s">
-        <v>620</v>
-      </c>
-      <c r="G16" s="86" t="s">
-        <v>622</v>
+      <c r="F16" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>583</v>
-      </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="56" t="s">
-        <v>635</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="77"/>
+      <c r="E17" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="F17" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>587</v>
-      </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="77"/>
+      <c r="E18" s="49" t="s">
+        <v>635</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>589</v>
-      </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="60" t="s">
-        <v>637</v>
-      </c>
-      <c r="F19" s="63" t="s">
-        <v>619</v>
-      </c>
-      <c r="G19" s="77"/>
+      <c r="E19" s="78" t="s">
+        <v>636</v>
+      </c>
+      <c r="F19" s="82" t="s">
+        <v>618</v>
+      </c>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>592</v>
-      </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="77"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>595</v>
-      </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="77"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="77"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>598</v>
-      </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="56" t="s">
-        <v>614</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="77"/>
+      <c r="E23" s="49" t="s">
+        <v>613</v>
+      </c>
+      <c r="F23" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>600</v>
-      </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="56" t="s">
-        <v>638</v>
-      </c>
-      <c r="F24" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G24" s="77"/>
+      <c r="E24" s="49" t="s">
+        <v>637</v>
+      </c>
+      <c r="F24" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>602</v>
-      </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="56" t="s">
-        <v>639</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="77"/>
+      <c r="E25" s="49" t="s">
+        <v>638</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>603</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>604</v>
       </c>
-      <c r="C26" s="18" t="s">
-        <v>605</v>
-      </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="78" t="s">
-        <v>640</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G26" s="77"/>
+      <c r="E26" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="F26" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
+        <v>605</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>608</v>
-      </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="78" t="s">
-        <v>641</v>
-      </c>
-      <c r="F27" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="77"/>
+      <c r="E27" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>610</v>
-      </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="78" t="s">
-        <v>642</v>
-      </c>
-      <c r="F28" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="77"/>
+      <c r="E28" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>612</v>
-      </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="78" t="s">
+      <c r="E29" s="60" t="s">
+        <v>642</v>
+      </c>
+      <c r="F29" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="59"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="100" t="s">
+        <v>616</v>
+      </c>
+      <c r="B30" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" s="100"/>
+      <c r="E30" s="102" t="s">
         <v>643</v>
       </c>
-      <c r="F29" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="77"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="89" t="s">
+      <c r="F30" s="100" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="103" t="s">
         <v>617</v>
       </c>
-      <c r="B30" s="89" t="s">
-        <v>615</v>
-      </c>
-      <c r="C30" s="90" t="s">
-        <v>616</v>
-      </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="91" t="s">
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="69"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="73"/>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1">
+      <c r="A32" s="75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="75" t="s">
+        <v>626</v>
+      </c>
+      <c r="C32" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="D32" s="77" t="s">
         <v>644</v>
       </c>
-      <c r="F30" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="93" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="95" t="s">
+      <c r="E32" s="49" t="s">
+        <v>627</v>
+      </c>
+      <c r="F32" s="46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="68" customFormat="1">
+      <c r="A33" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>266</v>
+      </c>
+      <c r="D33" s="77"/>
+      <c r="E33" s="48" t="s">
+        <v>645</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="68" customFormat="1">
+      <c r="A34" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>659</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="78" t="s">
+        <v>675</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>676</v>
+      </c>
+      <c r="G34" s="78" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="68" customFormat="1">
+      <c r="A35" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>661</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="79"/>
+    </row>
+    <row r="36" spans="1:7" s="68" customFormat="1">
+      <c r="A36" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>663</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="79"/>
+    </row>
+    <row r="37" spans="1:7" s="68" customFormat="1">
+      <c r="A37" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>665</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="79"/>
+    </row>
+    <row r="38" spans="1:7" s="68" customFormat="1">
+      <c r="A38" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>667</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="79"/>
+    </row>
+    <row r="39" spans="1:7" s="68" customFormat="1">
+      <c r="A39" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>669</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="79"/>
+    </row>
+    <row r="40" spans="1:7" s="68" customFormat="1">
+      <c r="A40" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>671</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="80"/>
+    </row>
+    <row r="41" spans="1:7" s="68" customFormat="1">
+      <c r="A41" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="95" t="s">
-        <v>627</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>626</v>
-      </c>
-      <c r="D31" s="97" t="s">
-        <v>645</v>
-      </c>
-      <c r="E31" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="F31" s="53" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="88" customFormat="1">
-      <c r="A32" s="95" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>267</v>
-      </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="55" t="s">
-        <v>646</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="94" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="88" customFormat="1">
-      <c r="A33" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>674</v>
       </c>
-      <c r="C33" s="52" t="s">
-        <v>660</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="60" t="s">
-        <v>676</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>677</v>
-      </c>
-      <c r="G33" s="60" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="88" customFormat="1">
-      <c r="A34" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C34" s="52" t="s">
-        <v>662</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="61"/>
-    </row>
-    <row r="35" spans="1:7" s="88" customFormat="1">
-      <c r="A35" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="C35" s="52" t="s">
-        <v>664</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="61"/>
-    </row>
-    <row r="36" spans="1:7" s="88" customFormat="1">
-      <c r="A36" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="C36" s="52" t="s">
-        <v>666</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="61"/>
-    </row>
-    <row r="37" spans="1:7" s="88" customFormat="1">
-      <c r="A37" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>668</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="61"/>
-    </row>
-    <row r="38" spans="1:7" s="88" customFormat="1">
-      <c r="A38" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>670</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="61"/>
-    </row>
-    <row r="39" spans="1:7" s="88" customFormat="1">
-      <c r="A39" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>671</v>
-      </c>
-      <c r="C39" s="52" t="s">
+      <c r="C41" s="45" t="s">
         <v>672</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="62"/>
-    </row>
-    <row r="40" spans="1:7" s="88" customFormat="1">
-      <c r="A40" s="53" t="s">
+      <c r="D41" s="17"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="67"/>
+    </row>
+    <row r="42" spans="1:7" s="68" customFormat="1">
+      <c r="A42" s="72"/>
+      <c r="B42" s="72"/>
+      <c r="C42" s="106"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="71"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="105"/>
+    </row>
+    <row r="43" spans="1:7" s="68" customFormat="1">
+      <c r="A43" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>673</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="87"/>
-    </row>
-    <row r="41" spans="1:7" s="88" customFormat="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="87"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="77"/>
-    </row>
-    <row r="43" spans="1:7" ht="33" customHeight="1">
-      <c r="A43" s="10"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="4" t="s">
+      <c r="B43" s="51" t="s">
+        <v>686</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>687</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>688</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>689</v>
+      </c>
+      <c r="F43" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="67"/>
+    </row>
+    <row r="44" spans="1:7" s="68" customFormat="1">
+      <c r="A44" s="53"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="67"/>
+    </row>
+    <row r="45" spans="1:7" s="68" customFormat="1">
+      <c r="A45" s="51"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="67"/>
+    </row>
+    <row r="46" spans="1:7" s="68" customFormat="1">
+      <c r="A46" s="51"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="67"/>
+    </row>
+    <row r="47" spans="1:7" s="68" customFormat="1">
+      <c r="A47" s="51"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="67"/>
+    </row>
+    <row r="48" spans="1:7" s="68" customFormat="1">
+      <c r="A48" s="51"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="67"/>
+    </row>
+    <row r="49" spans="1:7" s="68" customFormat="1">
+      <c r="A49" s="51"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="67"/>
+    </row>
+    <row r="50" spans="1:7" s="68" customFormat="1">
+      <c r="A50" s="51"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="67"/>
+    </row>
+    <row r="51" spans="1:7" s="68" customFormat="1">
+      <c r="A51" s="51"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="67"/>
+    </row>
+    <row r="52" spans="1:7" s="68" customFormat="1">
+      <c r="A52" s="51"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="67"/>
+    </row>
+    <row r="53" spans="1:7" s="68" customFormat="1">
+      <c r="A53" s="51"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="67"/>
+    </row>
+    <row r="54" spans="1:7" s="68" customFormat="1">
+      <c r="A54" s="51"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="67"/>
+    </row>
+    <row r="55" spans="1:7" s="68" customFormat="1">
+      <c r="A55" s="51"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="67"/>
+    </row>
+    <row r="56" spans="1:7" s="68" customFormat="1">
+      <c r="A56" s="51"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="67"/>
+    </row>
+    <row r="57" spans="1:7" s="68" customFormat="1">
+      <c r="A57" s="51"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="67"/>
+    </row>
+    <row r="58" spans="1:7" s="68" customFormat="1">
+      <c r="A58" s="51"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="67"/>
+    </row>
+    <row r="59" spans="1:7" s="68" customFormat="1">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="67"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="59"/>
+    </row>
+    <row r="61" spans="1:7" ht="33" customHeight="1">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="27"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="75" t="s">
-        <v>130</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="D62" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="6"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="6"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
+    <row r="63" spans="1:7">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="G34:G40"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="E5:E10"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="E34:E40"/>
+    <mergeCell ref="F34:F40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4246,10 +4490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4265,7 +4509,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -4274,13 +4518,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -4291,19 +4535,19 @@
         <v>9</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>148</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G2" s="20"/>
     </row>
@@ -4319,10 +4563,10 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="20"/>
     </row>
@@ -4338,10 +4582,10 @@
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="20"/>
     </row>
@@ -4357,10 +4601,10 @@
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="20"/>
     </row>
@@ -4375,11 +4619,11 @@
         <v>22</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>142</v>
+      <c r="E6" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>141</v>
       </c>
       <c r="G6" s="20"/>
     </row>
@@ -4394,8 +4638,8 @@
         <v>24</v>
       </c>
       <c r="D7" s="19"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="81"/>
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7">
@@ -4409,8 +4653,8 @@
         <v>26</v>
       </c>
       <c r="D8" s="19"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="81"/>
       <c r="G8" s="20"/>
     </row>
     <row r="9" spans="1:7">
@@ -4424,8 +4668,8 @@
         <v>28</v>
       </c>
       <c r="D9" s="19"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="81"/>
       <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7">
@@ -4440,10 +4684,10 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -4459,10 +4703,10 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -4478,10 +4722,10 @@
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="20"/>
     </row>
@@ -4496,11 +4740,11 @@
         <v>36</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>142</v>
+      <c r="E13" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>141</v>
       </c>
       <c r="G13" s="20"/>
     </row>
@@ -4515,8 +4759,8 @@
         <v>38</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="81"/>
       <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7">
@@ -4530,13 +4774,13 @@
         <v>40</v>
       </c>
       <c r="D15" s="19"/>
-      <c r="E15" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="20"/>
+      <c r="E15" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -4549,9 +4793,9 @@
         <v>42</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -4564,9 +4808,9 @@
         <v>44</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="20"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -4579,9 +4823,9 @@
         <v>46</v>
       </c>
       <c r="D18" s="19"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="20"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -4594,9 +4838,9 @@
         <v>48</v>
       </c>
       <c r="D19" s="19"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="20"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -4609,9 +4853,9 @@
         <v>50</v>
       </c>
       <c r="D20" s="19"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="20"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -4624,9 +4868,9 @@
         <v>52</v>
       </c>
       <c r="D21" s="19"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -4639,9 +4883,9 @@
         <v>54</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="20"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="59"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -4654,9 +4898,9 @@
         <v>56</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="20"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -4669,9 +4913,9 @@
         <v>58</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="20"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -4684,9 +4928,9 @@
         <v>60</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="20"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -4699,9 +4943,9 @@
         <v>62</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="20"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -4714,9 +4958,9 @@
         <v>64</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="59"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -4729,9 +4973,9 @@
         <v>66</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="59"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -4744,9 +4988,9 @@
         <v>68</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -4759,9 +5003,9 @@
         <v>70</v>
       </c>
       <c r="D30" s="19"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="20"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -4774,210 +5018,200 @@
         <v>72</v>
       </c>
       <c r="D31" s="19"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="20"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.25" thickBot="1">
-      <c r="A32" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="47" t="s">
+      <c r="E31" s="89"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="59"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="49"/>
+      <c r="C32" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="D32" s="19"/>
       <c r="E32" s="50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F32" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="G32" s="59"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" s="20"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="99"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="59"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="20"/>
+      <c r="F34" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="17" t="s">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D35" s="19"/>
-      <c r="E35" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G35" s="20"/>
+      <c r="E35" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D36" s="19"/>
-      <c r="E36" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="F36" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="20"/>
+      <c r="E36" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="59"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="17" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="D37" s="19"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="20"/>
+      <c r="E37" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F37" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="59"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="17" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D38" s="19"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="20"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>657</v>
+        <v>84</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>656</v>
+        <v>85</v>
       </c>
       <c r="D39" s="19"/>
-      <c r="E39" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G39" s="20"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>655</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>84</v>
-      </c>
       <c r="D40" s="19"/>
-      <c r="E40" s="52" t="s">
+      <c r="E40" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="F40" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="52"/>
+      <c r="F40" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>87</v>
+        <v>654</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D41" s="19"/>
-      <c r="E41" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G41" s="20"/>
+      <c r="E41" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="F41" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G42" s="20"/>
     </row>
@@ -4986,17 +5220,17 @@
         <v>10</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G43" s="20"/>
     </row>
@@ -5005,55 +5239,55 @@
         <v>10</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D44" s="19"/>
       <c r="E44" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="20"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="17" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D45" s="19"/>
       <c r="E45" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G45" s="20"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="17" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>623</v>
+        <v>95</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="20" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G46" s="20"/>
     </row>
@@ -5062,57 +5296,57 @@
         <v>10</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>98</v>
+        <v>622</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>621</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="20"/>
+        <v>141</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="20"/>
     </row>
@@ -5121,17 +5355,17 @@
         <v>10</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D50" s="19"/>
       <c r="E50" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F50" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" s="20"/>
     </row>
@@ -5140,17 +5374,17 @@
         <v>10</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D51" s="19"/>
       <c r="E51" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G51" s="20"/>
     </row>
@@ -5159,157 +5393,157 @@
         <v>10</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D52" s="19"/>
       <c r="E52" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="20"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="17" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F53" s="58" t="s">
-        <v>142</v>
+        <v>107</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="19"/>
+      <c r="E53" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="G53" s="20"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="C54" s="25" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D54" s="26"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="58"/>
+      <c r="E54" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="81" t="s">
+        <v>141</v>
+      </c>
       <c r="G54" s="20"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D55" s="26"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="58"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="81"/>
       <c r="G55" s="20"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="20"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="25" t="s">
-        <v>118</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7" ht="33" customHeight="1">
-      <c r="A57" s="10"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="4" t="s">
+      <c r="D57" s="26"/>
+      <c r="E57" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="20"/>
+    </row>
+    <row r="58" spans="1:7" ht="33" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>545</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="D59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>165</v>
+      <c r="B60" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="E60" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G60" s="8"/>
     </row>
@@ -5318,14 +5552,14 @@
         <v>10</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>543</v>
@@ -5337,45 +5571,64 @@
         <v>10</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="8" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="8" t="s">
         <v>169</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="G64" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="E54:E56"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F54:F56"/>
+    <mergeCell ref="F37:F39"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E31"/>
@@ -5402,35 +5655,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="41"/>
+      <c r="A2" s="40"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="33" customHeight="1">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5451,10 +5704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G136"/>
+  <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5470,7 +5723,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -5479,13 +5732,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>2</v>
@@ -5496,79 +5749,79 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="F2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D3" s="93" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="67" t="s">
-        <v>384</v>
-      </c>
       <c r="E3" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="91"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="31" t="s">
+      <c r="F4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="91"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="31" t="s">
+      <c r="F5" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="31" t="s">
         <v>389</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="72"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="31" t="s">
-        <v>390</v>
-      </c>
       <c r="F6" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G6" s="24"/>
     </row>
@@ -5577,19 +5830,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G7" s="24"/>
     </row>
@@ -5598,17 +5851,17 @@
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="8" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G8" s="24"/>
     </row>
@@ -5617,17 +5870,17 @@
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>142</v>
+      <c r="E9" s="78" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G9" s="24"/>
     </row>
@@ -5636,14 +5889,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="65"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="84"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -5651,17 +5904,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G11" s="24"/>
     </row>
@@ -5670,17 +5923,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>142</v>
+      <c r="E12" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G12" s="24"/>
     </row>
@@ -5689,14 +5942,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -5704,14 +5957,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="65"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -5719,17 +5972,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G15" s="24"/>
     </row>
@@ -5738,17 +5991,17 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>142</v>
+      <c r="E16" s="78" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G16" s="24"/>
     </row>
@@ -5757,14 +6010,14 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -5772,14 +6025,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="65"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="84"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -5787,17 +6040,17 @@
         <v>10</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G19" s="24"/>
     </row>
@@ -5806,17 +6059,17 @@
         <v>10</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="60" t="s">
-        <v>399</v>
-      </c>
-      <c r="F20" s="63" t="s">
-        <v>142</v>
+      <c r="E20" s="78" t="s">
+        <v>398</v>
+      </c>
+      <c r="F20" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G20" s="24"/>
     </row>
@@ -5825,14 +6078,14 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="65"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="84"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -5840,17 +6093,17 @@
         <v>10</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F22" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="24"/>
     </row>
@@ -5859,17 +6112,17 @@
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G23" s="24"/>
     </row>
@@ -5878,17 +6131,17 @@
         <v>10</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G24" s="24"/>
     </row>
@@ -5897,20 +6150,20 @@
         <v>9</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5918,17 +6171,17 @@
         <v>10</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>199</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>200</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G26" s="24"/>
     </row>
@@ -5937,17 +6190,17 @@
         <v>10</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>202</v>
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G27" s="24"/>
     </row>
@@ -5956,17 +6209,17 @@
         <v>10</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G28" s="24"/>
     </row>
@@ -5975,17 +6228,17 @@
         <v>10</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G29" s="24"/>
     </row>
@@ -5994,17 +6247,17 @@
         <v>10</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G30" s="24"/>
     </row>
@@ -6013,17 +6266,17 @@
         <v>10</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G31" s="24"/>
     </row>
@@ -6032,17 +6285,17 @@
         <v>10</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G32" s="24"/>
     </row>
@@ -6051,17 +6304,17 @@
         <v>10</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>411</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>412</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G33" s="24"/>
     </row>
@@ -6070,17 +6323,17 @@
         <v>10</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="8" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="24"/>
     </row>
@@ -6089,20 +6342,20 @@
         <v>10</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6110,17 +6363,17 @@
         <v>10</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F36" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G36" s="24"/>
     </row>
@@ -6129,17 +6382,17 @@
         <v>10</v>
       </c>
       <c r="B37" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>419</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F37" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="24"/>
     </row>
@@ -6148,17 +6401,17 @@
         <v>10</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F38" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="24"/>
     </row>
@@ -6167,20 +6420,20 @@
         <v>10</v>
       </c>
       <c r="B39" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F39" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6188,17 +6441,17 @@
         <v>10</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G40" s="24"/>
     </row>
@@ -6207,17 +6460,17 @@
         <v>10</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G41" s="24"/>
     </row>
@@ -6225,21 +6478,21 @@
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>653</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="D42" s="53"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>142</v>
+        <v>649</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6247,17 +6500,17 @@
         <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G43" s="24"/>
     </row>
@@ -6266,17 +6519,17 @@
         <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F44" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G44" s="24"/>
     </row>
@@ -6285,19 +6538,19 @@
         <v>10</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>216</v>
-      </c>
       <c r="D45" s="29" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F45" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G45" s="24"/>
     </row>
@@ -6306,17 +6559,17 @@
         <v>9</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F46" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G46" s="24"/>
     </row>
@@ -6325,17 +6578,17 @@
         <v>9</v>
       </c>
       <c r="B47" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>271</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>272</v>
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47" s="24"/>
     </row>
@@ -6344,17 +6597,17 @@
         <v>9</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F48" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G48" s="24"/>
     </row>
@@ -6363,17 +6616,17 @@
         <v>10</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F49" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G49" s="24"/>
     </row>
@@ -6382,17 +6635,17 @@
         <v>10</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" s="24"/>
     </row>
@@ -6401,17 +6654,17 @@
         <v>9</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G51" s="24"/>
     </row>
@@ -6420,17 +6673,17 @@
         <v>10</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F52" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="24"/>
     </row>
@@ -6439,17 +6692,17 @@
         <v>10</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="8" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F53" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="24"/>
     </row>
@@ -6458,17 +6711,17 @@
         <v>10</v>
       </c>
       <c r="B54" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="8" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G54" s="24"/>
     </row>
@@ -6477,17 +6730,17 @@
         <v>10</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G55" s="24"/>
     </row>
@@ -6496,17 +6749,17 @@
         <v>10</v>
       </c>
       <c r="B56" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>227</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>228</v>
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G56" s="24"/>
     </row>
@@ -6515,17 +6768,17 @@
         <v>10</v>
       </c>
       <c r="B57" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>229</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>230</v>
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F57" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" s="24"/>
     </row>
@@ -6534,17 +6787,17 @@
         <v>10</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="8" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F58" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G58" s="24"/>
     </row>
@@ -6553,17 +6806,17 @@
         <v>10</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F59" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G59" s="24"/>
     </row>
@@ -6572,17 +6825,17 @@
         <v>10</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G60" s="24"/>
     </row>
@@ -6591,17 +6844,17 @@
         <v>10</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G61" s="24"/>
     </row>
@@ -6610,17 +6863,17 @@
         <v>10</v>
       </c>
       <c r="B62" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="8" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F62" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" s="24"/>
     </row>
@@ -6629,17 +6882,17 @@
         <v>10</v>
       </c>
       <c r="B63" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F63" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G63" s="24"/>
     </row>
@@ -6648,17 +6901,17 @@
         <v>10</v>
       </c>
       <c r="B64" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G64" s="24"/>
     </row>
@@ -6667,17 +6920,17 @@
         <v>10</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G65" s="24"/>
     </row>
@@ -6686,17 +6939,17 @@
         <v>10</v>
       </c>
       <c r="B66" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G66" s="24"/>
     </row>
@@ -6705,17 +6958,17 @@
         <v>10</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F67" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G67" s="24"/>
     </row>
@@ -6724,17 +6977,17 @@
         <v>10</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F68" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68" s="24"/>
     </row>
@@ -6743,17 +6996,17 @@
         <v>10</v>
       </c>
       <c r="B69" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="8" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G69" s="24"/>
     </row>
@@ -6762,17 +7015,17 @@
         <v>10</v>
       </c>
       <c r="B70" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G70" s="24"/>
     </row>
@@ -6781,17 +7034,17 @@
         <v>9</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>283</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>284</v>
       </c>
       <c r="D71" s="28"/>
       <c r="E71" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G71" s="24"/>
     </row>
@@ -6800,17 +7053,17 @@
         <v>9</v>
       </c>
       <c r="B72" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="D72" s="28"/>
       <c r="E72" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G72" s="24"/>
     </row>
@@ -6819,17 +7072,17 @@
         <v>9</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G73" s="24"/>
     </row>
@@ -6838,17 +7091,17 @@
         <v>10</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>289</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>290</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G74" s="24"/>
     </row>
@@ -6857,17 +7110,17 @@
         <v>9</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>291</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>292</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="8" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F75" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G75" s="24"/>
     </row>
@@ -6876,17 +7129,17 @@
         <v>10</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>293</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>294</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F76" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G76" s="24"/>
     </row>
@@ -6895,17 +7148,17 @@
         <v>10</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="8" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F77" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G77" s="24"/>
     </row>
@@ -6914,17 +7167,17 @@
         <v>10</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="8" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G78" s="24"/>
     </row>
@@ -6933,17 +7186,17 @@
         <v>10</v>
       </c>
       <c r="B79" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C79" s="8" t="s">
         <v>298</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>299</v>
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G79" s="24"/>
     </row>
@@ -6952,17 +7205,17 @@
         <v>9</v>
       </c>
       <c r="B80" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="D80" s="28"/>
       <c r="E80" s="8" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F80" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G80" s="24"/>
     </row>
@@ -6971,17 +7224,17 @@
         <v>10</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="D81" s="28"/>
       <c r="E81" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F81" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G81" s="24"/>
     </row>
@@ -6990,17 +7243,17 @@
         <v>9</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F82" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G82" s="24"/>
     </row>
@@ -7009,17 +7262,17 @@
         <v>10</v>
       </c>
       <c r="B83" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>305</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>306</v>
       </c>
       <c r="D83" s="28"/>
       <c r="E83" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F83" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G83" s="24"/>
     </row>
@@ -7028,17 +7281,17 @@
         <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>307</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>308</v>
       </c>
       <c r="D84" s="28"/>
       <c r="E84" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F84" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G84" s="24"/>
     </row>
@@ -7047,17 +7300,17 @@
         <v>9</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G85" s="24"/>
     </row>
@@ -7066,17 +7319,17 @@
         <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C86" s="8" t="s">
         <v>310</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>311</v>
       </c>
       <c r="D86" s="28"/>
       <c r="E86" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F86" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G86" s="24"/>
     </row>
@@ -7085,17 +7338,17 @@
         <v>9</v>
       </c>
       <c r="B87" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>313</v>
       </c>
       <c r="D87" s="28"/>
       <c r="E87" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F87" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G87" s="24"/>
     </row>
@@ -7104,36 +7357,36 @@
         <v>10</v>
       </c>
       <c r="B88" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="C88" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F88" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="C89" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F89" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G89" s="24"/>
     </row>
@@ -7142,17 +7395,17 @@
         <v>10</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="C90" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G90" s="24"/>
     </row>
@@ -7161,17 +7414,17 @@
         <v>9</v>
       </c>
       <c r="B91" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C91" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F91" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G91" s="24"/>
     </row>
@@ -7180,17 +7433,17 @@
         <v>10</v>
       </c>
       <c r="B92" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C92" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="D92" s="6"/>
       <c r="E92" s="8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G92" s="24"/>
     </row>
@@ -7199,17 +7452,17 @@
         <v>9</v>
       </c>
       <c r="B93" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C93" s="8" t="s">
         <v>325</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>326</v>
       </c>
       <c r="D93" s="6"/>
       <c r="E93" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G93" s="24"/>
     </row>
@@ -7218,17 +7471,17 @@
         <v>9</v>
       </c>
       <c r="B94" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="8" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G94" s="24"/>
     </row>
@@ -7237,17 +7490,17 @@
         <v>10</v>
       </c>
       <c r="B95" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C95" s="8" t="s">
         <v>329</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="8" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G95" s="24"/>
     </row>
@@ -7256,17 +7509,17 @@
         <v>9</v>
       </c>
       <c r="B96" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C96" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G96" s="24"/>
     </row>
@@ -7275,17 +7528,17 @@
         <v>10</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D97" s="6"/>
+      <c r="E97" s="78" t="s">
         <v>487</v>
       </c>
-      <c r="C97" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="D97" s="6"/>
-      <c r="E97" s="60" t="s">
-        <v>488</v>
-      </c>
-      <c r="F97" s="63" t="s">
-        <v>142</v>
+      <c r="F97" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G97" s="24"/>
     </row>
@@ -7294,14 +7547,14 @@
         <v>10</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="64"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="83"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -7309,14 +7562,14 @@
         <v>10</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="64"/>
+      <c r="E99" s="79"/>
+      <c r="F99" s="83"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -7324,14 +7577,14 @@
         <v>10</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="61"/>
-      <c r="F100" s="64"/>
+      <c r="E100" s="79"/>
+      <c r="F100" s="83"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -7339,14 +7592,14 @@
         <v>10</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="61"/>
-      <c r="F101" s="64"/>
+      <c r="E101" s="79"/>
+      <c r="F101" s="83"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -7354,14 +7607,14 @@
         <v>10</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="61"/>
-      <c r="F102" s="64"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="83"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -7369,14 +7622,14 @@
         <v>10</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="65"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="84"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -7384,17 +7637,17 @@
         <v>9</v>
       </c>
       <c r="B104" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C104" s="8" t="s">
         <v>335</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>336</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G104" s="24"/>
     </row>
@@ -7403,17 +7656,17 @@
         <v>9</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G105" s="24"/>
     </row>
@@ -7422,17 +7675,17 @@
         <v>10</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G106" s="24"/>
     </row>
@@ -7441,17 +7694,17 @@
         <v>10</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>338</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>339</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G107" s="24"/>
     </row>
@@ -7460,10 +7713,10 @@
         <v>9</v>
       </c>
       <c r="B108" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C108" s="8" t="s">
         <v>340</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>341</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="8"/>
@@ -7475,17 +7728,17 @@
         <v>10</v>
       </c>
       <c r="B109" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C109" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G109" s="24"/>
     </row>
@@ -7494,17 +7747,17 @@
         <v>10</v>
       </c>
       <c r="B110" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G110" s="24"/>
     </row>
@@ -7513,17 +7766,17 @@
         <v>10</v>
       </c>
       <c r="B111" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="8" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G111" s="24"/>
     </row>
@@ -7532,17 +7785,17 @@
         <v>10</v>
       </c>
       <c r="B112" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G112" s="24"/>
     </row>
@@ -7551,17 +7804,17 @@
         <v>10</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G113" s="24"/>
     </row>
@@ -7570,17 +7823,17 @@
         <v>10</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="8" t="s">
         <v>351</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>352</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G114" s="24"/>
     </row>
@@ -7589,17 +7842,17 @@
         <v>10</v>
       </c>
       <c r="B115" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" s="8" t="s">
         <v>353</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>354</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G115" s="24"/>
     </row>
@@ -7608,17 +7861,17 @@
         <v>10</v>
       </c>
       <c r="B116" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C116" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>356</v>
-      </c>
       <c r="D116" s="6"/>
-      <c r="E116" s="60" t="s">
-        <v>515</v>
-      </c>
-      <c r="F116" s="63" t="s">
-        <v>142</v>
+      <c r="E116" s="78" t="s">
+        <v>514</v>
+      </c>
+      <c r="F116" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G116" s="24"/>
     </row>
@@ -7627,14 +7880,14 @@
         <v>10</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C117" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>358</v>
-      </c>
       <c r="D117" s="6"/>
-      <c r="E117" s="61"/>
-      <c r="F117" s="64"/>
+      <c r="E117" s="79"/>
+      <c r="F117" s="83"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7">
@@ -7642,14 +7895,14 @@
         <v>10</v>
       </c>
       <c r="B118" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C118" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>360</v>
-      </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="65"/>
+      <c r="E118" s="80"/>
+      <c r="F118" s="84"/>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7">
@@ -7657,17 +7910,17 @@
         <v>10</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="C119" s="8" t="s">
         <v>361</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>362</v>
       </c>
       <c r="D119" s="6"/>
       <c r="E119" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G119" s="24"/>
     </row>
@@ -7676,17 +7929,17 @@
         <v>10</v>
       </c>
       <c r="B120" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>364</v>
       </c>
       <c r="D120" s="6"/>
       <c r="E120" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G120" s="24"/>
     </row>
@@ -7695,17 +7948,17 @@
         <v>10</v>
       </c>
       <c r="B121" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C121" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>366</v>
-      </c>
       <c r="D121" s="6"/>
-      <c r="E121" s="66" t="s">
-        <v>624</v>
-      </c>
-      <c r="F121" s="63" t="s">
-        <v>142</v>
+      <c r="E121" s="96" t="s">
+        <v>623</v>
+      </c>
+      <c r="F121" s="82" t="s">
+        <v>141</v>
       </c>
       <c r="G121" s="24"/>
     </row>
@@ -7714,14 +7967,14 @@
         <v>10</v>
       </c>
       <c r="B122" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="C122" s="8" t="s">
-        <v>368</v>
-      </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="64"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="83"/>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7">
@@ -7729,14 +7982,14 @@
         <v>10</v>
       </c>
       <c r="B123" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C123" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C123" s="8" t="s">
-        <v>370</v>
-      </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="64"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="83"/>
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7">
@@ -7744,14 +7997,14 @@
         <v>10</v>
       </c>
       <c r="B124" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C124" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C124" s="8" t="s">
-        <v>372</v>
-      </c>
       <c r="D124" s="6"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="64"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="83"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7">
@@ -7759,70 +8012,70 @@
         <v>10</v>
       </c>
       <c r="B125" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="96"/>
+      <c r="F125" s="84"/>
+      <c r="G125" s="24"/>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="36" t="s">
         <v>533</v>
       </c>
-      <c r="C125" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="65"/>
-      <c r="G125" s="24"/>
-    </row>
-    <row r="126" spans="1:7">
-      <c r="A126" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="37" t="s">
+      <c r="C126" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D126" s="35"/>
+      <c r="E126" s="38" t="s">
+        <v>518</v>
+      </c>
+      <c r="F126" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="G126" s="24"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="C126" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="36"/>
-      <c r="E126" s="39" t="s">
+      <c r="C127" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="F126" s="36" t="s">
+      <c r="F127" s="35" t="s">
         <v>537</v>
       </c>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="40" t="s">
-        <v>535</v>
-      </c>
-      <c r="C127" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="36"/>
-      <c r="E127" s="39" t="s">
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D128" s="35"/>
+      <c r="E128" s="38" t="s">
         <v>520</v>
       </c>
-      <c r="F127" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D128" s="36"/>
-      <c r="E128" s="39" t="s">
-        <v>521</v>
-      </c>
-      <c r="F128" s="36" t="s">
-        <v>538</v>
+      <c r="F128" s="35" t="s">
+        <v>537</v>
       </c>
       <c r="G128" s="24"/>
     </row>
@@ -7831,55 +8084,55 @@
         <v>10</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7">
-      <c r="A130" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B130" s="40" t="s">
+      <c r="A130" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C130" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C130" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="38" t="s">
-        <v>522</v>
-      </c>
-      <c r="F130" s="36" t="s">
+      <c r="D130" s="35"/>
+      <c r="E130" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="F130" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="G130" s="24"/>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="G130" s="24"/>
-    </row>
-    <row r="131" spans="1:7">
-      <c r="A131" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>540</v>
-      </c>
-      <c r="C131" s="38" t="s">
-        <v>536</v>
-      </c>
-      <c r="D131" s="36"/>
-      <c r="E131" s="38" t="s">
-        <v>530</v>
-      </c>
-      <c r="F131" s="36" t="s">
-        <v>539</v>
+      <c r="C131" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D131" s="35"/>
+      <c r="E131" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="F131" s="35" t="s">
+        <v>538</v>
       </c>
       <c r="G131" s="24"/>
     </row>
@@ -7888,17 +8141,17 @@
         <v>9</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G132" s="24"/>
     </row>
@@ -7907,17 +8160,17 @@
         <v>9</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D133" s="6"/>
       <c r="E133" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F133" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G133" s="24"/>
     </row>
@@ -7926,17 +8179,17 @@
         <v>9</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D134" s="6"/>
-      <c r="E134" s="35" t="s">
-        <v>531</v>
+      <c r="E134" s="34" t="s">
+        <v>530</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G134" s="24"/>
     </row>
@@ -7945,17 +8198,17 @@
         <v>9</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G135" s="24"/>
     </row>
@@ -7964,27 +8217,58 @@
         <v>10</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C136" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>380</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G136" s="24"/>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="D137" s="19"/>
+      <c r="E137" s="50" t="s">
+        <v>685</v>
+      </c>
+      <c r="F137" s="51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>681</v>
+      </c>
+      <c r="D138" s="19"/>
+      <c r="E138" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="F138" s="51" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
     <mergeCell ref="E116:E118"/>
     <mergeCell ref="F116:F118"/>
     <mergeCell ref="E121:E125"/>
@@ -7998,6 +8282,11 @@
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="0126" sheetId="6" r:id="rId1"/>
+    <sheet name="0125" sheetId="6" r:id="rId1"/>
     <sheet name="0119" sheetId="2" r:id="rId2"/>
     <sheet name="0109" sheetId="1" r:id="rId3"/>
     <sheet name="202312" sheetId="4" r:id="rId4"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="713">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -991,10 +991,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD1701M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>개인연금 예상연금액 확인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1056,22 +1052,12 @@
     <t>UHKD2701M0</t>
   </si>
   <si>
-    <t>가계재무진단_현금흐름분석</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKD2702P0</t>
   </si>
   <si>
     <t>현금흐름표 상세</t>
   </si>
   <si>
-    <t>UHKD2801M0</t>
-  </si>
-  <si>
-    <t>가계재무진단_재무상태분석</t>
-  </si>
-  <si>
     <t>재무상태분석 상세</t>
   </si>
   <si>
@@ -1190,10 +1176,6 @@
   </si>
   <si>
     <t>결혼준비자금 진단결과</t>
-  </si>
-  <si>
-    <t>UHKD4502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>결혼준비자금 진단결과_보고서 출력</t>
@@ -1687,843 +1669,947 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UHKD2702P0_pop_현금흐름분석상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3502P0_pop_기타이벤트상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3403P0_pop_노후자금상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3402P0_pop_노후자금자금분석.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3202P0_pop_결혼자금상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3302P0_pop_주택자금상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3102P0_pop_교육자금상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생애자금분석 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3002P0_pop_생애자금분석상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2802P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2802P0_pop_재무상태분석상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3601M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3901M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4001M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4101M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4201M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래가치 산정 기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계 &gt; 저축잉여자금 배분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3단계 &gt; 미분류자산 배분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 &gt; 상세연금조회 &gt; 조건설정 및 소득입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 &gt; 상세연금조회 &gt; 입력내용 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 &gt; 상세연금조회 &gt; 결과 및 비교조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2단계 &gt; 노령연금조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1단계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3802P0_pop_노령연금예상연금월액표.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4002P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4002P0_pop_용어의설명및산정방법.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼자금정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4401M0_목적자금설계_결혼자금마련.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4501M0_목적자금설계_결혼자금마련_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4601M0_목적자금설계_교육자금마련.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4701M0_목적자금설계_교육자금마련_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4901M0_목적자금설계_주택자금마련_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업자금정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD5001M0_목적자금설계_창업자금마련.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD5101M0_목적자금설계_창업자금마련_결과.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5201M0_재무계산기_화폐시간가치.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5301M0_재무계산기_예적금계산.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5601M0_재무계산기_대출할부금.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5701M0_재무계산기_퇴직금계산.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내연금정보조회 개인정보동의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6301M0_내연금알아보기_index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6401M0_내연금알아보기_내연금정보조회신청.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6501M0_내연금알아보기_내연금정보조회신청_개인정보동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6701M0_내연금알아보기_내연금정보조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD7001M0_내연금알아보기_내연금정보조회철회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6703P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6703P0_pop_개인연금상세내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6704P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD6704P0_pop_퇴직연금상세내역조회.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택연금 상세내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합내역조회(그래프형식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6702P0_winpop_통합내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6705P0_pop_주택연금상세내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6201M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합내역조회(표형식)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD6702P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOID_pop_비밀번호입력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0101M0</t>
+  </si>
+  <si>
+    <t>내 연금정보</t>
+  </si>
+  <si>
+    <t>UHKF0201M0</t>
+  </si>
+  <si>
+    <t>종합재무설계내역 조회</t>
+  </si>
+  <si>
+    <t>UHKF0301M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 조회</t>
+  </si>
+  <si>
+    <t>/html/UHKF/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0101M0_내연금정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0201M0_종합재무설계내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0301M0_종합진단내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0401M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(기본사항)</t>
+  </si>
+  <si>
+    <t>UHKF0501M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(재무)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0601M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(건강)</t>
+  </si>
+  <si>
+    <t>UHKF0701M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(여가활동)</t>
+  </si>
+  <si>
+    <t>UHKF0801M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(대인관계)</t>
+  </si>
+  <si>
+    <t>UHKF0901M0</t>
+  </si>
+  <si>
+    <t>종합진단 내역 상세보기(종합진단결과)</t>
+  </si>
+  <si>
+    <t>UHKF1001M0</t>
+  </si>
+  <si>
+    <t>교육신청 내역 조회</t>
+  </si>
+  <si>
+    <t>UHKF1201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA교육 수료내역 조회</t>
+  </si>
+  <si>
+    <t>UHKF1501M0</t>
+  </si>
+  <si>
+    <t>CSA시험 수험표 출력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA시험 수험표 출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1601M0</t>
+  </si>
+  <si>
+    <t>CSA시험 나의결과 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA합격증서 출력</t>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육이력 조회(CSA외)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2001M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 CSA내역 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2101M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA교육이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA시험이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA보수교육이력 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1602P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA시험 결과 상세 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2501M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA합격증서 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 자격증 등록.조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>여가활동 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대인관계 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0401M0_[UHKF0501M0~UHKF0901M0]종합진단내역조회상세_Tab.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pop-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 이용동의 공통 레이아웃 포맷(내용이 달라지는 부분 확인 필요)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합격증서 이미지 필요함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1101M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD5801M0_노후를위한국민연금준비정도알아보기.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">UHKD6601M0_내연금알아보기_내연금정보조회_개인정보동의.html </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1001M0_교육신청내역조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2001M0_나의CSA내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2001M0_[UHKF2101M0~UHKF2401M0]나의CSA내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKC/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1302P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1302P0_UHKC2902P0_비밀번호입력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인상담 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UHKC1302P0 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육신청현황(단체) 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP2301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 자격시험 원서접수 개인정보 이용 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP2301M0_CSA자격증교육신청개인정보이용동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1901M0_CSA자격시험원서접수개인정보이용동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사소개(서울북부)</t>
+  </si>
+  <si>
+    <t>UHKC3301M0</t>
+  </si>
+  <si>
+    <t>강사소개(서울남부)</t>
+  </si>
+  <si>
+    <t>UHKC3401M0</t>
+  </si>
+  <si>
+    <t>강사소개(경인)</t>
+  </si>
+  <si>
+    <t>UHKC3501M0</t>
+  </si>
+  <si>
+    <t>강사소개(대전)</t>
+  </si>
+  <si>
+    <t>UHKC3601M0</t>
+  </si>
+  <si>
+    <t>강사소개(광주)</t>
+  </si>
+  <si>
+    <t>UHKC3701M0</t>
+  </si>
+  <si>
+    <t>강사소개(대구)</t>
+  </si>
+  <si>
+    <t>UHKC3801M0</t>
+  </si>
+  <si>
+    <t>강사소개(부산)</t>
+  </si>
+  <si>
+    <t>강사소개 상세</t>
+  </si>
+  <si>
+    <t>UHKC3201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3802P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 결과조회</t>
+  </si>
+  <si>
+    <t>기초연금모의계산 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKD/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8301M0_재무계산기_재무건전성분석.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8401M0_재무계산기_재무건전성분석_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 결과출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0_재무건전성분석결과출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1501M0_CSA시험수험표출력조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1502P0_ printpop_CSA시험수험표출력.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1601M0_CSA시험결과보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2502P0_ printpop_CSA합격증서출력.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2501M0_합격증서조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1201M0_CSA교육수료내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1602P0_pop_01.html, UHKF1602P0_pop_02.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0_CSA자격증등록조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0_재무실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0_건강실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0_여가활동실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0_대인관계실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>no id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1901M0_종합진단내역실천과제.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합진단 내역 실천과제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 교육 수료증 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1201M0_printpop_CSA교육수료증출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0_서비스선택.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3201M0_강사소개_서울북부.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2701M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2701M0_교육신청_단체_개인정보동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육신청(단체) 개인정보동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4502P0_결혼자금결과출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인에만 존재. ID 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육준비자금 진단결과_보고서 출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4702P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4702P0_교육준비자금 진단결과_보고서 출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업준비자금 진단결과_보고서 출력</t>
+  </si>
+  <si>
+    <t>UHKD5102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4902P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택자금 진단결과_보고서 출력</t>
+  </si>
+  <si>
+    <t>UHKD4902P0_주택자금_진단결과_보고서_출력.html</t>
+  </si>
+  <si>
+    <t>UHKD5102P0_창업준비자금_진단결과_보고서_출력.html</t>
+  </si>
+  <si>
+    <t>UHKD7402P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도별 누적액 비교</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD7402P0_pop_연도별_누적액_비교.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD1701M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UHKD2701M0_종합재무설계_결과.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD2702P0_pop_현금흐름분석상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2701M0_종합재무설계_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2701M0_종합재무설계_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2701M0_종합재무설계_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2701M0_종합재무설계_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3502P0_pop_기타이벤트상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3403P0_pop_노후자금상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3402P0_pop_노후자금자금분석.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3202P0_pop_결혼자금상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3302P0_pop_주택자금상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3102P0_pop_교육자금상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>생애자금분석 상세</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3002P0_pop_생애자금분석상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2802P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2802P0_pop_재무상태분석상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3601M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>종합재무분석 결과</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2801M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무상태분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4303P0_pop_종합의견및제안상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4303P0</t>
+  </si>
+  <si>
+    <t>제안상세보기_소비지출 조정안Tab</t>
+  </si>
+  <si>
+    <t>UHKD4304P0</t>
+  </si>
+  <si>
+    <t>제안상세보기_포트폴리오 요약 조회Tab</t>
+  </si>
+  <si>
+    <t>UHKD4305P0</t>
   </si>
   <si>
     <t>UHKD3601M0_설계안수립.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD3901M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4001M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4101M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4201M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미래가치 산정 기준</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3단계 &gt; 저축잉여자금 배분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3단계 &gt; 미분류자산 배분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 &gt; 상세연금조회 &gt; 조건설정 및 소득입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 &gt; 상세연금조회 &gt; 입력내용 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 &gt; 상세연금조회 &gt; 결과 및 비교조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2단계 &gt; 노령연금조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1단계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD3802P0_pop_노령연금예상연금월액표.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4002P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4002P0_pop_용어의설명및산정방법.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결혼자금정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4401M0_목적자금설계_결혼자금마련.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4501M0_목적자금설계_결혼자금마련_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4601M0_목적자금설계_교육자금마련.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4701M0_목적자금설계_교육자금마련_결과.html</t>
+    <t>보고서 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4306P0_pop_종합의견 및 제안_보고서 출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4306P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안상세보기_포트폴리오 상세 조회Tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UHKD4801M0_목적자금설계_주택자금마련.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4901M0_목적자금설계_주택자금마련_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>창업자금정보</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UHKD5001M0_목적자금설계_창업자금마련.html </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UHKD5101M0_목적자금설계_창업자금마련_결과.html </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD5201M0_재무계산기_화폐시간가치.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD5301M0_재무계산기_예적금계산.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD5601M0_재무계산기_대출할부금.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD5701M0_재무계산기_퇴직금계산.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내연금정보조회 개인정보동의</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6301M0_내연금알아보기_index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6401M0_내연금알아보기_내연금정보조회신청.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6501M0_내연금알아보기_내연금정보조회신청_개인정보동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6701M0_내연금알아보기_내연금정보조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD7001M0_내연금알아보기_내연금정보조회철회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6703P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6703P0_pop_개인연금상세내역조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6704P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UHKD6704P0_pop_퇴직연금상세내역조회.html </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주택연금 상세내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합내역조회(그래프형식)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6702P0_winpop_통합내역조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6705P0_pop_주택연금상세내역조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6201M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6401M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합내역조회(표형식)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD6702P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2902P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOID_pop_비밀번호입력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0101M0</t>
-  </si>
-  <si>
-    <t>내 연금정보</t>
-  </si>
-  <si>
-    <t>UHKF0201M0</t>
-  </si>
-  <si>
-    <t>종합재무설계내역 조회</t>
-  </si>
-  <si>
-    <t>UHKF0301M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 조회</t>
-  </si>
-  <si>
-    <t>/html/UHKF/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0101M0_내연금정보.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0201M0_종합재무설계내역조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0301M0_종합진단내역조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0401M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 상세보기(기본사항)</t>
-  </si>
-  <si>
-    <t>UHKF0501M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 상세보기(재무)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0601M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 상세보기(건강)</t>
-  </si>
-  <si>
-    <t>UHKF0701M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 상세보기(여가활동)</t>
-  </si>
-  <si>
-    <t>UHKF0801M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 상세보기(대인관계)</t>
-  </si>
-  <si>
-    <t>UHKF0901M0</t>
-  </si>
-  <si>
-    <t>종합진단 내역 상세보기(종합진단결과)</t>
-  </si>
-  <si>
-    <t>UHKF1001M0</t>
-  </si>
-  <si>
-    <t>교육신청 내역 조회</t>
-  </si>
-  <si>
-    <t>UHKF1201M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA교육 수료내역 조회</t>
-  </si>
-  <si>
-    <t>UHKF1501M0</t>
-  </si>
-  <si>
-    <t>CSA시험 수험표 출력 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA시험 수험표 출력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1601M0</t>
-  </si>
-  <si>
-    <t>CSA시험 나의결과 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA합격증서 출력</t>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1901M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합진단 내역 실천과제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육이력 조회(CSA외)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2001M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 CSA내역 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2101M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA교육이력 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2201M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA시험이력 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA보수교육이력 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2401M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1602P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA시험 결과 상세 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2501M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA합격증서 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1801M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA 자격증 등록.조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pop-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pop-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0602P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0702P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>여가활동 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0802P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>대인관계 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0401M0_[UHKF0501M0~UHKF0901M0]종합진단내역조회상세_Tab.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1602P0_pop_01.html, UHKF1602P0_pop_02.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>no id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA 교육 수료증 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pop-up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인에만 존재함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 이용동의 공통 레이아웃 포맷(내용이 달라지는 부분 확인 필요)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합격증서 이미지 필요함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP1101M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UHKD5801M0_노후를위한국민연금준비정도알아보기.html </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">UHKD6601M0_내연금알아보기_내연금정보조회_개인정보동의.html </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 선택</t>
-  </si>
-  <si>
-    <t>UHKC0102P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC0102P0_서비스선택.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1001M0_교육신청내역조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1201M0_CSA교육수료내역조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1501M0_CSA시험수험표출력조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1502P0_ printpop_CSA시험수험표출력.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1601M0_CSA시험결과보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2502P0_ printpop_CSA합격증서출력.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1901M0_종합진단내역실천과제.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2001M0_나의CSA내역조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2001M0_[UHKF2101M0~UHKF2401M0]나의CSA내역조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2501M0_합격증서조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1801M0_CSA자격증등록조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0502P0_재무실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0602P0_건강실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0702P0_여가활동실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0802P0_대인관계실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1201M0_printpop_CSA교육수료증출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/UHKC/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2701M0_교육신청_단체_개인정보동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC1302P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2902P0 공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC1302P0_UHKC2902P0_비밀번호입력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인상담 비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> UHKC1302P0 공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2902P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육신청현황(단체) 비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP2301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA 자격시험 원서접수 개인정보 이용 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP1901M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP2301M0_CSA자격증교육신청개인정보이용동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP1901M0_CSA자격시험원서접수개인정보이용동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사소개(서울북부)</t>
-  </si>
-  <si>
-    <t>UHKC3301M0</t>
-  </si>
-  <si>
-    <t>강사소개(서울남부)</t>
-  </si>
-  <si>
-    <t>UHKC3401M0</t>
-  </si>
-  <si>
-    <t>강사소개(경인)</t>
-  </si>
-  <si>
-    <t>UHKC3501M0</t>
-  </si>
-  <si>
-    <t>강사소개(대전)</t>
-  </si>
-  <si>
-    <t>UHKC3601M0</t>
-  </si>
-  <si>
-    <t>강사소개(광주)</t>
-  </si>
-  <si>
-    <t>UHKC3701M0</t>
-  </si>
-  <si>
-    <t>강사소개(대구)</t>
-  </si>
-  <si>
-    <t>UHKC3801M0</t>
-  </si>
-  <si>
-    <t>강사소개(부산)</t>
-  </si>
-  <si>
-    <t>강사소개 상세</t>
-  </si>
-  <si>
-    <t>UHKC3201M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC3802P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC3201M0_강사소개_서울북부.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동일 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무건전성분석 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8401M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무건전성분석 결과조회</t>
-  </si>
-  <si>
-    <t>기초연금모의계산 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8401M0_재무계산기_재무건전성분석_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8301M0_재무계산기_재무건전성분석.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8402P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무건전성분석 결과출력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/UHKD/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8402P0_재무건전성분석결과출력.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2868,7 +2954,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2998,197 +3084,284 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3470,10 +3643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3482,7 +3655,7 @@
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="78.625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.625" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="53.625" customWidth="1"/>
   </cols>
@@ -3500,7 +3673,7 @@
       <c r="D1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="51" t="s">
         <v>129</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3515,925 +3688,976 @@
         <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>552</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>553</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="59"/>
+        <v>540</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="47" t="s">
-        <v>554</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="59"/>
+      <c r="E3" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="55"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="47" t="s">
-        <v>555</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="59"/>
+      <c r="E4" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="78" t="s">
-        <v>612</v>
-      </c>
-      <c r="F5" s="81" t="s">
-        <v>618</v>
-      </c>
-      <c r="G5" s="59"/>
+        <v>545</v>
+      </c>
+      <c r="D5" s="116"/>
+      <c r="E5" s="83" t="s">
+        <v>597</v>
+      </c>
+      <c r="F5" s="86" t="s">
+        <v>599</v>
+      </c>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="59"/>
+        <v>547</v>
+      </c>
+      <c r="D6" s="117"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="114"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="59"/>
+        <v>549</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="59"/>
+        <v>551</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="114"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="59"/>
+        <v>553</v>
+      </c>
+      <c r="D9" s="117"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="59"/>
+        <v>555</v>
+      </c>
+      <c r="D10" s="118"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="115"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="49" t="s">
-        <v>628</v>
-      </c>
-      <c r="F11" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="59"/>
+      <c r="E11" s="46" t="s">
+        <v>606</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="49" t="s">
-        <v>629</v>
-      </c>
-      <c r="F12" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="59"/>
+      <c r="E12" s="46" t="s">
+        <v>657</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="49" t="s">
-        <v>630</v>
-      </c>
-      <c r="F13" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="59"/>
+      <c r="E13" s="46" t="s">
+        <v>652</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>574</v>
+        <v>665</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="49" t="s">
-        <v>631</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="59"/>
+      <c r="E14" s="46" t="s">
+        <v>653</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="49" t="s">
-        <v>632</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="59"/>
+      <c r="E15" s="46" t="s">
+        <v>654</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="62" t="s">
-        <v>578</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>579</v>
-      </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65" t="s">
-        <v>633</v>
-      </c>
-      <c r="F16" s="62" t="s">
-        <v>619</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>621</v>
-      </c>
+      <c r="A16" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="46" t="s">
+        <v>667</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>580</v>
+        <v>94</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="49" t="s">
-        <v>634</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="59"/>
+      <c r="E17" s="46" t="s">
+        <v>607</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>94</v>
+        <v>568</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="49" t="s">
-        <v>635</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G18" s="59"/>
+        <v>573</v>
+      </c>
+      <c r="D18" s="116"/>
+      <c r="E18" s="83" t="s">
+        <v>608</v>
+      </c>
+      <c r="F18" s="87" t="s">
+        <v>599</v>
+      </c>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="78" t="s">
-        <v>636</v>
-      </c>
-      <c r="F19" s="82" t="s">
-        <v>618</v>
-      </c>
-      <c r="G19" s="59"/>
+        <v>576</v>
+      </c>
+      <c r="D19" s="117"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="114"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="59"/>
+        <v>579</v>
+      </c>
+      <c r="D20" s="117"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="114"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
-        <v>592</v>
+        <v>94</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="59"/>
+        <v>569</v>
+      </c>
+      <c r="D21" s="118"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="115"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="59"/>
+      <c r="E22" s="46" t="s">
+        <v>658</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="49" t="s">
-        <v>613</v>
-      </c>
-      <c r="F23" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="59"/>
+      <c r="E23" s="46" t="s">
+        <v>656</v>
+      </c>
+      <c r="F23" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="49" t="s">
-        <v>637</v>
-      </c>
-      <c r="F24" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G24" s="59"/>
+      <c r="A24" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60" t="s">
+        <v>655</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="49" t="s">
-        <v>638</v>
-      </c>
-      <c r="F25" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="59"/>
+      <c r="E25" s="46" t="s">
+        <v>659</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="55"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="F26" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="59"/>
+      <c r="E26" s="56" t="s">
+        <v>660</v>
+      </c>
+      <c r="F26" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="60" t="s">
-        <v>640</v>
-      </c>
-      <c r="F27" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="59"/>
+      <c r="E27" s="56" t="s">
+        <v>661</v>
+      </c>
+      <c r="F27" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="55"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="F28" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="59"/>
+      <c r="E28" s="56" t="s">
+        <v>662</v>
+      </c>
+      <c r="F28" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="55"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>596</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="F29" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>664</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>669</v>
+      </c>
+      <c r="D30" s="76"/>
+      <c r="E30" s="78" t="s">
+        <v>670</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="79" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1">
+      <c r="A31" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>671</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>609</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>672</v>
+      </c>
+      <c r="F31" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="103"/>
+    </row>
+    <row r="32" spans="1:7" s="63" customFormat="1">
+      <c r="A32" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="65" t="s">
+        <v>675</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>677</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="104" t="s">
+        <v>676</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="105" t="s">
         <v>610</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>611</v>
-      </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="60" t="s">
-        <v>642</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="59"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="100" t="s">
-        <v>616</v>
-      </c>
-      <c r="B30" s="100" t="s">
-        <v>614</v>
-      </c>
-      <c r="C30" s="101" t="s">
-        <v>615</v>
-      </c>
-      <c r="D30" s="100"/>
-      <c r="E30" s="102" t="s">
-        <v>643</v>
-      </c>
-      <c r="F30" s="100" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="103" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="69"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="73"/>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1">
-      <c r="A32" s="75" t="s">
+    </row>
+    <row r="33" spans="1:7" s="63" customFormat="1">
+      <c r="A33" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>623</v>
+      </c>
+      <c r="D33" s="119"/>
+      <c r="E33" s="107" t="s">
+        <v>673</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>639</v>
+      </c>
+      <c r="G33" s="107" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="63" customFormat="1">
+      <c r="A34" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>624</v>
+      </c>
+      <c r="C34" s="103" t="s">
+        <v>625</v>
+      </c>
+      <c r="D34" s="120"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="109"/>
+    </row>
+    <row r="35" spans="1:7" s="63" customFormat="1">
+      <c r="A35" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>626</v>
+      </c>
+      <c r="C35" s="103" t="s">
+        <v>627</v>
+      </c>
+      <c r="D35" s="120"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="109"/>
+    </row>
+    <row r="36" spans="1:7" s="63" customFormat="1">
+      <c r="A36" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="103" t="s">
+        <v>629</v>
+      </c>
+      <c r="D36" s="120"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="109"/>
+    </row>
+    <row r="37" spans="1:7" s="63" customFormat="1">
+      <c r="A37" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="80" t="s">
+        <v>630</v>
+      </c>
+      <c r="C37" s="103" t="s">
+        <v>631</v>
+      </c>
+      <c r="D37" s="120"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="109"/>
+    </row>
+    <row r="38" spans="1:7" s="63" customFormat="1">
+      <c r="A38" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="80" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38" s="103" t="s">
+        <v>633</v>
+      </c>
+      <c r="D38" s="120"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="109"/>
+    </row>
+    <row r="39" spans="1:7" s="63" customFormat="1">
+      <c r="A39" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="80" t="s">
+        <v>634</v>
+      </c>
+      <c r="C39" s="103" t="s">
+        <v>635</v>
+      </c>
+      <c r="D39" s="121"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="111"/>
+    </row>
+    <row r="40" spans="1:7" s="63" customFormat="1">
+      <c r="A40" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="75" t="s">
-        <v>626</v>
-      </c>
-      <c r="C32" s="76" t="s">
-        <v>625</v>
-      </c>
-      <c r="D32" s="77" t="s">
+      <c r="B40" s="80" t="s">
+        <v>638</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>636</v>
+      </c>
+      <c r="D40" s="106"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="81"/>
+    </row>
+    <row r="41" spans="1:7" s="63" customFormat="1">
+      <c r="A41" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>678</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>650</v>
+      </c>
+      <c r="D41" s="67" t="s">
         <v>644</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>627</v>
-      </c>
-      <c r="F32" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="68" customFormat="1">
-      <c r="A33" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="75" t="s">
-        <v>265</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="48" t="s">
-        <v>645</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="74" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="68" customFormat="1">
-      <c r="A34" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>659</v>
-      </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="78" t="s">
-        <v>675</v>
-      </c>
-      <c r="F34" s="85" t="s">
-        <v>676</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="68" customFormat="1">
-      <c r="A35" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="C35" s="45" t="s">
-        <v>661</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="79"/>
-    </row>
-    <row r="36" spans="1:7" s="68" customFormat="1">
-      <c r="A36" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="C36" s="45" t="s">
-        <v>663</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="79"/>
-    </row>
-    <row r="37" spans="1:7" s="68" customFormat="1">
-      <c r="A37" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>665</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="79"/>
-    </row>
-    <row r="38" spans="1:7" s="68" customFormat="1">
-      <c r="A38" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="C38" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="79"/>
-    </row>
-    <row r="39" spans="1:7" s="68" customFormat="1">
-      <c r="A39" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="C39" s="45" t="s">
-        <v>669</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="86"/>
-      <c r="G39" s="79"/>
-    </row>
-    <row r="40" spans="1:7" s="68" customFormat="1">
-      <c r="A40" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="C40" s="45" t="s">
-        <v>671</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="80"/>
-    </row>
-    <row r="41" spans="1:7" s="68" customFormat="1">
-      <c r="A41" s="46" t="s">
+      <c r="E41" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="F41" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="62"/>
+    </row>
+    <row r="42" spans="1:7" s="63" customFormat="1">
+      <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="C41" s="45" t="s">
-        <v>672</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="67"/>
-    </row>
-    <row r="42" spans="1:7" s="68" customFormat="1">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="105"/>
-    </row>
-    <row r="43" spans="1:7" s="68" customFormat="1">
-      <c r="A43" s="51" t="s">
+      <c r="B42" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="49" t="s">
+        <v>679</v>
+      </c>
+      <c r="F42" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="62"/>
+    </row>
+    <row r="43" spans="1:7" s="63" customFormat="1">
+      <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="F43" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="62"/>
+    </row>
+    <row r="44" spans="1:7" s="63" customFormat="1">
+      <c r="A44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="73" t="s">
+        <v>689</v>
+      </c>
+      <c r="F44" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="62"/>
+    </row>
+    <row r="45" spans="1:7" s="63" customFormat="1">
+      <c r="A45" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="70" t="s">
         <v>686</v>
       </c>
-      <c r="C43" s="50" t="s">
-        <v>687</v>
-      </c>
-      <c r="D43" s="77" t="s">
-        <v>688</v>
-      </c>
-      <c r="E43" s="54" t="s">
-        <v>689</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="67"/>
-    </row>
-    <row r="44" spans="1:7" s="68" customFormat="1">
-      <c r="A44" s="53"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="67"/>
-    </row>
-    <row r="45" spans="1:7" s="68" customFormat="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="50"/>
+      <c r="C45" s="66" t="s">
+        <v>685</v>
+      </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="67"/>
-    </row>
-    <row r="46" spans="1:7" s="68" customFormat="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="67"/>
-    </row>
-    <row r="47" spans="1:7" s="68" customFormat="1">
-      <c r="A47" s="51"/>
+      <c r="E45" s="73" t="s">
+        <v>690</v>
+      </c>
+      <c r="F45" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="62"/>
+    </row>
+    <row r="46" spans="1:7" s="63" customFormat="1">
+      <c r="A46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D46" s="28"/>
+      <c r="E46" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="F46" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="62"/>
+    </row>
+    <row r="47" spans="1:7" s="63" customFormat="1">
+      <c r="A47" s="68"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="51"/>
-      <c r="G47" s="67"/>
-    </row>
-    <row r="48" spans="1:7" s="68" customFormat="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="50"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="62"/>
+    </row>
+    <row r="48" spans="1:7" s="63" customFormat="1">
+      <c r="A48" s="69"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="17"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="67"/>
-    </row>
-    <row r="49" spans="1:7" s="68" customFormat="1">
-      <c r="A49" s="51"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="62"/>
+    </row>
+    <row r="49" spans="1:7" s="63" customFormat="1">
+      <c r="A49" s="48"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="50"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="17"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="67"/>
-    </row>
-    <row r="50" spans="1:7" s="68" customFormat="1">
-      <c r="A50" s="51"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="62"/>
+    </row>
+    <row r="50" spans="1:7" s="63" customFormat="1">
+      <c r="A50" s="48"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="50"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="17"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="67"/>
-    </row>
-    <row r="51" spans="1:7" s="68" customFormat="1">
-      <c r="A51" s="51"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="62"/>
+    </row>
+    <row r="51" spans="1:7" s="63" customFormat="1">
+      <c r="A51" s="48"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="50"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="17"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="67"/>
-    </row>
-    <row r="52" spans="1:7" s="68" customFormat="1">
-      <c r="A52" s="51"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="62"/>
+    </row>
+    <row r="52" spans="1:7" s="63" customFormat="1">
+      <c r="A52" s="48"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="50"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="17"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="51"/>
-      <c r="G52" s="67"/>
-    </row>
-    <row r="53" spans="1:7" s="68" customFormat="1">
-      <c r="A53" s="51"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="62"/>
+    </row>
+    <row r="53" spans="1:7" s="63" customFormat="1">
+      <c r="A53" s="48"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="50"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="17"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="67"/>
-    </row>
-    <row r="54" spans="1:7" s="68" customFormat="1">
-      <c r="A54" s="51"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="62"/>
+    </row>
+    <row r="54" spans="1:7" s="63" customFormat="1">
+      <c r="A54" s="48"/>
       <c r="B54" s="6"/>
-      <c r="C54" s="50"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="17"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="67"/>
-    </row>
-    <row r="55" spans="1:7" s="68" customFormat="1">
-      <c r="A55" s="51"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="62"/>
+    </row>
+    <row r="55" spans="1:7" s="63" customFormat="1">
+      <c r="A55" s="48"/>
       <c r="B55" s="6"/>
-      <c r="C55" s="50"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="17"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="67"/>
-    </row>
-    <row r="56" spans="1:7" s="68" customFormat="1">
-      <c r="A56" s="51"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="62"/>
+    </row>
+    <row r="56" spans="1:7" s="63" customFormat="1">
+      <c r="A56" s="48"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="50"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="17"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="51"/>
-      <c r="G56" s="67"/>
-    </row>
-    <row r="57" spans="1:7" s="68" customFormat="1">
-      <c r="A57" s="51"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="62"/>
+    </row>
+    <row r="57" spans="1:7" s="63" customFormat="1">
+      <c r="A57" s="48"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="50"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="67"/>
-    </row>
-    <row r="58" spans="1:7" s="68" customFormat="1">
-      <c r="A58" s="51"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="50"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="62"/>
+    </row>
+    <row r="58" spans="1:7" s="63" customFormat="1">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
       <c r="D58" s="17"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="67"/>
-    </row>
-    <row r="59" spans="1:7" s="68" customFormat="1">
+      <c r="E58" s="46"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="62"/>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="67"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="46"/>
-      <c r="G60" s="59"/>
-    </row>
-    <row r="61" spans="1:7" ht="33" customHeight="1">
-      <c r="A61" s="10"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="27"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="45"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="55"/>
+    </row>
+    <row r="60" spans="1:7" ht="33" customHeight="1">
+      <c r="A60" s="10"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="27"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6"/>
-      <c r="B63" s="7"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="8"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="49"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="6"/>
       <c r="G63" s="8"/>
     </row>
@@ -4442,7 +4666,7 @@
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="49"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="6"/>
       <c r="G64" s="8"/>
     </row>
@@ -4451,7 +4675,7 @@
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="49"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="6"/>
       <c r="G65" s="8"/>
     </row>
@@ -4460,28 +4684,24 @@
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="49"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="6"/>
       <c r="G66" s="8"/>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="6"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G34:G40"/>
+  <mergeCells count="12">
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="G33:G39"/>
     <mergeCell ref="F5:F10"/>
     <mergeCell ref="E5:E10"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="E34:E40"/>
-    <mergeCell ref="F34:F40"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="G5:G10"/>
+    <mergeCell ref="G18:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4490,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4618,14 +4838,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="89" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="20"/>
+      <c r="F6" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="87"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -4637,10 +4857,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="20"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="88"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -4652,10 +4872,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="20"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="88"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -4667,10 +4887,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="20"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="89"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -4739,14 +4959,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="88" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="20"/>
+      <c r="F13" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="87"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -4758,10 +4978,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="20"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="89"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -4773,14 +4993,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="89" t="s">
+      <c r="D15" s="116"/>
+      <c r="E15" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="59"/>
+      <c r="F15" s="86" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="87"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -4792,10 +5012,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="59"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="88"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -4807,10 +5027,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="59"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="88"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -4822,10 +5042,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="59"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="88"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -4837,10 +5057,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="59"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="88"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -4852,10 +5072,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="59"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="88"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -4867,10 +5087,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="59"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="88"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -4882,10 +5102,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="59"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="94"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -4897,10 +5117,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="59"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -4912,10 +5132,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="59"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="88"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -4927,10 +5147,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="59"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="88"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -4942,10 +5162,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="59"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="88"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -4957,10 +5177,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="59"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="88"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -4972,10 +5192,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="59"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="88"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -4987,10 +5207,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="59"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="94"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="88"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -5002,10 +5222,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="59"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="88"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -5017,10 +5237,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="19"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="59"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="89"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -5030,520 +5250,530 @@
         <v>73</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>682</v>
+        <v>643</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="50" t="s">
+      <c r="E32" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="59"/>
+      <c r="F32" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="59"/>
+      <c r="A33" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="106" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="106" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="81"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="F34" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="59"/>
+      <c r="A34" s="106" t="s">
+        <v>641</v>
+      </c>
+      <c r="B34" s="106" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="106"/>
+      <c r="E34" s="103" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="81"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="59"/>
+      <c r="A35" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="106" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="122" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="106"/>
+      <c r="E35" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="81"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="59"/>
+      <c r="A36" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="119"/>
+      <c r="E36" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="F36" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="107"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="88" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="59"/>
+      <c r="A37" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="120"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="109"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="19"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="59"/>
+      <c r="A38" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="121"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="19"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="59"/>
+      <c r="A39" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="106" t="s">
+        <v>620</v>
+      </c>
+      <c r="C39" s="122" t="s">
+        <v>619</v>
+      </c>
+      <c r="D39" s="106"/>
+      <c r="E39" s="103" t="s">
+        <v>622</v>
+      </c>
+      <c r="F39" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="103"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>655</v>
-      </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20" t="s">
-        <v>658</v>
-      </c>
-      <c r="F40" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="20"/>
+      <c r="A40" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="106" t="s">
+        <v>618</v>
+      </c>
+      <c r="C40" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="106"/>
+      <c r="E40" s="103" t="s">
+        <v>621</v>
+      </c>
+      <c r="F40" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="103"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="45" t="s">
-        <v>657</v>
-      </c>
-      <c r="F41" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="45"/>
+      <c r="A41" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="106"/>
+      <c r="E41" s="103" t="s">
+        <v>148</v>
+      </c>
+      <c r="F41" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="20"/>
+      <c r="A42" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="106" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="106"/>
+      <c r="E42" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="103"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="F43" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="20"/>
+      <c r="A43" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="106" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="106"/>
+      <c r="E43" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="F43" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="103"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F44" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="20"/>
+      <c r="A44" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="122" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="106"/>
+      <c r="E44" s="103" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="103"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="20"/>
+      <c r="A45" s="106" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="122" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="106"/>
+      <c r="E45" s="103" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="103"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F46" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="20"/>
+      <c r="A46" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="106" t="s">
+        <v>603</v>
+      </c>
+      <c r="C46" s="122" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="106"/>
+      <c r="E46" s="103" t="s">
+        <v>162</v>
+      </c>
+      <c r="F46" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="103"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>622</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="20"/>
+      <c r="A47" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="122" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="106"/>
+      <c r="E47" s="103" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="103" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="F48" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>620</v>
-      </c>
+      <c r="A48" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="106" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="122" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="106"/>
+      <c r="E48" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="103"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="20"/>
+      <c r="A49" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="122" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="106"/>
+      <c r="E49" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="103"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="19"/>
-      <c r="E50" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="20"/>
+      <c r="A50" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="122" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="106"/>
+      <c r="E50" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="F50" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="103"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F51" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="20"/>
+      <c r="A51" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" s="106"/>
+      <c r="E51" s="103" t="s">
+        <v>158</v>
+      </c>
+      <c r="F51" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="103"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F52" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="20"/>
+      <c r="A52" s="106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52" s="122" t="s">
+        <v>108</v>
+      </c>
+      <c r="D52" s="106"/>
+      <c r="E52" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="103"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="20"/>
+      <c r="A53" s="106" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="125" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="127"/>
+      <c r="E53" s="123" t="s">
+        <v>161</v>
+      </c>
+      <c r="F53" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="107"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="G54" s="20"/>
+      <c r="B54" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" s="128"/>
+      <c r="E54" s="123"/>
+      <c r="F54" s="124"/>
+      <c r="G54" s="109"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="20"/>
+      <c r="B55" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="129"/>
+      <c r="E55" s="123"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="20"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="17" t="s">
+      <c r="B56" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C56" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="20" t="s">
+      <c r="D56" s="126"/>
+      <c r="E56" s="103" t="s">
         <v>160</v>
       </c>
-      <c r="F57" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="G57" s="20"/>
-    </row>
-    <row r="58" spans="1:7" ht="33" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="27"/>
+      <c r="F56" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="103"/>
+    </row>
+    <row r="57" spans="1:7" ht="33" customHeight="1">
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="27"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>544</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>122</v>
+      <c r="B60" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>172</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D60" s="6"/>
       <c r="E60" s="8" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="G60" s="8"/>
     </row>
@@ -5552,17 +5782,17 @@
         <v>10</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="G61" s="8"/>
     </row>
@@ -5571,64 +5801,55 @@
         <v>10</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="G62" s="8"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G63" s="8"/>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="G64" s="8"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E54:E56"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F54:F56"/>
-    <mergeCell ref="F37:F39"/>
+  <mergeCells count="20">
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="G53:G55"/>
+    <mergeCell ref="G36:G38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="G15:G31"/>
+    <mergeCell ref="D15:D31"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F36:F38"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E31"/>
@@ -5646,7 +5867,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5704,10 +5925,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="E139" sqref="E139"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5749,76 +5970,76 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C2" s="25" t="s">
         <v>173</v>
       </c>
       <c r="D2" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="24"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="96" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>247</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="93" t="s">
+      <c r="F4" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>386</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="91"/>
-      <c r="B5" s="91"/>
-      <c r="C5" s="94"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="31" t="s">
-        <v>388</v>
-      </c>
       <c r="F5" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="31" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>141</v>
@@ -5836,10 +6057,10 @@
         <v>175</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>141</v>
@@ -5858,7 +6079,7 @@
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="8" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>141</v>
@@ -5876,10 +6097,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="F9" s="82" t="s">
+      <c r="E9" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="F9" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -5895,8 +6116,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -5911,7 +6132,7 @@
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F11" s="23" t="s">
         <v>141</v>
@@ -5929,10 +6150,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="78" t="s">
-        <v>394</v>
-      </c>
-      <c r="F12" s="82" t="s">
+      <c r="E12" s="83" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -5948,8 +6169,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="83"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="88"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -5963,8 +6184,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -5979,7 +6200,7 @@
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="8" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F15" s="23" t="s">
         <v>141</v>
@@ -5997,10 +6218,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="F16" s="82" t="s">
+      <c r="E16" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="F16" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -6016,8 +6237,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="88"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -6031,8 +6252,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="89"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -6047,7 +6268,7 @@
       </c>
       <c r="D19" s="28"/>
       <c r="E19" s="8" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>141</v>
@@ -6065,10 +6286,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="F20" s="82" t="s">
+      <c r="E20" s="83" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -6084,8 +6305,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -6100,7 +6321,7 @@
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="8" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F22" s="23" t="s">
         <v>141</v>
@@ -6119,7 +6340,7 @@
       </c>
       <c r="D23" s="28"/>
       <c r="E23" s="8" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F23" s="23" t="s">
         <v>141</v>
@@ -6138,7 +6359,7 @@
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="8" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>141</v>
@@ -6150,20 +6371,20 @@
         <v>9</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="8" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6178,7 +6399,7 @@
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="8" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="F26" s="23" t="s">
         <v>141</v>
@@ -6197,7 +6418,7 @@
       </c>
       <c r="D27" s="28"/>
       <c r="E27" s="8" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F27" s="23" t="s">
         <v>141</v>
@@ -6216,7 +6437,7 @@
       </c>
       <c r="D28" s="28"/>
       <c r="E28" s="8" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>141</v>
@@ -6235,7 +6456,7 @@
       </c>
       <c r="D29" s="28"/>
       <c r="E29" s="32" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F29" s="23" t="s">
         <v>141</v>
@@ -6254,7 +6475,7 @@
       </c>
       <c r="D30" s="28"/>
       <c r="E30" s="8" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>141</v>
@@ -6273,7 +6494,7 @@
       </c>
       <c r="D31" s="28"/>
       <c r="E31" s="8" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F31" s="23" t="s">
         <v>141</v>
@@ -6292,7 +6513,7 @@
       </c>
       <c r="D32" s="28"/>
       <c r="E32" s="8" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="F32" s="23" t="s">
         <v>141</v>
@@ -6304,14 +6525,14 @@
         <v>10</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="8" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>141</v>
@@ -6326,11 +6547,11 @@
         <v>262</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D34" s="28"/>
       <c r="E34" s="8" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>141</v>
@@ -6349,13 +6570,13 @@
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F35" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G35" s="24" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6370,7 +6591,7 @@
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="8" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F36" s="23" t="s">
         <v>141</v>
@@ -6382,14 +6603,14 @@
         <v>10</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D37" s="28"/>
       <c r="E37" s="8" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F37" s="23" t="s">
         <v>141</v>
@@ -6401,14 +6622,14 @@
         <v>10</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D38" s="28"/>
       <c r="E38" s="33" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F38" s="23" t="s">
         <v>141</v>
@@ -6427,13 +6648,13 @@
       </c>
       <c r="D39" s="28"/>
       <c r="E39" s="8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F39" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G39" s="24" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6448,7 +6669,7 @@
       </c>
       <c r="D40" s="28"/>
       <c r="E40" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F40" s="23" t="s">
         <v>141</v>
@@ -6460,14 +6681,14 @@
         <v>10</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D41" s="28"/>
       <c r="E41" s="8" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F41" s="23" t="s">
         <v>141</v>
@@ -6478,21 +6699,21 @@
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="46" t="s">
-        <v>652</v>
+      <c r="B42" s="44" t="s">
+        <v>616</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="D42" s="46"/>
+        <v>617</v>
+      </c>
+      <c r="D42" s="44"/>
       <c r="E42" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="F42" s="46" t="s">
+        <v>613</v>
+      </c>
+      <c r="F42" s="44" t="s">
         <v>141</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6500,14 +6721,14 @@
         <v>10</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="8" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F43" s="23" t="s">
         <v>141</v>
@@ -6519,14 +6740,14 @@
         <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>268</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="8" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="F44" s="23" t="s">
         <v>141</v>
@@ -6537,22 +6758,22 @@
       <c r="A45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="74" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="75" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G45" s="24"/>
+      <c r="D45" s="132" t="s">
+        <v>380</v>
+      </c>
+      <c r="E45" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="F45" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="G45" s="75"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="s">
@@ -6566,7 +6787,7 @@
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="8" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F46" s="23" t="s">
         <v>141</v>
@@ -6585,7 +6806,7 @@
       </c>
       <c r="D47" s="28"/>
       <c r="E47" s="8" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F47" s="23" t="s">
         <v>141</v>
@@ -6604,7 +6825,7 @@
       </c>
       <c r="D48" s="28"/>
       <c r="E48" s="8" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F48" s="23" t="s">
         <v>141</v>
@@ -6623,7 +6844,7 @@
       </c>
       <c r="D49" s="28"/>
       <c r="E49" s="8" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F49" s="23" t="s">
         <v>141</v>
@@ -6642,7 +6863,7 @@
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="8" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="F50" s="23" t="s">
         <v>141</v>
@@ -6661,7 +6882,7 @@
       </c>
       <c r="D51" s="28"/>
       <c r="E51" s="8" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F51" s="23" t="s">
         <v>141</v>
@@ -6673,14 +6894,14 @@
         <v>10</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D52" s="28"/>
       <c r="E52" s="8" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F52" s="23" t="s">
         <v>141</v>
@@ -6695,11 +6916,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D53" s="28"/>
       <c r="E53" s="8" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F53" s="23" t="s">
         <v>141</v>
@@ -6718,7 +6939,7 @@
       </c>
       <c r="D54" s="28"/>
       <c r="E54" s="8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F54" s="23" t="s">
         <v>141</v>
@@ -6737,7 +6958,7 @@
       </c>
       <c r="D55" s="28"/>
       <c r="E55" s="8" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F55" s="23" t="s">
         <v>141</v>
@@ -6756,7 +6977,7 @@
       </c>
       <c r="D56" s="28"/>
       <c r="E56" s="8" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F56" s="23" t="s">
         <v>141</v>
@@ -6775,7 +6996,7 @@
       </c>
       <c r="D57" s="28"/>
       <c r="E57" s="8" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F57" s="23" t="s">
         <v>141</v>
@@ -6790,11 +7011,11 @@
         <v>230</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D58" s="28"/>
       <c r="E58" s="8" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F58" s="23" t="s">
         <v>141</v>
@@ -6813,7 +7034,7 @@
       </c>
       <c r="D59" s="28"/>
       <c r="E59" s="8" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F59" s="23" t="s">
         <v>141</v>
@@ -6828,11 +7049,11 @@
         <v>278</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D60" s="28"/>
       <c r="E60" s="8" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F60" s="23" t="s">
         <v>141</v>
@@ -6844,14 +7065,14 @@
         <v>10</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>232</v>
       </c>
       <c r="D61" s="28"/>
       <c r="E61" s="8" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="F61" s="23" t="s">
         <v>141</v>
@@ -6870,7 +7091,7 @@
       </c>
       <c r="D62" s="28"/>
       <c r="E62" s="8" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F62" s="23" t="s">
         <v>141</v>
@@ -6889,7 +7110,7 @@
       </c>
       <c r="D63" s="28"/>
       <c r="E63" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F63" s="23" t="s">
         <v>141</v>
@@ -6908,7 +7129,7 @@
       </c>
       <c r="D64" s="28"/>
       <c r="E64" s="8" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F64" s="23" t="s">
         <v>141</v>
@@ -6920,14 +7141,14 @@
         <v>10</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>279</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>280</v>
       </c>
       <c r="D65" s="28"/>
       <c r="E65" s="8" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="F65" s="23" t="s">
         <v>141</v>
@@ -6946,7 +7167,7 @@
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="8" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F66" s="23" t="s">
         <v>141</v>
@@ -6961,11 +7182,11 @@
         <v>241</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D67" s="28"/>
       <c r="E67" s="8" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F67" s="23" t="s">
         <v>141</v>
@@ -6980,11 +7201,11 @@
         <v>242</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D68" s="28"/>
       <c r="E68" s="8" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F68" s="23" t="s">
         <v>141</v>
@@ -7003,7 +7224,7 @@
       </c>
       <c r="D69" s="28"/>
       <c r="E69" s="8" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F69" s="23" t="s">
         <v>141</v>
@@ -7022,7 +7243,7 @@
       </c>
       <c r="D70" s="28"/>
       <c r="E70" s="32" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F70" s="23" t="s">
         <v>141</v>
@@ -7030,40 +7251,40 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="D71" s="130"/>
+      <c r="E71" s="131" t="s">
+        <v>455</v>
+      </c>
+      <c r="F71" s="80" t="s">
+        <v>695</v>
+      </c>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="80" t="s">
         <v>283</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G71" s="24"/>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="6" t="s">
+      <c r="C72" s="103" t="s">
         <v>284</v>
       </c>
-      <c r="C72" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D72" s="28"/>
-      <c r="E72" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>141</v>
+      <c r="D72" s="130"/>
+      <c r="E72" s="131" t="s">
+        <v>456</v>
+      </c>
+      <c r="F72" s="80" t="s">
+        <v>696</v>
       </c>
       <c r="G72" s="24"/>
     </row>
@@ -7072,14 +7293,14 @@
         <v>9</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="D73" s="28"/>
       <c r="E73" s="8" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F73" s="23" t="s">
         <v>141</v>
@@ -7091,14 +7312,14 @@
         <v>10</v>
       </c>
       <c r="B74" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="D74" s="28"/>
       <c r="E74" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="F74" s="23" t="s">
         <v>141</v>
@@ -7110,14 +7331,14 @@
         <v>9</v>
       </c>
       <c r="B75" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="D75" s="28"/>
       <c r="E75" s="8" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F75" s="23" t="s">
         <v>141</v>
@@ -7129,14 +7350,14 @@
         <v>10</v>
       </c>
       <c r="B76" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C76" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>293</v>
       </c>
       <c r="D76" s="28"/>
       <c r="E76" s="8" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F76" s="23" t="s">
         <v>141</v>
@@ -7148,14 +7369,14 @@
         <v>10</v>
       </c>
       <c r="B77" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="D77" s="28"/>
       <c r="E77" s="8" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F77" s="23" t="s">
         <v>141</v>
@@ -7167,14 +7388,14 @@
         <v>10</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D78" s="28"/>
       <c r="E78" s="8" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F78" s="23" t="s">
         <v>141</v>
@@ -7186,75 +7407,61 @@
         <v>10</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D79" s="28"/>
-      <c r="E79" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F79" s="23" t="s">
+        <v>698</v>
+      </c>
+      <c r="D79" s="133"/>
+      <c r="E79" s="83" t="s">
+        <v>697</v>
+      </c>
+      <c r="F79" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>299</v>
+        <v>699</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G80" s="24"/>
+        <v>700</v>
+      </c>
+      <c r="D80" s="134"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="88"/>
+      <c r="G80" s="72"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B81" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D81" s="28"/>
-      <c r="E81" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>141</v>
-      </c>
+      <c r="D81" s="134"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="88"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>484</v>
+        <v>302</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="28"/>
-      <c r="E82" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>141</v>
-      </c>
+      <c r="D82" s="134"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="88"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -7262,18 +7469,14 @@
         <v>10</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D83" s="28"/>
-      <c r="E83" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D83" s="134"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="88"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -7281,37 +7484,29 @@
         <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="D84" s="134"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="88"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="D85" s="28"/>
-      <c r="E85" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="D85" s="134"/>
+      <c r="E85" s="84"/>
+      <c r="F85" s="88"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -7319,52 +7514,44 @@
         <v>10</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D86" s="28"/>
-      <c r="E86" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D86" s="134"/>
+      <c r="E86" s="84"/>
+      <c r="F86" s="88"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D87" s="28"/>
-      <c r="E87" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="D87" s="135"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="89"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="D88" s="29"/>
+        <v>298</v>
+      </c>
+      <c r="D88" s="28"/>
       <c r="E88" s="8" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="F88" s="23" t="s">
         <v>141</v>
@@ -7373,17 +7560,17 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>316</v>
+        <v>474</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="D89" s="28"/>
       <c r="E89" s="8" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F89" s="23" t="s">
         <v>141</v>
@@ -7392,17 +7579,17 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="D90" s="17"/>
+        <v>472</v>
+      </c>
+      <c r="D90" s="28"/>
       <c r="E90" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F90" s="23" t="s">
         <v>141</v>
@@ -7414,14 +7601,14 @@
         <v>9</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="D91" s="9"/>
+        <v>308</v>
+      </c>
+      <c r="D91" s="28"/>
       <c r="E91" s="8" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>141</v>
@@ -7430,17 +7617,17 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="D92" s="6"/>
+        <v>313</v>
+      </c>
+      <c r="D92" s="28"/>
       <c r="E92" s="8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>141</v>
@@ -7452,14 +7639,14 @@
         <v>9</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D93" s="6"/>
+        <v>317</v>
+      </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F93" s="23" t="s">
         <v>141</v>
@@ -7471,14 +7658,14 @@
         <v>9</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D94" s="6"/>
       <c r="E94" s="8" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="F94" s="23" t="s">
         <v>141</v>
@@ -7487,17 +7674,17 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="D95" s="6"/>
       <c r="E95" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F95" s="23" t="s">
         <v>141</v>
@@ -7509,14 +7696,14 @@
         <v>9</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D96" s="6"/>
       <c r="E96" s="8" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="F96" s="23" t="s">
         <v>141</v>
@@ -7528,16 +7715,16 @@
         <v>10</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="78" t="s">
-        <v>487</v>
-      </c>
-      <c r="F97" s="82" t="s">
+      <c r="E97" s="95" t="s">
+        <v>707</v>
+      </c>
+      <c r="F97" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -7547,14 +7734,14 @@
         <v>10</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="83"/>
+      <c r="E98" s="95"/>
+      <c r="F98" s="88"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -7562,14 +7749,14 @@
         <v>10</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="83"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="88"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -7577,14 +7764,14 @@
         <v>10</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="79"/>
-      <c r="F100" s="83"/>
+      <c r="E100" s="95"/>
+      <c r="F100" s="88"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -7592,14 +7779,14 @@
         <v>10</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="79"/>
-      <c r="F101" s="83"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="88"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -7607,14 +7794,14 @@
         <v>10</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="83"/>
+      <c r="E102" s="95"/>
+      <c r="F102" s="88"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -7622,14 +7809,14 @@
         <v>10</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="84"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="89"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -7637,14 +7824,14 @@
         <v>9</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="8" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F104" s="23" t="s">
         <v>141</v>
@@ -7656,14 +7843,14 @@
         <v>9</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="8" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="F105" s="23" t="s">
         <v>141</v>
@@ -7672,89 +7859,85 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>336</v>
+        <v>702</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D106" s="6"/>
-      <c r="E106" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G106" s="24"/>
+        <v>703</v>
+      </c>
+      <c r="D106" s="90"/>
+      <c r="E106" s="95" t="s">
+        <v>701</v>
+      </c>
+      <c r="F106" s="90" t="s">
+        <v>599</v>
+      </c>
+      <c r="G106" s="72"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>337</v>
+        <v>704</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G107" s="24"/>
+        <v>705</v>
+      </c>
+      <c r="D107" s="91"/>
+      <c r="E107" s="95"/>
+      <c r="F107" s="91"/>
+      <c r="G107" s="72"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>339</v>
+        <v>706</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D108" s="6"/>
-      <c r="E108" s="8"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="24"/>
+        <v>711</v>
+      </c>
+      <c r="D108" s="92"/>
+      <c r="E108" s="95"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="72"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>341</v>
+        <v>710</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D109" s="6"/>
-      <c r="E109" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G109" s="24"/>
+        <v>708</v>
+      </c>
+      <c r="D109" s="71"/>
+      <c r="E109" s="73" t="s">
+        <v>709</v>
+      </c>
+      <c r="F109" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="G109" s="72"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>344</v>
+        <v>492</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="8" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F110" s="23" t="s">
         <v>141</v>
@@ -7766,14 +7949,14 @@
         <v>10</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="8" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F111" s="23" t="s">
         <v>141</v>
@@ -7785,14 +7968,14 @@
         <v>10</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D112" s="6"/>
       <c r="E112" s="8" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F112" s="23" t="s">
         <v>141</v>
@@ -7804,14 +7987,14 @@
         <v>10</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>510</v>
+        <v>339</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="8" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="F113" s="23" t="s">
         <v>141</v>
@@ -7823,14 +8006,14 @@
         <v>10</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="8" t="s">
-        <v>512</v>
+        <v>712</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>141</v>
@@ -7842,14 +8025,14 @@
         <v>10</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="8" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>141</v>
@@ -7861,16 +8044,16 @@
         <v>10</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>355</v>
+        <v>498</v>
       </c>
       <c r="D116" s="6"/>
-      <c r="E116" s="78" t="s">
-        <v>514</v>
-      </c>
-      <c r="F116" s="82" t="s">
+      <c r="E116" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="F116" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G116" s="24"/>
@@ -7880,14 +8063,18 @@
         <v>10</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="D117" s="6"/>
-      <c r="E117" s="79"/>
-      <c r="F117" s="83"/>
+      <c r="E117" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7">
@@ -7895,14 +8082,18 @@
         <v>10</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D118" s="6"/>
-      <c r="E118" s="80"/>
-      <c r="F118" s="84"/>
+      <c r="E118" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7">
@@ -7910,16 +8101,16 @@
         <v>10</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="D119" s="6"/>
-      <c r="E119" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="F119" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="D119" s="90"/>
+      <c r="E119" s="83" t="s">
+        <v>502</v>
+      </c>
+      <c r="F119" s="87" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -7929,18 +8120,14 @@
         <v>10</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D120" s="6"/>
-      <c r="E120" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>141</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="D120" s="91"/>
+      <c r="E120" s="84"/>
+      <c r="F120" s="88"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -7948,18 +8135,14 @@
         <v>10</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="D121" s="6"/>
-      <c r="E121" s="96" t="s">
-        <v>623</v>
-      </c>
-      <c r="F121" s="82" t="s">
-        <v>141</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D121" s="92"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="89"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -7967,14 +8150,18 @@
         <v>10</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D122" s="6"/>
-      <c r="E122" s="96"/>
-      <c r="F122" s="83"/>
+      <c r="E122" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7">
@@ -7982,14 +8169,18 @@
         <v>10</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D123" s="6"/>
-      <c r="E123" s="96"/>
-      <c r="F123" s="83"/>
+      <c r="E123" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>141</v>
+      </c>
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7">
@@ -7997,14 +8188,18 @@
         <v>10</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="D124" s="6"/>
-      <c r="E124" s="96"/>
-      <c r="F124" s="83"/>
+        <v>360</v>
+      </c>
+      <c r="D124" s="90"/>
+      <c r="E124" s="95" t="s">
+        <v>604</v>
+      </c>
+      <c r="F124" s="87" t="s">
+        <v>141</v>
+      </c>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7">
@@ -8012,89 +8207,77 @@
         <v>10</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>532</v>
+        <v>361</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="D125" s="6"/>
-      <c r="E125" s="96"/>
-      <c r="F125" s="84"/>
+        <v>362</v>
+      </c>
+      <c r="D125" s="91"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="88"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
-      <c r="A126" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B126" s="36" t="s">
-        <v>533</v>
-      </c>
-      <c r="C126" s="37" t="s">
+      <c r="A126" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D126" s="91"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="88"/>
+      <c r="G126" s="24"/>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D127" s="91"/>
+      <c r="E127" s="95"/>
+      <c r="F127" s="88"/>
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D128" s="92"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="89"/>
+      <c r="G128" s="24"/>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" s="36" t="s">
+        <v>521</v>
+      </c>
+      <c r="C129" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D126" s="35"/>
-      <c r="E126" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="F126" s="35" t="s">
-        <v>536</v>
-      </c>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:7">
-      <c r="A127" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B127" s="39" t="s">
-        <v>534</v>
-      </c>
-      <c r="C127" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="38" t="s">
-        <v>519</v>
-      </c>
-      <c r="F127" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:7">
-      <c r="A128" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B128" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C128" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D128" s="35"/>
-      <c r="E128" s="38" t="s">
-        <v>520</v>
-      </c>
-      <c r="F128" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="G128" s="24"/>
-    </row>
-    <row r="129" spans="1:7">
-      <c r="A129" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="D129" s="6"/>
-      <c r="E129" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="F129" s="23" t="s">
-        <v>141</v>
+      <c r="D129" s="35"/>
+      <c r="E129" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="F129" s="35" t="s">
+        <v>524</v>
       </c>
       <c r="G129" s="24"/>
     </row>
@@ -8103,93 +8286,93 @@
         <v>10</v>
       </c>
       <c r="B130" s="39" t="s">
-        <v>124</v>
+        <v>522</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="D130" s="35"/>
-      <c r="E130" s="37" t="s">
-        <v>521</v>
+      <c r="E130" s="38" t="s">
+        <v>507</v>
       </c>
       <c r="F130" s="35" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B131" s="39" t="s">
-        <v>539</v>
+        <v>19</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>535</v>
+        <v>123</v>
       </c>
       <c r="D131" s="35"/>
-      <c r="E131" s="37" t="s">
-        <v>529</v>
+      <c r="E131" s="38" t="s">
+        <v>508</v>
       </c>
       <c r="F131" s="35" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>523</v>
+        <v>10</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>374</v>
+        <v>505</v>
       </c>
       <c r="D132" s="6"/>
       <c r="E132" s="8" t="s">
-        <v>524</v>
+        <v>605</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>531</v>
+        <v>141</v>
       </c>
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C133" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D133" s="35"/>
+      <c r="E133" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="F133" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="G133" s="24"/>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="D133" s="6"/>
-      <c r="E133" s="8" t="s">
+      <c r="B134" s="39" t="s">
+        <v>527</v>
+      </c>
+      <c r="C134" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="F134" s="35" t="s">
         <v>526</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="G133" s="24"/>
-    </row>
-    <row r="134" spans="1:7">
-      <c r="A134" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="D134" s="6"/>
-      <c r="E134" s="34" t="s">
-        <v>530</v>
-      </c>
-      <c r="F134" s="23" t="s">
-        <v>141</v>
       </c>
       <c r="G134" s="24"/>
     </row>
@@ -8198,33 +8381,33 @@
         <v>9</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>377</v>
+        <v>511</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>528</v>
+        <v>369</v>
       </c>
       <c r="D135" s="6"/>
       <c r="E135" s="8" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>141</v>
+        <v>519</v>
       </c>
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>378</v>
+        <v>513</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="8" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F136" s="23" t="s">
         <v>141</v>
@@ -8232,47 +8415,114 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" s="51" t="s">
-        <v>10</v>
+      <c r="A137" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="C137" s="50" t="s">
-        <v>679</v>
-      </c>
-      <c r="D137" s="19"/>
-      <c r="E137" s="50" t="s">
-        <v>685</v>
-      </c>
-      <c r="F137" s="51" t="s">
-        <v>141</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="34" t="s">
+        <v>518</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" s="51" t="s">
-        <v>10</v>
+      <c r="A138" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="C138" s="50" t="s">
-        <v>681</v>
-      </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="50" t="s">
-        <v>684</v>
-      </c>
-      <c r="F138" s="51" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G138" s="24"/>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="G139" s="24"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>645</v>
+      </c>
+      <c r="D140" s="19"/>
+      <c r="E140" s="47" t="s">
+        <v>648</v>
+      </c>
+      <c r="F140" s="48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C141" s="47" t="s">
+        <v>642</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="47" t="s">
+        <v>649</v>
+      </c>
+      <c r="F141" s="48" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="F116:F118"/>
-    <mergeCell ref="E121:E125"/>
-    <mergeCell ref="F121:F125"/>
+  <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="F119:F121"/>
+    <mergeCell ref="E124:E128"/>
+    <mergeCell ref="F124:F128"/>
     <mergeCell ref="D3:D6"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
@@ -8282,11 +8532,9 @@
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="F106:F108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -2374,10 +2374,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD8402P0_재무건전성분석결과출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKF1501M0_CSA시험수험표출력조회.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2410,22 +2406,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKF0502P0_재무실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0602P0_건강실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0702P0_여가활동실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0802P0_대인관계실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>no id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2458,10 +2438,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKC0102P0_서비스선택.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKC3201M0_강사소개_서울북부.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2486,10 +2462,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD4502P0_결혼자금결과출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKD4502P0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2506,10 +2478,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKD4702P0_교육준비자금 진단결과_보고서 출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>창업준비자금 진단결과_보고서 출력</t>
   </si>
   <si>
@@ -2524,12 +2492,6 @@
     <t>주택자금 진단결과_보고서 출력</t>
   </si>
   <si>
-    <t>UHKD4902P0_주택자금_진단결과_보고서_출력.html</t>
-  </si>
-  <si>
-    <t>UHKD5102P0_창업준비자금_진단결과_보고서_출력.html</t>
-  </si>
-  <si>
     <t>UHKD7402P0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2611,13 +2573,53 @@
   <si>
     <t>UHKD4801M0_목적자금설계_주택자금마련.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5102P0_printpop_창업준비자금_진단결과_보고서_출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4902P0_printpop_주택자금_진단결과_보고서_출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4702P0_printpop_교육준비자금 진단결과_보고서 출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0_printpop_재무건전성분석결과출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4502P0_printpop_결혼준비자금_진단결과_보고서_출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0_pop_서비스선택.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0_pop_재무실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0_pop_건강실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0_pop_여가활동실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0_pop_대인관계실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2732,8 +2734,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2767,12 +2785,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2954,7 +2966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3084,9 +3096,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3126,242 +3135,239 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3643,10 +3649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3655,7 +3661,7 @@
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="78.625" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.625" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="53.625" customWidth="1"/>
   </cols>
@@ -3673,7 +3679,7 @@
       <c r="D1" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="50" t="s">
         <v>129</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -3696,13 +3702,13 @@
       <c r="D2" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="F2" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="55"/>
+      <c r="F2" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
@@ -3715,13 +3721,13 @@
         <v>537</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="F3" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="55"/>
+      <c r="F3" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="6" t="s">
@@ -3734,13 +3740,13 @@
         <v>539</v>
       </c>
       <c r="D4" s="19"/>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="F4" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G4" s="55"/>
+      <c r="F4" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
@@ -3752,14 +3758,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="83" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="93" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="92" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="113"/>
+      <c r="G5" s="102"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -3771,10 +3777,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="114"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="103"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -3786,10 +3792,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="114"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -3801,10 +3807,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="114"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="103"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -3816,10 +3822,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="114"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="103"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -3831,10 +3837,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="115"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -3847,13 +3853,13 @@
         <v>557</v>
       </c>
       <c r="D11" s="19"/>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="45" t="s">
         <v>606</v>
       </c>
-      <c r="F11" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" s="55"/>
+      <c r="F11" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
@@ -3866,13 +3872,13 @@
         <v>559</v>
       </c>
       <c r="D12" s="19"/>
-      <c r="E12" s="46" t="s">
-        <v>657</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12" s="55"/>
+      <c r="E12" s="45" t="s">
+        <v>656</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
@@ -3885,32 +3891,32 @@
         <v>561</v>
       </c>
       <c r="D13" s="19"/>
-      <c r="E13" s="46" t="s">
-        <v>652</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="55"/>
+      <c r="E13" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>562</v>
       </c>
       <c r="D14" s="19"/>
-      <c r="E14" s="46" t="s">
-        <v>653</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="55"/>
+      <c r="E14" s="45" t="s">
+        <v>652</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
@@ -3923,32 +3929,32 @@
         <v>564</v>
       </c>
       <c r="D15" s="22"/>
-      <c r="E15" s="46" t="s">
-        <v>654</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="55"/>
+      <c r="E15" s="45" t="s">
+        <v>653</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>567</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D16" s="19"/>
-      <c r="E16" s="46" t="s">
-        <v>667</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="55"/>
+      <c r="E16" s="45" t="s">
+        <v>662</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
@@ -3961,13 +3967,13 @@
         <v>571</v>
       </c>
       <c r="D17" s="19"/>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="45" t="s">
         <v>607</v>
       </c>
-      <c r="F17" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G17" s="55"/>
+      <c r="F17" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
@@ -3979,14 +3985,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="83" t="s">
+      <c r="D18" s="83"/>
+      <c r="E18" s="93" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="87" t="s">
+      <c r="F18" s="96" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="113"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -3998,10 +4004,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="114"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="103"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -4013,10 +4019,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="114"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="103"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -4028,10 +4034,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="115"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -4044,13 +4050,13 @@
         <v>582</v>
       </c>
       <c r="D22" s="19"/>
-      <c r="E22" s="46" t="s">
-        <v>658</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="55"/>
+      <c r="E22" s="45" t="s">
+        <v>657</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="s">
@@ -4063,32 +4069,32 @@
         <v>584</v>
       </c>
       <c r="D23" s="19"/>
-      <c r="E23" s="46" t="s">
-        <v>656</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="55"/>
+      <c r="E23" s="45" t="s">
+        <v>655</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="B24" s="126" t="s">
         <v>565</v>
       </c>
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="127" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60" t="s">
-        <v>655</v>
-      </c>
-      <c r="F24" s="57" t="s">
+      <c r="D24" s="126"/>
+      <c r="E24" s="128" t="s">
+        <v>654</v>
+      </c>
+      <c r="F24" s="126" t="s">
         <v>600</v>
       </c>
-      <c r="G24" s="61" t="s">
+      <c r="G24" s="129" t="s">
         <v>602</v>
       </c>
     </row>
@@ -4103,13 +4109,13 @@
         <v>586</v>
       </c>
       <c r="D25" s="19"/>
-      <c r="E25" s="46" t="s">
-        <v>659</v>
-      </c>
-      <c r="F25" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G25" s="55"/>
+      <c r="E25" s="45" t="s">
+        <v>658</v>
+      </c>
+      <c r="F25" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="17" t="s">
@@ -4122,13 +4128,13 @@
         <v>589</v>
       </c>
       <c r="D26" s="19"/>
-      <c r="E26" s="56" t="s">
-        <v>660</v>
-      </c>
-      <c r="F26" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="55"/>
+      <c r="E26" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17" t="s">
@@ -4141,13 +4147,13 @@
         <v>592</v>
       </c>
       <c r="D27" s="19"/>
-      <c r="E27" s="56" t="s">
-        <v>661</v>
-      </c>
-      <c r="F27" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="55"/>
+      <c r="E27" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="17" t="s">
@@ -4160,13 +4166,13 @@
         <v>594</v>
       </c>
       <c r="D28" s="19"/>
-      <c r="E28" s="56" t="s">
-        <v>662</v>
-      </c>
-      <c r="F28" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G28" s="55"/>
+      <c r="E28" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="F28" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="17" t="s">
@@ -4179,514 +4185,388 @@
         <v>596</v>
       </c>
       <c r="D29" s="19"/>
-      <c r="E29" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="55"/>
+      <c r="E29" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="76" t="s">
+      <c r="A30" s="130" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="130" t="s">
+        <v>659</v>
+      </c>
+      <c r="C30" s="131" t="s">
         <v>664</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="D30" s="130"/>
+      <c r="E30" s="132" t="s">
+        <v>665</v>
+      </c>
+      <c r="F30" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="133" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1">
+      <c r="A31" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="59" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" s="71" t="s">
+        <v>666</v>
+      </c>
+      <c r="D31" s="58" t="s">
+        <v>609</v>
+      </c>
+      <c r="E31" s="72" t="s">
+        <v>708</v>
+      </c>
+      <c r="F31" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G31" s="73"/>
+    </row>
+    <row r="32" spans="1:7" s="57" customFormat="1">
+      <c r="A32" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="59" t="s">
         <v>669</v>
       </c>
-      <c r="D30" s="76"/>
-      <c r="E30" s="78" t="s">
+      <c r="C32" s="71" t="s">
+        <v>671</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="74" t="s">
         <v>670</v>
       </c>
-      <c r="F30" s="76" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="79" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="65" t="s">
+      <c r="F32" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="57" customFormat="1">
+      <c r="A33" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="C33" s="73" t="s">
+        <v>623</v>
+      </c>
+      <c r="D33" s="86"/>
+      <c r="E33" s="89" t="s">
+        <v>667</v>
+      </c>
+      <c r="F33" s="99" t="s">
+        <v>639</v>
+      </c>
+      <c r="G33" s="89" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="57" customFormat="1">
+      <c r="A34" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="69" t="s">
+        <v>624</v>
+      </c>
+      <c r="C34" s="73" t="s">
+        <v>625</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="90"/>
+    </row>
+    <row r="35" spans="1:7" s="57" customFormat="1">
+      <c r="A35" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="69" t="s">
+        <v>626</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>627</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="90"/>
+    </row>
+    <row r="36" spans="1:7" s="57" customFormat="1">
+      <c r="A36" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="69" t="s">
+        <v>628</v>
+      </c>
+      <c r="C36" s="73" t="s">
+        <v>629</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="90"/>
+    </row>
+    <row r="37" spans="1:7" s="57" customFormat="1">
+      <c r="A37" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="69" t="s">
+        <v>630</v>
+      </c>
+      <c r="C37" s="73" t="s">
+        <v>631</v>
+      </c>
+      <c r="D37" s="87"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="90"/>
+    </row>
+    <row r="38" spans="1:7" s="57" customFormat="1">
+      <c r="A38" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="69" t="s">
+        <v>632</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>633</v>
+      </c>
+      <c r="D38" s="87"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="90"/>
+    </row>
+    <row r="39" spans="1:7" s="57" customFormat="1">
+      <c r="A39" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="69" t="s">
+        <v>634</v>
+      </c>
+      <c r="C39" s="73" t="s">
+        <v>635</v>
+      </c>
+      <c r="D39" s="88"/>
+      <c r="E39" s="91"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="91"/>
+    </row>
+    <row r="40" spans="1:7" s="57" customFormat="1">
+      <c r="A40" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="65" t="s">
-        <v>674</v>
-      </c>
-      <c r="C31" s="82" t="s">
-        <v>671</v>
-      </c>
-      <c r="D31" s="64" t="s">
-        <v>609</v>
-      </c>
-      <c r="E31" s="102" t="s">
+      <c r="B40" s="69" t="s">
+        <v>638</v>
+      </c>
+      <c r="C40" s="73" t="s">
+        <v>636</v>
+      </c>
+      <c r="D40" s="76"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="70"/>
+    </row>
+    <row r="41" spans="1:7" s="57" customFormat="1">
+      <c r="A41" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>672</v>
       </c>
-      <c r="F31" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="103"/>
-    </row>
-    <row r="32" spans="1:7" s="63" customFormat="1">
-      <c r="A32" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B32" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="C32" s="82" t="s">
-        <v>677</v>
-      </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="104" t="s">
-        <v>676</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="105" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="63" customFormat="1">
-      <c r="A33" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>637</v>
-      </c>
-      <c r="C33" s="103" t="s">
-        <v>623</v>
-      </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="107" t="s">
-        <v>673</v>
-      </c>
-      <c r="F33" s="108" t="s">
-        <v>639</v>
-      </c>
-      <c r="G33" s="107" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="63" customFormat="1">
-      <c r="A34" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="80" t="s">
-        <v>624</v>
-      </c>
-      <c r="C34" s="103" t="s">
-        <v>625</v>
-      </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="110"/>
-      <c r="G34" s="109"/>
-    </row>
-    <row r="35" spans="1:7" s="63" customFormat="1">
-      <c r="A35" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>626</v>
-      </c>
-      <c r="C35" s="103" t="s">
-        <v>627</v>
-      </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="110"/>
-      <c r="G35" s="109"/>
-    </row>
-    <row r="36" spans="1:7" s="63" customFormat="1">
-      <c r="A36" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>628</v>
-      </c>
-      <c r="C36" s="103" t="s">
-        <v>629</v>
-      </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="109"/>
-      <c r="F36" s="110"/>
-      <c r="G36" s="109"/>
-    </row>
-    <row r="37" spans="1:7" s="63" customFormat="1">
-      <c r="A37" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="80" t="s">
-        <v>630</v>
-      </c>
-      <c r="C37" s="103" t="s">
-        <v>631</v>
-      </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="109"/>
-    </row>
-    <row r="38" spans="1:7" s="63" customFormat="1">
-      <c r="A38" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="80" t="s">
-        <v>632</v>
-      </c>
-      <c r="C38" s="103" t="s">
-        <v>633</v>
-      </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="109"/>
-    </row>
-    <row r="39" spans="1:7" s="63" customFormat="1">
-      <c r="A39" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="80" t="s">
-        <v>634</v>
-      </c>
-      <c r="C39" s="103" t="s">
-        <v>635</v>
-      </c>
-      <c r="D39" s="121"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="111"/>
-    </row>
-    <row r="40" spans="1:7" s="63" customFormat="1">
-      <c r="A40" s="80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>638</v>
-      </c>
-      <c r="C40" s="103" t="s">
-        <v>636</v>
-      </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="102"/>
-      <c r="F40" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="81"/>
-    </row>
-    <row r="41" spans="1:7" s="63" customFormat="1">
-      <c r="A41" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="46" t="s">
         <v>650</v>
       </c>
-      <c r="D41" s="67" t="s">
+      <c r="D41" s="61" t="s">
         <v>644</v>
       </c>
-      <c r="E41" s="50" t="s">
-        <v>651</v>
-      </c>
-      <c r="F41" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="62"/>
-    </row>
-    <row r="42" spans="1:7" s="63" customFormat="1">
+      <c r="E41" s="49" t="s">
+        <v>706</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="56"/>
+    </row>
+    <row r="42" spans="1:7" s="57" customFormat="1">
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>335</v>
       </c>
       <c r="D42" s="17"/>
-      <c r="E42" s="49" t="s">
-        <v>679</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="62"/>
-    </row>
-    <row r="43" spans="1:7" s="63" customFormat="1">
+      <c r="E42" s="48" t="s">
+        <v>707</v>
+      </c>
+      <c r="F42" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="56"/>
+    </row>
+    <row r="43" spans="1:7" s="57" customFormat="1">
       <c r="A43" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D43" s="17"/>
-      <c r="E43" s="50" t="s">
-        <v>684</v>
-      </c>
-      <c r="F43" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="62"/>
-    </row>
-    <row r="44" spans="1:7" s="63" customFormat="1">
+      <c r="E43" s="49" t="s">
+        <v>705</v>
+      </c>
+      <c r="F43" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="56"/>
+    </row>
+    <row r="44" spans="1:7" s="57" customFormat="1">
       <c r="A44" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="D44" s="17"/>
-      <c r="E44" s="73" t="s">
-        <v>689</v>
-      </c>
-      <c r="F44" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="62"/>
-    </row>
-    <row r="45" spans="1:7" s="63" customFormat="1">
-      <c r="A45" s="70" t="s">
+      <c r="E44" s="66" t="s">
+        <v>704</v>
+      </c>
+      <c r="F44" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="56"/>
+    </row>
+    <row r="45" spans="1:7" s="57" customFormat="1">
+      <c r="A45" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="70" t="s">
-        <v>686</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>685</v>
+      <c r="B45" s="63" t="s">
+        <v>678</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>677</v>
       </c>
       <c r="D45" s="17"/>
-      <c r="E45" s="73" t="s">
-        <v>690</v>
-      </c>
-      <c r="F45" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="62"/>
-    </row>
-    <row r="46" spans="1:7" s="63" customFormat="1">
+      <c r="E45" s="66" t="s">
+        <v>703</v>
+      </c>
+      <c r="F45" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="56"/>
+    </row>
+    <row r="46" spans="1:7" s="57" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D46" s="28"/>
-      <c r="E46" s="50" t="s">
-        <v>693</v>
-      </c>
-      <c r="F46" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="62"/>
-    </row>
-    <row r="47" spans="1:7" s="63" customFormat="1">
-      <c r="A47" s="68"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="62"/>
-    </row>
-    <row r="48" spans="1:7" s="63" customFormat="1">
-      <c r="A48" s="69"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="62"/>
-    </row>
-    <row r="49" spans="1:7" s="63" customFormat="1">
-      <c r="A49" s="48"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="62"/>
-    </row>
-    <row r="50" spans="1:7" s="63" customFormat="1">
-      <c r="A50" s="48"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="62"/>
-    </row>
-    <row r="51" spans="1:7" s="63" customFormat="1">
-      <c r="A51" s="48"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="50"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="62"/>
-    </row>
-    <row r="52" spans="1:7" s="63" customFormat="1">
-      <c r="A52" s="48"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="62"/>
-    </row>
-    <row r="53" spans="1:7" s="63" customFormat="1">
-      <c r="A53" s="48"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="62"/>
-    </row>
-    <row r="54" spans="1:7" s="63" customFormat="1">
-      <c r="A54" s="48"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="62"/>
-    </row>
-    <row r="55" spans="1:7" s="63" customFormat="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="50"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="62"/>
-    </row>
-    <row r="56" spans="1:7" s="63" customFormat="1">
-      <c r="A56" s="48"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="62"/>
-    </row>
-    <row r="57" spans="1:7" s="63" customFormat="1">
-      <c r="A57" s="48"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="50"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="62"/>
-    </row>
-    <row r="58" spans="1:7" s="63" customFormat="1">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="62"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="45"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="55"/>
-    </row>
-    <row r="60" spans="1:7" ht="33" customHeight="1">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="4" t="s">
+      <c r="E46" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="F46" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="56"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="54"/>
+    </row>
+    <row r="48" spans="1:7" ht="33" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="53" t="s">
+      <c r="E49" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="6"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="6"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4705,6 +4585,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4712,8 +4593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C14"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4838,14 +4719,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="94" t="s">
+      <c r="D6" s="83"/>
+      <c r="E6" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="87"/>
+      <c r="F6" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="96"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -4857,10 +4738,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="88"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="97"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -4872,10 +4753,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="88"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -4887,10 +4768,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="89"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="98"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -4959,14 +4840,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="93" t="s">
+      <c r="D13" s="83"/>
+      <c r="E13" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="87"/>
+      <c r="F13" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="96"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -4978,10 +4859,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="89"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="98"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -4993,14 +4874,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="83"/>
+      <c r="E15" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="86" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="87"/>
+      <c r="F15" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="96"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -5012,10 +4893,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="88"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="97"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -5027,10 +4908,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="88"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="97"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -5042,10 +4923,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="88"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="97"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -5057,10 +4938,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="88"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="97"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -5072,10 +4953,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="88"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="97"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -5087,10 +4968,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="88"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="97"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -5102,10 +4983,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="88"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="97"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -5117,10 +4998,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="88"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="97"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -5132,10 +5013,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="88"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="97"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -5147,10 +5028,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="88"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="97"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -5162,10 +5043,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="88"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="97"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -5177,10 +5058,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="117"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="88"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="97"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -5192,10 +5073,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="88"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="97"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -5207,10 +5088,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="117"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="88"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="97"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -5222,10 +5103,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="88"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="97"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -5237,10 +5118,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="89"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="98"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -5253,457 +5134,457 @@
         <v>643</v>
       </c>
       <c r="D32" s="19"/>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="G32" s="55"/>
+      <c r="F32" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="106" t="s">
+      <c r="A33" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="122" t="s">
+      <c r="C33" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="106" t="s">
+      <c r="D33" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="F33" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="81"/>
+      <c r="F33" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="70"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="106" t="s">
+      <c r="A34" s="76" t="s">
         <v>641</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="122" t="s">
+      <c r="C34" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="106"/>
-      <c r="E34" s="103" t="s">
+      <c r="D34" s="76"/>
+      <c r="E34" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="F34" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G34" s="81"/>
+      <c r="F34" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="70"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="106" t="s">
+      <c r="A35" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="122" t="s">
+      <c r="C35" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="106"/>
-      <c r="E35" s="103" t="s">
+      <c r="D35" s="76"/>
+      <c r="E35" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="F35" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G35" s="81"/>
+      <c r="F35" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" s="70"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="106" t="s">
+      <c r="A36" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="122" t="s">
+      <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="123" t="s">
+      <c r="D36" s="86"/>
+      <c r="E36" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="124" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="107"/>
+      <c r="F36" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="89"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="109"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="90"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="106" t="s">
+      <c r="A38" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="111"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="108"/>
+      <c r="F38" s="109"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" s="106" t="s">
+      <c r="A39" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="76" t="s">
         <v>620</v>
       </c>
-      <c r="C39" s="122" t="s">
+      <c r="C39" s="77" t="s">
         <v>619</v>
       </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="103" t="s">
+      <c r="D39" s="76"/>
+      <c r="E39" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="F39" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G39" s="103"/>
+      <c r="F39" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G39" s="73"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="106" t="s">
+      <c r="A40" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="76" t="s">
         <v>618</v>
       </c>
-      <c r="C40" s="122" t="s">
+      <c r="C40" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D40" s="106"/>
-      <c r="E40" s="103" t="s">
+      <c r="D40" s="76"/>
+      <c r="E40" s="73" t="s">
         <v>621</v>
       </c>
-      <c r="F40" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G40" s="103"/>
+      <c r="F40" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="73"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="106" t="s">
+      <c r="A41" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="103" t="s">
+      <c r="D41" s="76"/>
+      <c r="E41" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="F41" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G41" s="103"/>
+      <c r="F41" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="73"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="106" t="s">
+      <c r="A42" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="122" t="s">
+      <c r="C42" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="103" t="s">
+      <c r="D42" s="76"/>
+      <c r="E42" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="F42" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="103"/>
+      <c r="F42" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="73"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="106" t="s">
+      <c r="A43" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="103" t="s">
+      <c r="D43" s="76"/>
+      <c r="E43" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="F43" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="103"/>
+      <c r="F43" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="73"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="106" t="s">
+      <c r="A44" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="122" t="s">
+      <c r="C44" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="106"/>
-      <c r="E44" s="103" t="s">
+      <c r="D44" s="76"/>
+      <c r="E44" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="103"/>
+      <c r="F44" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="106" t="s">
+      <c r="B45" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="122" t="s">
+      <c r="C45" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="106"/>
-      <c r="E45" s="103" t="s">
+      <c r="D45" s="76"/>
+      <c r="E45" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="F45" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G45" s="103"/>
+      <c r="F45" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="106" t="s">
+      <c r="A46" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="76" t="s">
         <v>603</v>
       </c>
-      <c r="C46" s="122" t="s">
+      <c r="C46" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="106"/>
-      <c r="E46" s="103" t="s">
+      <c r="D46" s="76"/>
+      <c r="E46" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="F46" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G46" s="103"/>
+      <c r="F46" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G46" s="73"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="106" t="s">
+      <c r="A47" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="122" t="s">
+      <c r="C47" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="D47" s="106"/>
-      <c r="E47" s="103" t="s">
+      <c r="D47" s="76"/>
+      <c r="E47" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="103" t="s">
+      <c r="F47" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="73" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="106" t="s">
+      <c r="A48" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="122" t="s">
+      <c r="C48" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="106"/>
-      <c r="E48" s="103" t="s">
+      <c r="D48" s="76"/>
+      <c r="E48" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="103"/>
+      <c r="F48" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="73"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="106" t="s">
+      <c r="A49" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="122" t="s">
+      <c r="C49" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="106"/>
-      <c r="E49" s="103" t="s">
+      <c r="D49" s="76"/>
+      <c r="E49" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="F49" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G49" s="103"/>
+      <c r="F49" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="73"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="106" t="s">
+      <c r="A50" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="122" t="s">
+      <c r="C50" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="103" t="s">
+      <c r="D50" s="76"/>
+      <c r="E50" s="73" t="s">
         <v>157</v>
       </c>
-      <c r="F50" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="103"/>
+      <c r="F50" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="106" t="s">
+      <c r="A51" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="122" t="s">
+      <c r="C51" s="77" t="s">
         <v>106</v>
       </c>
-      <c r="D51" s="106"/>
-      <c r="E51" s="103" t="s">
+      <c r="D51" s="76"/>
+      <c r="E51" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="103"/>
+      <c r="F51" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="73"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="106" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="106" t="s">
+      <c r="A52" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="122" t="s">
+      <c r="C52" s="77" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="106"/>
-      <c r="E52" s="103" t="s">
+      <c r="D52" s="76"/>
+      <c r="E52" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="F52" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G52" s="103"/>
+      <c r="F52" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="73"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="106" t="s">
+      <c r="A53" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="125" t="s">
+      <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="127"/>
-      <c r="E53" s="123" t="s">
+      <c r="D53" s="105"/>
+      <c r="E53" s="108" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="124" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="107"/>
+      <c r="F53" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="89"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="106" t="s">
+      <c r="A54" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B54" s="106" t="s">
+      <c r="B54" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="128"/>
-      <c r="E54" s="123"/>
-      <c r="F54" s="124"/>
-      <c r="G54" s="109"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="108"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="90"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="106" t="s">
+      <c r="B55" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="125" t="s">
+      <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="129"/>
-      <c r="E55" s="123"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="111"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="108"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="91"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="106" t="s">
+      <c r="A56" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="106" t="s">
+      <c r="B56" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="103" t="s">
+      <c r="D56" s="79"/>
+      <c r="E56" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="F56" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="G56" s="103"/>
+      <c r="F56" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G56" s="73"/>
     </row>
     <row r="57" spans="1:7" ht="33" customHeight="1">
       <c r="A57" s="10"/>
@@ -5836,6 +5717,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E15:E31"/>
+    <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="G6:G9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="G13:G14"/>
@@ -5852,10 +5737,6 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E31"/>
-    <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5927,8 +5808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5987,16 +5868,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="99" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="99" t="s">
+      <c r="A3" s="115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="115" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="96" t="s">
+      <c r="D3" s="118" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -6008,10 +5889,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="116"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -6021,10 +5902,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -6034,10 +5915,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="120"/>
+      <c r="D6" s="120"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -6097,10 +5978,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="87" t="s">
+      <c r="F9" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -6116,8 +5997,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="89"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -6150,10 +6031,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="93" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="87" t="s">
+      <c r="F12" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -6169,8 +6050,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -6184,8 +6065,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="89"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -6218,10 +6099,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="93" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="87" t="s">
+      <c r="F16" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -6237,8 +6118,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="88"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="97"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -6252,8 +6133,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="89"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -6286,10 +6167,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="83" t="s">
+      <c r="E20" s="93" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="87" t="s">
+      <c r="F20" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -6305,8 +6186,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="89"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -6699,17 +6580,17 @@
       <c r="A42" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>616</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="D42" s="44"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="8" t="s">
         <v>613</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>141</v>
       </c>
       <c r="G42" s="33" t="s">
@@ -6758,22 +6639,22 @@
       <c r="A45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B45" s="74" t="s">
+      <c r="B45" s="67" t="s">
         <v>214</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="132" t="s">
+      <c r="D45" s="82" t="s">
         <v>380</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="68" t="s">
         <v>424</v>
       </c>
-      <c r="F45" s="74" t="s">
+      <c r="F45" s="67" t="s">
         <v>423</v>
       </c>
-      <c r="G45" s="75"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="s">
@@ -7141,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>279</v>
@@ -7251,40 +7132,40 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="80" t="s">
+      <c r="B71" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="C71" s="103" t="s">
+      <c r="C71" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="130"/>
-      <c r="E71" s="131" t="s">
+      <c r="D71" s="80"/>
+      <c r="E71" s="81" t="s">
         <v>455</v>
       </c>
-      <c r="F71" s="80" t="s">
-        <v>695</v>
+      <c r="F71" s="69" t="s">
+        <v>685</v>
       </c>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="80" t="s">
+      <c r="A72" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="80" t="s">
+      <c r="B72" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="103" t="s">
+      <c r="C72" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="D72" s="130"/>
-      <c r="E72" s="131" t="s">
+      <c r="D72" s="80"/>
+      <c r="E72" s="81" t="s">
         <v>456</v>
       </c>
-      <c r="F72" s="80" t="s">
-        <v>696</v>
+      <c r="F72" s="69" t="s">
+        <v>686</v>
       </c>
       <c r="G72" s="24"/>
     </row>
@@ -7410,13 +7291,13 @@
         <v>296</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="D79" s="133"/>
-      <c r="E79" s="83" t="s">
-        <v>697</v>
-      </c>
-      <c r="F79" s="87" t="s">
+        <v>688</v>
+      </c>
+      <c r="D79" s="122"/>
+      <c r="E79" s="93" t="s">
+        <v>687</v>
+      </c>
+      <c r="F79" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -7424,15 +7305,15 @@
     <row r="80" spans="1:7">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="D80" s="134"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="88"/>
-      <c r="G80" s="72"/>
+        <v>690</v>
+      </c>
+      <c r="D80" s="123"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="6" t="s">
@@ -7444,9 +7325,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="134"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="88"/>
+      <c r="D81" s="123"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="97"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -7459,9 +7340,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="134"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="88"/>
+      <c r="D82" s="123"/>
+      <c r="E82" s="94"/>
+      <c r="F82" s="97"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -7474,9 +7355,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="134"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="88"/>
+      <c r="D83" s="123"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="97"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -7489,9 +7370,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="134"/>
-      <c r="E84" s="84"/>
-      <c r="F84" s="88"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="97"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -7504,9 +7385,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="134"/>
-      <c r="E85" s="84"/>
-      <c r="F85" s="88"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="94"/>
+      <c r="F85" s="97"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -7519,9 +7400,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="134"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="88"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="97"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -7534,9 +7415,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="135"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="89"/>
+      <c r="D87" s="124"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="98"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -7721,10 +7602,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="95" t="s">
-        <v>707</v>
-      </c>
-      <c r="F97" s="87" t="s">
+      <c r="E97" s="121" t="s">
+        <v>697</v>
+      </c>
+      <c r="F97" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -7740,8 +7621,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="95"/>
-      <c r="F98" s="88"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="97"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -7755,8 +7636,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="88"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="97"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -7770,8 +7651,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="88"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="97"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -7785,8 +7666,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="88"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="97"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -7800,8 +7681,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="95"/>
-      <c r="F102" s="88"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="97"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -7815,8 +7696,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="89"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="98"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -7862,68 +7743,68 @@
         <v>9</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="D106" s="90"/>
-      <c r="E106" s="95" t="s">
-        <v>701</v>
-      </c>
-      <c r="F106" s="90" t="s">
+        <v>693</v>
+      </c>
+      <c r="D106" s="112"/>
+      <c r="E106" s="121" t="s">
+        <v>691</v>
+      </c>
+      <c r="F106" s="112" t="s">
         <v>599</v>
       </c>
-      <c r="G106" s="72"/>
+      <c r="G106" s="65"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="D107" s="91"/>
-      <c r="E107" s="95"/>
-      <c r="F107" s="91"/>
-      <c r="G107" s="72"/>
+        <v>695</v>
+      </c>
+      <c r="D107" s="113"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="113"/>
+      <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="D108" s="92"/>
-      <c r="E108" s="95"/>
-      <c r="F108" s="92"/>
-      <c r="G108" s="72"/>
+        <v>701</v>
+      </c>
+      <c r="D108" s="114"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="114"/>
+      <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D109" s="71"/>
-      <c r="E109" s="73" t="s">
-        <v>709</v>
-      </c>
-      <c r="F109" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="G109" s="72"/>
+        <v>698</v>
+      </c>
+      <c r="D109" s="64"/>
+      <c r="E109" s="66" t="s">
+        <v>699</v>
+      </c>
+      <c r="F109" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="G109" s="65"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="6" t="s">
@@ -8013,7 +7894,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="8" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>141</v>
@@ -8106,11 +7987,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="90"/>
-      <c r="E119" s="83" t="s">
+      <c r="D119" s="112"/>
+      <c r="E119" s="93" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="87" t="s">
+      <c r="F119" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -8125,9 +8006,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="91"/>
-      <c r="E120" s="84"/>
-      <c r="F120" s="88"/>
+      <c r="D120" s="113"/>
+      <c r="E120" s="94"/>
+      <c r="F120" s="97"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -8140,9 +8021,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="92"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="89"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="98"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -8193,11 +8074,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="90"/>
-      <c r="E124" s="95" t="s">
+      <c r="D124" s="112"/>
+      <c r="E124" s="121" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="87" t="s">
+      <c r="F124" s="96" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -8212,9 +8093,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="91"/>
-      <c r="E125" s="95"/>
-      <c r="F125" s="88"/>
+      <c r="D125" s="113"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="97"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -8227,9 +8108,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="91"/>
-      <c r="E126" s="95"/>
-      <c r="F126" s="88"/>
+      <c r="D126" s="113"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="97"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -8242,9 +8123,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="91"/>
-      <c r="E127" s="95"/>
-      <c r="F127" s="88"/>
+      <c r="D127" s="113"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="97"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -8257,9 +8138,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="92"/>
-      <c r="E128" s="95"/>
-      <c r="F128" s="89"/>
+      <c r="D128" s="114"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="98"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -8472,53 +8353,43 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C140" s="47" t="s">
+      <c r="C140" s="46" t="s">
         <v>645</v>
       </c>
       <c r="D140" s="19"/>
-      <c r="E140" s="47" t="s">
+      <c r="E140" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="F140" s="48" t="s">
+      <c r="F140" s="47" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C141" s="47" t="s">
+      <c r="C141" s="46" t="s">
         <v>642</v>
       </c>
       <c r="D141" s="19"/>
-      <c r="E141" s="47" t="s">
+      <c r="E141" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="F141" s="48" t="s">
+      <c r="F141" s="47" t="s">
         <v>141</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -8535,6 +8406,16 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Work\csa_exportProg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!jWork\!!FREE\CSA\csa_exportProg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="0125" sheetId="6" r:id="rId1"/>
-    <sheet name="0119" sheetId="2" r:id="rId2"/>
-    <sheet name="0109" sheetId="1" r:id="rId3"/>
-    <sheet name="202312" sheetId="4" r:id="rId4"/>
+    <sheet name="0202" sheetId="8" r:id="rId1"/>
+    <sheet name="0125" sheetId="6" r:id="rId2"/>
+    <sheet name="0119" sheetId="2" r:id="rId3"/>
+    <sheet name="0109" sheetId="1" r:id="rId4"/>
+    <sheet name="202312" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="732">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2221,398 +2222,472 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1302P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1302P0_UHKC2902P0_비밀번호입력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인상담 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UHKC1302P0 공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2902P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육신청현황(단체) 비밀번호 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP2301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 자격시험 원서접수 개인정보 이용 동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP2301M0_CSA자격증교육신청개인정보이용동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKP1901M0_CSA자격시험원서접수개인정보이용동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강사소개(서울북부)</t>
+  </si>
+  <si>
+    <t>UHKC3301M0</t>
+  </si>
+  <si>
+    <t>강사소개(서울남부)</t>
+  </si>
+  <si>
+    <t>UHKC3401M0</t>
+  </si>
+  <si>
+    <t>강사소개(경인)</t>
+  </si>
+  <si>
+    <t>UHKC3501M0</t>
+  </si>
+  <si>
+    <t>강사소개(대전)</t>
+  </si>
+  <si>
+    <t>UHKC3601M0</t>
+  </si>
+  <si>
+    <t>강사소개(광주)</t>
+  </si>
+  <si>
+    <t>UHKC3701M0</t>
+  </si>
+  <si>
+    <t>강사소개(대구)</t>
+  </si>
+  <si>
+    <t>UHKC3801M0</t>
+  </si>
+  <si>
+    <t>강사소개(부산)</t>
+  </si>
+  <si>
+    <t>강사소개 상세</t>
+  </si>
+  <si>
+    <t>UHKC3201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3802P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동일 레이아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 결과조회</t>
+  </si>
+  <si>
+    <t>기초연금모의계산 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKD/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 입력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8301M0_재무계산기_재무건전성분석.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8401M0_재무계산기_재무건전성분석_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무건전성분석 결과출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1501M0_CSA시험수험표출력조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1502P0_ printpop_CSA시험수험표출력.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1601M0_CSA시험결과보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2502P0_ printpop_CSA합격증서출력.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF2501M0_합격증서조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1201M0_CSA교육수료내역조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1602P0_pop_01.html, UHKF1602P0_pop_02.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0_CSA자격증등록조회.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>no id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1901M0_종합진단내역실천과제.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합진단 내역 실천과제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA 교육 수료증 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1201M0_printpop_CSA교육수료증출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3201M0_강사소개_서울북부.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2701M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC2701M0_교육신청_단체_개인정보동의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육신청(단체) 개인정보동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인에만 존재. ID 없음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육준비자금 진단결과_보고서 출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4702P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>창업준비자금 진단결과_보고서 출력</t>
+  </si>
+  <si>
+    <t>UHKD5102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4902P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주택자금 진단결과_보고서 출력</t>
+  </si>
+  <si>
+    <t>UHKD7402P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>연도별 누적액 비교</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD7402P0_pop_연도별_누적액_비교.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD1701M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2701M0_종합재무설계_결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합재무분석 결과</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2801M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무상태분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4303P0_pop_종합의견및제안상세보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4303P0</t>
+  </si>
+  <si>
+    <t>제안상세보기_소비지출 조정안Tab</t>
+  </si>
+  <si>
+    <t>UHKD4304P0</t>
+  </si>
+  <si>
+    <t>제안상세보기_포트폴리오 요약 조회Tab</t>
+  </si>
+  <si>
+    <t>UHKD4305P0</t>
+  </si>
+  <si>
+    <t>UHKD3601M0_설계안수립.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고서 출력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4306P0_pop_종합의견 및 제안_보고서 출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4306P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안상세보기_포트폴리오 상세 조회Tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4801M0_목적자금설계_주택자금마련.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5102P0_printpop_창업준비자금_진단결과_보고서_출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4902P0_printpop_주택자금_진단결과_보고서_출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4702P0_printpop_교육준비자금 진단결과_보고서 출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD8402P0_printpop_재무건전성분석결과출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD4502P0_printpop_결혼준비자금_진단결과_보고서_출력.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0_pop_서비스선택.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0_pop_재무실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0_pop_건강실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0_pop_여가활동실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0_pop_대인관계실천과제보기.html</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD0102P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD0102P0_pop_노후필요생활비통계.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후필요생활비통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생애자금분석상세보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD3002P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요없는 CSS가 설정된 부분 삭제. modalWrap 클래스에 wide 클래스 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요없는 CSS가 설정된 부분 삭제.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2302P0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2302P0_pop_배우자의예상연금조회절차.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우자의예상연금조회절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0102P0</t>
+  </si>
+  <si>
+    <t>UHKC0102P0_pop_서비스선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/html/UHKC/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC1302P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2902P0 공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC1302P0_UHKC2902P0_비밀번호입력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인상담 비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> UHKC1302P0 공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2902P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육신청현황(단체) 비밀번호 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP2301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA 자격시험 원서접수 개인정보 이용 동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP1901M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP2301M0_CSA자격증교육신청개인정보이용동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKP1901M0_CSA자격시험원서접수개인정보이용동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강사소개(서울북부)</t>
-  </si>
-  <si>
-    <t>UHKC3301M0</t>
-  </si>
-  <si>
-    <t>강사소개(서울남부)</t>
-  </si>
-  <si>
-    <t>UHKC3401M0</t>
-  </si>
-  <si>
-    <t>강사소개(경인)</t>
-  </si>
-  <si>
-    <t>UHKC3501M0</t>
-  </si>
-  <si>
-    <t>강사소개(대전)</t>
-  </si>
-  <si>
-    <t>UHKC3601M0</t>
-  </si>
-  <si>
-    <t>강사소개(광주)</t>
-  </si>
-  <si>
-    <t>UHKC3701M0</t>
-  </si>
-  <si>
-    <t>강사소개(대구)</t>
-  </si>
-  <si>
-    <t>UHKC3801M0</t>
-  </si>
-  <si>
-    <t>강사소개(부산)</t>
-  </si>
-  <si>
-    <t>강사소개 상세</t>
-  </si>
-  <si>
-    <t>UHKC3201M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC3802P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동일 레이아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무건전성분석 결과조회</t>
-  </si>
-  <si>
-    <t>기초연금모의계산 결과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/UHKD/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무건전성분석 입력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8301M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8401M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8301M0_재무계산기_재무건전성분석.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8401M0_재무계산기_재무건전성분석_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무건전성분석 결과출력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1501M0_CSA시험수험표출력조회.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1502P0_ printpop_CSA시험수험표출력.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1601M0_CSA시험결과보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2502P0_ printpop_CSA합격증서출력.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF2501M0_합격증서조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1201M0_CSA교육수료내역조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1602P0_pop_01.html, UHKF1602P0_pop_02.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1801M0_CSA자격증등록조회.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>no id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1901M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1901M0_종합진단내역실천과제.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합진단 내역 실천과제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA 교육 수료증 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF1201M0_printpop_CSA교육수료증출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서비스 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC3201M0_강사소개_서울북부.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC0102P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2701M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC2701M0_교육신청_단체_개인정보동의.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육신청(단체) 개인정보동의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8402P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>디자인에만 존재. ID 없음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육준비자금 진단결과_보고서 출력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4702P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>창업준비자금 진단결과_보고서 출력</t>
-  </si>
-  <si>
-    <t>UHKD5102P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4902P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>주택자금 진단결과_보고서 출력</t>
-  </si>
-  <si>
-    <t>UHKD7402P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>연도별 누적액 비교</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD7402P0_pop_연도별_누적액_비교.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD1701M0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2701M0_종합재무설계_결과.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합재무분석 결과</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2801M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무상태분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4303P0_pop_종합의견및제안상세보기.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4303P0</t>
-  </si>
-  <si>
-    <t>제안상세보기_소비지출 조정안Tab</t>
-  </si>
-  <si>
-    <t>UHKD4304P0</t>
-  </si>
-  <si>
-    <t>제안상세보기_포트폴리오 요약 조회Tab</t>
-  </si>
-  <si>
-    <t>UHKD4305P0</t>
-  </si>
-  <si>
-    <t>UHKD3601M0_설계안수립.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보고서 출력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4306P0_pop_종합의견 및 제안_보고서 출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4306P0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제안상세보기_포트폴리오 상세 조회Tab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4801M0_목적자금설계_주택자금마련.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD5102P0_printpop_창업준비자금_진단결과_보고서_출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4902P0_printpop_주택자금_진단결과_보고서_출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4702P0_printpop_교육준비자금 진단결과_보고서 출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD8402P0_printpop_재무건전성분석결과출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD4502P0_printpop_결혼준비자금_진단결과_보고서_출력.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC0102P0_pop_서비스선택.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0502P0_pop_재무실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0602P0_pop_건강실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0702P0_pop_여가활동실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0802P0_pop_대인관계실천과제보기.html</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>modal-body-inner 클래스 div 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못 만들어 진 Table 태그들 수정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2204P0</t>
+  </si>
+  <si>
+    <t>기대수명통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2204P0_pop_기대수명통계.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2966,7 +3041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3216,6 +3291,45 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3282,6 +3396,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3297,12 +3414,21 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3312,6 +3438,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3321,52 +3456,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3649,10 +3739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3690,6 +3780,237 @@
       </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="54"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="54"/>
+    </row>
+    <row r="5" spans="1:7" s="57" customFormat="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="56"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="27"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>713</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="86" t="s">
+        <v>721</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>730</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>731</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G12" s="138" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B13" s="83" t="s">
+        <v>723</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>726</v>
+      </c>
+      <c r="E13" s="84" t="s">
+        <v>724</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G13" s="85" t="s">
+        <v>727</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G52"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="78.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3758,14 +4079,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="83"/>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="96"/>
+      <c r="E5" s="106" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="92" t="s">
+      <c r="F5" s="105" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="115"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -3777,10 +4098,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="103"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -3792,10 +4113,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="103"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="116"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -3807,10 +4128,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="103"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="116"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -3822,10 +4143,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="103"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="116"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -3837,10 +4158,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="104"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="117"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -3873,7 +4194,7 @@
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="45" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F12" s="43" t="s">
         <v>141</v>
@@ -3892,7 +4213,7 @@
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="45" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F13" s="43" t="s">
         <v>141</v>
@@ -3904,14 +4225,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>562</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="45" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F14" s="43" t="s">
         <v>141</v>
@@ -3930,7 +4251,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="45" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F15" s="43" t="s">
         <v>141</v>
@@ -3942,14 +4263,14 @@
         <v>567</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="45" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>141</v>
@@ -3985,14 +4306,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="93" t="s">
+      <c r="D18" s="96"/>
+      <c r="E18" s="106" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="109" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="102"/>
+      <c r="G18" s="115"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -4004,10 +4325,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="103"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="116"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -4019,10 +4340,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="103"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="116"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -4034,10 +4355,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="85"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="104"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="117"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -4051,7 +4372,7 @@
       </c>
       <c r="D22" s="19"/>
       <c r="E22" s="45" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F22" s="43" t="s">
         <v>141</v>
@@ -4070,7 +4391,7 @@
       </c>
       <c r="D23" s="19"/>
       <c r="E23" s="45" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F23" s="43" t="s">
         <v>141</v>
@@ -4078,23 +4399,23 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="125" t="s">
+      <c r="A24" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="126" t="s">
+      <c r="B24" s="88" t="s">
         <v>565</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="89" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="126"/>
-      <c r="E24" s="128" t="s">
-        <v>654</v>
-      </c>
-      <c r="F24" s="126" t="s">
+      <c r="D24" s="88"/>
+      <c r="E24" s="90" t="s">
+        <v>653</v>
+      </c>
+      <c r="F24" s="88" t="s">
         <v>600</v>
       </c>
-      <c r="G24" s="129" t="s">
+      <c r="G24" s="91" t="s">
         <v>602</v>
       </c>
     </row>
@@ -4110,7 +4431,7 @@
       </c>
       <c r="D25" s="19"/>
       <c r="E25" s="45" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F25" s="43" t="s">
         <v>141</v>
@@ -4129,7 +4450,7 @@
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="55" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F26" s="43" t="s">
         <v>141</v>
@@ -4148,7 +4469,7 @@
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="55" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F27" s="43" t="s">
         <v>141</v>
@@ -4167,7 +4488,7 @@
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="55" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F28" s="43" t="s">
         <v>141</v>
@@ -4186,7 +4507,7 @@
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="55" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F29" s="43" t="s">
         <v>141</v>
@@ -4194,24 +4515,24 @@
       <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="130" t="s">
+      <c r="A30" s="92" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="130" t="s">
-        <v>659</v>
-      </c>
-      <c r="C30" s="131" t="s">
+      <c r="B30" s="92" t="s">
+        <v>658</v>
+      </c>
+      <c r="C30" s="93" t="s">
+        <v>663</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="94" t="s">
         <v>664</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="132" t="s">
-        <v>665</v>
-      </c>
-      <c r="F30" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="133" t="s">
-        <v>674</v>
+      <c r="F30" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="95" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="8" customFormat="1">
@@ -4219,16 +4540,16 @@
         <v>9</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C31" s="71" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D31" s="58" t="s">
-        <v>609</v>
+        <v>726</v>
       </c>
       <c r="E31" s="72" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F31" s="69" t="s">
         <v>141</v>
@@ -4240,20 +4561,20 @@
         <v>10</v>
       </c>
       <c r="B32" s="59" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C32" s="71" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D32" s="58"/>
       <c r="E32" s="74" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F32" s="69" t="s">
         <v>141</v>
       </c>
       <c r="G32" s="75" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
@@ -4261,20 +4582,20 @@
         <v>10</v>
       </c>
       <c r="B33" s="69" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C33" s="73" t="s">
-        <v>623</v>
-      </c>
-      <c r="D33" s="86"/>
-      <c r="E33" s="89" t="s">
-        <v>667</v>
-      </c>
-      <c r="F33" s="99" t="s">
+        <v>622</v>
+      </c>
+      <c r="D33" s="99"/>
+      <c r="E33" s="102" t="s">
+        <v>666</v>
+      </c>
+      <c r="F33" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="G33" s="102" t="s">
         <v>639</v>
-      </c>
-      <c r="G33" s="89" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="57" customFormat="1">
@@ -4282,100 +4603,100 @@
         <v>10</v>
       </c>
       <c r="B34" s="69" t="s">
+        <v>623</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="C34" s="73" t="s">
-        <v>625</v>
-      </c>
-      <c r="D34" s="87"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="90"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="103"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="69" t="s">
+        <v>625</v>
+      </c>
+      <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="C35" s="73" t="s">
-        <v>627</v>
-      </c>
-      <c r="D35" s="87"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="90"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="103"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="69" t="s">
+        <v>627</v>
+      </c>
+      <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="C36" s="73" t="s">
-        <v>629</v>
-      </c>
-      <c r="D36" s="87"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="90"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="103"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="69" t="s">
+        <v>629</v>
+      </c>
+      <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="C37" s="73" t="s">
-        <v>631</v>
-      </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="90"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="103"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="69" t="s">
+        <v>631</v>
+      </c>
+      <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="C38" s="73" t="s">
-        <v>633</v>
-      </c>
-      <c r="D38" s="87"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="100"/>
-      <c r="G38" s="90"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="103"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="103"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="69" t="s">
+        <v>633</v>
+      </c>
+      <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="C39" s="73" t="s">
-        <v>635</v>
-      </c>
-      <c r="D39" s="88"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="91"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="114"/>
+      <c r="G39" s="104"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B40" s="69" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C40" s="73" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D40" s="76"/>
       <c r="E40" s="72"/>
@@ -4389,16 +4710,16 @@
         <v>9</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D41" s="61" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F41" s="47" t="s">
         <v>141</v>
@@ -4410,14 +4731,14 @@
         <v>9</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>335</v>
       </c>
       <c r="D42" s="17"/>
       <c r="E42" s="48" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F42" s="62" t="s">
         <v>141</v>
@@ -4429,14 +4750,14 @@
         <v>9</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D43" s="17"/>
       <c r="E43" s="49" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F43" s="62" t="s">
         <v>141</v>
@@ -4448,14 +4769,14 @@
         <v>9</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>680</v>
       </c>
       <c r="D44" s="17"/>
       <c r="E44" s="66" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F44" s="62" t="s">
         <v>141</v>
@@ -4467,14 +4788,14 @@
         <v>9</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C45" s="60" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="66" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F45" s="62" t="s">
         <v>141</v>
@@ -4486,14 +4807,14 @@
         <v>9</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>681</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>682</v>
       </c>
       <c r="D46" s="28"/>
       <c r="E46" s="49" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F46" s="62" t="s">
         <v>141</v>
@@ -4589,7 +4910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
@@ -4719,14 +5040,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="110" t="s">
+      <c r="D6" s="96"/>
+      <c r="E6" s="118" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="96"/>
+      <c r="F6" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="109"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -4738,10 +5059,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="110"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -4753,10 +5074,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="110"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -4768,10 +5089,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="111"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -4840,14 +5161,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="83"/>
-      <c r="E13" s="111" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="124" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="96"/>
+      <c r="F13" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="109"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -4859,10 +5180,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -4874,14 +5195,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="83"/>
-      <c r="E15" s="110" t="s">
+      <c r="D15" s="96"/>
+      <c r="E15" s="118" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="96"/>
+      <c r="F15" s="105" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="109"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -4893,10 +5214,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="110"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -4908,10 +5229,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="110"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -4923,10 +5244,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="110"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -4938,10 +5259,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="84"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="110"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -4953,10 +5274,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="84"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="110"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -4968,10 +5289,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="110"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -4983,10 +5304,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="110"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -4998,10 +5319,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="110"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -5013,10 +5334,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="84"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="110"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -5028,10 +5349,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="84"/>
-      <c r="E25" s="110"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -5043,10 +5364,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="84"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="110"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -5058,10 +5379,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="84"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="118"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="110"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -5073,10 +5394,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="110"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -5088,10 +5409,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="84"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="110"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -5103,10 +5424,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="110"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -5118,10 +5439,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="85"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="98"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="111"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -5131,7 +5452,7 @@
         <v>73</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="46" t="s">
@@ -5165,7 +5486,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="76" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>77</v>
@@ -5211,14 +5532,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="86"/>
-      <c r="E36" s="108" t="s">
+      <c r="D36" s="99"/>
+      <c r="E36" s="122" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="89"/>
+      <c r="F36" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="102"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -5230,10 +5551,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="87"/>
-      <c r="E37" s="108"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="90"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="103"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -5245,24 +5566,24 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="108"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="91"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="104"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C39" s="77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D39" s="76"/>
       <c r="E39" s="73" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F39" s="69" t="s">
         <v>141</v>
@@ -5274,14 +5595,14 @@
         <v>10</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C40" s="77" t="s">
         <v>83</v>
       </c>
       <c r="D40" s="76"/>
       <c r="E40" s="73" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F40" s="69" t="s">
         <v>141</v>
@@ -5528,14 +5849,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="108" t="s">
+      <c r="D53" s="119"/>
+      <c r="E53" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="89"/>
+      <c r="F53" s="123" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="102"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -5547,10 +5868,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="106"/>
-      <c r="E54" s="108"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="90"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="103"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -5562,10 +5883,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="107"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="91"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="123"/>
+      <c r="G55" s="104"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -5717,11 +6038,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E15:E31"/>
-    <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="D13:D14"/>
@@ -5737,13 +6053,18 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E15:E31"/>
+    <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -5804,12 +6125,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5868,16 +6189,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="115" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="115" t="s">
+      <c r="A3" s="135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="135" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="126" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="126" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -5889,10 +6210,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="116"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -5902,10 +6223,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="A5" s="136"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -5915,10 +6236,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
+      <c r="A6" s="137"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -5978,10 +6299,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="106" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -5997,8 +6318,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -6031,10 +6352,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="106" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -6050,8 +6371,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="97"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="110"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -6065,8 +6386,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="98"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -6099,10 +6420,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="106" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="96" t="s">
+      <c r="F16" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -6118,8 +6439,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="110"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -6133,8 +6454,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="98"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -6167,10 +6488,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="106" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -6186,8 +6507,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="98"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -6252,20 +6573,20 @@
         <v>9</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F25" s="23" t="s">
         <v>141</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6581,20 +6902,20 @@
         <v>9</v>
       </c>
       <c r="B42" s="43" t="s">
+        <v>615</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>617</v>
       </c>
       <c r="D42" s="43"/>
       <c r="E42" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F42" s="43" t="s">
         <v>141</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -7022,7 +7343,7 @@
         <v>10</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>279</v>
@@ -7146,7 +7467,7 @@
         <v>455</v>
       </c>
       <c r="F71" s="69" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G71" s="24"/>
     </row>
@@ -7165,7 +7486,7 @@
         <v>456</v>
       </c>
       <c r="F72" s="69" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G72" s="24"/>
     </row>
@@ -7291,13 +7612,13 @@
         <v>296</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>688</v>
-      </c>
-      <c r="D79" s="122"/>
-      <c r="E79" s="93" t="s">
         <v>687</v>
       </c>
-      <c r="F79" s="96" t="s">
+      <c r="D79" s="132"/>
+      <c r="E79" s="106" t="s">
+        <v>686</v>
+      </c>
+      <c r="F79" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -7305,14 +7626,14 @@
     <row r="80" spans="1:7">
       <c r="A80" s="6"/>
       <c r="B80" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>690</v>
-      </c>
-      <c r="D80" s="123"/>
-      <c r="E80" s="94"/>
-      <c r="F80" s="97"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="107"/>
+      <c r="F80" s="110"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -7325,9 +7646,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="123"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="97"/>
+      <c r="D81" s="133"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="110"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -7340,9 +7661,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="123"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="97"/>
+      <c r="D82" s="133"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="110"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -7355,9 +7676,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="123"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="97"/>
+      <c r="D83" s="133"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="110"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -7370,9 +7691,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="123"/>
-      <c r="E84" s="94"/>
-      <c r="F84" s="97"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="110"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -7385,9 +7706,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="123"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="97"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="110"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -7400,9 +7721,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="123"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="97"/>
+      <c r="D86" s="133"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="110"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -7415,9 +7736,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="124"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="98"/>
+      <c r="D87" s="134"/>
+      <c r="E87" s="108"/>
+      <c r="F87" s="111"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -7602,10 +7923,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="121" t="s">
-        <v>697</v>
-      </c>
-      <c r="F97" s="96" t="s">
+      <c r="E97" s="125" t="s">
+        <v>696</v>
+      </c>
+      <c r="F97" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -7621,8 +7942,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="97"/>
+      <c r="E98" s="125"/>
+      <c r="F98" s="110"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -7636,8 +7957,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="97"/>
+      <c r="E99" s="125"/>
+      <c r="F99" s="110"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -7651,8 +7972,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="97"/>
+      <c r="E100" s="125"/>
+      <c r="F100" s="110"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -7666,8 +7987,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="97"/>
+      <c r="E101" s="125"/>
+      <c r="F101" s="110"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -7681,8 +8002,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="97"/>
+      <c r="E102" s="125"/>
+      <c r="F102" s="110"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -7696,8 +8017,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="98"/>
+      <c r="E103" s="125"/>
+      <c r="F103" s="111"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -7743,16 +8064,16 @@
         <v>9</v>
       </c>
       <c r="B106" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C106" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="D106" s="112"/>
-      <c r="E106" s="121" t="s">
-        <v>691</v>
-      </c>
-      <c r="F106" s="112" t="s">
+      <c r="D106" s="129"/>
+      <c r="E106" s="125" t="s">
+        <v>690</v>
+      </c>
+      <c r="F106" s="129" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -7762,14 +8083,14 @@
         <v>9</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="D107" s="113"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="113"/>
+      <c r="D107" s="130"/>
+      <c r="E107" s="125"/>
+      <c r="F107" s="130"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -7777,14 +8098,14 @@
         <v>9</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="D108" s="114"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="114"/>
+        <v>700</v>
+      </c>
+      <c r="D108" s="131"/>
+      <c r="E108" s="125"/>
+      <c r="F108" s="131"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -7792,14 +8113,14 @@
         <v>9</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D109" s="64"/>
       <c r="E109" s="66" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F109" s="62" t="s">
         <v>141</v>
@@ -7894,7 +8215,7 @@
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>141</v>
@@ -7987,11 +8308,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="112"/>
-      <c r="E119" s="93" t="s">
+      <c r="D119" s="129"/>
+      <c r="E119" s="106" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="96" t="s">
+      <c r="F119" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -8006,9 +8327,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="113"/>
-      <c r="E120" s="94"/>
-      <c r="F120" s="97"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="107"/>
+      <c r="F120" s="110"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -8021,9 +8342,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="114"/>
-      <c r="E121" s="95"/>
-      <c r="F121" s="98"/>
+      <c r="D121" s="131"/>
+      <c r="E121" s="108"/>
+      <c r="F121" s="111"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -8074,11 +8395,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="112"/>
-      <c r="E124" s="121" t="s">
+      <c r="D124" s="129"/>
+      <c r="E124" s="125" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="96" t="s">
+      <c r="F124" s="109" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -8093,9 +8414,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="113"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="97"/>
+      <c r="D125" s="130"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="110"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -8108,9 +8429,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="113"/>
-      <c r="E126" s="121"/>
-      <c r="F126" s="97"/>
+      <c r="D126" s="130"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="110"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -8123,9 +8444,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="113"/>
-      <c r="E127" s="121"/>
-      <c r="F127" s="97"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="110"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -8138,9 +8459,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="114"/>
-      <c r="E128" s="121"/>
-      <c r="F128" s="98"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="111"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -8357,14 +8678,14 @@
         <v>10</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C140" s="46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D140" s="19"/>
       <c r="E140" s="46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F140" s="47" t="s">
         <v>141</v>
@@ -8375,14 +8696,14 @@
         <v>10</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C141" s="46" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D141" s="19"/>
       <c r="E141" s="46" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F141" s="47" t="s">
         <v>141</v>
@@ -8390,6 +8711,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -8406,16 +8737,6 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!jWork\!!FREE\CSA\csa_exportProg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Work\csa_exportProg\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="776">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2687,6 +2687,144 @@
   </si>
   <si>
     <t>UHKD2204P0_pop_기대수명통계.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용약관</t>
+  </si>
+  <si>
+    <t>UHKA0104P0</t>
+  </si>
+  <si>
+    <t>웹 콘텐츠 접근성 지침</t>
+  </si>
+  <si>
+    <t>UHKA0105P0</t>
+  </si>
+  <si>
+    <t>메뉴안내</t>
+  </si>
+  <si>
+    <t>UHKA0106P0</t>
+  </si>
+  <si>
+    <t>편리한 서비스</t>
+  </si>
+  <si>
+    <t>UHKA0107P0</t>
+  </si>
+  <si>
+    <t>모바일 홈페이지</t>
+  </si>
+  <si>
+    <t>UHKA0108P0</t>
+  </si>
+  <si>
+    <t>장애인지원</t>
+  </si>
+  <si>
+    <t>UHKA0109P0</t>
+  </si>
+  <si>
+    <t>보안프로그램</t>
+  </si>
+  <si>
+    <t>UHKA0110P0</t>
+  </si>
+  <si>
+    <t>로그인 방법</t>
+  </si>
+  <si>
+    <t>UHKA0111P0</t>
+  </si>
+  <si>
+    <t>공인인증서란?</t>
+  </si>
+  <si>
+    <t>UHKA0112P0</t>
+  </si>
+  <si>
+    <t>발급절차</t>
+  </si>
+  <si>
+    <t>UHKA0113P0</t>
+  </si>
+  <si>
+    <t>발급기관</t>
+  </si>
+  <si>
+    <t>UHKA0114P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상연금조회(노령연금조회)</t>
+  </si>
+  <si>
+    <t>UHKA0115P0</t>
+  </si>
+  <si>
+    <t>예상연금조회(상세연금조회)</t>
+  </si>
+  <si>
+    <t>UHKA0116P0</t>
+  </si>
+  <si>
+    <t>UHKA0117P0</t>
+  </si>
+  <si>
+    <t>자가진단</t>
+  </si>
+  <si>
+    <t>UHKA0118P0</t>
+  </si>
+  <si>
+    <t>고객재무정보</t>
+  </si>
+  <si>
+    <t>UHKA0119P0</t>
+  </si>
+  <si>
+    <t>재무분석</t>
+  </si>
+  <si>
+    <t>UHKA0120P0</t>
+  </si>
+  <si>
+    <t>설계안수립</t>
+  </si>
+  <si>
+    <t>UHKA0121P0</t>
+  </si>
+  <si>
+    <t>상담신청</t>
+  </si>
+  <si>
+    <t>UHKA0122P0</t>
+  </si>
+  <si>
+    <t>강의신청</t>
+  </si>
+  <si>
+    <t>RSS서비스</t>
+  </si>
+  <si>
+    <t>UHKA0102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0103P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어해설집</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0123P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKA/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3041,7 +3179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3330,6 +3468,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3396,48 +3546,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3446,18 +3605,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3739,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3780,184 +3927,507 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="19"/>
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D2" s="96" t="s">
+        <v>775</v>
+      </c>
       <c r="E2" s="84"/>
       <c r="F2" s="83"/>
       <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="83"/>
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="83"/>
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="54"/>
     </row>
-    <row r="5" spans="1:7" s="57" customFormat="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="56"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="83"/>
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="96"/>
       <c r="G6" s="54"/>
     </row>
-    <row r="7" spans="1:7" ht="33" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="27"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E8" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>712</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>743</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>713</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>727</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>717</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>745</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="86" t="s">
-        <v>473</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>718</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>720</v>
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>747</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="86" t="s">
-        <v>721</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>719</v>
-      </c>
+        <v>748</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="C12" s="138" t="s">
-        <v>730</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>731</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G12" s="138" t="s">
-        <v>728</v>
-      </c>
+      <c r="A12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="54"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="54"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="54"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="54"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="54"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="54"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="54"/>
+    </row>
+    <row r="23" spans="1:7" s="57" customFormat="1">
+      <c r="A23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="56"/>
+    </row>
+    <row r="24" spans="1:7" s="57" customFormat="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="56"/>
+    </row>
+    <row r="25" spans="1:7" s="57" customFormat="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="56"/>
+    </row>
+    <row r="26" spans="1:7" s="57" customFormat="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="56"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="54"/>
+    </row>
+    <row r="28" spans="1:7" ht="33" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B13" s="83" t="s">
+      <c r="B30" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="86" t="s">
+        <v>713</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="86" t="s">
+        <v>721</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C33" s="99" t="s">
+        <v>730</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>731</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="G33" s="99" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B34" s="83" t="s">
         <v>723</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D34" s="83" t="s">
         <v>726</v>
       </c>
-      <c r="E13" s="84" t="s">
+      <c r="E34" s="84" t="s">
         <v>724</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G13" s="85" t="s">
+      <c r="G34" s="85" t="s">
         <v>727</v>
       </c>
     </row>
@@ -3972,7 +4442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -4079,14 +4549,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="96"/>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="100"/>
+      <c r="E5" s="110" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="109" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="115"/>
+      <c r="G5" s="119"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -4098,10 +4568,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="116"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="120"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -4113,10 +4583,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="116"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="120"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -4128,10 +4598,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="116"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="120"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -4143,10 +4613,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="116"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="120"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -4158,10 +4628,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="117"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="121"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -4306,14 +4776,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="106" t="s">
+      <c r="D18" s="100"/>
+      <c r="E18" s="110" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="113" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="115"/>
+      <c r="G18" s="119"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -4325,10 +4795,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="116"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="120"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -4340,10 +4810,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="116"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="120"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -4355,10 +4825,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="117"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="121"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -4587,14 +5057,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="99"/>
-      <c r="E33" s="102" t="s">
+      <c r="D33" s="103"/>
+      <c r="E33" s="106" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="112" t="s">
+      <c r="F33" s="116" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="102" t="s">
+      <c r="G33" s="106" t="s">
         <v>639</v>
       </c>
     </row>
@@ -4608,10 +5078,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="103"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="107"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -4623,10 +5093,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="103"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="107"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -4638,10 +5108,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="103"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="107"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -4653,10 +5123,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="107"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -4668,10 +5138,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="103"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="103"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="107"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -4683,10 +5153,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="104"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="104"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="118"/>
+      <c r="G39" s="108"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -5040,14 +5510,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="118" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="127" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="109"/>
+      <c r="F6" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -5059,10 +5529,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="97"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="110"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -5074,10 +5544,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="110"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="114"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -5089,10 +5559,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="111"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="115"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -5161,14 +5631,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="124" t="s">
+      <c r="D13" s="100"/>
+      <c r="E13" s="128" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="109"/>
+      <c r="F13" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -5180,10 +5650,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="124"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="111"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="115"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -5195,14 +5665,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="118" t="s">
+      <c r="D15" s="100"/>
+      <c r="E15" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="109"/>
+      <c r="F15" s="109" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -5214,10 +5684,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="110"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="114"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -5229,10 +5699,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="110"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="114"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -5244,10 +5714,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="110"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="114"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -5259,10 +5729,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="110"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="114"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -5274,10 +5744,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="110"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="114"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -5289,10 +5759,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="110"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="114"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -5304,10 +5774,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="110"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="114"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -5319,10 +5789,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="110"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="114"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -5334,10 +5804,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="118"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="110"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="114"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -5349,10 +5819,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="110"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="114"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -5364,10 +5834,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="110"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="114"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -5379,10 +5849,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="110"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="114"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -5394,10 +5864,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="110"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="114"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -5409,10 +5879,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="118"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="110"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="114"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -5424,10 +5894,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="118"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="110"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="114"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -5439,10 +5909,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="98"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="111"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="115"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -5532,14 +6002,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="99"/>
-      <c r="E36" s="122" t="s">
+      <c r="D36" s="103"/>
+      <c r="E36" s="125" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="102"/>
+      <c r="F36" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="106"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -5551,10 +6021,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="122"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="103"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="107"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -5566,10 +6036,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="122"/>
-      <c r="F38" s="123"/>
-      <c r="G38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="108"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -5849,14 +6319,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="119"/>
-      <c r="E53" s="122" t="s">
+      <c r="D53" s="122"/>
+      <c r="E53" s="125" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="123" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="102"/>
+      <c r="F53" s="126" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="106"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -5868,10 +6338,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="120"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="103"/>
+      <c r="D54" s="123"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="107"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -5883,10 +6353,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="121"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="123"/>
-      <c r="G55" s="104"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="108"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -6038,6 +6508,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="D13:D14"/>
@@ -6054,10 +6528,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E15:E31"/>
-    <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6189,16 +6659,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="135" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="135" t="s">
+      <c r="A3" s="132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="132" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="C3" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="126" t="s">
+      <c r="D3" s="135" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -6210,10 +6680,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -6223,10 +6693,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -6236,10 +6706,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="137"/>
-      <c r="B6" s="137"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -6299,10 +6769,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="106" t="s">
+      <c r="E9" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -6318,8 +6788,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="111"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="115"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -6352,10 +6822,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="106" t="s">
+      <c r="E12" s="110" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -6371,8 +6841,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -6386,8 +6856,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="115"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -6420,10 +6890,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="106" t="s">
+      <c r="E16" s="110" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -6439,8 +6909,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="114"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -6454,8 +6924,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="115"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -6488,10 +6958,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="106" t="s">
+      <c r="E20" s="110" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -6507,8 +6977,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="115"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -7614,11 +8084,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="132"/>
-      <c r="E79" s="106" t="s">
+      <c r="D79" s="139"/>
+      <c r="E79" s="110" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="109" t="s">
+      <c r="F79" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -7631,9 +8101,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="133"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="110"/>
+      <c r="D80" s="140"/>
+      <c r="E80" s="111"/>
+      <c r="F80" s="114"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -7646,9 +8116,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="133"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="110"/>
+      <c r="D81" s="140"/>
+      <c r="E81" s="111"/>
+      <c r="F81" s="114"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -7661,9 +8131,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="133"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="110"/>
+      <c r="D82" s="140"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="114"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -7676,9 +8146,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="133"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="110"/>
+      <c r="D83" s="140"/>
+      <c r="E83" s="111"/>
+      <c r="F83" s="114"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -7691,9 +8161,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="133"/>
-      <c r="E84" s="107"/>
-      <c r="F84" s="110"/>
+      <c r="D84" s="140"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="114"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -7706,9 +8176,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="133"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="110"/>
+      <c r="D85" s="140"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="114"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -7721,9 +8191,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="133"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="110"/>
+      <c r="D86" s="140"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="114"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -7736,9 +8206,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="134"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="111"/>
+      <c r="D87" s="141"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="115"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -7923,10 +8393,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="125" t="s">
+      <c r="E97" s="138" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="109" t="s">
+      <c r="F97" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -7942,8 +8412,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="125"/>
-      <c r="F98" s="110"/>
+      <c r="E98" s="138"/>
+      <c r="F98" s="114"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -7957,8 +8427,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="125"/>
-      <c r="F99" s="110"/>
+      <c r="E99" s="138"/>
+      <c r="F99" s="114"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -7972,8 +8442,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="125"/>
-      <c r="F100" s="110"/>
+      <c r="E100" s="138"/>
+      <c r="F100" s="114"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -7987,8 +8457,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="125"/>
-      <c r="F101" s="110"/>
+      <c r="E101" s="138"/>
+      <c r="F101" s="114"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -8002,8 +8472,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="125"/>
-      <c r="F102" s="110"/>
+      <c r="E102" s="138"/>
+      <c r="F102" s="114"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -8017,8 +8487,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="125"/>
-      <c r="F103" s="111"/>
+      <c r="E103" s="138"/>
+      <c r="F103" s="115"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -8070,7 +8540,7 @@
         <v>692</v>
       </c>
       <c r="D106" s="129"/>
-      <c r="E106" s="125" t="s">
+      <c r="E106" s="138" t="s">
         <v>690</v>
       </c>
       <c r="F106" s="129" t="s">
@@ -8089,7 +8559,7 @@
         <v>694</v>
       </c>
       <c r="D107" s="130"/>
-      <c r="E107" s="125"/>
+      <c r="E107" s="138"/>
       <c r="F107" s="130"/>
       <c r="G107" s="65"/>
     </row>
@@ -8104,7 +8574,7 @@
         <v>700</v>
       </c>
       <c r="D108" s="131"/>
-      <c r="E108" s="125"/>
+      <c r="E108" s="138"/>
       <c r="F108" s="131"/>
       <c r="G108" s="65"/>
     </row>
@@ -8309,10 +8779,10 @@
         <v>350</v>
       </c>
       <c r="D119" s="129"/>
-      <c r="E119" s="106" t="s">
+      <c r="E119" s="110" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="109" t="s">
+      <c r="F119" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -8328,8 +8798,8 @@
         <v>352</v>
       </c>
       <c r="D120" s="130"/>
-      <c r="E120" s="107"/>
-      <c r="F120" s="110"/>
+      <c r="E120" s="111"/>
+      <c r="F120" s="114"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -8343,8 +8813,8 @@
         <v>354</v>
       </c>
       <c r="D121" s="131"/>
-      <c r="E121" s="108"/>
-      <c r="F121" s="111"/>
+      <c r="E121" s="112"/>
+      <c r="F121" s="115"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -8396,10 +8866,10 @@
         <v>360</v>
       </c>
       <c r="D124" s="129"/>
-      <c r="E124" s="125" t="s">
+      <c r="E124" s="138" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="109" t="s">
+      <c r="F124" s="113" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -8415,8 +8885,8 @@
         <v>362</v>
       </c>
       <c r="D125" s="130"/>
-      <c r="E125" s="125"/>
-      <c r="F125" s="110"/>
+      <c r="E125" s="138"/>
+      <c r="F125" s="114"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -8430,8 +8900,8 @@
         <v>364</v>
       </c>
       <c r="D126" s="130"/>
-      <c r="E126" s="125"/>
-      <c r="F126" s="110"/>
+      <c r="E126" s="138"/>
+      <c r="F126" s="114"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -8445,8 +8915,8 @@
         <v>366</v>
       </c>
       <c r="D127" s="130"/>
-      <c r="E127" s="125"/>
-      <c r="F127" s="110"/>
+      <c r="E127" s="138"/>
+      <c r="F127" s="114"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -8460,8 +8930,8 @@
         <v>367</v>
       </c>
       <c r="D128" s="131"/>
-      <c r="E128" s="125"/>
-      <c r="F128" s="111"/>
+      <c r="E128" s="138"/>
+      <c r="F128" s="115"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -8711,16 +9181,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -8737,6 +9197,16 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="799">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2679,152 +2679,240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>기대수명통계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2204P0_pop_기대수명통계.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용약관</t>
+  </si>
+  <si>
+    <t>UHKA0104P0</t>
+  </si>
+  <si>
+    <t>웹 콘텐츠 접근성 지침</t>
+  </si>
+  <si>
+    <t>UHKA0105P0</t>
+  </si>
+  <si>
+    <t>메뉴안내</t>
+  </si>
+  <si>
+    <t>UHKA0106P0</t>
+  </si>
+  <si>
+    <t>편리한 서비스</t>
+  </si>
+  <si>
+    <t>UHKA0107P0</t>
+  </si>
+  <si>
+    <t>모바일 홈페이지</t>
+  </si>
+  <si>
+    <t>UHKA0108P0</t>
+  </si>
+  <si>
+    <t>장애인지원</t>
+  </si>
+  <si>
+    <t>UHKA0109P0</t>
+  </si>
+  <si>
+    <t>보안프로그램</t>
+  </si>
+  <si>
+    <t>UHKA0110P0</t>
+  </si>
+  <si>
+    <t>로그인 방법</t>
+  </si>
+  <si>
+    <t>UHKA0111P0</t>
+  </si>
+  <si>
+    <t>공인인증서란?</t>
+  </si>
+  <si>
+    <t>UHKA0112P0</t>
+  </si>
+  <si>
+    <t>발급절차</t>
+  </si>
+  <si>
+    <t>UHKA0113P0</t>
+  </si>
+  <si>
+    <t>발급기관</t>
+  </si>
+  <si>
+    <t>UHKA0114P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상연금조회(노령연금조회)</t>
+  </si>
+  <si>
+    <t>UHKA0115P0</t>
+  </si>
+  <si>
+    <t>예상연금조회(상세연금조회)</t>
+  </si>
+  <si>
+    <t>UHKA0116P0</t>
+  </si>
+  <si>
+    <t>UHKA0117P0</t>
+  </si>
+  <si>
+    <t>자가진단</t>
+  </si>
+  <si>
+    <t>UHKA0118P0</t>
+  </si>
+  <si>
+    <t>고객재무정보</t>
+  </si>
+  <si>
+    <t>UHKA0119P0</t>
+  </si>
+  <si>
+    <t>재무분석</t>
+  </si>
+  <si>
+    <t>UHKA0120P0</t>
+  </si>
+  <si>
+    <t>설계안수립</t>
+  </si>
+  <si>
+    <t>UHKA0121P0</t>
+  </si>
+  <si>
+    <t>상담신청</t>
+  </si>
+  <si>
+    <t>UHKA0122P0</t>
+  </si>
+  <si>
+    <t>강의신청</t>
+  </si>
+  <si>
+    <t>RSS서비스</t>
+  </si>
+  <si>
+    <t>UHKA0102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0103P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>용어해설집</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0123P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKA/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0103P0_용어해설집.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0104P0_이용자가이드.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0102P0_이용약관.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKA0123P0_RSS서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UHKD2204P0</t>
-  </si>
-  <si>
-    <t>기대수명통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKD2204P0_pop_기대수명통계.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용약관</t>
-  </si>
-  <si>
-    <t>UHKA0104P0</t>
-  </si>
-  <si>
-    <t>웹 콘텐츠 접근성 지침</t>
-  </si>
-  <si>
-    <t>UHKA0105P0</t>
-  </si>
-  <si>
-    <t>메뉴안내</t>
-  </si>
-  <si>
-    <t>UHKA0106P0</t>
-  </si>
-  <si>
-    <t>편리한 서비스</t>
-  </si>
-  <si>
-    <t>UHKA0107P0</t>
-  </si>
-  <si>
-    <t>모바일 홈페이지</t>
-  </si>
-  <si>
-    <t>UHKA0108P0</t>
-  </si>
-  <si>
-    <t>장애인지원</t>
-  </si>
-  <si>
-    <t>UHKA0109P0</t>
-  </si>
-  <si>
-    <t>보안프로그램</t>
-  </si>
-  <si>
-    <t>UHKA0110P0</t>
-  </si>
-  <si>
-    <t>로그인 방법</t>
-  </si>
-  <si>
-    <t>UHKA0111P0</t>
-  </si>
-  <si>
-    <t>공인인증서란?</t>
-  </si>
-  <si>
-    <t>UHKA0112P0</t>
-  </si>
-  <si>
-    <t>발급절차</t>
-  </si>
-  <si>
-    <t>UHKA0113P0</t>
-  </si>
-  <si>
-    <t>발급기관</t>
-  </si>
-  <si>
-    <t>UHKA0114P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>예상연금조회(노령연금조회)</t>
-  </si>
-  <si>
-    <t>UHKA0115P0</t>
-  </si>
-  <si>
-    <t>예상연금조회(상세연금조회)</t>
-  </si>
-  <si>
-    <t>UHKA0116P0</t>
-  </si>
-  <si>
-    <t>UHKA0117P0</t>
-  </si>
-  <si>
-    <t>자가진단</t>
-  </si>
-  <si>
-    <t>UHKA0118P0</t>
-  </si>
-  <si>
-    <t>고객재무정보</t>
-  </si>
-  <si>
-    <t>UHKA0119P0</t>
-  </si>
-  <si>
-    <t>재무분석</t>
-  </si>
-  <si>
-    <t>UHKA0120P0</t>
-  </si>
-  <si>
-    <t>설계안수립</t>
-  </si>
-  <si>
-    <t>UHKA0121P0</t>
-  </si>
-  <si>
-    <t>상담신청</t>
-  </si>
-  <si>
-    <t>UHKA0122P0</t>
-  </si>
-  <si>
-    <t>강의신청</t>
-  </si>
-  <si>
-    <t>RSS서비스</t>
-  </si>
-  <si>
-    <t>UHKA0102P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKA0103P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>용어해설집</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKA0123P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/html/UHKA/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 소개</t>
+  </si>
+  <si>
+    <t>UHKB0301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스 이용</t>
+  </si>
+  <si>
+    <t>상담사례소개</t>
+  </si>
+  <si>
+    <t>UHKB0501M0</t>
+  </si>
+  <si>
+    <t>상담사례 상세</t>
+  </si>
+  <si>
+    <t>UHKB0101M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0201M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후준비 이해</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0401M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKB/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0101M0_서비스소개.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0201M0_노후준비이해.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0301M0_서비스이용.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0401M0_상담사례소개.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0501M0_상담사례소개_상세.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3179,7 +3267,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3480,6 +3568,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3567,6 +3664,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3576,6 +3685,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3585,26 +3703,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3886,10 +3992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3931,16 +4037,20 @@
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>775</v>
-      </c>
-      <c r="E2" s="84"/>
-      <c r="F2" s="83"/>
+        <v>774</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>777</v>
+      </c>
+      <c r="F2" s="83" t="s">
+        <v>778</v>
+      </c>
       <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7">
@@ -3948,14 +4058,18 @@
         <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>772</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>773</v>
-      </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="96"/>
+      <c r="E3" s="97" t="s">
+        <v>775</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>779</v>
+      </c>
       <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7">
@@ -3963,14 +4077,18 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="96"/>
+      <c r="D4" s="136"/>
+      <c r="E4" s="122" t="s">
+        <v>776</v>
+      </c>
+      <c r="F4" s="116" t="s">
+        <v>779</v>
+      </c>
       <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7">
@@ -3978,14 +4096,14 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="96"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="117"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -3993,14 +4111,14 @@
         <v>9</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="96"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="117"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -4008,14 +4126,14 @@
         <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>740</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="96"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -4023,14 +4141,14 @@
         <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="96"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -4038,14 +4156,14 @@
         <v>9</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="96"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -4053,14 +4171,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="96"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -4068,14 +4186,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="96"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -4083,14 +4201,14 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="96"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="117"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -4098,14 +4216,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="96"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -4113,14 +4231,14 @@
         <v>9</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="96"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="117"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -4128,14 +4246,14 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>756</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -4143,14 +4261,14 @@
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="96"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -4158,14 +4276,14 @@
         <v>9</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="96"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -4173,14 +4291,14 @@
         <v>9</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="96"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="117"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -4188,14 +4306,14 @@
         <v>9</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="96"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -4203,14 +4321,14 @@
         <v>9</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="123"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -4218,14 +4336,14 @@
         <v>9</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="83"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -4233,14 +4351,14 @@
         <v>9</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="83"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="118"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -4248,190 +4366,308 @@
         <v>9</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="83"/>
+      <c r="E23" s="86" t="s">
+        <v>780</v>
+      </c>
+      <c r="F23" s="100" t="s">
+        <v>779</v>
+      </c>
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" s="57" customFormat="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="96"/>
-      <c r="G24" s="56"/>
+      <c r="A24" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="102" t="s">
+        <v>788</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>782</v>
+      </c>
+      <c r="D24" s="102" t="s">
+        <v>792</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>793</v>
+      </c>
+      <c r="F24" s="102" t="s">
+        <v>798</v>
+      </c>
+      <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7" s="57" customFormat="1">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="56"/>
+      <c r="A25" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="102" t="s">
+        <v>789</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>790</v>
+      </c>
+      <c r="D25" s="101"/>
+      <c r="E25" s="72" t="s">
+        <v>794</v>
+      </c>
+      <c r="F25" s="102" t="s">
+        <v>798</v>
+      </c>
+      <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" s="57" customFormat="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="56"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="54"/>
-    </row>
-    <row r="28" spans="1:7" ht="33" customHeight="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
+      <c r="A26" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="102" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>784</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="72" t="s">
+        <v>795</v>
+      </c>
+      <c r="F26" s="102" t="s">
+        <v>798</v>
+      </c>
+      <c r="G26" s="70"/>
+    </row>
+    <row r="27" spans="1:7" s="57" customFormat="1">
+      <c r="A27" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="102" t="s">
+        <v>791</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>785</v>
+      </c>
+      <c r="D27" s="101"/>
+      <c r="E27" s="72" t="s">
+        <v>796</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>798</v>
+      </c>
+      <c r="G27" s="70"/>
+    </row>
+    <row r="28" spans="1:7" s="57" customFormat="1">
+      <c r="A28" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="102" t="s">
+        <v>786</v>
+      </c>
+      <c r="C28" s="101" t="s">
+        <v>787</v>
+      </c>
+      <c r="D28" s="101"/>
+      <c r="E28" s="72" t="s">
+        <v>797</v>
+      </c>
+      <c r="F28" s="102" t="s">
+        <v>798</v>
+      </c>
+      <c r="G28" s="70"/>
+    </row>
+    <row r="29" spans="1:7" s="57" customFormat="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="147"/>
+    </row>
+    <row r="30" spans="1:7" s="57" customFormat="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="147"/>
+    </row>
+    <row r="31" spans="1:7" s="57" customFormat="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="147"/>
+    </row>
+    <row r="32" spans="1:7" s="57" customFormat="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="56"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="54"/>
+    </row>
+    <row r="34" spans="1:7" ht="33" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E35" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="6" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B36" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E36" s="86" t="s">
         <v>713</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="6" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="86" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="6" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="86" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="86" t="s">
         <v>721</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="B33" s="2" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C39" s="99" t="s">
         <v>729</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="E39" s="53" t="s">
         <v>730</v>
       </c>
-      <c r="E33" s="53" t="s">
-        <v>731</v>
-      </c>
-      <c r="F33" s="6" t="s">
+      <c r="F39" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G33" s="99" t="s">
+      <c r="G39" s="99" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="6" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B40" s="83" t="s">
         <v>723</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D40" s="83" t="s">
         <v>726</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E40" s="84" t="s">
         <v>724</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G34" s="85" t="s">
+      <c r="G40" s="85" t="s">
         <v>727</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:E22"/>
+    <mergeCell ref="F4:F22"/>
+    <mergeCell ref="D4:D22"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4549,14 +4785,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="110" t="s">
+      <c r="D5" s="103"/>
+      <c r="E5" s="113" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="112" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="119"/>
+      <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -4568,10 +4804,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="120"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="123"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -4583,10 +4819,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="120"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="123"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -4598,10 +4834,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="111"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="120"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="123"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -4613,10 +4849,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="120"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="123"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -4628,10 +4864,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="121"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="124"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -4776,14 +5012,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="100"/>
-      <c r="E18" s="110" t="s">
+      <c r="D18" s="103"/>
+      <c r="E18" s="113" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="116" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="119"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -4795,10 +5031,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="120"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="123"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -4810,10 +5046,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="120"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="123"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -4825,10 +5061,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="121"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="124"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -5057,14 +5293,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="106" t="s">
+      <c r="D33" s="106"/>
+      <c r="E33" s="109" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="116" t="s">
+      <c r="F33" s="119" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="106" t="s">
+      <c r="G33" s="109" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5078,10 +5314,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="104"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="110"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -5093,10 +5329,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="104"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="110"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -5108,10 +5344,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="104"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="120"/>
+      <c r="G36" s="110"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -5123,10 +5359,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="120"/>
+      <c r="G37" s="110"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -5138,10 +5374,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="104"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="110"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -5153,10 +5389,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="108"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="108"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="111"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -5510,14 +5746,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="127" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="113"/>
+      <c r="F6" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="116"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -5529,10 +5765,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="114"/>
+      <c r="D7" s="104"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="117"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -5544,10 +5780,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="114"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="117"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -5559,10 +5795,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="115"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -5631,14 +5867,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="128" t="s">
+      <c r="D13" s="103"/>
+      <c r="E13" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="113"/>
+      <c r="F13" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="116"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -5650,10 +5886,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="115"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="118"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -5665,14 +5901,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="127" t="s">
+      <c r="D15" s="103"/>
+      <c r="E15" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="109" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="113"/>
+      <c r="F15" s="112" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="116"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -5684,10 +5920,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="101"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="114"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="117"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -5699,10 +5935,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="101"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="114"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="117"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -5714,10 +5950,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="101"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="114"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="117"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -5729,10 +5965,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="114"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="112"/>
+      <c r="G19" s="117"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -5744,10 +5980,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="114"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="117"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -5759,10 +5995,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="114"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="117"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -5774,10 +6010,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="114"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="117"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -5789,10 +6025,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="114"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="117"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -5804,10 +6040,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="114"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="130"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="117"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -5819,10 +6055,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="101"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="114"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="117"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -5834,10 +6070,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="114"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="117"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -5849,10 +6085,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="114"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="112"/>
+      <c r="G27" s="117"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -5864,10 +6100,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="114"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="117"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -5879,10 +6115,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="101"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="114"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="117"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -5894,10 +6130,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="114"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="117"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -5909,10 +6145,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="115"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="130"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -6002,14 +6238,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="125" t="s">
+      <c r="D36" s="106"/>
+      <c r="E36" s="128" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="106"/>
+      <c r="F36" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="109"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -6021,10 +6257,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="104"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="110"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -6036,10 +6272,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="126"/>
-      <c r="G38" s="108"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="111"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -6319,14 +6555,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="122"/>
-      <c r="E53" s="125" t="s">
+      <c r="D53" s="125"/>
+      <c r="E53" s="128" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="126" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="106"/>
+      <c r="F53" s="129" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="109"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -6338,10 +6574,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="123"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="126"/>
-      <c r="G54" s="107"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="128"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="110"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -6353,10 +6589,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="124"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="108"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="128"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -6508,13 +6744,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -6525,9 +6754,16 @@
     <mergeCell ref="E36:E38"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="F36:F38"/>
+    <mergeCell ref="E15:E31"/>
+    <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6659,16 +6895,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="132" t="s">
+      <c r="A3" s="142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="142" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="133" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="D3" s="133" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -6680,10 +6916,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="133"/>
-      <c r="B4" s="133"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
+      <c r="A4" s="143"/>
+      <c r="B4" s="143"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -6693,10 +6929,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="133"/>
-      <c r="B5" s="133"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
+      <c r="A5" s="143"/>
+      <c r="B5" s="143"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -6706,10 +6942,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="137"/>
+      <c r="A6" s="144"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -6769,10 +7005,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="113" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="113" t="s">
+      <c r="F9" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -6788,8 +7024,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="118"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -6822,10 +7058,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="113" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="113" t="s">
+      <c r="F12" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -6841,8 +7077,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="117"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -6856,8 +7092,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="118"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -6890,10 +7126,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="113" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="113" t="s">
+      <c r="F16" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -6909,8 +7145,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -6924,8 +7160,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -6958,10 +7194,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="113" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -6977,8 +7213,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="118"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -8085,10 +8321,10 @@
         <v>687</v>
       </c>
       <c r="D79" s="139"/>
-      <c r="E79" s="110" t="s">
+      <c r="E79" s="113" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="113" t="s">
+      <c r="F79" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -8102,8 +8338,8 @@
         <v>689</v>
       </c>
       <c r="D80" s="140"/>
-      <c r="E80" s="111"/>
-      <c r="F80" s="114"/>
+      <c r="E80" s="114"/>
+      <c r="F80" s="117"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -8117,8 +8353,8 @@
         <v>301</v>
       </c>
       <c r="D81" s="140"/>
-      <c r="E81" s="111"/>
-      <c r="F81" s="114"/>
+      <c r="E81" s="114"/>
+      <c r="F81" s="117"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -8132,8 +8368,8 @@
         <v>303</v>
       </c>
       <c r="D82" s="140"/>
-      <c r="E82" s="111"/>
-      <c r="F82" s="114"/>
+      <c r="E82" s="114"/>
+      <c r="F82" s="117"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -8147,8 +8383,8 @@
         <v>306</v>
       </c>
       <c r="D83" s="140"/>
-      <c r="E83" s="111"/>
-      <c r="F83" s="114"/>
+      <c r="E83" s="114"/>
+      <c r="F83" s="117"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -8162,8 +8398,8 @@
         <v>310</v>
       </c>
       <c r="D84" s="140"/>
-      <c r="E84" s="111"/>
-      <c r="F84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="117"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -8177,8 +8413,8 @@
         <v>315</v>
       </c>
       <c r="D85" s="140"/>
-      <c r="E85" s="111"/>
-      <c r="F85" s="114"/>
+      <c r="E85" s="114"/>
+      <c r="F85" s="117"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -8192,8 +8428,8 @@
         <v>319</v>
       </c>
       <c r="D86" s="140"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="114"/>
+      <c r="E86" s="114"/>
+      <c r="F86" s="117"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -8207,8 +8443,8 @@
         <v>325</v>
       </c>
       <c r="D87" s="141"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="118"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -8393,10 +8629,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="138" t="s">
+      <c r="E97" s="132" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="113" t="s">
+      <c r="F97" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -8412,8 +8648,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="138"/>
-      <c r="F98" s="114"/>
+      <c r="E98" s="132"/>
+      <c r="F98" s="117"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -8427,8 +8663,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="138"/>
-      <c r="F99" s="114"/>
+      <c r="E99" s="132"/>
+      <c r="F99" s="117"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -8442,8 +8678,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="138"/>
-      <c r="F100" s="114"/>
+      <c r="E100" s="132"/>
+      <c r="F100" s="117"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -8457,8 +8693,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="138"/>
-      <c r="F101" s="114"/>
+      <c r="E101" s="132"/>
+      <c r="F101" s="117"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -8472,8 +8708,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="138"/>
-      <c r="F102" s="114"/>
+      <c r="E102" s="132"/>
+      <c r="F102" s="117"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -8487,8 +8723,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="138"/>
-      <c r="F103" s="115"/>
+      <c r="E103" s="132"/>
+      <c r="F103" s="118"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -8539,11 +8775,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="129"/>
-      <c r="E106" s="138" t="s">
+      <c r="D106" s="136"/>
+      <c r="E106" s="132" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="129" t="s">
+      <c r="F106" s="136" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -8558,9 +8794,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="130"/>
-      <c r="E107" s="138"/>
-      <c r="F107" s="130"/>
+      <c r="D107" s="137"/>
+      <c r="E107" s="132"/>
+      <c r="F107" s="137"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -8573,9 +8809,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="131"/>
-      <c r="E108" s="138"/>
-      <c r="F108" s="131"/>
+      <c r="D108" s="138"/>
+      <c r="E108" s="132"/>
+      <c r="F108" s="138"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -8778,11 +9014,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="129"/>
-      <c r="E119" s="110" t="s">
+      <c r="D119" s="136"/>
+      <c r="E119" s="113" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="113" t="s">
+      <c r="F119" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -8797,9 +9033,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="130"/>
-      <c r="E120" s="111"/>
-      <c r="F120" s="114"/>
+      <c r="D120" s="137"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="117"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -8812,9 +9048,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="131"/>
-      <c r="E121" s="112"/>
-      <c r="F121" s="115"/>
+      <c r="D121" s="138"/>
+      <c r="E121" s="115"/>
+      <c r="F121" s="118"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -8865,11 +9101,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="129"/>
-      <c r="E124" s="138" t="s">
+      <c r="D124" s="136"/>
+      <c r="E124" s="132" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="113" t="s">
+      <c r="F124" s="116" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -8884,9 +9120,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="130"/>
-      <c r="E125" s="138"/>
-      <c r="F125" s="114"/>
+      <c r="D125" s="137"/>
+      <c r="E125" s="132"/>
+      <c r="F125" s="117"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -8899,9 +9135,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="130"/>
-      <c r="E126" s="138"/>
-      <c r="F126" s="114"/>
+      <c r="D126" s="137"/>
+      <c r="E126" s="132"/>
+      <c r="F126" s="117"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -8914,9 +9150,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="130"/>
-      <c r="E127" s="138"/>
-      <c r="F127" s="114"/>
+      <c r="D127" s="137"/>
+      <c r="E127" s="132"/>
+      <c r="F127" s="117"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -8929,9 +9165,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="131"/>
-      <c r="E128" s="138"/>
-      <c r="F128" s="115"/>
+      <c r="D128" s="138"/>
+      <c r="E128" s="132"/>
+      <c r="F128" s="118"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -9181,6 +9417,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -9197,16 +9443,6 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="837">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2913,6 +2913,140 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0101M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후준비소식</t>
+  </si>
+  <si>
+    <t>UHKE0201M0</t>
+  </si>
+  <si>
+    <t>노후준비소식 내용보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0301M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무정보</t>
+  </si>
+  <si>
+    <t>UHKE0501M0</t>
+  </si>
+  <si>
+    <t>재무_외부사이트</t>
+  </si>
+  <si>
+    <t>UHKE0601M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강정보</t>
+  </si>
+  <si>
+    <t>UHKE0801M0</t>
+  </si>
+  <si>
+    <t>건강_외부사이트</t>
+  </si>
+  <si>
+    <t>UHKE0901M0</t>
+  </si>
+  <si>
+    <t>여가정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1101M0</t>
+  </si>
+  <si>
+    <t>여가_외부사이트</t>
+  </si>
+  <si>
+    <t>UHKE1201M0</t>
+  </si>
+  <si>
+    <t>대인관계</t>
+  </si>
+  <si>
+    <t>UHKE1301M0</t>
+  </si>
+  <si>
+    <t>관련서비스</t>
+  </si>
+  <si>
+    <t>UHKE1302P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1401M0</t>
+  </si>
+  <si>
+    <t>대인관계_외부사이트</t>
+  </si>
+  <si>
+    <t>/html/UHKE/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0101M0_노후준비소식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0201M0_노후준비소식_상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0301M0_UHKE0501M0_[UHKE1302P0]재무정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0601M0_UHKE0801M0_[UHKE1302P0]건강정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0901M0_UHKE1101M0_[UHKE1302P0]여가정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1201M0_UHKE1301M0_UHKE1401M0_[UHKE1302P0]대인관계.html</t>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_공통팝업 24개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_공통팝업 24개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_공통팝업 15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_공통팝업 13개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3267,7 +3401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3577,6 +3711,45 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3616,15 +3789,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3634,15 +3798,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3664,27 +3819,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3694,23 +3849,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3992,10 +4147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4082,11 +4237,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="122" t="s">
+      <c r="D4" s="113"/>
+      <c r="E4" s="107" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="116" t="s">
+      <c r="F4" s="110" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -4101,9 +4256,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="137"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="117"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -4116,9 +4271,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="123"/>
-      <c r="F6" s="117"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="111"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -4131,9 +4286,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="137"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="117"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="111"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -4146,9 +4301,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="137"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="117"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="111"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -4161,9 +4316,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="117"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="111"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -4176,9 +4331,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="117"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="111"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -4191,9 +4346,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="117"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="111"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -4206,9 +4361,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="123"/>
-      <c r="F12" s="117"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="111"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -4221,9 +4376,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="117"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -4236,9 +4391,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="123"/>
-      <c r="F14" s="117"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="111"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -4251,9 +4406,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="111"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -4266,9 +4421,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="117"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -4281,9 +4436,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="117"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -4296,9 +4451,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="123"/>
-      <c r="F18" s="117"/>
+      <c r="D18" s="114"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="111"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -4311,9 +4466,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="137"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="117"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -4326,9 +4481,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="137"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="117"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -4341,9 +4496,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="137"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="117"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -4356,9 +4511,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="138"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="118"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="112"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -4478,195 +4633,533 @@
       <c r="G28" s="70"/>
     </row>
     <row r="29" spans="1:7" s="57" customFormat="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="147"/>
+      <c r="A29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D29" s="103" t="s">
+        <v>822</v>
+      </c>
+      <c r="E29" s="105" t="s">
+        <v>823</v>
+      </c>
+      <c r="F29" s="103" t="s">
+        <v>638</v>
+      </c>
+      <c r="G29" s="106"/>
     </row>
     <row r="30" spans="1:7" s="57" customFormat="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="145"/>
-      <c r="D30" s="145"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="147"/>
+      <c r="A30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="105" t="s">
+        <v>824</v>
+      </c>
+      <c r="F30" s="103" t="s">
+        <v>829</v>
+      </c>
+      <c r="G30" s="106"/>
     </row>
     <row r="31" spans="1:7" s="57" customFormat="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="147"/>
+      <c r="A31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="D31" s="113"/>
+      <c r="E31" s="151" t="s">
+        <v>825</v>
+      </c>
+      <c r="F31" s="149" t="s">
+        <v>830</v>
+      </c>
+      <c r="G31" s="151" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="57" customFormat="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="56"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="54"/>
-    </row>
-    <row r="34" spans="1:7" ht="33" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
+      <c r="A32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="152"/>
+    </row>
+    <row r="33" spans="1:7" s="57" customFormat="1">
+      <c r="A33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="D33" s="113"/>
+      <c r="E33" s="151" t="s">
+        <v>826</v>
+      </c>
+      <c r="F33" s="149" t="s">
+        <v>831</v>
+      </c>
+      <c r="G33" s="151" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="57" customFormat="1">
+      <c r="A34" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="152"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="152"/>
+    </row>
+    <row r="35" spans="1:7" s="57" customFormat="1">
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="D35" s="113"/>
+      <c r="E35" s="151" t="s">
+        <v>827</v>
+      </c>
+      <c r="F35" s="149" t="s">
+        <v>830</v>
+      </c>
+      <c r="G35" s="151" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="57" customFormat="1">
+      <c r="A36" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>814</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="152"/>
+    </row>
+    <row r="37" spans="1:7" s="57" customFormat="1">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="D37" s="113"/>
+      <c r="E37" s="151" t="s">
+        <v>828</v>
+      </c>
+      <c r="F37" s="149" t="s">
+        <v>831</v>
+      </c>
+      <c r="G37" s="151" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="57" customFormat="1">
+      <c r="A38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="D38" s="114"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="154"/>
+    </row>
+    <row r="39" spans="1:7" s="57" customFormat="1">
+      <c r="A39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="D39" s="114"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="154"/>
+    </row>
+    <row r="40" spans="1:7" s="57" customFormat="1">
+      <c r="A40" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="D40" s="115"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="152"/>
+    </row>
+    <row r="41" spans="1:7" s="57" customFormat="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="106"/>
+    </row>
+    <row r="42" spans="1:7" s="57" customFormat="1">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="106"/>
+    </row>
+    <row r="43" spans="1:7" s="57" customFormat="1">
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="106"/>
+    </row>
+    <row r="44" spans="1:7" s="57" customFormat="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="106"/>
+    </row>
+    <row r="45" spans="1:7" s="57" customFormat="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="106"/>
+    </row>
+    <row r="46" spans="1:7" s="57" customFormat="1">
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="106"/>
+    </row>
+    <row r="47" spans="1:7" s="57" customFormat="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="106"/>
+    </row>
+    <row r="48" spans="1:7" s="57" customFormat="1">
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="106"/>
+    </row>
+    <row r="49" spans="1:7" s="57" customFormat="1">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="106"/>
+    </row>
+    <row r="50" spans="1:7" s="57" customFormat="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="106"/>
+    </row>
+    <row r="51" spans="1:7" s="57" customFormat="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="105"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="106"/>
+    </row>
+    <row r="52" spans="1:7" s="57" customFormat="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="106"/>
+    </row>
+    <row r="53" spans="1:7" s="57" customFormat="1">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="105"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="106"/>
+    </row>
+    <row r="54" spans="1:7" s="57" customFormat="1">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="106"/>
+    </row>
+    <row r="55" spans="1:7" s="57" customFormat="1">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="105"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="106"/>
+    </row>
+    <row r="56" spans="1:7" s="57" customFormat="1">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="96"/>
+      <c r="G56" s="56"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="54"/>
+    </row>
+    <row r="58" spans="1:7" ht="33" customHeight="1">
+      <c r="A58" s="10"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B59" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E59" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F59" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="6" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="86" t="s">
+      <c r="E60" s="86" t="s">
         <v>713</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F60" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G60" s="8" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="6" t="s">
+    <row r="61" spans="1:7">
+      <c r="A61" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="86" t="s">
+      <c r="D61" s="6"/>
+      <c r="E61" s="86" t="s">
         <v>473</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F61" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G61" s="8" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="6" t="s">
+    <row r="62" spans="1:7">
+      <c r="A62" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="86" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="86" t="s">
         <v>721</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F62" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="6" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C63" s="99" t="s">
         <v>729</v>
       </c>
-      <c r="E39" s="53" t="s">
+      <c r="E63" s="53" t="s">
         <v>730</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F63" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G63" s="99" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="6" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B64" s="83" t="s">
         <v>723</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D64" s="83" t="s">
         <v>726</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E64" s="84" t="s">
         <v>724</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="G40" s="85" t="s">
+      <c r="G64" s="85" t="s">
         <v>727</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="19">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4785,14 +5278,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="113" t="s">
+      <c r="D5" s="116"/>
+      <c r="E5" s="126" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="125" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="122"/>
+      <c r="G5" s="107"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -4804,10 +5297,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="123"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="125"/>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -4819,10 +5312,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="123"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="108"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -4834,10 +5327,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="123"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="108"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -4849,10 +5342,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="123"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="108"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -4864,10 +5357,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="105"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="124"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="109"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -5012,14 +5505,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="113" t="s">
+      <c r="D18" s="116"/>
+      <c r="E18" s="126" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="110" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="122"/>
+      <c r="G18" s="107"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -5031,10 +5524,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="123"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="108"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -5046,10 +5539,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="123"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="108"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -5061,10 +5554,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="124"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -5293,14 +5786,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="106"/>
-      <c r="E33" s="109" t="s">
+      <c r="D33" s="119"/>
+      <c r="E33" s="122" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="119" t="s">
+      <c r="F33" s="129" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="109" t="s">
+      <c r="G33" s="122" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5314,10 +5807,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="110"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="110"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="123"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -5329,10 +5822,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="110"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="110"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="123"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="123"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -5344,10 +5837,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="110"/>
-      <c r="F36" s="120"/>
-      <c r="G36" s="110"/>
+      <c r="D36" s="120"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="123"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -5359,10 +5852,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="120"/>
-      <c r="G37" s="110"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="130"/>
+      <c r="G37" s="123"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -5374,10 +5867,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="120"/>
-      <c r="G38" s="110"/>
+      <c r="D38" s="120"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="130"/>
+      <c r="G38" s="123"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -5389,10 +5882,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="121"/>
-      <c r="G39" s="111"/>
+      <c r="D39" s="121"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="124"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -5746,14 +6239,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="130" t="s">
+      <c r="D6" s="116"/>
+      <c r="E6" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="116"/>
+      <c r="F6" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="110"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -5765,10 +6258,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="111"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -5780,10 +6273,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="111"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -5795,10 +6288,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="118"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="125"/>
+      <c r="G9" s="112"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -5867,14 +6360,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="131" t="s">
+      <c r="D13" s="116"/>
+      <c r="E13" s="138" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="116"/>
+      <c r="F13" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="110"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -5886,10 +6379,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="118"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="112"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -5901,14 +6394,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="130" t="s">
+      <c r="D15" s="116"/>
+      <c r="E15" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="112" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="116"/>
+      <c r="F15" s="125" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="110"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -5920,10 +6413,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="130"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="111"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -5935,10 +6428,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="111"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -5950,10 +6443,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="104"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="111"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -5965,10 +6458,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="104"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="111"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -5980,10 +6473,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="104"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="111"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -5995,10 +6488,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="104"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="111"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -6010,10 +6503,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="104"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="111"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -6025,10 +6518,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="111"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -6040,10 +6533,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="104"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="111"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -6055,10 +6548,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="104"/>
-      <c r="E25" s="130"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="111"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -6070,10 +6563,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="130"/>
-      <c r="F26" s="112"/>
-      <c r="G26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="111"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -6085,10 +6578,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="104"/>
-      <c r="E27" s="130"/>
-      <c r="F27" s="112"/>
-      <c r="G27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="111"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -6100,10 +6593,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="104"/>
-      <c r="E28" s="130"/>
-      <c r="F28" s="112"/>
-      <c r="G28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="111"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -6115,10 +6608,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="104"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -6130,10 +6623,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="112"/>
-      <c r="G30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="111"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -6145,10 +6638,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="105"/>
-      <c r="E31" s="130"/>
-      <c r="F31" s="112"/>
-      <c r="G31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -6238,14 +6731,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="106"/>
-      <c r="E36" s="128" t="s">
+      <c r="D36" s="119"/>
+      <c r="E36" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="109"/>
+      <c r="F36" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="122"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -6257,10 +6750,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="110"/>
+      <c r="D37" s="120"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="123"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -6272,10 +6765,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="111"/>
+      <c r="D38" s="121"/>
+      <c r="E38" s="135"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="124"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -6555,14 +7048,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="125"/>
-      <c r="E53" s="128" t="s">
+      <c r="D53" s="132"/>
+      <c r="E53" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="129" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="109"/>
+      <c r="F53" s="136" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="122"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -6574,10 +7067,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="126"/>
-      <c r="E54" s="128"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="110"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="135"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="123"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -6589,10 +7082,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="127"/>
-      <c r="E55" s="128"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="111"/>
+      <c r="D55" s="134"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="124"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -6744,6 +7237,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -6756,14 +7257,6 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6895,16 +7388,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="142" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="142" t="s">
+      <c r="A3" s="139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="139" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="142" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="133" t="s">
+      <c r="D3" s="142" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -6916,10 +7409,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="143"/>
-      <c r="B4" s="143"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -6929,10 +7422,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="143"/>
-      <c r="B5" s="143"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -6942,10 +7435,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
+      <c r="A6" s="141"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -7005,10 +7498,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="126" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="116" t="s">
+      <c r="F9" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -7024,8 +7517,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="118"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="112"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -7058,10 +7551,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="126" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="116" t="s">
+      <c r="F12" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -7077,8 +7570,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="117"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="111"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -7092,8 +7585,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="118"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -7126,10 +7619,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="113" t="s">
+      <c r="E16" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="116" t="s">
+      <c r="F16" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -7145,8 +7638,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="117"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="111"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -7160,8 +7653,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="118"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="112"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -7194,10 +7687,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="126" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="116" t="s">
+      <c r="F20" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -7213,8 +7706,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="118"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="112"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -8320,11 +8813,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="139"/>
-      <c r="E79" s="113" t="s">
+      <c r="D79" s="146"/>
+      <c r="E79" s="126" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="116" t="s">
+      <c r="F79" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -8337,9 +8830,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="140"/>
-      <c r="E80" s="114"/>
-      <c r="F80" s="117"/>
+      <c r="D80" s="147"/>
+      <c r="E80" s="127"/>
+      <c r="F80" s="111"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -8352,9 +8845,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="140"/>
-      <c r="E81" s="114"/>
-      <c r="F81" s="117"/>
+      <c r="D81" s="147"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="111"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -8367,9 +8860,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="140"/>
-      <c r="E82" s="114"/>
-      <c r="F82" s="117"/>
+      <c r="D82" s="147"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="111"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -8382,9 +8875,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="140"/>
-      <c r="E83" s="114"/>
-      <c r="F83" s="117"/>
+      <c r="D83" s="147"/>
+      <c r="E83" s="127"/>
+      <c r="F83" s="111"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -8397,9 +8890,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="140"/>
-      <c r="E84" s="114"/>
-      <c r="F84" s="117"/>
+      <c r="D84" s="147"/>
+      <c r="E84" s="127"/>
+      <c r="F84" s="111"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -8412,9 +8905,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="140"/>
-      <c r="E85" s="114"/>
-      <c r="F85" s="117"/>
+      <c r="D85" s="147"/>
+      <c r="E85" s="127"/>
+      <c r="F85" s="111"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -8427,9 +8920,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="140"/>
-      <c r="E86" s="114"/>
-      <c r="F86" s="117"/>
+      <c r="D86" s="147"/>
+      <c r="E86" s="127"/>
+      <c r="F86" s="111"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -8442,9 +8935,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="141"/>
-      <c r="E87" s="115"/>
-      <c r="F87" s="118"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="112"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -8629,10 +9122,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="132" t="s">
+      <c r="E97" s="145" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="116" t="s">
+      <c r="F97" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -8648,8 +9141,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="132"/>
-      <c r="F98" s="117"/>
+      <c r="E98" s="145"/>
+      <c r="F98" s="111"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -8663,8 +9156,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="132"/>
-      <c r="F99" s="117"/>
+      <c r="E99" s="145"/>
+      <c r="F99" s="111"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -8678,8 +9171,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="132"/>
-      <c r="F100" s="117"/>
+      <c r="E100" s="145"/>
+      <c r="F100" s="111"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -8693,8 +9186,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="132"/>
-      <c r="F101" s="117"/>
+      <c r="E101" s="145"/>
+      <c r="F101" s="111"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -8708,8 +9201,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="132"/>
-      <c r="F102" s="117"/>
+      <c r="E102" s="145"/>
+      <c r="F102" s="111"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -8723,8 +9216,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="132"/>
-      <c r="F103" s="118"/>
+      <c r="E103" s="145"/>
+      <c r="F103" s="112"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -8775,11 +9268,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="136"/>
-      <c r="E106" s="132" t="s">
+      <c r="D106" s="113"/>
+      <c r="E106" s="145" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="136" t="s">
+      <c r="F106" s="113" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -8794,9 +9287,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="137"/>
-      <c r="E107" s="132"/>
-      <c r="F107" s="137"/>
+      <c r="D107" s="114"/>
+      <c r="E107" s="145"/>
+      <c r="F107" s="114"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -8809,9 +9302,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="138"/>
-      <c r="E108" s="132"/>
-      <c r="F108" s="138"/>
+      <c r="D108" s="115"/>
+      <c r="E108" s="145"/>
+      <c r="F108" s="115"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -9014,11 +9507,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="136"/>
-      <c r="E119" s="113" t="s">
+      <c r="D119" s="113"/>
+      <c r="E119" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="116" t="s">
+      <c r="F119" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -9033,9 +9526,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="137"/>
-      <c r="E120" s="114"/>
-      <c r="F120" s="117"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="127"/>
+      <c r="F120" s="111"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -9048,9 +9541,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="138"/>
-      <c r="E121" s="115"/>
-      <c r="F121" s="118"/>
+      <c r="D121" s="115"/>
+      <c r="E121" s="128"/>
+      <c r="F121" s="112"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -9101,11 +9594,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="136"/>
-      <c r="E124" s="132" t="s">
+      <c r="D124" s="113"/>
+      <c r="E124" s="145" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="116" t="s">
+      <c r="F124" s="110" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -9120,9 +9613,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="137"/>
-      <c r="E125" s="132"/>
-      <c r="F125" s="117"/>
+      <c r="D125" s="114"/>
+      <c r="E125" s="145"/>
+      <c r="F125" s="111"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -9135,9 +9628,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="137"/>
-      <c r="E126" s="132"/>
-      <c r="F126" s="117"/>
+      <c r="D126" s="114"/>
+      <c r="E126" s="145"/>
+      <c r="F126" s="111"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -9150,9 +9643,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="137"/>
-      <c r="E127" s="132"/>
-      <c r="F127" s="117"/>
+      <c r="D127" s="114"/>
+      <c r="E127" s="145"/>
+      <c r="F127" s="111"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -9165,9 +9658,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="138"/>
-      <c r="E128" s="132"/>
-      <c r="F128" s="118"/>
+      <c r="D128" s="115"/>
+      <c r="E128" s="145"/>
+      <c r="F128" s="112"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -9417,16 +9910,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -9443,6 +9926,16 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="855">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3003,18 +3003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UHKE0301M0_UHKE0501M0_[UHKE1302P0]재무정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKE0601M0_UHKE0801M0_[UHKE1302P0]건강정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKE0901M0_UHKE1101M0_[UHKE1302P0]여가정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UHKE1201M0_UHKE1301M0_UHKE1401M0_[UHKE1302P0]대인관계.html</t>
   </si>
   <si>
@@ -3034,19 +3022,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관련서비스 상세_공통팝업 24개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련서비스 상세_공통팝업 24개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련서비스 상세_공통팝업 15개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관련서비스 상세_공통팝업 13개</t>
+    <t>UHKE1501M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후준비강의</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1601M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1701M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후준비카드뉴스</t>
+  </si>
+  <si>
+    <t>UHKE1801M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후준비카드뉴스 내용보기</t>
+  </si>
+  <si>
+    <t>UHKE1901M0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>간행물</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE2001M0</t>
+  </si>
+  <si>
+    <t>간행물 내용</t>
+  </si>
+  <si>
+    <t>UHKE1501M0_노후준비강의.html, UHKE1501M0_은퇴예정자의_노후준비강의, UHKE1501M0_pop_노후설계가이드.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1601M0_홍보영상.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1701M0_노후준비카드뉴스.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1801M0_노후준비카드뉴스내용보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1901M0_간행물.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE2001M0_간행물내용보기.html</t>
+  </si>
+  <si>
+    <t>UHKE0901M0_UHKE1101M0_[UHKE1302P0]여가정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0601M0_UHKE0801M0_[UHKE1302P0]건강정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0301M0_UHKE0501M0_[UHKE1302P0]재무정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_팝업 24개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_팝업 24개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_팝업 15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 상세_팝업 13개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3401,7 +3468,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3723,6 +3790,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3741,15 +3838,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3798,6 +3886,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3813,11 +3907,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3828,44 +3937,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4149,8 +4222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4159,7 +4232,7 @@
     <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="44" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="78.625" style="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="110.75" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="53.625" customWidth="1"/>
   </cols>
@@ -4237,11 +4310,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="113"/>
-      <c r="E4" s="107" t="s">
+      <c r="D4" s="114"/>
+      <c r="E4" s="117" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="110" t="s">
+      <c r="F4" s="120" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -4256,9 +4329,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="114"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="121"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -4271,9 +4344,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="114"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="111"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -4286,9 +4359,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="111"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -4301,9 +4374,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="111"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -4316,9 +4389,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="111"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -4331,9 +4404,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="111"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -4346,9 +4419,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="114"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="111"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -4361,9 +4434,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="114"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="111"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -4376,9 +4449,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="114"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="111"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -4391,9 +4464,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="114"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="111"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -4406,9 +4479,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="111"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -4421,9 +4494,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="114"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="111"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -4436,9 +4509,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="114"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="111"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -4451,9 +4524,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="111"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -4466,9 +4539,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="114"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="111"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -4481,9 +4554,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="114"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="111"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -4496,9 +4569,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="114"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="111"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -4512,8 +4585,8 @@
         <v>768</v>
       </c>
       <c r="D22" s="115"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="112"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -4668,7 +4741,7 @@
         <v>824</v>
       </c>
       <c r="F30" s="103" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G30" s="106"/>
     </row>
@@ -4682,15 +4755,15 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="151" t="s">
-        <v>825</v>
-      </c>
-      <c r="F31" s="149" t="s">
-        <v>830</v>
-      </c>
-      <c r="G31" s="151" t="s">
-        <v>833</v>
+      <c r="D31" s="114"/>
+      <c r="E31" s="110" t="s">
+        <v>850</v>
+      </c>
+      <c r="F31" s="108" t="s">
+        <v>827</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="57" customFormat="1">
@@ -4704,9 +4777,9 @@
         <v>806</v>
       </c>
       <c r="D32" s="115"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="152"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="111"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -4718,15 +4791,15 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="151" t="s">
-        <v>826</v>
-      </c>
-      <c r="F33" s="149" t="s">
-        <v>831</v>
-      </c>
-      <c r="G33" s="151" t="s">
-        <v>834</v>
+      <c r="D33" s="114"/>
+      <c r="E33" s="110" t="s">
+        <v>849</v>
+      </c>
+      <c r="F33" s="108" t="s">
+        <v>828</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="57" customFormat="1">
@@ -4740,9 +4813,9 @@
         <v>810</v>
       </c>
       <c r="D34" s="115"/>
-      <c r="E34" s="152"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="152"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="111"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -4754,15 +4827,15 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="151" t="s">
+      <c r="D35" s="114"/>
+      <c r="E35" s="110" t="s">
+        <v>848</v>
+      </c>
+      <c r="F35" s="108" t="s">
         <v>827</v>
       </c>
-      <c r="F35" s="149" t="s">
-        <v>830</v>
-      </c>
-      <c r="G35" s="151" t="s">
-        <v>835</v>
+      <c r="G35" s="110" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
@@ -4776,9 +4849,9 @@
         <v>814</v>
       </c>
       <c r="D36" s="115"/>
-      <c r="E36" s="152"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="152"/>
+      <c r="E36" s="111"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="111"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -4790,15 +4863,15 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="151" t="s">
+      <c r="D37" s="156"/>
+      <c r="E37" s="110" t="s">
+        <v>825</v>
+      </c>
+      <c r="F37" s="108" t="s">
         <v>828</v>
       </c>
-      <c r="F37" s="149" t="s">
-        <v>831</v>
-      </c>
-      <c r="G37" s="151" t="s">
-        <v>836</v>
+      <c r="G37" s="110" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
@@ -4811,10 +4884,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="114"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="154"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="113"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -4824,12 +4897,12 @@
         <v>819</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>832</v>
-      </c>
-      <c r="D39" s="114"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="154"/>
+        <v>829</v>
+      </c>
+      <c r="D39" s="156"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="112"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -4841,63 +4914,123 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="115"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="152"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="111"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="104"/>
+      <c r="A41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>831</v>
+      </c>
       <c r="D41" s="104"/>
-      <c r="E41" s="105"/>
-      <c r="F41" s="22"/>
+      <c r="E41" s="105" t="s">
+        <v>842</v>
+      </c>
+      <c r="F41" s="107" t="s">
+        <v>826</v>
+      </c>
       <c r="G41" s="106"/>
     </row>
     <row r="42" spans="1:7" s="57" customFormat="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="104"/>
+      <c r="A42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>833</v>
+      </c>
       <c r="D42" s="104"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="22"/>
+      <c r="E42" s="105" t="s">
+        <v>843</v>
+      </c>
+      <c r="F42" s="107" t="s">
+        <v>826</v>
+      </c>
       <c r="G42" s="106"/>
     </row>
     <row r="43" spans="1:7" s="57" customFormat="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="104"/>
+      <c r="A43" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>835</v>
+      </c>
       <c r="D43" s="104"/>
-      <c r="E43" s="105"/>
-      <c r="F43" s="22"/>
+      <c r="E43" s="105" t="s">
+        <v>844</v>
+      </c>
+      <c r="F43" s="107" t="s">
+        <v>826</v>
+      </c>
       <c r="G43" s="106"/>
     </row>
     <row r="44" spans="1:7" s="57" customFormat="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="104"/>
+      <c r="A44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>837</v>
+      </c>
       <c r="D44" s="104"/>
-      <c r="E44" s="105"/>
-      <c r="F44" s="22"/>
+      <c r="E44" s="105" t="s">
+        <v>845</v>
+      </c>
+      <c r="F44" s="107" t="s">
+        <v>826</v>
+      </c>
       <c r="G44" s="106"/>
     </row>
     <row r="45" spans="1:7" s="57" customFormat="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="104"/>
+      <c r="A45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>839</v>
+      </c>
       <c r="D45" s="104"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="22"/>
+      <c r="E45" s="105" t="s">
+        <v>846</v>
+      </c>
+      <c r="F45" s="107" t="s">
+        <v>826</v>
+      </c>
       <c r="G45" s="106"/>
     </row>
     <row r="46" spans="1:7" s="57" customFormat="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="104"/>
+      <c r="A46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>841</v>
+      </c>
       <c r="D46" s="104"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="22"/>
+      <c r="E46" s="105" t="s">
+        <v>847</v>
+      </c>
+      <c r="F46" s="107" t="s">
+        <v>826</v>
+      </c>
       <c r="G46" s="106"/>
     </row>
     <row r="47" spans="1:7" s="57" customFormat="1">
@@ -5141,18 +5274,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -5160,6 +5281,18 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5278,14 +5411,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="126" t="s">
+      <c r="D5" s="123"/>
+      <c r="E5" s="133" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="125" t="s">
+      <c r="F5" s="132" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="107"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -5297,10 +5430,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="108"/>
+      <c r="D6" s="124"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="118"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -5312,10 +5445,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="108"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="118"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -5327,10 +5460,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="108"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="118"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -5342,10 +5475,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="117"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="108"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -5357,10 +5490,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="118"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="109"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="119"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -5505,14 +5638,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="126" t="s">
+      <c r="D18" s="123"/>
+      <c r="E18" s="133" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="120" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="107"/>
+      <c r="G18" s="117"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -5524,10 +5657,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="108"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="118"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -5539,10 +5672,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="108"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="118"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -5554,10 +5687,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="118"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="109"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="119"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -5786,14 +5919,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="122" t="s">
+      <c r="D33" s="126"/>
+      <c r="E33" s="129" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="129" t="s">
+      <c r="F33" s="136" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="122" t="s">
+      <c r="G33" s="129" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5807,10 +5940,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="120"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="123"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="130"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="130"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -5822,10 +5955,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="120"/>
-      <c r="E35" s="123"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="123"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="130"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -5837,10 +5970,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="120"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="123"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="130"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -5852,10 +5985,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="123"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="130"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="130"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -5867,10 +6000,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="120"/>
-      <c r="E38" s="123"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="123"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="130"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="130"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -5882,10 +6015,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="121"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="124"/>
+      <c r="D39" s="128"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="131"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -6239,14 +6372,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="137" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="110"/>
+      <c r="F6" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="120"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -6258,10 +6391,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="111"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="121"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -6273,10 +6406,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="117"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="111"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="121"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -6288,10 +6421,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="118"/>
-      <c r="E9" s="137"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="112"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -6360,14 +6493,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="138" t="s">
+      <c r="D13" s="123"/>
+      <c r="E13" s="140" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="110"/>
+      <c r="F13" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="120"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -6379,10 +6512,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="112"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -6394,14 +6527,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="137" t="s">
+      <c r="D15" s="123"/>
+      <c r="E15" s="139" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="125" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="110"/>
+      <c r="F15" s="132" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="120"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -6413,10 +6546,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="117"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="111"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="121"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -6428,10 +6561,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="117"/>
-      <c r="E17" s="137"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="111"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="121"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -6443,10 +6576,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="111"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="121"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -6458,10 +6591,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="111"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="121"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -6473,10 +6606,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="117"/>
-      <c r="E20" s="137"/>
-      <c r="F20" s="125"/>
-      <c r="G20" s="111"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="121"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -6488,10 +6621,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="137"/>
-      <c r="F21" s="125"/>
-      <c r="G21" s="111"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="121"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -6503,10 +6636,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="111"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="121"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -6518,10 +6651,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="117"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="111"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="121"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -6533,10 +6666,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="117"/>
-      <c r="E24" s="137"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="111"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="121"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -6548,10 +6681,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="117"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="125"/>
-      <c r="G25" s="111"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="121"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -6563,10 +6696,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="117"/>
-      <c r="E26" s="137"/>
-      <c r="F26" s="125"/>
-      <c r="G26" s="111"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="121"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -6578,10 +6711,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="117"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="111"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="121"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -6593,10 +6726,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="117"/>
-      <c r="E28" s="137"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="111"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="121"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -6608,10 +6741,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="117"/>
-      <c r="E29" s="137"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="111"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="121"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -6623,10 +6756,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="117"/>
-      <c r="E30" s="137"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="111"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="121"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -6638,10 +6771,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="118"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="112"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -6731,14 +6864,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="119"/>
-      <c r="E36" s="135" t="s">
+      <c r="D36" s="126"/>
+      <c r="E36" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="122"/>
+      <c r="F36" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="129"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -6750,10 +6883,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="123"/>
+      <c r="D37" s="127"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="130"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -6765,10 +6898,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="121"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="124"/>
+      <c r="D38" s="128"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="131"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -7048,14 +7181,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="135" t="s">
+      <c r="D53" s="141"/>
+      <c r="E53" s="144" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="122"/>
+      <c r="F53" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="129"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -7067,10 +7200,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="133"/>
-      <c r="E54" s="135"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="123"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="144"/>
+      <c r="F54" s="145"/>
+      <c r="G54" s="130"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -7082,10 +7215,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="134"/>
-      <c r="E55" s="135"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="124"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="144"/>
+      <c r="F55" s="145"/>
+      <c r="G55" s="131"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -7237,14 +7370,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -7257,6 +7382,14 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7388,16 +7521,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="139" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="139" t="s">
+      <c r="A3" s="153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="153" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="147" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="147" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -7409,10 +7542,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -7422,10 +7555,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="143"/>
-      <c r="D5" s="143"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -7435,10 +7568,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="141"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -7498,10 +7631,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="126" t="s">
+      <c r="E9" s="133" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -7517,8 +7650,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="112"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="122"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -7551,10 +7684,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="126" t="s">
+      <c r="E12" s="133" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -7570,8 +7703,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="111"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -7585,8 +7718,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="112"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="122"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -7619,10 +7752,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="126" t="s">
+      <c r="E16" s="133" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -7638,8 +7771,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="111"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -7653,8 +7786,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="112"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="122"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -7687,10 +7820,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="126" t="s">
+      <c r="E20" s="133" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -7706,8 +7839,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="112"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -8813,11 +8946,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="146"/>
-      <c r="E79" s="126" t="s">
+      <c r="D79" s="150"/>
+      <c r="E79" s="133" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="110" t="s">
+      <c r="F79" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -8830,9 +8963,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="147"/>
-      <c r="E80" s="127"/>
-      <c r="F80" s="111"/>
+      <c r="D80" s="151"/>
+      <c r="E80" s="134"/>
+      <c r="F80" s="121"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -8845,9 +8978,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="147"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="111"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="121"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -8860,9 +8993,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="147"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="111"/>
+      <c r="D82" s="151"/>
+      <c r="E82" s="134"/>
+      <c r="F82" s="121"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -8875,9 +9008,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="147"/>
-      <c r="E83" s="127"/>
-      <c r="F83" s="111"/>
+      <c r="D83" s="151"/>
+      <c r="E83" s="134"/>
+      <c r="F83" s="121"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -8890,9 +9023,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="147"/>
-      <c r="E84" s="127"/>
-      <c r="F84" s="111"/>
+      <c r="D84" s="151"/>
+      <c r="E84" s="134"/>
+      <c r="F84" s="121"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -8905,9 +9038,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="147"/>
-      <c r="E85" s="127"/>
-      <c r="F85" s="111"/>
+      <c r="D85" s="151"/>
+      <c r="E85" s="134"/>
+      <c r="F85" s="121"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -8920,9 +9053,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="147"/>
-      <c r="E86" s="127"/>
-      <c r="F86" s="111"/>
+      <c r="D86" s="151"/>
+      <c r="E86" s="134"/>
+      <c r="F86" s="121"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -8935,9 +9068,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="148"/>
-      <c r="E87" s="128"/>
-      <c r="F87" s="112"/>
+      <c r="D87" s="152"/>
+      <c r="E87" s="135"/>
+      <c r="F87" s="122"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -9122,10 +9255,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="145" t="s">
+      <c r="E97" s="146" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="110" t="s">
+      <c r="F97" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -9141,8 +9274,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="145"/>
-      <c r="F98" s="111"/>
+      <c r="E98" s="146"/>
+      <c r="F98" s="121"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -9156,8 +9289,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="145"/>
-      <c r="F99" s="111"/>
+      <c r="E99" s="146"/>
+      <c r="F99" s="121"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -9171,8 +9304,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="145"/>
-      <c r="F100" s="111"/>
+      <c r="E100" s="146"/>
+      <c r="F100" s="121"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -9186,8 +9319,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="145"/>
-      <c r="F101" s="111"/>
+      <c r="E101" s="146"/>
+      <c r="F101" s="121"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -9201,8 +9334,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="145"/>
-      <c r="F102" s="111"/>
+      <c r="E102" s="146"/>
+      <c r="F102" s="121"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -9216,8 +9349,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="145"/>
-      <c r="F103" s="112"/>
+      <c r="E103" s="146"/>
+      <c r="F103" s="122"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -9268,11 +9401,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="113"/>
-      <c r="E106" s="145" t="s">
+      <c r="D106" s="114"/>
+      <c r="E106" s="146" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="113" t="s">
+      <c r="F106" s="114" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -9287,9 +9420,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="114"/>
-      <c r="E107" s="145"/>
-      <c r="F107" s="114"/>
+      <c r="D107" s="116"/>
+      <c r="E107" s="146"/>
+      <c r="F107" s="116"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -9303,7 +9436,7 @@
         <v>700</v>
       </c>
       <c r="D108" s="115"/>
-      <c r="E108" s="145"/>
+      <c r="E108" s="146"/>
       <c r="F108" s="115"/>
       <c r="G108" s="65"/>
     </row>
@@ -9507,11 +9640,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="113"/>
-      <c r="E119" s="126" t="s">
+      <c r="D119" s="114"/>
+      <c r="E119" s="133" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="110" t="s">
+      <c r="F119" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -9526,9 +9659,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="114"/>
-      <c r="E120" s="127"/>
-      <c r="F120" s="111"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="134"/>
+      <c r="F120" s="121"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -9542,8 +9675,8 @@
         <v>354</v>
       </c>
       <c r="D121" s="115"/>
-      <c r="E121" s="128"/>
-      <c r="F121" s="112"/>
+      <c r="E121" s="135"/>
+      <c r="F121" s="122"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -9594,11 +9727,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="113"/>
-      <c r="E124" s="145" t="s">
+      <c r="D124" s="114"/>
+      <c r="E124" s="146" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="110" t="s">
+      <c r="F124" s="120" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -9613,9 +9746,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="114"/>
-      <c r="E125" s="145"/>
-      <c r="F125" s="111"/>
+      <c r="D125" s="116"/>
+      <c r="E125" s="146"/>
+      <c r="F125" s="121"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -9628,9 +9761,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="114"/>
-      <c r="E126" s="145"/>
-      <c r="F126" s="111"/>
+      <c r="D126" s="116"/>
+      <c r="E126" s="146"/>
+      <c r="F126" s="121"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -9643,9 +9776,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="114"/>
-      <c r="E127" s="145"/>
-      <c r="F127" s="111"/>
+      <c r="D127" s="116"/>
+      <c r="E127" s="146"/>
+      <c r="F127" s="121"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -9659,8 +9792,8 @@
         <v>367</v>
       </c>
       <c r="D128" s="115"/>
-      <c r="E128" s="145"/>
-      <c r="F128" s="112"/>
+      <c r="E128" s="146"/>
+      <c r="F128" s="122"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -9910,6 +10043,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -9926,16 +10069,6 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="866">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3114,6 +3114,50 @@
   </si>
   <si>
     <t>관련서비스 상세_팝업 13개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2101M0_종합재무설계_step1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2101M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합재무설계_step1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0_CSA자격증등록조회.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF1801M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격증등록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKC/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/html/UHKF/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제버튼추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력폼 사이즈 및 grid 사이즈 수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3297,7 +3341,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3462,13 +3506,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3724,201 +3783,204 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3928,17 +3990,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4220,10 +4294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4270,7 +4344,7 @@
       <c r="C2" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>774</v>
       </c>
       <c r="E2" s="84" t="s">
@@ -4292,10 +4366,10 @@
         <v>772</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="96" t="s">
         <v>775</v>
       </c>
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="95" t="s">
         <v>779</v>
       </c>
       <c r="G3" s="54"/>
@@ -4310,11 +4384,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="114"/>
-      <c r="E4" s="117" t="s">
+      <c r="D4" s="111"/>
+      <c r="E4" s="105" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="120" t="s">
+      <c r="F4" s="108" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -4329,9 +4403,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="116"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="121"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -4344,9 +4418,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="121"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="109"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -4359,9 +4433,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="121"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="109"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -4374,9 +4448,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="116"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="121"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -4389,9 +4463,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="121"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="109"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -4404,9 +4478,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="121"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="109"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -4419,9 +4493,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="121"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="109"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -4434,9 +4508,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="121"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="109"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -4449,9 +4523,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="121"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -4464,9 +4538,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="121"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="109"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -4479,9 +4553,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="118"/>
-      <c r="F15" s="121"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="109"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -4494,9 +4568,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="121"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="109"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -4509,9 +4583,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="121"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -4524,9 +4598,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="121"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -4539,9 +4613,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="121"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="109"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -4554,9 +4628,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="121"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="109"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -4569,9 +4643,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="118"/>
-      <c r="F21" s="121"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -4584,9 +4658,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="122"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -4600,107 +4674,107 @@
         <v>769</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="85" t="s">
         <v>780</v>
       </c>
-      <c r="F23" s="100" t="s">
+      <c r="F23" s="97" t="s">
         <v>779</v>
       </c>
       <c r="G23" s="56"/>
     </row>
     <row r="24" spans="1:7" s="57" customFormat="1">
-      <c r="A24" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="102" t="s">
+      <c r="A24" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="99" t="s">
         <v>788</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="98" t="s">
         <v>782</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="99" t="s">
         <v>792</v>
       </c>
       <c r="E24" s="72" t="s">
         <v>793</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="99" t="s">
         <v>798</v>
       </c>
       <c r="G24" s="70"/>
     </row>
     <row r="25" spans="1:7" s="57" customFormat="1">
-      <c r="A25" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="102" t="s">
+      <c r="A25" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="99" t="s">
         <v>789</v>
       </c>
-      <c r="C25" s="101" t="s">
+      <c r="C25" s="98" t="s">
         <v>790</v>
       </c>
-      <c r="D25" s="101"/>
+      <c r="D25" s="98"/>
       <c r="E25" s="72" t="s">
         <v>794</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="99" t="s">
         <v>798</v>
       </c>
       <c r="G25" s="70"/>
     </row>
     <row r="26" spans="1:7" s="57" customFormat="1">
-      <c r="A26" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="102" t="s">
+      <c r="A26" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="99" t="s">
         <v>783</v>
       </c>
-      <c r="C26" s="101" t="s">
+      <c r="C26" s="98" t="s">
         <v>784</v>
       </c>
-      <c r="D26" s="101"/>
+      <c r="D26" s="98"/>
       <c r="E26" s="72" t="s">
         <v>795</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="99" t="s">
         <v>798</v>
       </c>
       <c r="G26" s="70"/>
     </row>
     <row r="27" spans="1:7" s="57" customFormat="1">
-      <c r="A27" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="102" t="s">
+      <c r="A27" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="99" t="s">
         <v>791</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="98" t="s">
         <v>785</v>
       </c>
-      <c r="D27" s="101"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="72" t="s">
         <v>796</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="99" t="s">
         <v>798</v>
       </c>
       <c r="G27" s="70"/>
     </row>
     <row r="28" spans="1:7" s="57" customFormat="1">
-      <c r="A28" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="102" t="s">
+      <c r="A28" s="99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="99" t="s">
         <v>786</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="98" t="s">
         <v>787</v>
       </c>
-      <c r="D28" s="101"/>
+      <c r="D28" s="98"/>
       <c r="E28" s="72" t="s">
         <v>797</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="99" t="s">
         <v>798</v>
       </c>
       <c r="G28" s="70"/>
@@ -4715,16 +4789,16 @@
       <c r="C29" s="8" t="s">
         <v>800</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="100" t="s">
         <v>822</v>
       </c>
-      <c r="E29" s="105" t="s">
+      <c r="E29" s="102" t="s">
         <v>823</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="100" t="s">
         <v>638</v>
       </c>
-      <c r="G29" s="106"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" s="57" customFormat="1">
       <c r="A30" s="6" t="s">
@@ -4737,13 +4811,13 @@
         <v>802</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="105" t="s">
+      <c r="E30" s="102" t="s">
         <v>824</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="100" t="s">
         <v>826</v>
       </c>
-      <c r="G30" s="106"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" s="57" customFormat="1">
       <c r="A31" s="6" t="s">
@@ -4755,14 +4829,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="110" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="114" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="116" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="110" t="s">
+      <c r="G31" s="114" t="s">
         <v>851</v>
       </c>
     </row>
@@ -4776,10 +4850,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="111"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="115"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -4791,14 +4865,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="110" t="s">
+      <c r="D33" s="111"/>
+      <c r="E33" s="114" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="116" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="110" t="s">
+      <c r="G33" s="114" t="s">
         <v>852</v>
       </c>
     </row>
@@ -4812,10 +4886,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="111"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="115"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -4827,14 +4901,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="114"/>
-      <c r="E35" s="110" t="s">
+      <c r="D35" s="111"/>
+      <c r="E35" s="114" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="116" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="110" t="s">
+      <c r="G35" s="114" t="s">
         <v>853</v>
       </c>
     </row>
@@ -4848,10 +4922,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="115"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="111"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="115"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -4863,14 +4937,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="110" t="s">
+      <c r="D37" s="118"/>
+      <c r="E37" s="114" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="116" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="110" t="s">
+      <c r="G37" s="114" t="s">
         <v>854</v>
       </c>
     </row>
@@ -4884,10 +4958,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="112"/>
-      <c r="G38" s="113"/>
+      <c r="D38" s="118"/>
+      <c r="E38" s="119"/>
+      <c r="F38" s="120"/>
+      <c r="G38" s="119"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -4899,10 +4973,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="156"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="112"/>
-      <c r="G39" s="113"/>
+      <c r="D39" s="118"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="120"/>
+      <c r="G39" s="119"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -4914,10 +4988,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="111"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="115"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -4929,14 +5003,14 @@
       <c r="C41" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="D41" s="104"/>
-      <c r="E41" s="105" t="s">
+      <c r="D41" s="101"/>
+      <c r="E41" s="102" t="s">
         <v>842</v>
       </c>
-      <c r="F41" s="107" t="s">
+      <c r="F41" s="104" t="s">
         <v>826</v>
       </c>
-      <c r="G41" s="106"/>
+      <c r="G41" s="103"/>
     </row>
     <row r="42" spans="1:7" s="57" customFormat="1">
       <c r="A42" s="6" t="s">
@@ -4948,14 +5022,14 @@
       <c r="C42" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="D42" s="104"/>
-      <c r="E42" s="105" t="s">
+      <c r="D42" s="101"/>
+      <c r="E42" s="102" t="s">
         <v>843</v>
       </c>
-      <c r="F42" s="107" t="s">
+      <c r="F42" s="104" t="s">
         <v>826</v>
       </c>
-      <c r="G42" s="106"/>
+      <c r="G42" s="103"/>
     </row>
     <row r="43" spans="1:7" s="57" customFormat="1">
       <c r="A43" s="6" t="s">
@@ -4967,14 +5041,14 @@
       <c r="C43" s="8" t="s">
         <v>835</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="105" t="s">
+      <c r="D43" s="101"/>
+      <c r="E43" s="102" t="s">
         <v>844</v>
       </c>
-      <c r="F43" s="107" t="s">
+      <c r="F43" s="104" t="s">
         <v>826</v>
       </c>
-      <c r="G43" s="106"/>
+      <c r="G43" s="103"/>
     </row>
     <row r="44" spans="1:7" s="57" customFormat="1">
       <c r="A44" s="6" t="s">
@@ -4986,14 +5060,14 @@
       <c r="C44" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="D44" s="104"/>
-      <c r="E44" s="105" t="s">
+      <c r="D44" s="101"/>
+      <c r="E44" s="102" t="s">
         <v>845</v>
       </c>
-      <c r="F44" s="107" t="s">
+      <c r="F44" s="104" t="s">
         <v>826</v>
       </c>
-      <c r="G44" s="106"/>
+      <c r="G44" s="103"/>
     </row>
     <row r="45" spans="1:7" s="57" customFormat="1">
       <c r="A45" s="6" t="s">
@@ -5005,14 +5079,14 @@
       <c r="C45" s="8" t="s">
         <v>839</v>
       </c>
-      <c r="D45" s="104"/>
-      <c r="E45" s="105" t="s">
+      <c r="D45" s="101"/>
+      <c r="E45" s="102" t="s">
         <v>846</v>
       </c>
-      <c r="F45" s="107" t="s">
+      <c r="F45" s="104" t="s">
         <v>826</v>
       </c>
-      <c r="G45" s="106"/>
+      <c r="G45" s="103"/>
     </row>
     <row r="46" spans="1:7" s="57" customFormat="1">
       <c r="A46" s="6" t="s">
@@ -5024,256 +5098,221 @@
       <c r="C46" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="D46" s="104"/>
-      <c r="E46" s="105" t="s">
+      <c r="D46" s="101"/>
+      <c r="E46" s="102" t="s">
         <v>847</v>
       </c>
-      <c r="F46" s="107" t="s">
+      <c r="F46" s="104" t="s">
         <v>826</v>
       </c>
-      <c r="G46" s="106"/>
-    </row>
-    <row r="47" spans="1:7" s="57" customFormat="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="106"/>
-    </row>
-    <row r="48" spans="1:7" s="57" customFormat="1">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="106"/>
-    </row>
-    <row r="49" spans="1:7" s="57" customFormat="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="105"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="106"/>
-    </row>
-    <row r="50" spans="1:7" s="57" customFormat="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="105"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="106"/>
-    </row>
-    <row r="51" spans="1:7" s="57" customFormat="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="104"/>
-      <c r="E51" s="105"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="106"/>
-    </row>
-    <row r="52" spans="1:7" s="57" customFormat="1">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="105"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="106"/>
-    </row>
-    <row r="53" spans="1:7" s="57" customFormat="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="105"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="106"/>
-    </row>
-    <row r="54" spans="1:7" s="57" customFormat="1">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="104"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="106"/>
-    </row>
-    <row r="55" spans="1:7" s="57" customFormat="1">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="105"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="106"/>
-    </row>
-    <row r="56" spans="1:7" s="57" customFormat="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="96"/>
-      <c r="G56" s="56"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="84"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="54"/>
-    </row>
-    <row r="58" spans="1:7" ht="33" customHeight="1">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="27"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
+      <c r="G46" s="103"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="54"/>
+    </row>
+    <row r="48" spans="1:7" ht="33" customHeight="1">
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="27"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B49" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E59" s="52" t="s">
+      <c r="E49" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="6" t="s">
+    <row r="50" spans="1:7">
+      <c r="A50" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B50" s="159" t="s">
+        <v>723</v>
+      </c>
+      <c r="C50" s="156" t="s">
+        <v>725</v>
+      </c>
+      <c r="D50" s="159" t="s">
+        <v>862</v>
+      </c>
+      <c r="E50" s="160" t="s">
+        <v>724</v>
+      </c>
+      <c r="F50" s="154" t="s">
+        <v>715</v>
+      </c>
+      <c r="G50" s="161"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="154" t="s">
+        <v>590</v>
+      </c>
+      <c r="B51" s="155" t="s">
         <v>712</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C51" s="156" t="s">
         <v>714</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D51" s="154" t="s">
         <v>126</v>
       </c>
-      <c r="E60" s="86" t="s">
+      <c r="E51" s="157" t="s">
         <v>713</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F51" s="154" t="s">
         <v>715</v>
       </c>
-      <c r="G60" s="8" t="s">
+      <c r="G51" s="156" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="6" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B52" s="158" t="s">
         <v>717</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C52" s="156" t="s">
         <v>716</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="86" t="s">
+      <c r="D52" s="154"/>
+      <c r="E52" s="157" t="s">
         <v>473</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F52" s="154" t="s">
         <v>715</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G52" s="156" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="6" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B53" s="158" t="s">
         <v>720</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C53" s="156" t="s">
         <v>722</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="86" t="s">
+      <c r="D53" s="154"/>
+      <c r="E53" s="157" t="s">
         <v>721</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F53" s="154" t="s">
         <v>715</v>
       </c>
-      <c r="G62" s="8" t="s">
+      <c r="G53" s="156" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="6" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="154" t="s">
         <v>590</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B54" s="159" t="s">
         <v>781</v>
       </c>
-      <c r="C63" s="99" t="s">
+      <c r="C54" s="156" t="s">
         <v>729</v>
       </c>
-      <c r="E63" s="53" t="s">
+      <c r="D54" s="159"/>
+      <c r="E54" s="160" t="s">
         <v>730</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F54" s="154" t="s">
         <v>715</v>
       </c>
-      <c r="G63" s="99" t="s">
+      <c r="G54" s="156" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>723</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>725</v>
-      </c>
-      <c r="D64" s="83" t="s">
-        <v>726</v>
-      </c>
-      <c r="E64" s="84" t="s">
-        <v>724</v>
-      </c>
-      <c r="F64" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G64" s="85" t="s">
-        <v>727</v>
+    <row r="55" spans="1:7">
+      <c r="A55" s="154" t="s">
+        <v>855</v>
+      </c>
+      <c r="B55" s="159" t="s">
+        <v>857</v>
+      </c>
+      <c r="C55" s="156" t="s">
+        <v>858</v>
+      </c>
+      <c r="D55" s="159"/>
+      <c r="E55" s="160" t="s">
+        <v>856</v>
+      </c>
+      <c r="F55" s="154" t="s">
+        <v>530</v>
+      </c>
+      <c r="G55" s="157" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="154" t="s">
+        <v>855</v>
+      </c>
+      <c r="B56" s="159" t="s">
+        <v>860</v>
+      </c>
+      <c r="C56" s="156" t="s">
+        <v>861</v>
+      </c>
+      <c r="D56" s="159" t="s">
+        <v>863</v>
+      </c>
+      <c r="E56" s="160" t="s">
+        <v>859</v>
+      </c>
+      <c r="F56" s="154" t="s">
+        <v>530</v>
+      </c>
+      <c r="G56" s="161" t="s">
+        <v>864</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -5281,18 +5320,6 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5411,14 +5438,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="133" t="s">
+      <c r="D5" s="121"/>
+      <c r="E5" s="131" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="130" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="105"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -5430,10 +5457,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="124"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="118"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -5445,10 +5472,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="134"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="118"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -5460,10 +5487,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="118"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -5475,10 +5502,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="124"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="118"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="106"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -5490,10 +5517,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="125"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="119"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="107"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -5638,14 +5665,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="123"/>
-      <c r="E18" s="133" t="s">
+      <c r="D18" s="121"/>
+      <c r="E18" s="131" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="F18" s="108" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="117"/>
+      <c r="G18" s="105"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -5657,10 +5684,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="121"/>
-      <c r="G19" s="118"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="106"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -5672,10 +5699,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="118"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -5687,10 +5714,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="125"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="119"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="107"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -5731,23 +5758,23 @@
       <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="87" t="s">
+      <c r="A24" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="87" t="s">
         <v>565</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="88" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="90" t="s">
+      <c r="D24" s="87"/>
+      <c r="E24" s="89" t="s">
         <v>653</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="87" t="s">
         <v>600</v>
       </c>
-      <c r="G24" s="91" t="s">
+      <c r="G24" s="90" t="s">
         <v>602</v>
       </c>
     </row>
@@ -5847,23 +5874,23 @@
       <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="92" t="s">
+      <c r="A30" s="91" t="s">
         <v>598</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="91" t="s">
         <v>658</v>
       </c>
-      <c r="C30" s="93" t="s">
+      <c r="C30" s="92" t="s">
         <v>663</v>
       </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="94" t="s">
+      <c r="D30" s="91"/>
+      <c r="E30" s="93" t="s">
         <v>664</v>
       </c>
-      <c r="F30" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" s="95" t="s">
+      <c r="F30" s="91" t="s">
+        <v>141</v>
+      </c>
+      <c r="G30" s="94" t="s">
         <v>673</v>
       </c>
     </row>
@@ -5919,14 +5946,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="129" t="s">
+      <c r="D33" s="124"/>
+      <c r="E33" s="127" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="136" t="s">
+      <c r="F33" s="134" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="129" t="s">
+      <c r="G33" s="127" t="s">
         <v>639</v>
       </c>
     </row>
@@ -5940,10 +5967,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="127"/>
-      <c r="E34" s="130"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="130"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="128"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -5955,10 +5982,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="130"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="128"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -5970,10 +5997,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="130"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="128"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -5985,10 +6012,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="130"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="130"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="128"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -6000,10 +6027,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="130"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="130"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="135"/>
+      <c r="G38" s="128"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -6015,10 +6042,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="128"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="131"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="129"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="129"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -6372,14 +6399,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="139" t="s">
+      <c r="D6" s="121"/>
+      <c r="E6" s="142" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="120"/>
+      <c r="F6" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="108"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -6391,10 +6418,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="109"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -6406,10 +6433,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="124"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="121"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="109"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -6421,10 +6448,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="125"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="122"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="110"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -6493,14 +6520,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="123"/>
-      <c r="E13" s="140" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="143" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="120"/>
+      <c r="F13" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="108"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -6512,10 +6539,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="122"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="110"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -6527,14 +6554,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="139" t="s">
+      <c r="D15" s="121"/>
+      <c r="E15" s="142" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="132" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="120"/>
+      <c r="F15" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="108"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -6546,10 +6573,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="121"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="109"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -6561,10 +6588,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="121"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -6576,10 +6603,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="121"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="109"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -6591,10 +6618,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="121"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="109"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -6606,10 +6633,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="121"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="109"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -6621,10 +6648,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="121"/>
+      <c r="D21" s="122"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="109"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -6636,10 +6663,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="121"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="109"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -6651,10 +6678,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="109"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -6666,10 +6693,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="121"/>
+      <c r="D24" s="122"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="130"/>
+      <c r="G24" s="109"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -6681,10 +6708,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="109"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -6696,10 +6723,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="109"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -6711,10 +6738,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="109"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -6726,10 +6753,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="121"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -6741,10 +6768,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="109"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -6756,10 +6783,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="121"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="109"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -6771,10 +6798,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="125"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="122"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="110"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -6864,14 +6891,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="126"/>
-      <c r="E36" s="144" t="s">
+      <c r="D36" s="124"/>
+      <c r="E36" s="140" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G36" s="129"/>
+      <c r="F36" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="127"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -6883,10 +6910,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="144"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="130"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="128"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -6898,10 +6925,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="128"/>
-      <c r="E38" s="144"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="131"/>
+      <c r="D38" s="126"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="129"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -7181,14 +7208,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="141"/>
-      <c r="E53" s="144" t="s">
+      <c r="D53" s="137"/>
+      <c r="E53" s="140" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="145" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="129"/>
+      <c r="F53" s="141" t="s">
+        <v>141</v>
+      </c>
+      <c r="G53" s="127"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -7200,10 +7227,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="142"/>
-      <c r="E54" s="144"/>
-      <c r="F54" s="145"/>
-      <c r="G54" s="130"/>
+      <c r="D54" s="138"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="128"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -7215,10 +7242,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="143"/>
-      <c r="E55" s="144"/>
-      <c r="F55" s="145"/>
-      <c r="G55" s="131"/>
+      <c r="D55" s="139"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="129"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -7370,6 +7397,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -7382,14 +7417,6 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7521,10 +7548,10 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="153" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="153" t="s">
+      <c r="A3" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="144" t="s">
         <v>247</v>
       </c>
       <c r="C3" s="147" t="s">
@@ -7542,8 +7569,8 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="154"/>
-      <c r="B4" s="154"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="145"/>
       <c r="C4" s="148"/>
       <c r="D4" s="148"/>
       <c r="E4" s="31" t="s">
@@ -7555,8 +7582,8 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="154"/>
-      <c r="B5" s="154"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="145"/>
       <c r="C5" s="148"/>
       <c r="D5" s="148"/>
       <c r="E5" s="31" t="s">
@@ -7568,8 +7595,8 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="149"/>
       <c r="D6" s="149"/>
       <c r="E6" s="31" t="s">
@@ -7631,10 +7658,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="133" t="s">
+      <c r="E9" s="131" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="120" t="s">
+      <c r="F9" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -7650,8 +7677,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="122"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="110"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -7684,10 +7711,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="133" t="s">
+      <c r="E12" s="131" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -7703,8 +7730,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="121"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -7718,8 +7745,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="122"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="110"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -7752,10 +7779,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="133" t="s">
+      <c r="E16" s="131" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="120" t="s">
+      <c r="F16" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -7771,8 +7798,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="121"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="109"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -7786,8 +7813,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="122"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="110"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -7820,10 +7847,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="133" t="s">
+      <c r="E20" s="131" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="120" t="s">
+      <c r="F20" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -7839,8 +7866,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="122"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -8946,11 +8973,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="150"/>
-      <c r="E79" s="133" t="s">
+      <c r="D79" s="151"/>
+      <c r="E79" s="131" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="120" t="s">
+      <c r="F79" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -8963,9 +8990,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="151"/>
-      <c r="E80" s="134"/>
-      <c r="F80" s="121"/>
+      <c r="D80" s="152"/>
+      <c r="E80" s="132"/>
+      <c r="F80" s="109"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -8978,9 +9005,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="151"/>
-      <c r="E81" s="134"/>
-      <c r="F81" s="121"/>
+      <c r="D81" s="152"/>
+      <c r="E81" s="132"/>
+      <c r="F81" s="109"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -8993,9 +9020,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="151"/>
-      <c r="E82" s="134"/>
-      <c r="F82" s="121"/>
+      <c r="D82" s="152"/>
+      <c r="E82" s="132"/>
+      <c r="F82" s="109"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -9008,9 +9035,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="151"/>
-      <c r="E83" s="134"/>
-      <c r="F83" s="121"/>
+      <c r="D83" s="152"/>
+      <c r="E83" s="132"/>
+      <c r="F83" s="109"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -9023,9 +9050,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="151"/>
-      <c r="E84" s="134"/>
-      <c r="F84" s="121"/>
+      <c r="D84" s="152"/>
+      <c r="E84" s="132"/>
+      <c r="F84" s="109"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -9038,9 +9065,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="151"/>
-      <c r="E85" s="134"/>
-      <c r="F85" s="121"/>
+      <c r="D85" s="152"/>
+      <c r="E85" s="132"/>
+      <c r="F85" s="109"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -9053,9 +9080,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="151"/>
-      <c r="E86" s="134"/>
-      <c r="F86" s="121"/>
+      <c r="D86" s="152"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="109"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -9068,9 +9095,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="152"/>
-      <c r="E87" s="135"/>
-      <c r="F87" s="122"/>
+      <c r="D87" s="153"/>
+      <c r="E87" s="133"/>
+      <c r="F87" s="110"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -9255,10 +9282,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="146" t="s">
+      <c r="E97" s="150" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="120" t="s">
+      <c r="F97" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -9274,8 +9301,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="146"/>
-      <c r="F98" s="121"/>
+      <c r="E98" s="150"/>
+      <c r="F98" s="109"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -9289,8 +9316,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="146"/>
-      <c r="F99" s="121"/>
+      <c r="E99" s="150"/>
+      <c r="F99" s="109"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -9304,8 +9331,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="146"/>
-      <c r="F100" s="121"/>
+      <c r="E100" s="150"/>
+      <c r="F100" s="109"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -9319,8 +9346,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="146"/>
-      <c r="F101" s="121"/>
+      <c r="E101" s="150"/>
+      <c r="F101" s="109"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -9334,8 +9361,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="146"/>
-      <c r="F102" s="121"/>
+      <c r="E102" s="150"/>
+      <c r="F102" s="109"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -9349,8 +9376,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="146"/>
-      <c r="F103" s="122"/>
+      <c r="E103" s="150"/>
+      <c r="F103" s="110"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -9401,11 +9428,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="114"/>
-      <c r="E106" s="146" t="s">
+      <c r="D106" s="111"/>
+      <c r="E106" s="150" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="114" t="s">
+      <c r="F106" s="111" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -9420,9 +9447,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="116"/>
-      <c r="E107" s="146"/>
-      <c r="F107" s="116"/>
+      <c r="D107" s="112"/>
+      <c r="E107" s="150"/>
+      <c r="F107" s="112"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -9435,9 +9462,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="115"/>
-      <c r="E108" s="146"/>
-      <c r="F108" s="115"/>
+      <c r="D108" s="113"/>
+      <c r="E108" s="150"/>
+      <c r="F108" s="113"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -9640,11 +9667,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="114"/>
-      <c r="E119" s="133" t="s">
+      <c r="D119" s="111"/>
+      <c r="E119" s="131" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="120" t="s">
+      <c r="F119" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -9659,9 +9686,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="116"/>
-      <c r="E120" s="134"/>
-      <c r="F120" s="121"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="132"/>
+      <c r="F120" s="109"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -9674,9 +9701,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="115"/>
-      <c r="E121" s="135"/>
-      <c r="F121" s="122"/>
+      <c r="D121" s="113"/>
+      <c r="E121" s="133"/>
+      <c r="F121" s="110"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -9727,11 +9754,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="114"/>
-      <c r="E124" s="146" t="s">
+      <c r="D124" s="111"/>
+      <c r="E124" s="150" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="120" t="s">
+      <c r="F124" s="108" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -9746,9 +9773,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="116"/>
-      <c r="E125" s="146"/>
-      <c r="F125" s="121"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="150"/>
+      <c r="F125" s="109"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -9761,9 +9788,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="116"/>
-      <c r="E126" s="146"/>
-      <c r="F126" s="121"/>
+      <c r="D126" s="112"/>
+      <c r="E126" s="150"/>
+      <c r="F126" s="109"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -9776,9 +9803,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="116"/>
-      <c r="E127" s="146"/>
-      <c r="F127" s="121"/>
+      <c r="D127" s="112"/>
+      <c r="E127" s="150"/>
+      <c r="F127" s="109"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -9791,9 +9818,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="115"/>
-      <c r="E128" s="146"/>
-      <c r="F128" s="122"/>
+      <c r="D128" s="113"/>
+      <c r="E128" s="150"/>
+      <c r="F128" s="110"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -10043,16 +10070,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -10069,6 +10086,16 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0202" sheetId="8" r:id="rId1"/>
@@ -3306,9 +3306,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>상담안내 및 교육안내내 개발사 설계서 반출신청 중</t>
-  </si>
-  <si>
     <t>UHKC0101M0</t>
   </si>
   <si>
@@ -3649,9 +3646,6 @@
   </si>
   <si>
     <t>/html/UHKC/UHKC3001M0_교육신청현황_단체_상세.html</t>
-  </si>
-  <si>
-    <t>UHKC3101M0</t>
   </si>
   <si>
     <t>교육신청현황(단체) 상세 정보 수정</t>
@@ -5426,6 +5420,137 @@
   </si>
   <si>
     <t>관리자 메뉴일 경우 다른 퍼블리셔 작업 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3101M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상담안내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교육안내</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반출신청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6422,6 +6547,81 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6440,35 +6640,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6560,6 +6742,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6575,11 +6763,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6589,84 +6792,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7039,11 +7164,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="144" t="s">
+      <c r="D4" s="166"/>
+      <c r="E4" s="169" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="172" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -7058,9 +7183,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="151"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="148"/>
+      <c r="D5" s="175"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="173"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -7073,9 +7198,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="148"/>
+      <c r="D6" s="175"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="173"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -7088,9 +7213,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="151"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="148"/>
+      <c r="D7" s="175"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -7103,9 +7228,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="148"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -7118,9 +7243,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="151"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="148"/>
+      <c r="D9" s="175"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="173"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -7133,9 +7258,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="151"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="148"/>
+      <c r="D10" s="175"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="173"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -7148,9 +7273,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="148"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="173"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -7163,9 +7288,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="151"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="148"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="173"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -7178,9 +7303,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="151"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="148"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -7193,9 +7318,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="148"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="173"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -7208,9 +7333,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="151"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="148"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="173"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -7223,9 +7348,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="151"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="148"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="173"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -7238,9 +7363,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="148"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="173"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -7253,9 +7378,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="151"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="148"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="173"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -7268,9 +7393,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="151"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="148"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="173"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -7283,9 +7408,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="151"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="148"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -7298,9 +7423,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="151"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="148"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="173"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -7313,9 +7438,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="152"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="149"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="174"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -7484,14 +7609,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="150"/>
-      <c r="E31" s="153" t="s">
+      <c r="D31" s="166"/>
+      <c r="E31" s="162" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="155" t="s">
+      <c r="F31" s="160" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="153" t="s">
+      <c r="G31" s="162" t="s">
         <v>851</v>
       </c>
     </row>
@@ -7505,10 +7630,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="154"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="163"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -7520,14 +7645,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="150"/>
-      <c r="E33" s="153" t="s">
+      <c r="D33" s="166"/>
+      <c r="E33" s="162" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="155" t="s">
+      <c r="F33" s="160" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="153" t="s">
+      <c r="G33" s="162" t="s">
         <v>852</v>
       </c>
     </row>
@@ -7541,10 +7666,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="152"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="156"/>
-      <c r="G34" s="154"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="163"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -7556,14 +7681,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="150"/>
-      <c r="E35" s="153" t="s">
+      <c r="D35" s="166"/>
+      <c r="E35" s="162" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="155" t="s">
+      <c r="F35" s="160" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="153" t="s">
+      <c r="G35" s="162" t="s">
         <v>853</v>
       </c>
     </row>
@@ -7577,10 +7702,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="152"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="154"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="163"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -7592,14 +7717,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="157"/>
-      <c r="E37" s="153" t="s">
+      <c r="D37" s="168"/>
+      <c r="E37" s="162" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="155" t="s">
+      <c r="F37" s="160" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="153" t="s">
+      <c r="G37" s="162" t="s">
         <v>854</v>
       </c>
     </row>
@@ -7613,10 +7738,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="157"/>
-      <c r="E38" s="158"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="158"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="164"/>
+      <c r="G38" s="165"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -7628,10 +7753,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="157"/>
-      <c r="E39" s="158"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="158"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="164"/>
+      <c r="G39" s="165"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -7643,10 +7768,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="157"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="154"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="161"/>
+      <c r="G40" s="163"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -7956,18 +8081,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -7975,6 +8088,18 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8112,14 +8237,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="195" t="s">
+      <c r="D6" s="193"/>
+      <c r="E6" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="183" t="s">
+      <c r="F6" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="147"/>
+      <c r="G6" s="172"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -8131,10 +8256,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="175"/>
-      <c r="E7" s="195"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="148"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="173"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -8146,10 +8271,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="175"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="148"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="173"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -8161,10 +8286,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="195"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="149"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="174"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -8233,14 +8358,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="174"/>
-      <c r="E13" s="196" t="s">
+      <c r="D13" s="193"/>
+      <c r="E13" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="147"/>
+      <c r="G13" s="172"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -8252,10 +8377,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="149"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="174"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -8267,14 +8392,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="195" t="s">
+      <c r="D15" s="193"/>
+      <c r="E15" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="183" t="s">
+      <c r="F15" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="147"/>
+      <c r="G15" s="172"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -8286,10 +8411,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="195"/>
-      <c r="F16" s="183"/>
-      <c r="G16" s="148"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="173"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -8301,10 +8426,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="183"/>
-      <c r="G17" s="148"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="173"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -8316,10 +8441,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="148"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="173"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -8331,10 +8456,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="148"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="173"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -8346,10 +8471,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="148"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="173"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -8361,10 +8486,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="195"/>
-      <c r="F21" s="183"/>
-      <c r="G21" s="148"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="173"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -8376,10 +8501,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="183"/>
-      <c r="G22" s="148"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="173"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -8391,10 +8516,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="183"/>
-      <c r="G23" s="148"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="173"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -8406,10 +8531,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="183"/>
-      <c r="G24" s="148"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="173"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -8421,10 +8546,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="148"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="173"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -8436,10 +8561,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="183"/>
-      <c r="G26" s="148"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="173"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -8451,10 +8576,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="175"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="148"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="173"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -8466,10 +8591,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="195"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="148"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="173"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -8481,10 +8606,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="195"/>
-      <c r="F29" s="183"/>
-      <c r="G29" s="148"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="173"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -8496,10 +8621,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="148"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="173"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -8511,10 +8636,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="195"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="149"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="174"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -8604,14 +8729,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="177"/>
-      <c r="E36" s="193" t="s">
+      <c r="D36" s="196"/>
+      <c r="E36" s="214" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="194" t="s">
+      <c r="F36" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="180"/>
+      <c r="G36" s="199"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -8623,10 +8748,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="181"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="214"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="200"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -8638,10 +8763,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="179"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="182"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="201"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -8921,14 +9046,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="190"/>
-      <c r="E53" s="193" t="s">
+      <c r="D53" s="211"/>
+      <c r="E53" s="214" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="194" t="s">
+      <c r="F53" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="180"/>
+      <c r="G53" s="199"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -8940,10 +9065,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="191"/>
-      <c r="E54" s="193"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="181"/>
+      <c r="D54" s="212"/>
+      <c r="E54" s="214"/>
+      <c r="F54" s="215"/>
+      <c r="G54" s="200"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -8955,10 +9080,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="192"/>
-      <c r="E55" s="193"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="182"/>
+      <c r="D55" s="213"/>
+      <c r="E55" s="214"/>
+      <c r="F55" s="215"/>
+      <c r="G55" s="201"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -9110,14 +9235,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -9130,6 +9247,14 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9261,16 +9386,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="197" t="s">
+      <c r="B3" s="223" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="200" t="s">
+      <c r="C3" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="200" t="s">
+      <c r="D3" s="217" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -9282,10 +9407,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="198"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -9295,10 +9420,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="198"/>
-      <c r="B5" s="198"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -9308,10 +9433,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="199"/>
-      <c r="B6" s="199"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
+      <c r="A6" s="225"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -9371,10 +9496,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="184" t="s">
+      <c r="E9" s="203" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -9390,8 +9515,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="149"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="174"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -9424,10 +9549,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="184" t="s">
+      <c r="E12" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -9443,8 +9568,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="185"/>
-      <c r="F13" s="148"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="173"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -9458,8 +9583,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="149"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="174"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -9492,10 +9617,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="184" t="s">
+      <c r="E16" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="147" t="s">
+      <c r="F16" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -9511,8 +9636,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="185"/>
-      <c r="F17" s="148"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="173"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -9526,8 +9651,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="149"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="174"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -9560,10 +9685,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="184" t="s">
+      <c r="E20" s="203" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="147" t="s">
+      <c r="F20" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -9579,8 +9704,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="149"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="174"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -10686,11 +10811,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="204"/>
-      <c r="E79" s="184" t="s">
+      <c r="D79" s="220"/>
+      <c r="E79" s="203" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="147" t="s">
+      <c r="F79" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -10703,9 +10828,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="205"/>
-      <c r="E80" s="185"/>
-      <c r="F80" s="148"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="204"/>
+      <c r="F80" s="173"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -10718,9 +10843,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="205"/>
-      <c r="E81" s="185"/>
-      <c r="F81" s="148"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="204"/>
+      <c r="F81" s="173"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -10733,9 +10858,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="205"/>
-      <c r="E82" s="185"/>
-      <c r="F82" s="148"/>
+      <c r="D82" s="221"/>
+      <c r="E82" s="204"/>
+      <c r="F82" s="173"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -10748,9 +10873,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="205"/>
-      <c r="E83" s="185"/>
-      <c r="F83" s="148"/>
+      <c r="D83" s="221"/>
+      <c r="E83" s="204"/>
+      <c r="F83" s="173"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -10763,9 +10888,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="205"/>
-      <c r="E84" s="185"/>
-      <c r="F84" s="148"/>
+      <c r="D84" s="221"/>
+      <c r="E84" s="204"/>
+      <c r="F84" s="173"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -10778,9 +10903,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="205"/>
-      <c r="E85" s="185"/>
-      <c r="F85" s="148"/>
+      <c r="D85" s="221"/>
+      <c r="E85" s="204"/>
+      <c r="F85" s="173"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -10793,9 +10918,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="205"/>
-      <c r="E86" s="185"/>
-      <c r="F86" s="148"/>
+      <c r="D86" s="221"/>
+      <c r="E86" s="204"/>
+      <c r="F86" s="173"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -10808,9 +10933,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="149"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="205"/>
+      <c r="F87" s="174"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -10995,10 +11120,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="203" t="s">
+      <c r="E97" s="216" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="147" t="s">
+      <c r="F97" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -11014,8 +11139,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="203"/>
-      <c r="F98" s="148"/>
+      <c r="E98" s="216"/>
+      <c r="F98" s="173"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -11029,8 +11154,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="203"/>
-      <c r="F99" s="148"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="173"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -11044,8 +11169,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="203"/>
-      <c r="F100" s="148"/>
+      <c r="E100" s="216"/>
+      <c r="F100" s="173"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -11059,8 +11184,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="203"/>
-      <c r="F101" s="148"/>
+      <c r="E101" s="216"/>
+      <c r="F101" s="173"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -11074,8 +11199,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="203"/>
-      <c r="F102" s="148"/>
+      <c r="E102" s="216"/>
+      <c r="F102" s="173"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -11089,8 +11214,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="203"/>
-      <c r="F103" s="149"/>
+      <c r="E103" s="216"/>
+      <c r="F103" s="174"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -11141,11 +11266,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="150"/>
-      <c r="E106" s="203" t="s">
+      <c r="D106" s="166"/>
+      <c r="E106" s="216" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="150" t="s">
+      <c r="F106" s="166" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -11160,9 +11285,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="151"/>
-      <c r="E107" s="203"/>
-      <c r="F107" s="151"/>
+      <c r="D107" s="175"/>
+      <c r="E107" s="216"/>
+      <c r="F107" s="175"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -11175,9 +11300,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="152"/>
-      <c r="E108" s="203"/>
-      <c r="F108" s="152"/>
+      <c r="D108" s="167"/>
+      <c r="E108" s="216"/>
+      <c r="F108" s="167"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -11380,11 +11505,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="150"/>
-      <c r="E119" s="184" t="s">
+      <c r="D119" s="166"/>
+      <c r="E119" s="203" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="147" t="s">
+      <c r="F119" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -11399,9 +11524,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="151"/>
-      <c r="E120" s="185"/>
-      <c r="F120" s="148"/>
+      <c r="D120" s="175"/>
+      <c r="E120" s="204"/>
+      <c r="F120" s="173"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -11414,9 +11539,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="152"/>
-      <c r="E121" s="186"/>
-      <c r="F121" s="149"/>
+      <c r="D121" s="167"/>
+      <c r="E121" s="205"/>
+      <c r="F121" s="174"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -11467,11 +11592,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="150"/>
-      <c r="E124" s="203" t="s">
+      <c r="D124" s="166"/>
+      <c r="E124" s="216" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="147" t="s">
+      <c r="F124" s="172" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -11486,9 +11611,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="151"/>
-      <c r="E125" s="203"/>
-      <c r="F125" s="148"/>
+      <c r="D125" s="175"/>
+      <c r="E125" s="216"/>
+      <c r="F125" s="173"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -11501,9 +11626,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="151"/>
-      <c r="E126" s="203"/>
-      <c r="F126" s="148"/>
+      <c r="D126" s="175"/>
+      <c r="E126" s="216"/>
+      <c r="F126" s="173"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -11516,9 +11641,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="151"/>
-      <c r="E127" s="203"/>
-      <c r="F127" s="148"/>
+      <c r="D127" s="175"/>
+      <c r="E127" s="216"/>
+      <c r="F127" s="173"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -11531,9 +11656,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="152"/>
-      <c r="E128" s="203"/>
-      <c r="F128" s="149"/>
+      <c r="D128" s="167"/>
+      <c r="E128" s="216"/>
+      <c r="F128" s="174"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -11783,6 +11908,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -11799,16 +11934,6 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11837,20 +11962,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="149" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="212" t="s">
+      <c r="B1" s="149" t="s">
         <v>870</v>
       </c>
-      <c r="C1" s="212" t="s">
+      <c r="C1" s="149" t="s">
         <v>871</v>
       </c>
-      <c r="D1" s="212" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E1" s="212" t="s">
-        <v>1054</v>
+      <c r="D1" s="149" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="149" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11873,7 +11998,7 @@
         <v>872</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C3" s="131" t="s">
         <v>873</v>
@@ -11888,7 +12013,7 @@
         <v>875</v>
       </c>
       <c r="B4" s="130" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="C4" s="131" t="s">
         <v>876</v>
@@ -11902,8 +12027,8 @@
       <c r="A5" s="129" t="s">
         <v>732</v>
       </c>
-      <c r="B5" s="213" t="s">
-        <v>1560</v>
+      <c r="B5" s="176" t="s">
+        <v>1558</v>
       </c>
       <c r="C5" s="131" t="s">
         <v>877</v>
@@ -11917,7 +12042,7 @@
       <c r="A6" s="129" t="s">
         <v>734</v>
       </c>
-      <c r="B6" s="214"/>
+      <c r="B6" s="177"/>
       <c r="C6" s="131" t="s">
         <v>877</v>
       </c>
@@ -11930,7 +12055,7 @@
       <c r="A7" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="214"/>
+      <c r="B7" s="177"/>
       <c r="C7" s="131" t="s">
         <v>877</v>
       </c>
@@ -11943,7 +12068,7 @@
       <c r="A8" s="129" t="s">
         <v>738</v>
       </c>
-      <c r="B8" s="214"/>
+      <c r="B8" s="177"/>
       <c r="C8" s="131" t="s">
         <v>877</v>
       </c>
@@ -11956,7 +12081,7 @@
       <c r="A9" s="129" t="s">
         <v>740</v>
       </c>
-      <c r="B9" s="214"/>
+      <c r="B9" s="177"/>
       <c r="C9" s="131" t="s">
         <v>877</v>
       </c>
@@ -11969,7 +12094,7 @@
       <c r="A10" s="129" t="s">
         <v>742</v>
       </c>
-      <c r="B10" s="214"/>
+      <c r="B10" s="177"/>
       <c r="C10" s="131" t="s">
         <v>877</v>
       </c>
@@ -11982,7 +12107,7 @@
       <c r="A11" s="129" t="s">
         <v>744</v>
       </c>
-      <c r="B11" s="214"/>
+      <c r="B11" s="177"/>
       <c r="C11" s="131" t="s">
         <v>877</v>
       </c>
@@ -11995,7 +12120,7 @@
       <c r="A12" s="129" t="s">
         <v>746</v>
       </c>
-      <c r="B12" s="214"/>
+      <c r="B12" s="177"/>
       <c r="C12" s="131" t="s">
         <v>877</v>
       </c>
@@ -12008,7 +12133,7 @@
       <c r="A13" s="129" t="s">
         <v>748</v>
       </c>
-      <c r="B13" s="214"/>
+      <c r="B13" s="177"/>
       <c r="C13" s="131" t="s">
         <v>877</v>
       </c>
@@ -12021,7 +12146,7 @@
       <c r="A14" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="214"/>
+      <c r="B14" s="177"/>
       <c r="C14" s="131" t="s">
         <v>877</v>
       </c>
@@ -12034,7 +12159,7 @@
       <c r="A15" s="129" t="s">
         <v>878</v>
       </c>
-      <c r="B15" s="214"/>
+      <c r="B15" s="177"/>
       <c r="C15" s="131" t="s">
         <v>877</v>
       </c>
@@ -12047,7 +12172,7 @@
       <c r="A16" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="B16" s="214"/>
+      <c r="B16" s="177"/>
       <c r="C16" s="131" t="s">
         <v>877</v>
       </c>
@@ -12060,7 +12185,7 @@
       <c r="A17" s="129" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="214"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="131" t="s">
         <v>877</v>
       </c>
@@ -12073,7 +12198,7 @@
       <c r="A18" s="129" t="s">
         <v>757</v>
       </c>
-      <c r="B18" s="214"/>
+      <c r="B18" s="177"/>
       <c r="C18" s="131" t="s">
         <v>877</v>
       </c>
@@ -12086,7 +12211,7 @@
       <c r="A19" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="B19" s="214"/>
+      <c r="B19" s="177"/>
       <c r="C19" s="131" t="s">
         <v>877</v>
       </c>
@@ -12099,7 +12224,7 @@
       <c r="A20" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="B20" s="214"/>
+      <c r="B20" s="177"/>
       <c r="C20" s="131" t="s">
         <v>877</v>
       </c>
@@ -12112,7 +12237,7 @@
       <c r="A21" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="214"/>
+      <c r="B21" s="177"/>
       <c r="C21" s="131" t="s">
         <v>877</v>
       </c>
@@ -12125,7 +12250,7 @@
       <c r="A22" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="B22" s="215"/>
+      <c r="B22" s="178"/>
       <c r="C22" s="131" t="s">
         <v>877</v>
       </c>
@@ -12139,7 +12264,7 @@
         <v>879</v>
       </c>
       <c r="B23" s="130" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="C23" s="131" t="s">
         <v>880</v>
@@ -12150,24 +12275,24 @@
       <c r="E23" s="131"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="150" t="s">
         <v>881</v>
       </c>
-      <c r="B24" s="217" t="s">
+      <c r="B24" s="151" t="s">
         <v>882</v>
       </c>
-      <c r="C24" s="217" t="s">
+      <c r="C24" s="151" t="s">
         <v>883</v>
       </c>
-      <c r="D24" s="216" t="s">
-        <v>874</v>
-      </c>
-      <c r="E24" s="217" t="s">
-        <v>1557</v>
+      <c r="D24" s="150" t="s">
+        <v>874</v>
+      </c>
+      <c r="E24" s="151" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="163" t="s">
+      <c r="A25" s="182" t="s">
         <v>884</v>
       </c>
       <c r="B25" s="130" t="s">
@@ -12176,42 +12301,42 @@
       <c r="C25" s="131" t="s">
         <v>889</v>
       </c>
-      <c r="D25" s="163" t="s">
+      <c r="D25" s="182" t="s">
         <v>874</v>
       </c>
       <c r="E25" s="130"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="163"/>
+      <c r="A26" s="182"/>
       <c r="B26" s="130" t="s">
         <v>886</v>
       </c>
       <c r="C26" s="131" t="s">
         <v>890</v>
       </c>
-      <c r="D26" s="163"/>
+      <c r="D26" s="182"/>
       <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="163"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="130" t="s">
         <v>887</v>
       </c>
       <c r="C27" s="131" t="s">
         <v>891</v>
       </c>
-      <c r="D27" s="163"/>
+      <c r="D27" s="182"/>
       <c r="E27" s="130"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="163"/>
+      <c r="A28" s="182"/>
       <c r="B28" s="130" t="s">
         <v>888</v>
       </c>
       <c r="C28" s="131" t="s">
         <v>892</v>
       </c>
-      <c r="D28" s="163"/>
+      <c r="D28" s="182"/>
       <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
@@ -12455,25 +12580,25 @@
       <c r="E65" s="125"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="164"/>
+      <c r="A66" s="183"/>
       <c r="B66" s="142"/>
       <c r="C66" s="126"/>
-      <c r="D66" s="164"/>
-      <c r="E66" s="160"/>
+      <c r="D66" s="183"/>
+      <c r="E66" s="179"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="165"/>
+      <c r="A67" s="184"/>
       <c r="B67" s="143"/>
       <c r="C67" s="127"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="161"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="180"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A68" s="166"/>
+      <c r="A68" s="185"/>
       <c r="B68" s="137"/>
       <c r="C68" s="128"/>
-      <c r="D68" s="166"/>
-      <c r="E68" s="162"/>
+      <c r="D68" s="185"/>
+      <c r="E68" s="181"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1">
       <c r="A69" s="123"/>
@@ -12664,8 +12789,8 @@
   </sheetPr>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12678,20 +12803,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="148" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="148" t="s">
         <v>870</v>
       </c>
-      <c r="C1" s="211" t="s">
+      <c r="C1" s="148" t="s">
         <v>871</v>
       </c>
-      <c r="D1" s="211" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E1" s="211" t="s">
-        <v>1054</v>
+      <c r="D1" s="148" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="148" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="124" customFormat="1">
@@ -12770,20 +12895,20 @@
       <c r="E6" s="131"/>
     </row>
     <row r="7" spans="1:5" s="124" customFormat="1">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="152" t="s">
         <v>907</v>
       </c>
-      <c r="B7" s="219" t="s">
+      <c r="B7" s="153" t="s">
         <v>908</v>
       </c>
-      <c r="C7" s="219" t="s">
+      <c r="C7" s="153" t="s">
         <v>909</v>
       </c>
-      <c r="D7" s="218" t="s">
+      <c r="D7" s="152" t="s">
         <v>910</v>
       </c>
-      <c r="E7" s="219" t="s">
-        <v>911</v>
+      <c r="E7" s="153" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1"/>
@@ -13027,25 +13152,25 @@
       <c r="E44" s="115"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="167"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="117"/>
       <c r="C45" s="120"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="170"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="189"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="168"/>
+      <c r="A46" s="187"/>
       <c r="B46" s="118"/>
       <c r="C46" s="121"/>
-      <c r="D46" s="168"/>
-      <c r="E46" s="171"/>
+      <c r="D46" s="187"/>
+      <c r="E46" s="190"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A47" s="169"/>
+      <c r="A47" s="188"/>
       <c r="B47" s="119"/>
       <c r="C47" s="122"/>
-      <c r="D47" s="169"/>
-      <c r="E47" s="172"/>
+      <c r="D47" s="188"/>
+      <c r="E47" s="191"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="113"/>
@@ -13233,8 +13358,8 @@
   </sheetPr>
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13248,31 +13373,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="210" t="s">
+      <c r="A1" s="147" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="210" t="s">
+      <c r="B1" s="147" t="s">
         <v>870</v>
       </c>
-      <c r="C1" s="210" t="s">
+      <c r="C1" s="147" t="s">
         <v>871</v>
       </c>
-      <c r="D1" s="210" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E1" s="210" t="s">
-        <v>1054</v>
+      <c r="D1" s="147" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="129" t="s">
+        <v>911</v>
+      </c>
+      <c r="B2" s="130" t="s">
         <v>912</v>
       </c>
-      <c r="B2" s="130" t="s">
+      <c r="C2" s="131" t="s">
         <v>913</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>914</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -13284,10 +13409,10 @@
         <v>723</v>
       </c>
       <c r="B3" s="130" t="s">
+        <v>914</v>
+      </c>
+      <c r="C3" s="131" t="s">
         <v>915</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>916</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -13296,13 +13421,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="129" t="s">
+        <v>916</v>
+      </c>
+      <c r="B4" s="130" t="s">
         <v>917</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="C4" s="131" t="s">
         <v>918</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>919</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
@@ -13311,13 +13436,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="129" t="s">
+        <v>919</v>
+      </c>
+      <c r="B5" s="130" t="s">
         <v>920</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="C5" s="131" t="s">
         <v>921</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>922</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
@@ -13329,10 +13454,10 @@
         <v>177</v>
       </c>
       <c r="B6" s="130" t="s">
+        <v>922</v>
+      </c>
+      <c r="C6" s="131" t="s">
         <v>923</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>924</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -13341,13 +13466,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="s">
+        <v>924</v>
+      </c>
+      <c r="B7" s="130" t="s">
         <v>925</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="C7" s="131" t="s">
         <v>926</v>
-      </c>
-      <c r="C7" s="131" t="s">
-        <v>927</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -13356,13 +13481,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="129" t="s">
+        <v>927</v>
+      </c>
+      <c r="B8" s="130" t="s">
         <v>928</v>
       </c>
-      <c r="B8" s="130" t="s">
+      <c r="C8" s="131" t="s">
         <v>929</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>930</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -13371,28 +13496,28 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="132" t="s">
+        <v>930</v>
+      </c>
+      <c r="B9" s="133" t="s">
         <v>931</v>
-      </c>
-      <c r="B9" s="133" t="s">
-        <v>932</v>
       </c>
       <c r="C9" s="133"/>
       <c r="D9" s="132" t="s">
         <v>910</v>
       </c>
-      <c r="E9" s="225" t="s">
-        <v>1564</v>
+      <c r="E9" s="159" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="s">
+        <v>932</v>
+      </c>
+      <c r="B10" s="130" t="s">
         <v>933</v>
       </c>
-      <c r="B10" s="130" t="s">
+      <c r="C10" s="131" t="s">
         <v>934</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>935</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -13401,13 +13526,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="129" t="s">
+        <v>935</v>
+      </c>
+      <c r="B11" s="130" t="s">
         <v>936</v>
       </c>
-      <c r="B11" s="130" t="s">
-        <v>937</v>
-      </c>
       <c r="C11" s="131" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -13416,13 +13541,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
+        <v>937</v>
+      </c>
+      <c r="B12" s="130" t="s">
         <v>938</v>
       </c>
-      <c r="B12" s="130" t="s">
-        <v>939</v>
-      </c>
       <c r="C12" s="131" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -13431,13 +13556,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="129" t="s">
+        <v>939</v>
+      </c>
+      <c r="B13" s="130" t="s">
         <v>940</v>
       </c>
-      <c r="B13" s="130" t="s">
+      <c r="C13" s="131" t="s">
         <v>941</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>942</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -13446,28 +13571,28 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="132" t="s">
+        <v>942</v>
+      </c>
+      <c r="B14" s="133" t="s">
         <v>943</v>
-      </c>
-      <c r="B14" s="133" t="s">
-        <v>944</v>
       </c>
       <c r="C14" s="133"/>
       <c r="D14" s="132" t="s">
         <v>910</v>
       </c>
-      <c r="E14" s="225" t="s">
-        <v>1562</v>
+      <c r="E14" s="159" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
+        <v>944</v>
+      </c>
+      <c r="B15" s="130" t="s">
         <v>945</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="C15" s="131" t="s">
         <v>946</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>947</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -13476,13 +13601,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
+        <v>947</v>
+      </c>
+      <c r="B16" s="130" t="s">
         <v>948</v>
       </c>
-      <c r="B16" s="130" t="s">
-        <v>949</v>
-      </c>
       <c r="C16" s="131" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
@@ -13494,10 +13619,10 @@
         <v>189</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -13506,13 +13631,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
+        <v>950</v>
+      </c>
+      <c r="B18" s="130" t="s">
         <v>951</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="C18" s="131" t="s">
         <v>952</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>953</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -13521,28 +13646,28 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="132" t="s">
+        <v>953</v>
+      </c>
+      <c r="B19" s="133" t="s">
         <v>954</v>
-      </c>
-      <c r="B19" s="133" t="s">
-        <v>955</v>
       </c>
       <c r="C19" s="133"/>
       <c r="D19" s="132" t="s">
         <v>910</v>
       </c>
-      <c r="E19" s="225" t="s">
-        <v>1563</v>
+      <c r="E19" s="159" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="139" t="s">
+        <v>955</v>
+      </c>
+      <c r="B20" s="140" t="s">
         <v>956</v>
       </c>
-      <c r="B20" s="140" t="s">
+      <c r="C20" s="141" t="s">
         <v>957</v>
-      </c>
-      <c r="C20" s="141" t="s">
-        <v>958</v>
       </c>
       <c r="D20" s="139" t="s">
         <v>874</v>
@@ -13551,13 +13676,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
+        <v>958</v>
+      </c>
+      <c r="B21" s="130" t="s">
         <v>959</v>
       </c>
-      <c r="B21" s="130" t="s">
-        <v>960</v>
-      </c>
       <c r="C21" s="131" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -13566,13 +13691,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="129" t="s">
+        <v>960</v>
+      </c>
+      <c r="B22" s="130" t="s">
         <v>961</v>
       </c>
-      <c r="B22" s="130" t="s">
+      <c r="C22" s="131" t="s">
         <v>962</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>963</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -13581,28 +13706,28 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="132" t="s">
+        <v>963</v>
+      </c>
+      <c r="B23" s="133" t="s">
         <v>964</v>
-      </c>
-      <c r="B23" s="133" t="s">
-        <v>965</v>
       </c>
       <c r="C23" s="133"/>
       <c r="D23" s="132" t="s">
         <v>910</v>
       </c>
-      <c r="E23" s="225" t="s">
-        <v>1564</v>
+      <c r="E23" s="159" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="129" t="s">
+        <v>965</v>
+      </c>
+      <c r="B24" s="130" t="s">
         <v>966</v>
       </c>
-      <c r="B24" s="130" t="s">
+      <c r="C24" s="131" t="s">
         <v>967</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>968</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -13611,13 +13736,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
+        <v>968</v>
+      </c>
+      <c r="B25" s="130" t="s">
         <v>969</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="C25" s="131" t="s">
         <v>970</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>971</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -13626,13 +13751,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="129" t="s">
+        <v>971</v>
+      </c>
+      <c r="B26" s="130" t="s">
         <v>972</v>
       </c>
-      <c r="B26" s="130" t="s">
+      <c r="C26" s="131" t="s">
         <v>973</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>974</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -13641,13 +13766,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="129" t="s">
+        <v>974</v>
+      </c>
+      <c r="B27" s="130" t="s">
         <v>975</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="C27" s="131" t="s">
         <v>976</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>977</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>874</v>
@@ -13656,13 +13781,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="129" t="s">
+        <v>977</v>
+      </c>
+      <c r="B28" s="130" t="s">
         <v>978</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="C28" s="131" t="s">
         <v>979</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>980</v>
       </c>
       <c r="D28" s="129" t="s">
         <v>874</v>
@@ -13671,65 +13796,65 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="129" t="s">
+        <v>980</v>
+      </c>
+      <c r="B29" s="130" t="s">
         <v>981</v>
       </c>
-      <c r="B29" s="130" t="s">
+      <c r="C29" s="131" t="s">
         <v>982</v>
       </c>
-      <c r="C29" s="131" t="s">
+      <c r="D29" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E29" s="131"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="182" t="s">
+        <v>203</v>
+      </c>
+      <c r="B30" s="130" t="s">
         <v>983</v>
       </c>
-      <c r="D29" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E29" s="131"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="163" t="s">
-        <v>203</v>
-      </c>
-      <c r="B30" s="130" t="s">
+      <c r="C30" s="131" t="s">
+        <v>986</v>
+      </c>
+      <c r="D30" s="182" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" s="192"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="182"/>
+      <c r="B31" s="130" t="s">
         <v>984</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C31" s="131" t="s">
         <v>987</v>
       </c>
-      <c r="D30" s="163" t="s">
-        <v>874</v>
-      </c>
-      <c r="E30" s="173"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="163"/>
-      <c r="B31" s="130" t="s">
+      <c r="D31" s="182"/>
+      <c r="E31" s="192"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="182"/>
+      <c r="B32" s="130" t="s">
         <v>985</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C32" s="131" t="s">
         <v>988</v>
       </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="173"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="163"/>
-      <c r="B32" s="130" t="s">
-        <v>986</v>
-      </c>
-      <c r="C32" s="131" t="s">
-        <v>989</v>
-      </c>
-      <c r="D32" s="163"/>
-      <c r="E32" s="173"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="192"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="129" t="s">
         <v>205</v>
       </c>
       <c r="B33" s="130" t="s">
+        <v>989</v>
+      </c>
+      <c r="C33" s="131" t="s">
         <v>990</v>
-      </c>
-      <c r="C33" s="131" t="s">
-        <v>991</v>
       </c>
       <c r="D33" s="129" t="s">
         <v>874</v>
@@ -13741,10 +13866,10 @@
         <v>207</v>
       </c>
       <c r="B34" s="130" t="s">
+        <v>991</v>
+      </c>
+      <c r="C34" s="131" t="s">
         <v>992</v>
-      </c>
-      <c r="C34" s="131" t="s">
-        <v>993</v>
       </c>
       <c r="D34" s="129" t="s">
         <v>874</v>
@@ -13756,10 +13881,10 @@
         <v>209</v>
       </c>
       <c r="B35" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="C35" s="131" t="s">
         <v>994</v>
-      </c>
-      <c r="C35" s="131" t="s">
-        <v>995</v>
       </c>
       <c r="D35" s="129" t="s">
         <v>874</v>
@@ -13768,13 +13893,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="129" t="s">
+        <v>995</v>
+      </c>
+      <c r="B36" s="130" t="s">
         <v>996</v>
       </c>
-      <c r="B36" s="130" t="s">
+      <c r="C36" s="131" t="s">
         <v>997</v>
-      </c>
-      <c r="C36" s="131" t="s">
-        <v>998</v>
       </c>
       <c r="D36" s="129" t="s">
         <v>874</v>
@@ -13783,13 +13908,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="129" t="s">
+        <v>998</v>
+      </c>
+      <c r="B37" s="130" t="s">
         <v>999</v>
       </c>
-      <c r="B37" s="130" t="s">
+      <c r="C37" s="131" t="s">
         <v>1000</v>
-      </c>
-      <c r="C37" s="131" t="s">
-        <v>1001</v>
       </c>
       <c r="D37" s="129" t="s">
         <v>874</v>
@@ -13798,13 +13923,13 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="129" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B38" s="130" t="s">
         <v>1002</v>
       </c>
-      <c r="B38" s="130" t="s">
+      <c r="C38" s="131" t="s">
         <v>1003</v>
-      </c>
-      <c r="C38" s="131" t="s">
-        <v>1004</v>
       </c>
       <c r="D38" s="129" t="s">
         <v>874</v>
@@ -13813,13 +13938,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="129" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B39" s="130" t="s">
         <v>1005</v>
       </c>
-      <c r="B39" s="130" t="s">
+      <c r="C39" s="131" t="s">
         <v>1006</v>
-      </c>
-      <c r="C39" s="131" t="s">
-        <v>1007</v>
       </c>
       <c r="D39" s="129" t="s">
         <v>874</v>
@@ -13828,13 +13953,13 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="129" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B40" s="130" t="s">
         <v>1008</v>
       </c>
-      <c r="B40" s="130" t="s">
+      <c r="C40" s="131" t="s">
         <v>1009</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>1010</v>
       </c>
       <c r="D40" s="129" t="s">
         <v>874</v>
@@ -13843,13 +13968,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="129" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B41" s="130" t="s">
         <v>1011</v>
       </c>
-      <c r="B41" s="130" t="s">
+      <c r="C41" s="131" t="s">
         <v>1012</v>
-      </c>
-      <c r="C41" s="131" t="s">
-        <v>1013</v>
       </c>
       <c r="D41" s="129" t="s">
         <v>874</v>
@@ -13861,10 +13986,10 @@
         <v>265</v>
       </c>
       <c r="B42" s="130" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C42" s="131" t="s">
         <v>1014</v>
-      </c>
-      <c r="C42" s="131" t="s">
-        <v>1015</v>
       </c>
       <c r="D42" s="129" t="s">
         <v>874</v>
@@ -13873,13 +13998,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="129" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B43" s="130" t="s">
         <v>1016</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="C43" s="131" t="s">
         <v>1017</v>
-      </c>
-      <c r="C43" s="131" t="s">
-        <v>1018</v>
       </c>
       <c r="D43" s="129" t="s">
         <v>874</v>
@@ -13888,13 +14013,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="129" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B44" s="130" t="s">
         <v>1019</v>
       </c>
-      <c r="B44" s="130" t="s">
+      <c r="C44" s="131" t="s">
         <v>1020</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>1021</v>
       </c>
       <c r="D44" s="129" t="s">
         <v>874</v>
@@ -13903,13 +14028,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="129" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B45" s="130" t="s">
+        <v>972</v>
+      </c>
+      <c r="C45" s="131" t="s">
         <v>973</v>
-      </c>
-      <c r="C45" s="131" t="s">
-        <v>974</v>
       </c>
       <c r="D45" s="129" t="s">
         <v>874</v>
@@ -13918,181 +14043,181 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="129" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B46" s="130" t="s">
         <v>1023</v>
       </c>
-      <c r="B46" s="130" t="s">
+      <c r="C46" s="131" t="s">
         <v>1024</v>
       </c>
-      <c r="C46" s="131" t="s">
+      <c r="D46" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E46" s="131"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="152" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B47" s="153" t="s">
         <v>1025</v>
       </c>
-      <c r="D46" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E46" s="131"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="218" t="s">
+      <c r="C47" s="153" t="s">
         <v>1026</v>
       </c>
-      <c r="B47" s="219" t="s">
+      <c r="D47" s="152" t="s">
+        <v>910</v>
+      </c>
+      <c r="E47" s="153" t="s">
         <v>1027</v>
       </c>
-      <c r="C47" s="219" t="s">
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="154" t="s">
         <v>1028</v>
       </c>
-      <c r="D47" s="218" t="s">
-        <v>910</v>
-      </c>
-      <c r="E47" s="219" t="s">
+      <c r="B48" s="158" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="220" t="s">
+      <c r="C48" s="155" t="s">
         <v>1030</v>
       </c>
-      <c r="B48" s="224" t="s">
+      <c r="D48" s="154" t="s">
         <v>1031</v>
       </c>
-      <c r="C48" s="221" t="s">
+      <c r="E48" s="155" t="s">
         <v>1032</v>
       </c>
-      <c r="D48" s="220" t="s">
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="154" t="s">
+        <v>623</v>
+      </c>
+      <c r="B49" s="158" t="s">
         <v>1033</v>
       </c>
-      <c r="E48" s="221" t="s">
+      <c r="C49" s="155" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="220" t="s">
-        <v>623</v>
-      </c>
-      <c r="B49" s="224" t="s">
+      <c r="D49" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E49" s="155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="154" t="s">
+        <v>625</v>
+      </c>
+      <c r="B50" s="158" t="s">
         <v>1035</v>
       </c>
-      <c r="C49" s="221" t="s">
+      <c r="C50" s="155" t="s">
         <v>1036</v>
       </c>
-      <c r="D49" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E49" s="221" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="220" t="s">
-        <v>625</v>
-      </c>
-      <c r="B50" s="224" t="s">
+      <c r="D50" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E50" s="155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="154" t="s">
+        <v>627</v>
+      </c>
+      <c r="B51" s="158" t="s">
         <v>1037</v>
       </c>
-      <c r="C50" s="221" t="s">
+      <c r="C51" s="155" t="s">
         <v>1038</v>
       </c>
-      <c r="D50" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E50" s="221" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="220" t="s">
-        <v>627</v>
-      </c>
-      <c r="B51" s="224" t="s">
+      <c r="D51" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E51" s="155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="154" t="s">
+        <v>629</v>
+      </c>
+      <c r="B52" s="158" t="s">
         <v>1039</v>
       </c>
-      <c r="C51" s="221" t="s">
+      <c r="C52" s="155" t="s">
         <v>1040</v>
       </c>
-      <c r="D51" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E51" s="221" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="220" t="s">
-        <v>629</v>
-      </c>
-      <c r="B52" s="224" t="s">
+      <c r="D52" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E52" s="155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="154" t="s">
+        <v>631</v>
+      </c>
+      <c r="B53" s="158" t="s">
         <v>1041</v>
       </c>
-      <c r="C52" s="221" t="s">
+      <c r="C53" s="155" t="s">
         <v>1042</v>
       </c>
-      <c r="D52" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E52" s="221" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="220" t="s">
-        <v>631</v>
-      </c>
-      <c r="B53" s="224" t="s">
+      <c r="D53" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E53" s="155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="154" t="s">
+        <v>633</v>
+      </c>
+      <c r="B54" s="158" t="s">
         <v>1043</v>
       </c>
-      <c r="C53" s="221" t="s">
+      <c r="C54" s="155" t="s">
         <v>1044</v>
       </c>
-      <c r="D53" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E53" s="221" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="220" t="s">
-        <v>633</v>
-      </c>
-      <c r="B54" s="224" t="s">
+      <c r="D54" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E54" s="155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="154" t="s">
         <v>1045</v>
       </c>
-      <c r="C54" s="221" t="s">
+      <c r="B55" s="158" t="s">
         <v>1046</v>
       </c>
-      <c r="D54" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E54" s="221" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="220" t="s">
+      <c r="C55" s="155" t="s">
         <v>1047</v>
       </c>
-      <c r="B55" s="224" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C55" s="221" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D55" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E55" s="221" t="s">
-        <v>1034</v>
+      <c r="D55" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E55" s="155" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="132" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B56" s="133" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C56" s="133" t="s">
         <v>1050</v>
-      </c>
-      <c r="B56" s="133" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C56" s="133" t="s">
-        <v>1052</v>
       </c>
       <c r="D56" s="132" t="s">
         <v>910</v>
@@ -14230,20 +14355,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="146" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="209" t="s">
+      <c r="B1" s="146" t="s">
         <v>870</v>
       </c>
-      <c r="C1" s="209" t="s">
+      <c r="C1" s="146" t="s">
         <v>871</v>
       </c>
-      <c r="D1" s="209" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E1" s="209" t="s">
-        <v>1054</v>
+      <c r="D1" s="146" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14254,7 +14379,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -14266,10 +14391,10 @@
         <v>218</v>
       </c>
       <c r="B3" s="112" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -14278,13 +14403,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="129" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C4" s="131" t="s">
         <v>1058</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>1060</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
@@ -14293,13 +14418,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="129" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>1061</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>1063</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
@@ -14308,13 +14433,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C6" s="131" t="s">
         <v>1064</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>1065</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>1066</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -14326,10 +14451,10 @@
         <v>222</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -14341,10 +14466,10 @@
         <v>223</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -14353,13 +14478,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C9" s="131" t="s">
         <v>1071</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>1073</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -14371,10 +14496,10 @@
         <v>226</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -14386,10 +14511,10 @@
         <v>228</v>
       </c>
       <c r="B11" s="112" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -14401,10 +14526,10 @@
         <v>230</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -14416,10 +14541,10 @@
         <v>231</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -14428,13 +14553,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C14" s="131" t="s">
         <v>1082</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1084</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
@@ -14443,13 +14568,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C15" s="131" t="s">
         <v>1085</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1087</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -14461,10 +14586,10 @@
         <v>233</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
@@ -14476,10 +14601,10 @@
         <v>235</v>
       </c>
       <c r="B17" s="112" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -14491,10 +14616,10 @@
         <v>237</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -14503,13 +14628,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C19" s="131" t="s">
         <v>1094</v>
-      </c>
-      <c r="B19" s="112" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>1096</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -14521,10 +14646,10 @@
         <v>239</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -14533,13 +14658,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C21" s="131" t="s">
         <v>1099</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1101</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -14551,10 +14676,10 @@
         <v>242</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -14566,10 +14691,10 @@
         <v>243</v>
       </c>
       <c r="B23" s="112" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>874</v>
@@ -14581,10 +14706,10 @@
         <v>245</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -14593,13 +14718,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="C25" s="131" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -14608,13 +14733,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="129" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C26" s="131" t="s">
         <v>1110</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>1112</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -14623,13 +14748,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="129" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C27" s="131" t="s">
         <v>1113</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>1115</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>874</v>
@@ -14641,10 +14766,10 @@
         <v>287</v>
       </c>
       <c r="B28" s="112" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C28" s="131" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D28" s="129" t="s">
         <v>874</v>
@@ -14653,13 +14778,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="129" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C29" s="131" t="s">
         <v>1118</v>
-      </c>
-      <c r="B29" s="112" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C29" s="131" t="s">
-        <v>1120</v>
       </c>
       <c r="D29" s="129" t="s">
         <v>874</v>
@@ -14671,10 +14796,10 @@
         <v>291</v>
       </c>
       <c r="B30" s="112" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="C30" s="131" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>874</v>
@@ -14686,10 +14811,10 @@
         <v>293</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="D31" s="129" t="s">
         <v>874</v>
@@ -14701,10 +14826,10 @@
         <v>295</v>
       </c>
       <c r="B32" s="112" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="C32" s="131" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="D32" s="129" t="s">
         <v>874</v>
@@ -14716,10 +14841,10 @@
         <v>296</v>
       </c>
       <c r="B33" s="112" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="C33" s="131" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D33" s="129" t="s">
         <v>874</v>
@@ -14731,10 +14856,10 @@
         <v>297</v>
       </c>
       <c r="B34" s="112" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C34" s="131" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D34" s="129" t="s">
         <v>874</v>
@@ -14746,10 +14871,10 @@
         <v>297</v>
       </c>
       <c r="B35" s="112" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="C35" s="131" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D35" s="129" t="s">
         <v>874</v>
@@ -14758,13 +14883,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="129" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B36" s="112" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C36" s="131" t="s">
         <v>1131</v>
-      </c>
-      <c r="B36" s="112" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C36" s="131" t="s">
-        <v>1133</v>
       </c>
       <c r="D36" s="129" t="s">
         <v>874</v>
@@ -14773,13 +14898,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="129" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B37" s="112" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C37" s="131" t="s">
         <v>1134</v>
-      </c>
-      <c r="B37" s="112" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C37" s="131" t="s">
-        <v>1136</v>
       </c>
       <c r="D37" s="129" t="s">
         <v>874</v>
@@ -14791,10 +14916,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="112" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C38" s="131" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D38" s="129" t="s">
         <v>874</v>
@@ -14803,13 +14928,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="129" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B39" s="112" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C39" s="131" t="s">
         <v>1139</v>
-      </c>
-      <c r="B39" s="112" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C39" s="131" t="s">
-        <v>1141</v>
       </c>
       <c r="D39" s="129" t="s">
         <v>874</v>
@@ -14821,10 +14946,10 @@
         <v>304</v>
       </c>
       <c r="B40" s="112" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="C40" s="131" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="D40" s="129" t="s">
         <v>874</v>
@@ -14833,13 +14958,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="129" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B41" s="112" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C41" s="131" t="s">
         <v>1144</v>
-      </c>
-      <c r="B41" s="112" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C41" s="131" t="s">
-        <v>1146</v>
       </c>
       <c r="D41" s="129" t="s">
         <v>874</v>
@@ -14851,10 +14976,10 @@
         <v>307</v>
       </c>
       <c r="B42" s="112" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C42" s="131" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D42" s="129" t="s">
         <v>874</v>
@@ -14863,13 +14988,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="129" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B43" s="112" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C43" s="131" t="s">
         <v>1149</v>
-      </c>
-      <c r="B43" s="112" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C43" s="131" t="s">
-        <v>1151</v>
       </c>
       <c r="D43" s="129" t="s">
         <v>874</v>
@@ -14878,13 +15003,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="129" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B44" s="112" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C44" s="131" t="s">
         <v>1152</v>
-      </c>
-      <c r="B44" s="112" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>1154</v>
       </c>
       <c r="D44" s="129" t="s">
         <v>874</v>
@@ -14893,13 +15018,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="129" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B45" s="112" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C45" s="131" t="s">
         <v>1155</v>
-      </c>
-      <c r="B45" s="112" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C45" s="131" t="s">
-        <v>1157</v>
       </c>
       <c r="D45" s="129" t="s">
         <v>874</v>
@@ -14911,10 +15036,10 @@
         <v>316</v>
       </c>
       <c r="B46" s="112" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C46" s="131" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="D46" s="129" t="s">
         <v>874</v>
@@ -14923,13 +15048,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="129" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B47" s="112" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C47" s="131" t="s">
         <v>1160</v>
-      </c>
-      <c r="B47" s="112" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C47" s="131" t="s">
-        <v>1162</v>
       </c>
       <c r="D47" s="129" t="s">
         <v>874</v>
@@ -14938,13 +15063,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="129" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B48" s="112" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C48" s="131" t="s">
         <v>1163</v>
-      </c>
-      <c r="B48" s="112" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C48" s="131" t="s">
-        <v>1165</v>
       </c>
       <c r="D48" s="129" t="s">
         <v>874</v>
@@ -14953,13 +15078,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="129" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B49" s="112" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C49" s="131" t="s">
         <v>1166</v>
-      </c>
-      <c r="B49" s="112" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C49" s="131" t="s">
-        <v>1168</v>
       </c>
       <c r="D49" s="129" t="s">
         <v>874</v>
@@ -14968,13 +15093,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="129" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B50" s="112" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C50" s="131" t="s">
         <v>1169</v>
-      </c>
-      <c r="B50" s="112" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C50" s="131" t="s">
-        <v>1171</v>
       </c>
       <c r="D50" s="129" t="s">
         <v>874</v>
@@ -14983,13 +15108,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="129" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B51" s="112" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C51" s="131" t="s">
         <v>1172</v>
-      </c>
-      <c r="B51" s="112" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C51" s="131" t="s">
-        <v>1174</v>
       </c>
       <c r="D51" s="129" t="s">
         <v>874</v>
@@ -15001,10 +15126,10 @@
         <v>328</v>
       </c>
       <c r="B52" s="112" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C52" s="131" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D52" s="129" t="s">
         <v>874</v>
@@ -15013,13 +15138,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="129" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B53" s="112" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C53" s="131" t="s">
         <v>1177</v>
-      </c>
-      <c r="B53" s="112" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C53" s="131" t="s">
-        <v>1179</v>
       </c>
       <c r="D53" s="129" t="s">
         <v>874</v>
@@ -15031,10 +15156,10 @@
         <v>329</v>
       </c>
       <c r="B54" s="112" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C54" s="131" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="D54" s="129" t="s">
         <v>874</v>
@@ -15046,10 +15171,10 @@
         <v>330</v>
       </c>
       <c r="B55" s="112" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C55" s="131" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D55" s="129" t="s">
         <v>874</v>
@@ -15058,13 +15183,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="129" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B56" s="112" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C56" s="131" t="s">
         <v>1184</v>
-      </c>
-      <c r="B56" s="112" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>1186</v>
       </c>
       <c r="D56" s="129" t="s">
         <v>874</v>
@@ -15073,13 +15198,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="129" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B57" s="112" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C57" s="131" t="s">
         <v>1187</v>
-      </c>
-      <c r="B57" s="112" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C57" s="131" t="s">
-        <v>1189</v>
       </c>
       <c r="D57" s="129" t="s">
         <v>874</v>
@@ -15088,13 +15213,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="129" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B58" s="112" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C58" s="131" t="s">
         <v>1190</v>
-      </c>
-      <c r="B58" s="112" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C58" s="131" t="s">
-        <v>1192</v>
       </c>
       <c r="D58" s="129" t="s">
         <v>874</v>
@@ -15103,13 +15228,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="129" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B59" s="112" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C59" s="131" t="s">
         <v>1193</v>
-      </c>
-      <c r="B59" s="112" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C59" s="131" t="s">
-        <v>1195</v>
       </c>
       <c r="D59" s="129" t="s">
         <v>874</v>
@@ -15118,13 +15243,13 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="129" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B60" s="112" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C60" s="131" t="s">
         <v>1196</v>
-      </c>
-      <c r="B60" s="112" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C60" s="131" t="s">
-        <v>1198</v>
       </c>
       <c r="D60" s="129" t="s">
         <v>874</v>
@@ -15133,13 +15258,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="132" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B61" s="133" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C61" s="133" t="s">
         <v>1199</v>
-      </c>
-      <c r="B61" s="133" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C61" s="133" t="s">
-        <v>1201</v>
       </c>
       <c r="D61" s="132" t="s">
         <v>910</v>
@@ -15148,13 +15273,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="132" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B62" s="133" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C62" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D62" s="132" t="s">
         <v>910</v>
@@ -15163,13 +15288,13 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="132" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B63" s="133" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C63" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D63" s="132" t="s">
         <v>910</v>
@@ -15178,13 +15303,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="132" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B64" s="133" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C64" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D64" s="132" t="s">
         <v>910</v>
@@ -15193,13 +15318,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="132" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B65" s="133" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C65" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D65" s="132" t="s">
         <v>910</v>
@@ -15208,13 +15333,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="132" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B66" s="133" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C66" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D66" s="132" t="s">
         <v>910</v>
@@ -15223,13 +15348,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="132" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B67" s="133" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C67" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D67" s="132" t="s">
         <v>910</v>
@@ -15238,13 +15363,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="132" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C68" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D68" s="132" t="s">
         <v>910</v>
@@ -15253,13 +15378,13 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="132" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C69" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D69" s="132" t="s">
         <v>910</v>
@@ -15268,13 +15393,13 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="132" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C70" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D70" s="132" t="s">
         <v>910</v>
@@ -15283,13 +15408,13 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="132" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C71" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D71" s="132" t="s">
         <v>910</v>
@@ -15298,13 +15423,13 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="132" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C72" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D72" s="132" t="s">
         <v>910</v>
@@ -15313,13 +15438,13 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="132" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C73" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D73" s="132" t="s">
         <v>910</v>
@@ -15328,13 +15453,13 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="132" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C74" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D74" s="132" t="s">
         <v>910</v>
@@ -15343,13 +15468,13 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="132" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B75" s="133" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C75" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D75" s="132" t="s">
         <v>910</v>
@@ -15358,13 +15483,13 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="132" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B76" s="133" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C76" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D76" s="132" t="s">
         <v>910</v>
@@ -15373,13 +15498,13 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="132" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B77" s="133" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C77" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D77" s="132" t="s">
         <v>910</v>
@@ -15388,13 +15513,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="132" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B78" s="133" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C78" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D78" s="132" t="s">
         <v>910</v>
@@ -15403,13 +15528,13 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="132" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B79" s="133" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C79" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D79" s="132" t="s">
         <v>910</v>
@@ -15418,13 +15543,13 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="132" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B80" s="133" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C80" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D80" s="132" t="s">
         <v>910</v>
@@ -15433,13 +15558,13 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="132" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B81" s="133" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C81" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D81" s="132" t="s">
         <v>910</v>
@@ -15448,13 +15573,13 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="132" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B82" s="133" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C82" s="133" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="D82" s="132" t="s">
         <v>910</v>
@@ -15466,10 +15591,10 @@
         <v>332</v>
       </c>
       <c r="B83" s="112" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C83" s="131" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="D83" s="129" t="s">
         <v>874</v>
@@ -15478,13 +15603,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="129" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B84" s="112" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C84" s="131" t="s">
         <v>1246</v>
-      </c>
-      <c r="B84" s="112" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C84" s="131" t="s">
-        <v>1248</v>
       </c>
       <c r="D84" s="129" t="s">
         <v>874</v>
@@ -15493,13 +15618,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="129" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B85" s="112" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C85" s="131" t="s">
         <v>1249</v>
-      </c>
-      <c r="B85" s="112" t="s">
-        <v>1250</v>
-      </c>
-      <c r="C85" s="131" t="s">
-        <v>1251</v>
       </c>
       <c r="D85" s="129" t="s">
         <v>874</v>
@@ -15511,10 +15636,10 @@
         <v>336</v>
       </c>
       <c r="B86" s="112" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C86" s="131" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="D86" s="129" t="s">
         <v>874</v>
@@ -15526,10 +15651,10 @@
         <v>338</v>
       </c>
       <c r="B87" s="112" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C87" s="131" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="D87" s="129" t="s">
         <v>874</v>
@@ -15538,13 +15663,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="129" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B88" s="112" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C88" s="131" t="s">
         <v>1256</v>
-      </c>
-      <c r="B88" s="112" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C88" s="131" t="s">
-        <v>1258</v>
       </c>
       <c r="D88" s="129" t="s">
         <v>874</v>
@@ -15553,13 +15678,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="129" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B89" s="112" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C89" s="131" t="s">
         <v>1259</v>
-      </c>
-      <c r="B89" s="112" t="s">
-        <v>1260</v>
-      </c>
-      <c r="C89" s="131" t="s">
-        <v>1261</v>
       </c>
       <c r="D89" s="129" t="s">
         <v>874</v>
@@ -15571,10 +15696,10 @@
         <v>342</v>
       </c>
       <c r="B90" s="112" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C90" s="131" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="D90" s="129" t="s">
         <v>874</v>
@@ -15583,13 +15708,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="129" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B91" s="112" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C91" s="131" t="s">
         <v>1264</v>
-      </c>
-      <c r="B91" s="112" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C91" s="131" t="s">
-        <v>1266</v>
       </c>
       <c r="D91" s="129" t="s">
         <v>874</v>
@@ -15598,13 +15723,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="129" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B92" s="112" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C92" s="131" t="s">
         <v>1267</v>
-      </c>
-      <c r="B92" s="112" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C92" s="131" t="s">
-        <v>1269</v>
       </c>
       <c r="D92" s="129" t="s">
         <v>874</v>
@@ -15613,13 +15738,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="129" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B93" s="112" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C93" s="131" t="s">
         <v>1270</v>
-      </c>
-      <c r="B93" s="112" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C93" s="131" t="s">
-        <v>1272</v>
       </c>
       <c r="D93" s="129" t="s">
         <v>874</v>
@@ -15628,52 +15753,52 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="129" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B94" s="112" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C94" s="131" t="s">
         <v>1273</v>
       </c>
-      <c r="B94" s="112" t="s">
+      <c r="D94" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E94" s="131"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="182" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" s="112" t="s">
         <v>1274</v>
       </c>
-      <c r="C94" s="131" t="s">
+      <c r="C95" s="192" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D95" s="182" t="s">
+        <v>874</v>
+      </c>
+      <c r="E95" s="192"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="182"/>
+      <c r="B96" s="112" t="s">
         <v>1275</v>
       </c>
-      <c r="D94" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E94" s="131"/>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="163" t="s">
-        <v>347</v>
-      </c>
-      <c r="B95" s="112" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C95" s="173" t="s">
-        <v>1278</v>
-      </c>
-      <c r="D95" s="163" t="s">
-        <v>874</v>
-      </c>
-      <c r="E95" s="173"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="163"/>
-      <c r="B96" s="112" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C96" s="173"/>
-      <c r="D96" s="163"/>
-      <c r="E96" s="173"/>
+      <c r="C96" s="192"/>
+      <c r="D96" s="182"/>
+      <c r="E96" s="192"/>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="129" t="s">
         <v>349</v>
       </c>
       <c r="B97" s="112" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C97" s="131" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D97" s="129" t="s">
         <v>874</v>
@@ -15685,10 +15810,10 @@
         <v>351</v>
       </c>
       <c r="B98" s="112" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C98" s="131" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D98" s="129" t="s">
         <v>874</v>
@@ -15700,10 +15825,10 @@
         <v>353</v>
       </c>
       <c r="B99" s="112" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C99" s="131" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D99" s="129" t="s">
         <v>874</v>
@@ -15715,10 +15840,10 @@
         <v>355</v>
       </c>
       <c r="B100" s="112" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C100" s="131" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D100" s="129" t="s">
         <v>874</v>
@@ -15730,10 +15855,10 @@
         <v>357</v>
       </c>
       <c r="B101" s="112" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C101" s="131" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="D101" s="129" t="s">
         <v>874</v>
@@ -15745,10 +15870,10 @@
         <v>359</v>
       </c>
       <c r="B102" s="112" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C102" s="131" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D102" s="129" t="s">
         <v>874</v>
@@ -15760,10 +15885,10 @@
         <v>361</v>
       </c>
       <c r="B103" s="112" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C103" s="131" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D103" s="129" t="s">
         <v>874</v>
@@ -15775,10 +15900,10 @@
         <v>363</v>
       </c>
       <c r="B104" s="112" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D104" s="129" t="s">
         <v>874</v>
@@ -15790,10 +15915,10 @@
         <v>365</v>
       </c>
       <c r="B105" s="112" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C105" s="131" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D105" s="129" t="s">
         <v>874</v>
@@ -15802,13 +15927,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="129" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B106" s="112" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C106" s="131" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="D106" s="129" t="s">
         <v>874</v>
@@ -15817,13 +15942,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="129" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B107" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="131" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="D107" s="129" t="s">
         <v>874</v>
@@ -15832,13 +15957,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="129" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B108" s="112" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C108" s="131" t="s">
         <v>1296</v>
-      </c>
-      <c r="B108" s="112" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C108" s="131" t="s">
-        <v>1298</v>
       </c>
       <c r="D108" s="129" t="s">
         <v>874</v>
@@ -15850,10 +15975,10 @@
         <v>19</v>
       </c>
       <c r="B109" s="112" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C109" s="131" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="D109" s="129" t="s">
         <v>874</v>
@@ -15862,13 +15987,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="129" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B110" s="112" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C110" s="131" t="s">
         <v>1301</v>
-      </c>
-      <c r="B110" s="112" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C110" s="131" t="s">
-        <v>1303</v>
       </c>
       <c r="D110" s="129" t="s">
         <v>874</v>
@@ -15877,13 +16002,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="129" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B111" s="112" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C111" s="131" t="s">
         <v>1304</v>
-      </c>
-      <c r="B111" s="112" t="s">
-        <v>1305</v>
-      </c>
-      <c r="C111" s="131" t="s">
-        <v>1306</v>
       </c>
       <c r="D111" s="129" t="s">
         <v>874</v>
@@ -15892,13 +16017,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="129" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B112" s="112" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C112" s="131" t="s">
         <v>1307</v>
-      </c>
-      <c r="B112" s="112" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C112" s="131" t="s">
-        <v>1309</v>
       </c>
       <c r="D112" s="129" t="s">
         <v>874</v>
@@ -15907,30 +16032,30 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="129" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B113" s="112" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C113" s="131" t="s">
         <v>1310</v>
       </c>
-      <c r="B113" s="112" t="s">
+      <c r="D113" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E113" s="131" t="s">
         <v>1311</v>
-      </c>
-      <c r="C113" s="131" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D113" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E113" s="131" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="129" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="B114" s="112" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="C114" s="131" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="D114" s="129" t="s">
         <v>874</v>
@@ -15942,10 +16067,10 @@
         <v>23</v>
       </c>
       <c r="B115" s="112" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="C115" s="131" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D115" s="129" t="s">
         <v>874</v>
@@ -15954,13 +16079,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="129" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B116" s="112" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="C116" s="131" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="D116" s="129" t="s">
         <v>874</v>
@@ -15975,7 +16100,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="131" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D117" s="129" t="s">
         <v>874</v>
@@ -15990,7 +16115,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="131" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="D118" s="129" t="s">
         <v>874</v>
@@ -15999,13 +16124,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="129" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B119" s="112" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C119" s="131" t="s">
         <v>1317</v>
-      </c>
-      <c r="B119" s="112" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C119" s="131" t="s">
-        <v>1319</v>
       </c>
       <c r="D119" s="129" t="s">
         <v>874</v>
@@ -16017,10 +16142,10 @@
         <v>29</v>
       </c>
       <c r="B120" s="112" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C120" s="131" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="D120" s="129" t="s">
         <v>874</v>
@@ -16029,34 +16154,34 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="129" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B121" s="112" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C121" s="131" t="s">
         <v>1322</v>
       </c>
-      <c r="B121" s="112" t="s">
+      <c r="D121" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E121" s="131"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="150" t="s">
         <v>1323</v>
       </c>
-      <c r="C121" s="131" t="s">
+      <c r="B122" s="156" t="s">
         <v>1324</v>
       </c>
-      <c r="D121" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E121" s="131"/>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="216" t="s">
+      <c r="C122" s="151" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D122" s="150" t="s">
+        <v>874</v>
+      </c>
+      <c r="E122" s="151" t="s">
         <v>1325</v>
-      </c>
-      <c r="B122" s="222" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C122" s="217" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D122" s="216" t="s">
-        <v>874</v>
-      </c>
-      <c r="E122" s="217" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -16064,7 +16189,7 @@
         <v>33</v>
       </c>
       <c r="B123" s="112" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C123" s="131" t="s">
         <v>137</v>
@@ -16079,7 +16204,7 @@
         <v>35</v>
       </c>
       <c r="B124" s="112" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="C124" s="131" t="s">
         <v>138</v>
@@ -16094,7 +16219,7 @@
         <v>37</v>
       </c>
       <c r="B125" s="112" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C125" s="131" t="s">
         <v>138</v>
@@ -16109,50 +16234,50 @@
         <v>39</v>
       </c>
       <c r="B126" s="112" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C126" s="131" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D126" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E126" s="131" t="s">
         <v>1331</v>
-      </c>
-      <c r="C126" s="131" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D126" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E126" s="131" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="129" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="B127" s="112" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="C127" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D127" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E127" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="129" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B128" s="112" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C128" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D128" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E128" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -16160,16 +16285,16 @@
         <v>45</v>
       </c>
       <c r="B129" s="112" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C129" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D129" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E129" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -16177,16 +16302,16 @@
         <v>47</v>
       </c>
       <c r="B130" s="112" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C130" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D130" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E130" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -16194,16 +16319,16 @@
         <v>49</v>
       </c>
       <c r="B131" s="112" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C131" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D131" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E131" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -16211,16 +16336,16 @@
         <v>51</v>
       </c>
       <c r="B132" s="112" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C132" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D132" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E132" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -16228,16 +16353,16 @@
         <v>53</v>
       </c>
       <c r="B133" s="112" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C133" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D133" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E133" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -16245,16 +16370,16 @@
         <v>55</v>
       </c>
       <c r="B134" s="112" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C134" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D134" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E134" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -16262,16 +16387,16 @@
         <v>57</v>
       </c>
       <c r="B135" s="112" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C135" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D135" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E135" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16279,16 +16404,16 @@
         <v>59</v>
       </c>
       <c r="B136" s="112" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C136" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D136" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E136" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -16296,16 +16421,16 @@
         <v>61</v>
       </c>
       <c r="B137" s="112" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C137" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D137" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E137" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -16313,16 +16438,16 @@
         <v>63</v>
       </c>
       <c r="B138" s="112" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="C138" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D138" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E138" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16330,16 +16455,16 @@
         <v>65</v>
       </c>
       <c r="B139" s="112" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C139" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D139" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E139" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -16347,16 +16472,16 @@
         <v>67</v>
       </c>
       <c r="B140" s="112" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="C140" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D140" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E140" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16364,16 +16489,16 @@
         <v>69</v>
       </c>
       <c r="B141" s="112" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C141" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D141" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E141" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -16381,16 +16506,16 @@
         <v>71</v>
       </c>
       <c r="B142" s="112" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="C142" s="131" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D142" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E142" s="131" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16398,10 +16523,10 @@
         <v>73</v>
       </c>
       <c r="B143" s="112" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C143" s="131" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D143" s="129" t="s">
         <v>874</v>
@@ -16410,13 +16535,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="129" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B144" s="112" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C144" s="131" t="s">
         <v>1354</v>
-      </c>
-      <c r="B144" s="112" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C144" s="131" t="s">
-        <v>1356</v>
       </c>
       <c r="D144" s="129" t="s">
         <v>874</v>
@@ -16425,13 +16550,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="129" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B145" s="112" t="s">
         <v>641</v>
       </c>
       <c r="C145" s="131" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="D145" s="129" t="s">
         <v>874</v>
@@ -16440,62 +16565,62 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="129" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B146" s="112" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C146" s="131" t="s">
         <v>1359</v>
       </c>
-      <c r="B146" s="112" t="s">
+      <c r="D146" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E146" s="131"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="150" t="s">
         <v>1360</v>
       </c>
-      <c r="C146" s="131" t="s">
+      <c r="B147" s="151" t="s">
         <v>1361</v>
       </c>
-      <c r="D146" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E146" s="131"/>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="216" t="s">
+      <c r="C147" s="151" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D147" s="150" t="s">
+        <v>874</v>
+      </c>
+      <c r="E147" s="151" t="s">
         <v>1362</v>
       </c>
-      <c r="B147" s="217" t="s">
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="150" t="s">
         <v>1363</v>
       </c>
-      <c r="C147" s="217" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D147" s="216" t="s">
-        <v>874</v>
-      </c>
-      <c r="E147" s="217" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="216" t="s">
-        <v>1365</v>
-      </c>
-      <c r="B148" s="217" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C148" s="217" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D148" s="216" t="s">
-        <v>874</v>
-      </c>
-      <c r="E148" s="217" t="s">
-        <v>1364</v>
+      <c r="B148" s="151" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C148" s="151" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D148" s="150" t="s">
+        <v>874</v>
+      </c>
+      <c r="E148" s="151" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="129" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B149" s="112" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C149" s="131" t="s">
         <v>1366</v>
-      </c>
-      <c r="B149" s="112" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C149" s="131" t="s">
-        <v>1368</v>
       </c>
       <c r="D149" s="129" t="s">
         <v>874</v>
@@ -16504,13 +16629,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="129" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B150" s="112" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C150" s="131" t="s">
         <v>1369</v>
-      </c>
-      <c r="B150" s="112" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C150" s="131" t="s">
-        <v>1371</v>
       </c>
       <c r="D150" s="129" t="s">
         <v>874</v>
@@ -16519,13 +16644,13 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="129" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="B151" s="112" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="C151" s="131" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D151" s="129" t="s">
         <v>874</v>
@@ -16534,13 +16659,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="129" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B152" s="112" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C152" s="131" t="s">
         <v>1374</v>
-      </c>
-      <c r="B152" s="112" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C152" s="131" t="s">
-        <v>1376</v>
       </c>
       <c r="D152" s="129" t="s">
         <v>874</v>
@@ -16552,10 +16677,10 @@
         <v>691</v>
       </c>
       <c r="B153" s="112" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="C153" s="131" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D153" s="129" t="s">
         <v>874</v>
@@ -16567,10 +16692,10 @@
         <v>693</v>
       </c>
       <c r="B154" s="112" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="C154" s="131" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D154" s="129" t="s">
         <v>874</v>
@@ -16582,10 +16707,10 @@
         <v>695</v>
       </c>
       <c r="B155" s="112" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C155" s="131" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="D155" s="129" t="s">
         <v>874</v>
@@ -16594,13 +16719,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="129" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B156" s="112" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C156" s="131" t="s">
         <v>1381</v>
-      </c>
-      <c r="B156" s="112" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C156" s="131" t="s">
-        <v>1383</v>
       </c>
       <c r="D156" s="129" t="s">
         <v>874</v>
@@ -16612,44 +16737,44 @@
         <v>20</v>
       </c>
       <c r="B157" s="112" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C157" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D157" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E157" s="131" t="s">
         <v>1384</v>
-      </c>
-      <c r="C157" s="131" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D157" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E157" s="131" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="129" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B158" s="112" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C158" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D158" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E158" s="131" t="s">
         <v>1387</v>
-      </c>
-      <c r="B158" s="112" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C158" s="131" t="s">
-        <v>1385</v>
-      </c>
-      <c r="D158" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E158" s="131" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="129" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B159" s="112" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C159" s="131" t="s">
         <v>1390</v>
-      </c>
-      <c r="B159" s="112" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C159" s="131" t="s">
-        <v>1392</v>
       </c>
       <c r="D159" s="129" t="s">
         <v>874</v>
@@ -16658,13 +16783,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="129" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B160" s="112" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C160" s="131" t="s">
         <v>1393</v>
-      </c>
-      <c r="B160" s="112" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C160" s="131" t="s">
-        <v>1395</v>
       </c>
       <c r="D160" s="129" t="s">
         <v>874</v>
@@ -16673,13 +16798,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="129" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B161" s="112" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C161" s="131" t="s">
         <v>1396</v>
-      </c>
-      <c r="B161" s="112" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C161" s="131" t="s">
-        <v>1398</v>
       </c>
       <c r="D161" s="129" t="s">
         <v>874</v>
@@ -16688,13 +16813,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="129" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B162" s="112" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C162" s="131" t="s">
         <v>1399</v>
-      </c>
-      <c r="B162" s="112" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C162" s="131" t="s">
-        <v>1401</v>
       </c>
       <c r="D162" s="129" t="s">
         <v>874</v>
@@ -16703,13 +16828,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="129" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B163" s="112" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C163" s="131" t="s">
         <v>1402</v>
-      </c>
-      <c r="B163" s="112" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C163" s="131" t="s">
-        <v>1404</v>
       </c>
       <c r="D163" s="129" t="s">
         <v>874</v>
@@ -16718,13 +16843,13 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="129" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B164" s="112" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C164" s="131" t="s">
         <v>1405</v>
-      </c>
-      <c r="B164" s="112" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C164" s="131" t="s">
-        <v>1407</v>
       </c>
       <c r="D164" s="129" t="s">
         <v>874</v>
@@ -16776,21 +16901,21 @@
         <v>871</v>
       </c>
       <c r="D1" s="116" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E1" s="116" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="129" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="B2" s="130" t="s">
         <v>800</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -16799,13 +16924,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="129" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C3" s="131" t="s">
         <v>1410</v>
-      </c>
-      <c r="B3" s="130" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>1412</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -16814,19 +16939,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="129" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B4" s="130" t="s">
         <v>804</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E4" s="131" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16834,16 +16959,16 @@
         <v>817</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E5" s="131" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16854,30 +16979,30 @@
         <v>806</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="B7" s="130" t="s">
         <v>808</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -16885,16 +17010,16 @@
         <v>817</v>
       </c>
       <c r="B8" s="130" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="C8" s="131" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E8" s="131" t="s">
         <v>1420</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E8" s="131" t="s">
-        <v>1422</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -16905,13 +17030,13 @@
         <v>810</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -16919,16 +17044,16 @@
         <v>811</v>
       </c>
       <c r="B10" s="130" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E10" s="131" t="s">
         <v>1423</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>1424</v>
-      </c>
-      <c r="D10" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -16936,16 +17061,16 @@
         <v>817</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E11" s="131" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -16956,13 +17081,13 @@
         <v>814</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -16973,13 +17098,13 @@
         <v>816</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E13" s="131" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -16987,16 +17112,16 @@
         <v>817</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E14" s="131" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17007,41 +17132,41 @@
         <v>821</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E15" s="131" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E16" s="131" t="s">
         <v>1431</v>
-      </c>
-      <c r="B16" s="130" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D16" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C17" s="131" t="s">
         <v>1434</v>
-      </c>
-      <c r="B17" s="130" t="s">
-        <v>1435</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>1436</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -17050,13 +17175,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C18" s="131" t="s">
         <v>1437</v>
-      </c>
-      <c r="B18" s="130" t="s">
-        <v>1438</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>1439</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -17065,13 +17190,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="B19" s="130" t="s">
         <v>835</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -17080,13 +17205,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="B20" s="130" t="s">
         <v>837</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -17095,13 +17220,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C21" s="131" t="s">
         <v>1444</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>1445</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1446</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -17116,7 +17241,7 @@
         <v>841</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -17152,20 +17277,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="144" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="144" t="s">
         <v>870</v>
       </c>
-      <c r="C1" s="207" t="s">
+      <c r="C1" s="144" t="s">
         <v>871</v>
       </c>
-      <c r="D1" s="207" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E1" s="207" t="s">
-        <v>1054</v>
+      <c r="D1" s="144" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="144" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17176,7 +17301,7 @@
         <v>535</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -17191,7 +17316,7 @@
         <v>537</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -17206,7 +17331,7 @@
         <v>539</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
@@ -17218,10 +17343,10 @@
         <v>544</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
@@ -17233,10 +17358,10 @@
         <v>546</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -17248,10 +17373,10 @@
         <v>548</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -17263,10 +17388,10 @@
         <v>550</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -17278,10 +17403,10 @@
         <v>552</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -17293,10 +17418,10 @@
         <v>554</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -17311,7 +17436,7 @@
         <v>557</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -17320,13 +17445,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C12" s="131" t="s">
         <v>1459</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C12" s="131" t="s">
-        <v>1461</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -17338,10 +17463,10 @@
         <v>560</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -17350,13 +17475,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C14" s="131" t="s">
         <v>1464</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>1465</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1466</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
@@ -17368,10 +17493,10 @@
         <v>563</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -17380,45 +17505,45 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B16" s="112" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C16" s="131" t="s">
         <v>1469</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="D16" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E16" s="131"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="154" t="s">
         <v>1470</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="B17" s="157" t="s">
         <v>1471</v>
       </c>
-      <c r="D16" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="131"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="220" t="s">
+      <c r="C17" s="155" t="s">
         <v>1472</v>
       </c>
-      <c r="B17" s="223" t="s">
+      <c r="D17" s="154" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E17" s="155" t="s">
         <v>1473</v>
-      </c>
-      <c r="C17" s="221" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D17" s="220" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E17" s="221" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C18" s="131" t="s">
         <v>1476</v>
-      </c>
-      <c r="B18" s="112" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>1478</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -17427,13 +17552,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -17442,13 +17567,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -17457,13 +17582,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C21" s="131" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -17472,13 +17597,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="129" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -17487,13 +17612,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="129" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B23" s="112" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C23" s="131" t="s">
         <v>1487</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>1489</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>874</v>
@@ -17502,13 +17627,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="129" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -17517,13 +17642,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C25" s="131" t="s">
         <v>1492</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>1493</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>1494</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -17532,13 +17657,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="129" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C26" s="131" t="s">
         <v>1495</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>1497</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -17547,13 +17672,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="129" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C27" s="131" t="s">
         <v>1498</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>1500</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>874</v>
@@ -17562,13 +17687,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="129" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C28" s="131" t="s">
         <v>1501</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>1502</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>1503</v>
       </c>
       <c r="D28" s="129" t="s">
         <v>874</v>
@@ -17577,13 +17702,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="129" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C29" s="131" t="s">
         <v>1504</v>
-      </c>
-      <c r="B29" s="112" t="s">
-        <v>1505</v>
-      </c>
-      <c r="C29" s="131" t="s">
-        <v>1506</v>
       </c>
       <c r="D29" s="129" t="s">
         <v>874</v>
@@ -17592,13 +17717,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="129" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C30" s="131" t="s">
         <v>1507</v>
-      </c>
-      <c r="B30" s="112" t="s">
-        <v>1508</v>
-      </c>
-      <c r="C30" s="131" t="s">
-        <v>1509</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>874</v>
@@ -17607,13 +17732,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="129" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="D31" s="129" t="s">
         <v>874</v>
@@ -17649,20 +17774,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="145" t="s">
         <v>869</v>
       </c>
-      <c r="B1" s="208" t="s">
+      <c r="B1" s="145" t="s">
         <v>870</v>
       </c>
-      <c r="C1" s="208" t="s">
+      <c r="C1" s="145" t="s">
         <v>871</v>
       </c>
-      <c r="D1" s="208" t="s">
-        <v>1053</v>
-      </c>
-      <c r="E1" s="208" t="s">
-        <v>1054</v>
+      <c r="D1" s="145" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E1" s="145" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -17670,58 +17795,58 @@
         <v>75</v>
       </c>
       <c r="B2" s="130" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E2" s="131"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="182" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>1512</v>
       </c>
-      <c r="C2" s="131" t="s">
+      <c r="C3" s="192" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D3" s="182" t="s">
+        <v>874</v>
+      </c>
+      <c r="E3" s="192"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="182"/>
+      <c r="B4" s="131" t="s">
         <v>1513</v>
       </c>
-      <c r="D2" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E2" s="131"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="163" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="130" t="s">
+      <c r="C4" s="192"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="192"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="182"/>
+      <c r="B5" s="131" t="s">
         <v>1514</v>
       </c>
-      <c r="C3" s="173" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D3" s="163" t="s">
-        <v>874</v>
-      </c>
-      <c r="E3" s="173"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="163"/>
-      <c r="B4" s="131" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="163"/>
-      <c r="E4" s="173"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="163"/>
-      <c r="B5" s="131" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="173"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="192"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -17736,7 +17861,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -17751,7 +17876,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -17760,13 +17885,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -17775,13 +17900,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="B10" s="130" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -17793,10 +17918,10 @@
         <v>86</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -17808,10 +17933,10 @@
         <v>88</v>
       </c>
       <c r="B12" s="130" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -17823,10 +17948,10 @@
         <v>90</v>
       </c>
       <c r="B13" s="130" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C13" s="131" t="s">
         <v>1527</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>1529</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -17835,13 +17960,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C14" s="131" t="s">
         <v>1530</v>
-      </c>
-      <c r="B14" s="130" t="s">
-        <v>1531</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1532</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
@@ -17850,13 +17975,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C15" s="131" t="s">
         <v>1533</v>
-      </c>
-      <c r="B15" s="130" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1535</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -17865,13 +17990,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
@@ -17880,13 +18005,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="B17" s="130" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -17895,13 +18020,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -17910,13 +18035,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C19" s="131" t="s">
         <v>1541</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>1543</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -17928,10 +18053,10 @@
         <v>99</v>
       </c>
       <c r="B20" s="130" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -17943,10 +18068,10 @@
         <v>101</v>
       </c>
       <c r="B21" s="130" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C21" s="131" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -17958,10 +18083,10 @@
         <v>103</v>
       </c>
       <c r="B22" s="130" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -17973,10 +18098,10 @@
         <v>105</v>
       </c>
       <c r="B23" s="130" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>874</v>
@@ -17988,10 +18113,10 @@
         <v>107</v>
       </c>
       <c r="B24" s="130" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -18000,13 +18125,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C25" s="131" t="s">
         <v>1554</v>
-      </c>
-      <c r="B25" s="130" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>1556</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -18137,14 +18262,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="184" t="s">
+      <c r="D5" s="193"/>
+      <c r="E5" s="203" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="183" t="s">
+      <c r="F5" s="202" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="169"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -18156,10 +18281,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="175"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="145"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="170"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -18171,10 +18296,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="175"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="145"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="170"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -18186,10 +18311,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="175"/>
-      <c r="E8" s="185"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="145"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -18201,10 +18326,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="145"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -18216,10 +18341,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="183"/>
-      <c r="G10" s="146"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="171"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -18364,14 +18489,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="184" t="s">
+      <c r="D18" s="193"/>
+      <c r="E18" s="203" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="147" t="s">
+      <c r="F18" s="172" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="144"/>
+      <c r="G18" s="169"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -18383,10 +18508,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="185"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="145"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="173"/>
+      <c r="G19" s="170"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -18398,10 +18523,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="185"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="145"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="170"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -18413,10 +18538,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="146"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="174"/>
+      <c r="G21" s="171"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -18645,14 +18770,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="177"/>
-      <c r="E33" s="180" t="s">
+      <c r="D33" s="196"/>
+      <c r="E33" s="199" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="187" t="s">
+      <c r="F33" s="206" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="180" t="s">
+      <c r="G33" s="199" t="s">
         <v>639</v>
       </c>
     </row>
@@ -18666,10 +18791,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="178"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="188"/>
-      <c r="G34" s="181"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="200"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -18681,10 +18806,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="178"/>
-      <c r="E35" s="181"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="181"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="200"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -18696,10 +18821,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="181"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="181"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="200"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -18711,10 +18836,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="181"/>
-      <c r="F37" s="188"/>
-      <c r="G37" s="181"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="200"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -18726,10 +18851,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="181"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="200"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -18741,10 +18866,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="179"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="182"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="201"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0202" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2735" uniqueCount="1565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="1567">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3903,9 +3903,6 @@
   </si>
   <si>
     <t>[POP] 대학교육비통계</t>
-  </si>
-  <si>
-    <t>/html/UHKD/UHKD3102P0_pop_대학교육비통계.html</t>
   </si>
   <si>
     <t>UHKD2204P0</t>
@@ -5552,6 +5549,295 @@
       <t>중</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKD/UHKD2203P0_pop_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대학교육비통계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발사와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외페이지도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>개발사와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>협의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제외페이지도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5726,7 +6012,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5832,6 +6118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6114,7 +6406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6595,54 +6887,54 @@
     <xf numFmtId="0" fontId="21" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6742,39 +7034,48 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6784,14 +7085,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7165,10 +7475,10 @@
         <v>733</v>
       </c>
       <c r="D4" s="166"/>
-      <c r="E4" s="169" t="s">
+      <c r="E4" s="160" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="163" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -7183,9 +7493,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="175"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="173"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="164"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -7198,9 +7508,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="175"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="173"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="164"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -7213,9 +7523,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="175"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="173"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="164"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -7228,9 +7538,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="175"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="173"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="164"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -7243,9 +7553,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="175"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="173"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="164"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -7258,9 +7568,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="175"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="173"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="164"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -7273,9 +7583,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="175"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="173"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="164"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -7288,9 +7598,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="175"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="173"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="161"/>
+      <c r="F12" s="164"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -7303,9 +7613,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="173"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="164"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -7318,9 +7628,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="173"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="164"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -7333,9 +7643,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="173"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="161"/>
+      <c r="F15" s="164"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -7348,9 +7658,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="173"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="164"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -7363,9 +7673,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="173"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -7378,9 +7688,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="173"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="164"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -7393,9 +7703,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="173"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="164"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -7408,9 +7718,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="173"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="164"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -7423,9 +7733,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="173"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="164"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -7438,9 +7748,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="167"/>
-      <c r="E22" s="171"/>
-      <c r="F22" s="174"/>
+      <c r="D22" s="168"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="165"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -7610,13 +7920,13 @@
         <v>804</v>
       </c>
       <c r="D31" s="166"/>
-      <c r="E31" s="162" t="s">
+      <c r="E31" s="169" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="160" t="s">
+      <c r="F31" s="171" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="162" t="s">
+      <c r="G31" s="169" t="s">
         <v>851</v>
       </c>
     </row>
@@ -7630,10 +7940,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="167"/>
-      <c r="E32" s="163"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="163"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="170"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -7646,13 +7956,13 @@
         <v>808</v>
       </c>
       <c r="D33" s="166"/>
-      <c r="E33" s="162" t="s">
+      <c r="E33" s="169" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="160" t="s">
+      <c r="F33" s="171" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="162" t="s">
+      <c r="G33" s="169" t="s">
         <v>852</v>
       </c>
     </row>
@@ -7666,10 +7976,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="167"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="163"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="172"/>
+      <c r="G34" s="170"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -7682,13 +7992,13 @@
         <v>812</v>
       </c>
       <c r="D35" s="166"/>
-      <c r="E35" s="162" t="s">
+      <c r="E35" s="169" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="160" t="s">
+      <c r="F35" s="171" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="162" t="s">
+      <c r="G35" s="169" t="s">
         <v>853</v>
       </c>
     </row>
@@ -7702,10 +8012,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="167"/>
-      <c r="E36" s="163"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="163"/>
+      <c r="D36" s="168"/>
+      <c r="E36" s="170"/>
+      <c r="F36" s="172"/>
+      <c r="G36" s="170"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -7717,14 +8027,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="168"/>
-      <c r="E37" s="162" t="s">
+      <c r="D37" s="173"/>
+      <c r="E37" s="169" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="160" t="s">
+      <c r="F37" s="171" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="162" t="s">
+      <c r="G37" s="169" t="s">
         <v>854</v>
       </c>
     </row>
@@ -7738,10 +8048,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="168"/>
-      <c r="E38" s="165"/>
-      <c r="F38" s="164"/>
-      <c r="G38" s="165"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="174"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -7753,10 +8063,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="168"/>
-      <c r="E39" s="165"/>
-      <c r="F39" s="164"/>
-      <c r="G39" s="165"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="174"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="174"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -7768,10 +8078,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="168"/>
-      <c r="E40" s="163"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="163"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="170"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="170"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -8081,6 +8391,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -8088,18 +8410,6 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8238,13 +8548,13 @@
         <v>22</v>
       </c>
       <c r="D6" s="193"/>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="214" t="s">
         <v>133</v>
       </c>
       <c r="F6" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="172"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -8257,9 +8567,9 @@
         <v>24</v>
       </c>
       <c r="D7" s="194"/>
-      <c r="E7" s="209"/>
+      <c r="E7" s="214"/>
       <c r="F7" s="202"/>
-      <c r="G7" s="173"/>
+      <c r="G7" s="164"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -8272,9 +8582,9 @@
         <v>26</v>
       </c>
       <c r="D8" s="194"/>
-      <c r="E8" s="209"/>
+      <c r="E8" s="214"/>
       <c r="F8" s="202"/>
-      <c r="G8" s="173"/>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -8287,9 +8597,9 @@
         <v>28</v>
       </c>
       <c r="D9" s="195"/>
-      <c r="E9" s="209"/>
+      <c r="E9" s="214"/>
       <c r="F9" s="202"/>
-      <c r="G9" s="174"/>
+      <c r="G9" s="165"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -8359,13 +8669,13 @@
         <v>36</v>
       </c>
       <c r="D13" s="193"/>
-      <c r="E13" s="210" t="s">
+      <c r="E13" s="215" t="s">
         <v>138</v>
       </c>
       <c r="F13" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="172"/>
+      <c r="G13" s="163"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -8378,9 +8688,9 @@
         <v>38</v>
       </c>
       <c r="D14" s="195"/>
-      <c r="E14" s="210"/>
+      <c r="E14" s="215"/>
       <c r="F14" s="202"/>
-      <c r="G14" s="174"/>
+      <c r="G14" s="165"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -8393,13 +8703,13 @@
         <v>40</v>
       </c>
       <c r="D15" s="193"/>
-      <c r="E15" s="209" t="s">
+      <c r="E15" s="214" t="s">
         <v>136</v>
       </c>
       <c r="F15" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="172"/>
+      <c r="G15" s="163"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -8412,9 +8722,9 @@
         <v>42</v>
       </c>
       <c r="D16" s="194"/>
-      <c r="E16" s="209"/>
+      <c r="E16" s="214"/>
       <c r="F16" s="202"/>
-      <c r="G16" s="173"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -8427,9 +8737,9 @@
         <v>44</v>
       </c>
       <c r="D17" s="194"/>
-      <c r="E17" s="209"/>
+      <c r="E17" s="214"/>
       <c r="F17" s="202"/>
-      <c r="G17" s="173"/>
+      <c r="G17" s="164"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -8442,9 +8752,9 @@
         <v>46</v>
       </c>
       <c r="D18" s="194"/>
-      <c r="E18" s="209"/>
+      <c r="E18" s="214"/>
       <c r="F18" s="202"/>
-      <c r="G18" s="173"/>
+      <c r="G18" s="164"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -8457,9 +8767,9 @@
         <v>48</v>
       </c>
       <c r="D19" s="194"/>
-      <c r="E19" s="209"/>
+      <c r="E19" s="214"/>
       <c r="F19" s="202"/>
-      <c r="G19" s="173"/>
+      <c r="G19" s="164"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -8472,9 +8782,9 @@
         <v>50</v>
       </c>
       <c r="D20" s="194"/>
-      <c r="E20" s="209"/>
+      <c r="E20" s="214"/>
       <c r="F20" s="202"/>
-      <c r="G20" s="173"/>
+      <c r="G20" s="164"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -8487,9 +8797,9 @@
         <v>52</v>
       </c>
       <c r="D21" s="194"/>
-      <c r="E21" s="209"/>
+      <c r="E21" s="214"/>
       <c r="F21" s="202"/>
-      <c r="G21" s="173"/>
+      <c r="G21" s="164"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -8502,9 +8812,9 @@
         <v>54</v>
       </c>
       <c r="D22" s="194"/>
-      <c r="E22" s="209"/>
+      <c r="E22" s="214"/>
       <c r="F22" s="202"/>
-      <c r="G22" s="173"/>
+      <c r="G22" s="164"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -8517,9 +8827,9 @@
         <v>56</v>
       </c>
       <c r="D23" s="194"/>
-      <c r="E23" s="209"/>
+      <c r="E23" s="214"/>
       <c r="F23" s="202"/>
-      <c r="G23" s="173"/>
+      <c r="G23" s="164"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -8532,9 +8842,9 @@
         <v>58</v>
       </c>
       <c r="D24" s="194"/>
-      <c r="E24" s="209"/>
+      <c r="E24" s="214"/>
       <c r="F24" s="202"/>
-      <c r="G24" s="173"/>
+      <c r="G24" s="164"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -8547,9 +8857,9 @@
         <v>60</v>
       </c>
       <c r="D25" s="194"/>
-      <c r="E25" s="209"/>
+      <c r="E25" s="214"/>
       <c r="F25" s="202"/>
-      <c r="G25" s="173"/>
+      <c r="G25" s="164"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -8562,9 +8872,9 @@
         <v>62</v>
       </c>
       <c r="D26" s="194"/>
-      <c r="E26" s="209"/>
+      <c r="E26" s="214"/>
       <c r="F26" s="202"/>
-      <c r="G26" s="173"/>
+      <c r="G26" s="164"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -8577,9 +8887,9 @@
         <v>64</v>
       </c>
       <c r="D27" s="194"/>
-      <c r="E27" s="209"/>
+      <c r="E27" s="214"/>
       <c r="F27" s="202"/>
-      <c r="G27" s="173"/>
+      <c r="G27" s="164"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -8592,9 +8902,9 @@
         <v>66</v>
       </c>
       <c r="D28" s="194"/>
-      <c r="E28" s="209"/>
+      <c r="E28" s="214"/>
       <c r="F28" s="202"/>
-      <c r="G28" s="173"/>
+      <c r="G28" s="164"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -8607,9 +8917,9 @@
         <v>68</v>
       </c>
       <c r="D29" s="194"/>
-      <c r="E29" s="209"/>
+      <c r="E29" s="214"/>
       <c r="F29" s="202"/>
-      <c r="G29" s="173"/>
+      <c r="G29" s="164"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -8622,9 +8932,9 @@
         <v>70</v>
       </c>
       <c r="D30" s="194"/>
-      <c r="E30" s="209"/>
+      <c r="E30" s="214"/>
       <c r="F30" s="202"/>
-      <c r="G30" s="173"/>
+      <c r="G30" s="164"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -8637,9 +8947,9 @@
         <v>72</v>
       </c>
       <c r="D31" s="195"/>
-      <c r="E31" s="209"/>
+      <c r="E31" s="214"/>
       <c r="F31" s="202"/>
-      <c r="G31" s="174"/>
+      <c r="G31" s="165"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -8730,10 +9040,10 @@
         <v>82</v>
       </c>
       <c r="D36" s="196"/>
-      <c r="E36" s="214" t="s">
+      <c r="E36" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="215" t="s">
+      <c r="F36" s="213" t="s">
         <v>141</v>
       </c>
       <c r="G36" s="199"/>
@@ -8749,8 +9059,8 @@
         <v>120</v>
       </c>
       <c r="D37" s="197"/>
-      <c r="E37" s="214"/>
-      <c r="F37" s="215"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="213"/>
       <c r="G37" s="200"/>
     </row>
     <row r="38" spans="1:7">
@@ -8764,8 +9074,8 @@
         <v>85</v>
       </c>
       <c r="D38" s="198"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="215"/>
+      <c r="E38" s="212"/>
+      <c r="F38" s="213"/>
       <c r="G38" s="201"/>
     </row>
     <row r="39" spans="1:7">
@@ -9046,11 +9356,11 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="211"/>
-      <c r="E53" s="214" t="s">
+      <c r="D53" s="209"/>
+      <c r="E53" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="215" t="s">
+      <c r="F53" s="213" t="s">
         <v>141</v>
       </c>
       <c r="G53" s="199"/>
@@ -9065,9 +9375,9 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="212"/>
-      <c r="E54" s="214"/>
-      <c r="F54" s="215"/>
+      <c r="D54" s="210"/>
+      <c r="E54" s="212"/>
+      <c r="F54" s="213"/>
       <c r="G54" s="200"/>
     </row>
     <row r="55" spans="1:7">
@@ -9080,9 +9390,9 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="213"/>
-      <c r="E55" s="214"/>
-      <c r="F55" s="215"/>
+      <c r="D55" s="211"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="213"/>
       <c r="G55" s="201"/>
     </row>
     <row r="56" spans="1:7">
@@ -9235,6 +9545,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -9247,14 +9565,6 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9386,16 +9696,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="223" t="s">
+      <c r="B3" s="216" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="219" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="217" t="s">
+      <c r="D3" s="219" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -9407,10 +9717,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="224"/>
-      <c r="B4" s="224"/>
-      <c r="C4" s="218"/>
-      <c r="D4" s="218"/>
+      <c r="A4" s="217"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -9420,10 +9730,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="224"/>
-      <c r="B5" s="224"/>
-      <c r="C5" s="218"/>
-      <c r="D5" s="218"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="217"/>
+      <c r="C5" s="220"/>
+      <c r="D5" s="220"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -9433,10 +9743,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="225"/>
-      <c r="B6" s="225"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="219"/>
+      <c r="A6" s="218"/>
+      <c r="B6" s="218"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="221"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -9499,7 +9809,7 @@
       <c r="E9" s="203" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="172" t="s">
+      <c r="F9" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -9516,7 +9826,7 @@
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="205"/>
-      <c r="F10" s="174"/>
+      <c r="F10" s="165"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -9552,7 +9862,7 @@
       <c r="E12" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="172" t="s">
+      <c r="F12" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -9569,7 +9879,7 @@
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="204"/>
-      <c r="F13" s="173"/>
+      <c r="F13" s="164"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -9584,7 +9894,7 @@
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="205"/>
-      <c r="F14" s="174"/>
+      <c r="F14" s="165"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -9620,7 +9930,7 @@
       <c r="E16" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="172" t="s">
+      <c r="F16" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -9637,7 +9947,7 @@
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="204"/>
-      <c r="F17" s="173"/>
+      <c r="F17" s="164"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -9652,7 +9962,7 @@
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="205"/>
-      <c r="F18" s="174"/>
+      <c r="F18" s="165"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -9688,7 +9998,7 @@
       <c r="E20" s="203" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="172" t="s">
+      <c r="F20" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -9705,7 +10015,7 @@
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="205"/>
-      <c r="F21" s="174"/>
+      <c r="F21" s="165"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -10811,11 +11121,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="220"/>
+      <c r="D79" s="223"/>
       <c r="E79" s="203" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="172" t="s">
+      <c r="F79" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -10828,9 +11138,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="221"/>
+      <c r="D80" s="224"/>
       <c r="E80" s="204"/>
-      <c r="F80" s="173"/>
+      <c r="F80" s="164"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -10843,9 +11153,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="221"/>
+      <c r="D81" s="224"/>
       <c r="E81" s="204"/>
-      <c r="F81" s="173"/>
+      <c r="F81" s="164"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -10858,9 +11168,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="221"/>
+      <c r="D82" s="224"/>
       <c r="E82" s="204"/>
-      <c r="F82" s="173"/>
+      <c r="F82" s="164"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -10873,9 +11183,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="221"/>
+      <c r="D83" s="224"/>
       <c r="E83" s="204"/>
-      <c r="F83" s="173"/>
+      <c r="F83" s="164"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -10888,9 +11198,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="221"/>
+      <c r="D84" s="224"/>
       <c r="E84" s="204"/>
-      <c r="F84" s="173"/>
+      <c r="F84" s="164"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -10903,9 +11213,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="221"/>
+      <c r="D85" s="224"/>
       <c r="E85" s="204"/>
-      <c r="F85" s="173"/>
+      <c r="F85" s="164"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -10918,9 +11228,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="221"/>
+      <c r="D86" s="224"/>
       <c r="E86" s="204"/>
-      <c r="F86" s="173"/>
+      <c r="F86" s="164"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -10933,9 +11243,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="222"/>
+      <c r="D87" s="225"/>
       <c r="E87" s="205"/>
-      <c r="F87" s="174"/>
+      <c r="F87" s="165"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -11120,10 +11430,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="216" t="s">
+      <c r="E97" s="222" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="172" t="s">
+      <c r="F97" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -11139,8 +11449,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="216"/>
-      <c r="F98" s="173"/>
+      <c r="E98" s="222"/>
+      <c r="F98" s="164"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -11154,8 +11464,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="216"/>
-      <c r="F99" s="173"/>
+      <c r="E99" s="222"/>
+      <c r="F99" s="164"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -11169,8 +11479,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="216"/>
-      <c r="F100" s="173"/>
+      <c r="E100" s="222"/>
+      <c r="F100" s="164"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -11184,8 +11494,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="216"/>
-      <c r="F101" s="173"/>
+      <c r="E101" s="222"/>
+      <c r="F101" s="164"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -11199,8 +11509,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="216"/>
-      <c r="F102" s="173"/>
+      <c r="E102" s="222"/>
+      <c r="F102" s="164"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -11214,8 +11524,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="216"/>
-      <c r="F103" s="174"/>
+      <c r="E103" s="222"/>
+      <c r="F103" s="165"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -11267,7 +11577,7 @@
         <v>692</v>
       </c>
       <c r="D106" s="166"/>
-      <c r="E106" s="216" t="s">
+      <c r="E106" s="222" t="s">
         <v>690</v>
       </c>
       <c r="F106" s="166" t="s">
@@ -11285,9 +11595,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="175"/>
-      <c r="E107" s="216"/>
-      <c r="F107" s="175"/>
+      <c r="D107" s="167"/>
+      <c r="E107" s="222"/>
+      <c r="F107" s="167"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -11300,9 +11610,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="167"/>
-      <c r="E108" s="216"/>
-      <c r="F108" s="167"/>
+      <c r="D108" s="168"/>
+      <c r="E108" s="222"/>
+      <c r="F108" s="168"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -11509,7 +11819,7 @@
       <c r="E119" s="203" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="172" t="s">
+      <c r="F119" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -11524,9 +11834,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="175"/>
+      <c r="D120" s="167"/>
       <c r="E120" s="204"/>
-      <c r="F120" s="173"/>
+      <c r="F120" s="164"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -11539,9 +11849,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="167"/>
+      <c r="D121" s="168"/>
       <c r="E121" s="205"/>
-      <c r="F121" s="174"/>
+      <c r="F121" s="165"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -11593,10 +11903,10 @@
         <v>360</v>
       </c>
       <c r="D124" s="166"/>
-      <c r="E124" s="216" t="s">
+      <c r="E124" s="222" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="172" t="s">
+      <c r="F124" s="163" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -11611,9 +11921,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="175"/>
-      <c r="E125" s="216"/>
-      <c r="F125" s="173"/>
+      <c r="D125" s="167"/>
+      <c r="E125" s="222"/>
+      <c r="F125" s="164"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -11626,9 +11936,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="175"/>
-      <c r="E126" s="216"/>
-      <c r="F126" s="173"/>
+      <c r="D126" s="167"/>
+      <c r="E126" s="222"/>
+      <c r="F126" s="164"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -11641,9 +11951,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="175"/>
-      <c r="E127" s="216"/>
-      <c r="F127" s="173"/>
+      <c r="D127" s="167"/>
+      <c r="E127" s="222"/>
+      <c r="F127" s="164"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -11656,9 +11966,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="167"/>
-      <c r="E128" s="216"/>
-      <c r="F128" s="174"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="222"/>
+      <c r="F128" s="165"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -11908,16 +12218,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -11934,6 +12234,16 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11998,7 +12308,7 @@
         <v>872</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="C3" s="131" t="s">
         <v>873</v>
@@ -12013,7 +12323,7 @@
         <v>875</v>
       </c>
       <c r="B4" s="130" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C4" s="131" t="s">
         <v>876</v>
@@ -12028,7 +12338,7 @@
         <v>732</v>
       </c>
       <c r="B5" s="176" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="C5" s="131" t="s">
         <v>877</v>
@@ -12264,7 +12574,7 @@
         <v>879</v>
       </c>
       <c r="B23" s="130" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="C23" s="131" t="s">
         <v>880</v>
@@ -12288,7 +12598,7 @@
         <v>874</v>
       </c>
       <c r="E24" s="151" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12789,8 +13099,8 @@
   </sheetPr>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -12908,7 +13218,7 @@
         <v>910</v>
       </c>
       <c r="E7" s="153" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1"/>
@@ -13506,7 +13816,7 @@
         <v>910</v>
       </c>
       <c r="E9" s="159" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -13581,7 +13891,7 @@
         <v>910</v>
       </c>
       <c r="E14" s="159" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -13656,7 +13966,7 @@
         <v>910</v>
       </c>
       <c r="E19" s="159" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13716,7 +14026,7 @@
         <v>910</v>
       </c>
       <c r="E23" s="159" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -14058,7 +14368,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="152" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B47" s="153" t="s">
         <v>1025</v>
@@ -14340,14 +14650,14 @@
   </sheetPr>
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C173" sqref="C173"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="17.875" style="124" customWidth="1"/>
-    <col min="2" max="2" width="62.5" style="124" customWidth="1"/>
+    <col min="2" max="2" width="68.625" style="124" customWidth="1"/>
     <col min="3" max="3" width="84.125" style="124" customWidth="1"/>
     <col min="4" max="4" width="11" style="124" customWidth="1"/>
     <col min="5" max="5" width="75.375" style="124" customWidth="1"/>
@@ -14739,7 +15049,7 @@
         <v>1109</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>1110</v>
+        <v>1564</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -14748,13 +15058,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="129" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B27" s="112" t="s">
         <v>1111</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="C27" s="131" t="s">
         <v>1112</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>1113</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>874</v>
@@ -14766,10 +15076,10 @@
         <v>287</v>
       </c>
       <c r="B28" s="112" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C28" s="131" t="s">
         <v>1114</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>1115</v>
       </c>
       <c r="D28" s="129" t="s">
         <v>874</v>
@@ -14778,13 +15088,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="129" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B29" s="112" t="s">
         <v>1116</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="C29" s="131" t="s">
         <v>1117</v>
-      </c>
-      <c r="C29" s="131" t="s">
-        <v>1118</v>
       </c>
       <c r="D29" s="129" t="s">
         <v>874</v>
@@ -14796,10 +15106,10 @@
         <v>291</v>
       </c>
       <c r="B30" s="112" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C30" s="131" t="s">
         <v>1119</v>
-      </c>
-      <c r="C30" s="131" t="s">
-        <v>1120</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>874</v>
@@ -14811,10 +15121,10 @@
         <v>293</v>
       </c>
       <c r="B31" s="112" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C31" s="131" t="s">
         <v>1121</v>
-      </c>
-      <c r="C31" s="131" t="s">
-        <v>1122</v>
       </c>
       <c r="D31" s="129" t="s">
         <v>874</v>
@@ -14826,10 +15136,10 @@
         <v>295</v>
       </c>
       <c r="B32" s="112" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C32" s="131" t="s">
         <v>1123</v>
-      </c>
-      <c r="C32" s="131" t="s">
-        <v>1124</v>
       </c>
       <c r="D32" s="129" t="s">
         <v>874</v>
@@ -14841,10 +15151,10 @@
         <v>296</v>
       </c>
       <c r="B33" s="112" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C33" s="131" t="s">
         <v>1125</v>
-      </c>
-      <c r="C33" s="131" t="s">
-        <v>1126</v>
       </c>
       <c r="D33" s="129" t="s">
         <v>874</v>
@@ -14856,10 +15166,10 @@
         <v>297</v>
       </c>
       <c r="B34" s="112" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C34" s="131" t="s">
         <v>1127</v>
-      </c>
-      <c r="C34" s="131" t="s">
-        <v>1128</v>
       </c>
       <c r="D34" s="129" t="s">
         <v>874</v>
@@ -14871,10 +15181,10 @@
         <v>297</v>
       </c>
       <c r="B35" s="112" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C35" s="131" t="s">
         <v>1127</v>
-      </c>
-      <c r="C35" s="131" t="s">
-        <v>1128</v>
       </c>
       <c r="D35" s="129" t="s">
         <v>874</v>
@@ -14883,13 +15193,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="129" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B36" s="112" t="s">
         <v>1129</v>
       </c>
-      <c r="B36" s="112" t="s">
+      <c r="C36" s="131" t="s">
         <v>1130</v>
-      </c>
-      <c r="C36" s="131" t="s">
-        <v>1131</v>
       </c>
       <c r="D36" s="129" t="s">
         <v>874</v>
@@ -14898,13 +15208,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="129" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B37" s="112" t="s">
         <v>1132</v>
       </c>
-      <c r="B37" s="112" t="s">
+      <c r="C37" s="131" t="s">
         <v>1133</v>
-      </c>
-      <c r="C37" s="131" t="s">
-        <v>1134</v>
       </c>
       <c r="D37" s="129" t="s">
         <v>874</v>
@@ -14916,10 +15226,10 @@
         <v>300</v>
       </c>
       <c r="B38" s="112" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C38" s="131" t="s">
         <v>1135</v>
-      </c>
-      <c r="C38" s="131" t="s">
-        <v>1136</v>
       </c>
       <c r="D38" s="129" t="s">
         <v>874</v>
@@ -14928,13 +15238,13 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="129" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B39" s="112" t="s">
         <v>1137</v>
       </c>
-      <c r="B39" s="112" t="s">
+      <c r="C39" s="131" t="s">
         <v>1138</v>
-      </c>
-      <c r="C39" s="131" t="s">
-        <v>1139</v>
       </c>
       <c r="D39" s="129" t="s">
         <v>874</v>
@@ -14946,10 +15256,10 @@
         <v>304</v>
       </c>
       <c r="B40" s="112" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C40" s="131" t="s">
         <v>1140</v>
-      </c>
-      <c r="C40" s="131" t="s">
-        <v>1141</v>
       </c>
       <c r="D40" s="129" t="s">
         <v>874</v>
@@ -14958,13 +15268,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="129" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B41" s="112" t="s">
         <v>1142</v>
       </c>
-      <c r="B41" s="112" t="s">
+      <c r="C41" s="131" t="s">
         <v>1143</v>
-      </c>
-      <c r="C41" s="131" t="s">
-        <v>1144</v>
       </c>
       <c r="D41" s="129" t="s">
         <v>874</v>
@@ -14976,10 +15286,10 @@
         <v>307</v>
       </c>
       <c r="B42" s="112" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C42" s="131" t="s">
         <v>1145</v>
-      </c>
-      <c r="C42" s="131" t="s">
-        <v>1146</v>
       </c>
       <c r="D42" s="129" t="s">
         <v>874</v>
@@ -14988,13 +15298,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="129" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B43" s="112" t="s">
         <v>1147</v>
       </c>
-      <c r="B43" s="112" t="s">
+      <c r="C43" s="131" t="s">
         <v>1148</v>
-      </c>
-      <c r="C43" s="131" t="s">
-        <v>1149</v>
       </c>
       <c r="D43" s="129" t="s">
         <v>874</v>
@@ -15003,13 +15313,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="129" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B44" s="112" t="s">
         <v>1150</v>
       </c>
-      <c r="B44" s="112" t="s">
+      <c r="C44" s="131" t="s">
         <v>1151</v>
-      </c>
-      <c r="C44" s="131" t="s">
-        <v>1152</v>
       </c>
       <c r="D44" s="129" t="s">
         <v>874</v>
@@ -15018,13 +15328,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="129" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B45" s="112" t="s">
         <v>1153</v>
       </c>
-      <c r="B45" s="112" t="s">
+      <c r="C45" s="131" t="s">
         <v>1154</v>
-      </c>
-      <c r="C45" s="131" t="s">
-        <v>1155</v>
       </c>
       <c r="D45" s="129" t="s">
         <v>874</v>
@@ -15036,10 +15346,10 @@
         <v>316</v>
       </c>
       <c r="B46" s="112" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C46" s="131" t="s">
         <v>1156</v>
-      </c>
-      <c r="C46" s="131" t="s">
-        <v>1157</v>
       </c>
       <c r="D46" s="129" t="s">
         <v>874</v>
@@ -15048,13 +15358,13 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="129" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B47" s="112" t="s">
         <v>1158</v>
       </c>
-      <c r="B47" s="112" t="s">
+      <c r="C47" s="131" t="s">
         <v>1159</v>
-      </c>
-      <c r="C47" s="131" t="s">
-        <v>1160</v>
       </c>
       <c r="D47" s="129" t="s">
         <v>874</v>
@@ -15063,13 +15373,13 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="129" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B48" s="112" t="s">
         <v>1161</v>
       </c>
-      <c r="B48" s="112" t="s">
+      <c r="C48" s="131" t="s">
         <v>1162</v>
-      </c>
-      <c r="C48" s="131" t="s">
-        <v>1163</v>
       </c>
       <c r="D48" s="129" t="s">
         <v>874</v>
@@ -15078,13 +15388,13 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="129" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B49" s="112" t="s">
         <v>1164</v>
       </c>
-      <c r="B49" s="112" t="s">
+      <c r="C49" s="131" t="s">
         <v>1165</v>
-      </c>
-      <c r="C49" s="131" t="s">
-        <v>1166</v>
       </c>
       <c r="D49" s="129" t="s">
         <v>874</v>
@@ -15093,13 +15403,13 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="129" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B50" s="112" t="s">
         <v>1167</v>
       </c>
-      <c r="B50" s="112" t="s">
+      <c r="C50" s="131" t="s">
         <v>1168</v>
-      </c>
-      <c r="C50" s="131" t="s">
-        <v>1169</v>
       </c>
       <c r="D50" s="129" t="s">
         <v>874</v>
@@ -15108,13 +15418,13 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="129" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B51" s="112" t="s">
         <v>1170</v>
       </c>
-      <c r="B51" s="112" t="s">
+      <c r="C51" s="131" t="s">
         <v>1171</v>
-      </c>
-      <c r="C51" s="131" t="s">
-        <v>1172</v>
       </c>
       <c r="D51" s="129" t="s">
         <v>874</v>
@@ -15126,10 +15436,10 @@
         <v>328</v>
       </c>
       <c r="B52" s="112" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C52" s="131" t="s">
         <v>1173</v>
-      </c>
-      <c r="C52" s="131" t="s">
-        <v>1174</v>
       </c>
       <c r="D52" s="129" t="s">
         <v>874</v>
@@ -15138,13 +15448,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="129" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B53" s="112" t="s">
         <v>1175</v>
       </c>
-      <c r="B53" s="112" t="s">
+      <c r="C53" s="131" t="s">
         <v>1176</v>
-      </c>
-      <c r="C53" s="131" t="s">
-        <v>1177</v>
       </c>
       <c r="D53" s="129" t="s">
         <v>874</v>
@@ -15156,10 +15466,10 @@
         <v>329</v>
       </c>
       <c r="B54" s="112" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C54" s="131" t="s">
         <v>1178</v>
-      </c>
-      <c r="C54" s="131" t="s">
-        <v>1179</v>
       </c>
       <c r="D54" s="129" t="s">
         <v>874</v>
@@ -15171,10 +15481,10 @@
         <v>330</v>
       </c>
       <c r="B55" s="112" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C55" s="131" t="s">
         <v>1180</v>
-      </c>
-      <c r="C55" s="131" t="s">
-        <v>1181</v>
       </c>
       <c r="D55" s="129" t="s">
         <v>874</v>
@@ -15183,13 +15493,13 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="129" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B56" s="112" t="s">
         <v>1182</v>
       </c>
-      <c r="B56" s="112" t="s">
+      <c r="C56" s="131" t="s">
         <v>1183</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>1184</v>
       </c>
       <c r="D56" s="129" t="s">
         <v>874</v>
@@ -15198,13 +15508,13 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="129" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B57" s="112" t="s">
         <v>1185</v>
       </c>
-      <c r="B57" s="112" t="s">
+      <c r="C57" s="131" t="s">
         <v>1186</v>
-      </c>
-      <c r="C57" s="131" t="s">
-        <v>1187</v>
       </c>
       <c r="D57" s="129" t="s">
         <v>874</v>
@@ -15213,13 +15523,13 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="129" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B58" s="112" t="s">
         <v>1188</v>
       </c>
-      <c r="B58" s="112" t="s">
+      <c r="C58" s="131" t="s">
         <v>1189</v>
-      </c>
-      <c r="C58" s="131" t="s">
-        <v>1190</v>
       </c>
       <c r="D58" s="129" t="s">
         <v>874</v>
@@ -15228,13 +15538,13 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="129" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B59" s="112" t="s">
         <v>1191</v>
       </c>
-      <c r="B59" s="112" t="s">
+      <c r="C59" s="131" t="s">
         <v>1192</v>
-      </c>
-      <c r="C59" s="131" t="s">
-        <v>1193</v>
       </c>
       <c r="D59" s="129" t="s">
         <v>874</v>
@@ -15243,358 +15553,360 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="129" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B60" s="112" t="s">
         <v>1194</v>
       </c>
-      <c r="B60" s="112" t="s">
+      <c r="C60" s="131" t="s">
         <v>1195</v>
       </c>
-      <c r="C60" s="131" t="s">
+      <c r="D60" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E60" s="131"/>
+    </row>
+    <row r="61" spans="1:5" s="226" customFormat="1">
+      <c r="A61" s="227" t="s">
         <v>1196</v>
       </c>
-      <c r="D60" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E60" s="131"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="132" t="s">
+      <c r="B61" s="228" t="s">
         <v>1197</v>
       </c>
-      <c r="B61" s="133" t="s">
+      <c r="C61" s="228" t="s">
         <v>1198</v>
       </c>
-      <c r="C61" s="133" t="s">
+      <c r="D61" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E61" s="229" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="226" customFormat="1">
+      <c r="A62" s="227" t="s">
         <v>1199</v>
       </c>
-      <c r="D61" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E61" s="133"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="132" t="s">
+      <c r="B62" s="228" t="s">
         <v>1200</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="C62" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D62" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E62" s="230"/>
+    </row>
+    <row r="63" spans="1:5" s="226" customFormat="1">
+      <c r="A63" s="227" t="s">
         <v>1201</v>
       </c>
-      <c r="C62" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D62" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E62" s="133"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="132" t="s">
+      <c r="B63" s="228" t="s">
         <v>1202</v>
       </c>
-      <c r="B63" s="133" t="s">
+      <c r="C63" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D63" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E63" s="230"/>
+    </row>
+    <row r="64" spans="1:5" s="226" customFormat="1">
+      <c r="A64" s="227" t="s">
         <v>1203</v>
       </c>
-      <c r="C63" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D63" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E63" s="133"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="132" t="s">
+      <c r="B64" s="228" t="s">
         <v>1204</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="C64" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D64" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E64" s="230"/>
+    </row>
+    <row r="65" spans="1:5" s="226" customFormat="1">
+      <c r="A65" s="227" t="s">
         <v>1205</v>
       </c>
-      <c r="C64" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D64" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E64" s="133"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="132" t="s">
+      <c r="B65" s="228" t="s">
         <v>1206</v>
       </c>
-      <c r="B65" s="133" t="s">
+      <c r="C65" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D65" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E65" s="230"/>
+    </row>
+    <row r="66" spans="1:5" s="226" customFormat="1">
+      <c r="A66" s="227" t="s">
         <v>1207</v>
       </c>
-      <c r="C65" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D65" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E65" s="133"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="132" t="s">
+      <c r="B66" s="228" t="s">
         <v>1208</v>
       </c>
-      <c r="B66" s="133" t="s">
+      <c r="C66" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D66" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E66" s="230"/>
+    </row>
+    <row r="67" spans="1:5" s="226" customFormat="1">
+      <c r="A67" s="227" t="s">
         <v>1209</v>
       </c>
-      <c r="C66" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D66" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E66" s="133"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="132" t="s">
+      <c r="B67" s="228" t="s">
         <v>1210</v>
       </c>
-      <c r="B67" s="133" t="s">
+      <c r="C67" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D67" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E67" s="230"/>
+    </row>
+    <row r="68" spans="1:5" s="226" customFormat="1">
+      <c r="A68" s="227" t="s">
         <v>1211</v>
       </c>
-      <c r="C67" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D67" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E67" s="133"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="132" t="s">
+      <c r="B68" s="228" t="s">
         <v>1212</v>
       </c>
-      <c r="B68" s="133" t="s">
+      <c r="C68" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D68" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E68" s="230"/>
+    </row>
+    <row r="69" spans="1:5" s="226" customFormat="1">
+      <c r="A69" s="227" t="s">
         <v>1213</v>
       </c>
-      <c r="C68" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D68" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E68" s="133"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="132" t="s">
+      <c r="B69" s="228" t="s">
         <v>1214</v>
       </c>
-      <c r="B69" s="133" t="s">
+      <c r="C69" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D69" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E69" s="230"/>
+    </row>
+    <row r="70" spans="1:5" s="226" customFormat="1">
+      <c r="A70" s="227" t="s">
         <v>1215</v>
       </c>
-      <c r="C69" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D69" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E69" s="133"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="132" t="s">
+      <c r="B70" s="228" t="s">
         <v>1216</v>
       </c>
-      <c r="B70" s="133" t="s">
+      <c r="C70" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D70" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E70" s="230"/>
+    </row>
+    <row r="71" spans="1:5" s="226" customFormat="1">
+      <c r="A71" s="227" t="s">
         <v>1217</v>
       </c>
-      <c r="C70" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D70" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E70" s="133"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="132" t="s">
+      <c r="B71" s="228" t="s">
         <v>1218</v>
       </c>
-      <c r="B71" s="133" t="s">
+      <c r="C71" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D71" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E71" s="230"/>
+    </row>
+    <row r="72" spans="1:5" s="226" customFormat="1">
+      <c r="A72" s="227" t="s">
         <v>1219</v>
       </c>
-      <c r="C71" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D71" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E71" s="133"/>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="132" t="s">
+      <c r="B72" s="228" t="s">
         <v>1220</v>
       </c>
-      <c r="B72" s="133" t="s">
+      <c r="C72" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D72" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E72" s="230"/>
+    </row>
+    <row r="73" spans="1:5" s="226" customFormat="1">
+      <c r="A73" s="227" t="s">
         <v>1221</v>
       </c>
-      <c r="C72" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D72" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E72" s="133"/>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="132" t="s">
+      <c r="B73" s="228" t="s">
         <v>1222</v>
       </c>
-      <c r="B73" s="133" t="s">
+      <c r="C73" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D73" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E73" s="230"/>
+    </row>
+    <row r="74" spans="1:5" s="226" customFormat="1">
+      <c r="A74" s="227" t="s">
         <v>1223</v>
       </c>
-      <c r="C73" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D73" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E73" s="133"/>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="132" t="s">
+      <c r="B74" s="228" t="s">
         <v>1224</v>
       </c>
-      <c r="B74" s="133" t="s">
+      <c r="C74" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D74" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E74" s="230"/>
+    </row>
+    <row r="75" spans="1:5" s="226" customFormat="1">
+      <c r="A75" s="227" t="s">
         <v>1225</v>
       </c>
-      <c r="C74" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D74" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E74" s="133"/>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="132" t="s">
+      <c r="B75" s="228" t="s">
         <v>1226</v>
       </c>
-      <c r="B75" s="133" t="s">
+      <c r="C75" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D75" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E75" s="230"/>
+    </row>
+    <row r="76" spans="1:5" s="226" customFormat="1">
+      <c r="A76" s="227" t="s">
         <v>1227</v>
       </c>
-      <c r="C75" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D75" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E75" s="133"/>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="132" t="s">
+      <c r="B76" s="228" t="s">
         <v>1228</v>
       </c>
-      <c r="B76" s="133" t="s">
+      <c r="C76" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D76" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E76" s="230"/>
+    </row>
+    <row r="77" spans="1:5" s="226" customFormat="1">
+      <c r="A77" s="227" t="s">
         <v>1229</v>
       </c>
-      <c r="C76" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D76" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E76" s="133"/>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="132" t="s">
+      <c r="B77" s="228" t="s">
         <v>1230</v>
       </c>
-      <c r="B77" s="133" t="s">
+      <c r="C77" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D77" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E77" s="230"/>
+    </row>
+    <row r="78" spans="1:5" s="226" customFormat="1">
+      <c r="A78" s="227" t="s">
         <v>1231</v>
       </c>
-      <c r="C77" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D77" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E77" s="133"/>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="132" t="s">
+      <c r="B78" s="228" t="s">
         <v>1232</v>
       </c>
-      <c r="B78" s="133" t="s">
+      <c r="C78" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D78" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E78" s="230"/>
+    </row>
+    <row r="79" spans="1:5" s="226" customFormat="1">
+      <c r="A79" s="227" t="s">
         <v>1233</v>
       </c>
-      <c r="C78" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D78" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E78" s="133"/>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="132" t="s">
+      <c r="B79" s="228" t="s">
         <v>1234</v>
       </c>
-      <c r="B79" s="133" t="s">
+      <c r="C79" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D79" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E79" s="230"/>
+    </row>
+    <row r="80" spans="1:5" s="226" customFormat="1">
+      <c r="A80" s="227" t="s">
         <v>1235</v>
       </c>
-      <c r="C79" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D79" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E79" s="133"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="132" t="s">
+      <c r="B80" s="228" t="s">
         <v>1236</v>
       </c>
-      <c r="B80" s="133" t="s">
+      <c r="C80" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D80" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E80" s="230"/>
+    </row>
+    <row r="81" spans="1:5" s="226" customFormat="1">
+      <c r="A81" s="227" t="s">
         <v>1237</v>
       </c>
-      <c r="C80" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D80" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E80" s="133"/>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="132" t="s">
+      <c r="B81" s="228" t="s">
         <v>1238</v>
       </c>
-      <c r="B81" s="133" t="s">
+      <c r="C81" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D81" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E81" s="230"/>
+    </row>
+    <row r="82" spans="1:5" s="226" customFormat="1">
+      <c r="A82" s="227" t="s">
         <v>1239</v>
       </c>
-      <c r="C81" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D81" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E81" s="133"/>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="132" t="s">
+      <c r="B82" s="228" t="s">
         <v>1240</v>
       </c>
-      <c r="B82" s="133" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C82" s="133" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D82" s="132" t="s">
-        <v>910</v>
-      </c>
-      <c r="E82" s="133"/>
+      <c r="C82" s="228" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D82" s="227" t="s">
+        <v>874</v>
+      </c>
+      <c r="E82" s="231"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="129" t="s">
         <v>332</v>
       </c>
       <c r="B83" s="112" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C83" s="131" t="s">
         <v>1242</v>
-      </c>
-      <c r="C83" s="131" t="s">
-        <v>1243</v>
       </c>
       <c r="D83" s="129" t="s">
         <v>874</v>
@@ -15603,13 +15915,13 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="129" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B84" s="112" t="s">
         <v>1244</v>
       </c>
-      <c r="B84" s="112" t="s">
+      <c r="C84" s="131" t="s">
         <v>1245</v>
-      </c>
-      <c r="C84" s="131" t="s">
-        <v>1246</v>
       </c>
       <c r="D84" s="129" t="s">
         <v>874</v>
@@ -15618,13 +15930,13 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="129" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B85" s="112" t="s">
         <v>1247</v>
       </c>
-      <c r="B85" s="112" t="s">
+      <c r="C85" s="131" t="s">
         <v>1248</v>
-      </c>
-      <c r="C85" s="131" t="s">
-        <v>1249</v>
       </c>
       <c r="D85" s="129" t="s">
         <v>874</v>
@@ -15636,10 +15948,10 @@
         <v>336</v>
       </c>
       <c r="B86" s="112" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C86" s="131" t="s">
         <v>1250</v>
-      </c>
-      <c r="C86" s="131" t="s">
-        <v>1251</v>
       </c>
       <c r="D86" s="129" t="s">
         <v>874</v>
@@ -15651,10 +15963,10 @@
         <v>338</v>
       </c>
       <c r="B87" s="112" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C87" s="131" t="s">
         <v>1252</v>
-      </c>
-      <c r="C87" s="131" t="s">
-        <v>1253</v>
       </c>
       <c r="D87" s="129" t="s">
         <v>874</v>
@@ -15663,13 +15975,13 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="129" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B88" s="112" t="s">
         <v>1254</v>
       </c>
-      <c r="B88" s="112" t="s">
+      <c r="C88" s="131" t="s">
         <v>1255</v>
-      </c>
-      <c r="C88" s="131" t="s">
-        <v>1256</v>
       </c>
       <c r="D88" s="129" t="s">
         <v>874</v>
@@ -15678,13 +15990,13 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="129" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B89" s="112" t="s">
         <v>1257</v>
       </c>
-      <c r="B89" s="112" t="s">
+      <c r="C89" s="131" t="s">
         <v>1258</v>
-      </c>
-      <c r="C89" s="131" t="s">
-        <v>1259</v>
       </c>
       <c r="D89" s="129" t="s">
         <v>874</v>
@@ -15696,10 +16008,10 @@
         <v>342</v>
       </c>
       <c r="B90" s="112" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C90" s="131" t="s">
         <v>1260</v>
-      </c>
-      <c r="C90" s="131" t="s">
-        <v>1261</v>
       </c>
       <c r="D90" s="129" t="s">
         <v>874</v>
@@ -15708,13 +16020,13 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="129" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B91" s="112" t="s">
         <v>1262</v>
       </c>
-      <c r="B91" s="112" t="s">
+      <c r="C91" s="131" t="s">
         <v>1263</v>
-      </c>
-      <c r="C91" s="131" t="s">
-        <v>1264</v>
       </c>
       <c r="D91" s="129" t="s">
         <v>874</v>
@@ -15723,13 +16035,13 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="129" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B92" s="112" t="s">
         <v>1265</v>
       </c>
-      <c r="B92" s="112" t="s">
+      <c r="C92" s="131" t="s">
         <v>1266</v>
-      </c>
-      <c r="C92" s="131" t="s">
-        <v>1267</v>
       </c>
       <c r="D92" s="129" t="s">
         <v>874</v>
@@ -15738,13 +16050,13 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="129" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B93" s="112" t="s">
         <v>1268</v>
       </c>
-      <c r="B93" s="112" t="s">
+      <c r="C93" s="131" t="s">
         <v>1269</v>
-      </c>
-      <c r="C93" s="131" t="s">
-        <v>1270</v>
       </c>
       <c r="D93" s="129" t="s">
         <v>874</v>
@@ -15753,13 +16065,13 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="129" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B94" s="112" t="s">
         <v>1271</v>
       </c>
-      <c r="B94" s="112" t="s">
+      <c r="C94" s="131" t="s">
         <v>1272</v>
-      </c>
-      <c r="C94" s="131" t="s">
-        <v>1273</v>
       </c>
       <c r="D94" s="129" t="s">
         <v>874</v>
@@ -15771,10 +16083,10 @@
         <v>347</v>
       </c>
       <c r="B95" s="112" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C95" s="192" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="D95" s="182" t="s">
         <v>874</v>
@@ -15784,7 +16096,7 @@
     <row r="96" spans="1:5">
       <c r="A96" s="182"/>
       <c r="B96" s="112" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C96" s="192"/>
       <c r="D96" s="182"/>
@@ -15795,10 +16107,10 @@
         <v>349</v>
       </c>
       <c r="B97" s="112" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C97" s="131" t="s">
         <v>1277</v>
-      </c>
-      <c r="C97" s="131" t="s">
-        <v>1278</v>
       </c>
       <c r="D97" s="129" t="s">
         <v>874</v>
@@ -15810,10 +16122,10 @@
         <v>351</v>
       </c>
       <c r="B98" s="112" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="C98" s="131" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D98" s="129" t="s">
         <v>874</v>
@@ -15825,10 +16137,10 @@
         <v>353</v>
       </c>
       <c r="B99" s="112" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="C99" s="131" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="D99" s="129" t="s">
         <v>874</v>
@@ -15840,10 +16152,10 @@
         <v>355</v>
       </c>
       <c r="B100" s="112" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C100" s="131" t="s">
         <v>1281</v>
-      </c>
-      <c r="C100" s="131" t="s">
-        <v>1282</v>
       </c>
       <c r="D100" s="129" t="s">
         <v>874</v>
@@ -15855,10 +16167,10 @@
         <v>357</v>
       </c>
       <c r="B101" s="112" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C101" s="131" t="s">
         <v>1283</v>
-      </c>
-      <c r="C101" s="131" t="s">
-        <v>1284</v>
       </c>
       <c r="D101" s="129" t="s">
         <v>874</v>
@@ -15870,10 +16182,10 @@
         <v>359</v>
       </c>
       <c r="B102" s="112" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C102" s="131" t="s">
         <v>1285</v>
-      </c>
-      <c r="C102" s="131" t="s">
-        <v>1286</v>
       </c>
       <c r="D102" s="129" t="s">
         <v>874</v>
@@ -15885,10 +16197,10 @@
         <v>361</v>
       </c>
       <c r="B103" s="112" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="C103" s="131" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D103" s="129" t="s">
         <v>874</v>
@@ -15900,10 +16212,10 @@
         <v>363</v>
       </c>
       <c r="B104" s="112" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="C104" s="131" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D104" s="129" t="s">
         <v>874</v>
@@ -15915,10 +16227,10 @@
         <v>365</v>
       </c>
       <c r="B105" s="112" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="C105" s="131" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D105" s="129" t="s">
         <v>874</v>
@@ -15927,13 +16239,13 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="129" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B106" s="112" t="s">
         <v>1290</v>
       </c>
-      <c r="B106" s="112" t="s">
-        <v>1291</v>
-      </c>
       <c r="C106" s="131" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="D106" s="129" t="s">
         <v>874</v>
@@ -15942,13 +16254,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="129" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B107" s="112" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="131" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="D107" s="129" t="s">
         <v>874</v>
@@ -15957,13 +16269,13 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="129" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B108" s="112" t="s">
         <v>1294</v>
       </c>
-      <c r="B108" s="112" t="s">
+      <c r="C108" s="131" t="s">
         <v>1295</v>
-      </c>
-      <c r="C108" s="131" t="s">
-        <v>1296</v>
       </c>
       <c r="D108" s="129" t="s">
         <v>874</v>
@@ -15975,10 +16287,10 @@
         <v>19</v>
       </c>
       <c r="B109" s="112" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C109" s="131" t="s">
         <v>1297</v>
-      </c>
-      <c r="C109" s="131" t="s">
-        <v>1298</v>
       </c>
       <c r="D109" s="129" t="s">
         <v>874</v>
@@ -15987,13 +16299,13 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="129" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B110" s="112" t="s">
         <v>1299</v>
       </c>
-      <c r="B110" s="112" t="s">
+      <c r="C110" s="131" t="s">
         <v>1300</v>
-      </c>
-      <c r="C110" s="131" t="s">
-        <v>1301</v>
       </c>
       <c r="D110" s="129" t="s">
         <v>874</v>
@@ -16002,13 +16314,13 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="129" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B111" s="112" t="s">
         <v>1302</v>
       </c>
-      <c r="B111" s="112" t="s">
+      <c r="C111" s="131" t="s">
         <v>1303</v>
-      </c>
-      <c r="C111" s="131" t="s">
-        <v>1304</v>
       </c>
       <c r="D111" s="129" t="s">
         <v>874</v>
@@ -16017,13 +16329,13 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="129" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B112" s="112" t="s">
         <v>1305</v>
       </c>
-      <c r="B112" s="112" t="s">
+      <c r="C112" s="131" t="s">
         <v>1306</v>
-      </c>
-      <c r="C112" s="131" t="s">
-        <v>1307</v>
       </c>
       <c r="D112" s="129" t="s">
         <v>874</v>
@@ -16032,30 +16344,30 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="129" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B113" s="112" t="s">
         <v>1308</v>
       </c>
-      <c r="B113" s="112" t="s">
+      <c r="C113" s="131" t="s">
         <v>1309</v>
       </c>
-      <c r="C113" s="131" t="s">
+      <c r="D113" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E113" s="131" t="s">
         <v>1310</v>
-      </c>
-      <c r="D113" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E113" s="131" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="129" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B114" s="112" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C114" s="131" t="s">
         <v>1176</v>
-      </c>
-      <c r="C114" s="131" t="s">
-        <v>1177</v>
       </c>
       <c r="D114" s="129" t="s">
         <v>874</v>
@@ -16067,10 +16379,10 @@
         <v>23</v>
       </c>
       <c r="B115" s="112" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C115" s="131" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D115" s="129" t="s">
         <v>874</v>
@@ -16079,13 +16391,13 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="129" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B116" s="112" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C116" s="131" t="s">
         <v>1180</v>
-      </c>
-      <c r="C116" s="131" t="s">
-        <v>1181</v>
       </c>
       <c r="D116" s="129" t="s">
         <v>874</v>
@@ -16100,7 +16412,7 @@
         <v>26</v>
       </c>
       <c r="C117" s="131" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D117" s="129" t="s">
         <v>874</v>
@@ -16115,7 +16427,7 @@
         <v>28</v>
       </c>
       <c r="C118" s="131" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D118" s="129" t="s">
         <v>874</v>
@@ -16124,13 +16436,13 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="129" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B119" s="112" t="s">
         <v>1315</v>
       </c>
-      <c r="B119" s="112" t="s">
+      <c r="C119" s="131" t="s">
         <v>1316</v>
-      </c>
-      <c r="C119" s="131" t="s">
-        <v>1317</v>
       </c>
       <c r="D119" s="129" t="s">
         <v>874</v>
@@ -16142,10 +16454,10 @@
         <v>29</v>
       </c>
       <c r="B120" s="112" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C120" s="131" t="s">
         <v>1318</v>
-      </c>
-      <c r="C120" s="131" t="s">
-        <v>1319</v>
       </c>
       <c r="D120" s="129" t="s">
         <v>874</v>
@@ -16154,13 +16466,13 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="129" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B121" s="112" t="s">
         <v>1320</v>
       </c>
-      <c r="B121" s="112" t="s">
+      <c r="C121" s="131" t="s">
         <v>1321</v>
-      </c>
-      <c r="C121" s="131" t="s">
-        <v>1322</v>
       </c>
       <c r="D121" s="129" t="s">
         <v>874</v>
@@ -16169,19 +16481,19 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="150" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B122" s="156" t="s">
         <v>1323</v>
       </c>
-      <c r="B122" s="156" t="s">
+      <c r="C122" s="151" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D122" s="150" t="s">
+        <v>874</v>
+      </c>
+      <c r="E122" s="151" t="s">
         <v>1324</v>
-      </c>
-      <c r="C122" s="151" t="s">
-        <v>1322</v>
-      </c>
-      <c r="D122" s="150" t="s">
-        <v>874</v>
-      </c>
-      <c r="E122" s="151" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -16189,7 +16501,7 @@
         <v>33</v>
       </c>
       <c r="B123" s="112" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="C123" s="131" t="s">
         <v>137</v>
@@ -16204,7 +16516,7 @@
         <v>35</v>
       </c>
       <c r="B124" s="112" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C124" s="131" t="s">
         <v>138</v>
@@ -16219,7 +16531,7 @@
         <v>37</v>
       </c>
       <c r="B125" s="112" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="C125" s="131" t="s">
         <v>138</v>
@@ -16234,50 +16546,50 @@
         <v>39</v>
       </c>
       <c r="B126" s="112" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C126" s="131" t="s">
         <v>1329</v>
       </c>
-      <c r="C126" s="131" t="s">
+      <c r="D126" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E126" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D126" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E126" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="129" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B127" s="112" t="s">
         <v>1332</v>
       </c>
-      <c r="B127" s="112" t="s">
-        <v>1333</v>
-      </c>
       <c r="C127" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D127" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E127" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D127" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E127" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="129" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B128" s="112" t="s">
         <v>1334</v>
       </c>
-      <c r="B128" s="112" t="s">
-        <v>1335</v>
-      </c>
       <c r="C128" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D128" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E128" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D128" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E128" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -16285,16 +16597,16 @@
         <v>45</v>
       </c>
       <c r="B129" s="112" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C129" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D129" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E129" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D129" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E129" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -16302,16 +16614,16 @@
         <v>47</v>
       </c>
       <c r="B130" s="112" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C130" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D130" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E130" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D130" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E130" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -16319,16 +16631,16 @@
         <v>49</v>
       </c>
       <c r="B131" s="112" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="C131" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D131" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E131" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D131" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E131" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -16336,16 +16648,16 @@
         <v>51</v>
       </c>
       <c r="B132" s="112" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C132" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D132" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E132" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D132" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E132" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -16353,16 +16665,16 @@
         <v>53</v>
       </c>
       <c r="B133" s="112" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="C133" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D133" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E133" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D133" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E133" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -16370,16 +16682,16 @@
         <v>55</v>
       </c>
       <c r="B134" s="112" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C134" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D134" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E134" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D134" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E134" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -16387,16 +16699,16 @@
         <v>57</v>
       </c>
       <c r="B135" s="112" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="C135" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D135" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E135" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D135" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E135" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -16404,16 +16716,16 @@
         <v>59</v>
       </c>
       <c r="B136" s="112" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C136" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D136" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E136" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D136" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E136" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -16421,16 +16733,16 @@
         <v>61</v>
       </c>
       <c r="B137" s="112" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="C137" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D137" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E137" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D137" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E137" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -16438,16 +16750,16 @@
         <v>63</v>
       </c>
       <c r="B138" s="112" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C138" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D138" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E138" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D138" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E138" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -16455,16 +16767,16 @@
         <v>65</v>
       </c>
       <c r="B139" s="112" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="C139" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D139" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E139" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D139" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E139" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -16472,16 +16784,16 @@
         <v>67</v>
       </c>
       <c r="B140" s="112" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C140" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D140" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E140" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D140" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E140" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -16489,16 +16801,16 @@
         <v>69</v>
       </c>
       <c r="B141" s="112" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="C141" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D141" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E141" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D141" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E141" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -16506,16 +16818,16 @@
         <v>71</v>
       </c>
       <c r="B142" s="112" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="C142" s="131" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D142" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E142" s="131" t="s">
         <v>1330</v>
-      </c>
-      <c r="D142" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E142" s="131" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -16523,10 +16835,10 @@
         <v>73</v>
       </c>
       <c r="B143" s="112" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C143" s="131" t="s">
         <v>1350</v>
-      </c>
-      <c r="C143" s="131" t="s">
-        <v>1351</v>
       </c>
       <c r="D143" s="129" t="s">
         <v>874</v>
@@ -16535,13 +16847,13 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="129" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B144" s="112" t="s">
         <v>1352</v>
       </c>
-      <c r="B144" s="112" t="s">
+      <c r="C144" s="131" t="s">
         <v>1353</v>
-      </c>
-      <c r="C144" s="131" t="s">
-        <v>1354</v>
       </c>
       <c r="D144" s="129" t="s">
         <v>874</v>
@@ -16550,13 +16862,13 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="129" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="B145" s="112" t="s">
         <v>641</v>
       </c>
       <c r="C145" s="131" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="D145" s="129" t="s">
         <v>874</v>
@@ -16565,13 +16877,13 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="129" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B146" s="112" t="s">
         <v>1357</v>
       </c>
-      <c r="B146" s="112" t="s">
+      <c r="C146" s="131" t="s">
         <v>1358</v>
-      </c>
-      <c r="C146" s="131" t="s">
-        <v>1359</v>
       </c>
       <c r="D146" s="129" t="s">
         <v>874</v>
@@ -16580,47 +16892,47 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="150" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B147" s="151" t="s">
         <v>1360</v>
       </c>
-      <c r="B147" s="151" t="s">
-        <v>1361</v>
-      </c>
       <c r="C147" s="151" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D147" s="150" t="s">
         <v>874</v>
       </c>
       <c r="E147" s="151" t="s">
-        <v>1362</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="150" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B148" s="151" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C148" s="151" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D148" s="150" t="s">
+        <v>874</v>
+      </c>
+      <c r="E148" s="151" t="s">
         <v>1361</v>
-      </c>
-      <c r="C148" s="151" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D148" s="150" t="s">
-        <v>874</v>
-      </c>
-      <c r="E148" s="151" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="129" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B149" s="112" t="s">
         <v>1364</v>
       </c>
-      <c r="B149" s="112" t="s">
+      <c r="C149" s="131" t="s">
         <v>1365</v>
-      </c>
-      <c r="C149" s="131" t="s">
-        <v>1366</v>
       </c>
       <c r="D149" s="129" t="s">
         <v>874</v>
@@ -16629,13 +16941,13 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="129" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B150" s="112" t="s">
         <v>1367</v>
       </c>
-      <c r="B150" s="112" t="s">
+      <c r="C150" s="131" t="s">
         <v>1368</v>
-      </c>
-      <c r="C150" s="131" t="s">
-        <v>1369</v>
       </c>
       <c r="D150" s="129" t="s">
         <v>874</v>
@@ -16644,10 +16956,10 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="129" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B151" s="112" t="s">
         <v>1370</v>
-      </c>
-      <c r="B151" s="112" t="s">
-        <v>1371</v>
       </c>
       <c r="C151" s="131" t="s">
         <v>926</v>
@@ -16659,13 +16971,13 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="129" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B152" s="112" t="s">
         <v>1372</v>
       </c>
-      <c r="B152" s="112" t="s">
+      <c r="C152" s="131" t="s">
         <v>1373</v>
-      </c>
-      <c r="C152" s="131" t="s">
-        <v>1374</v>
       </c>
       <c r="D152" s="129" t="s">
         <v>874</v>
@@ -16677,10 +16989,10 @@
         <v>691</v>
       </c>
       <c r="B153" s="112" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C153" s="131" t="s">
         <v>1375</v>
-      </c>
-      <c r="C153" s="131" t="s">
-        <v>1376</v>
       </c>
       <c r="D153" s="129" t="s">
         <v>874</v>
@@ -16692,10 +17004,10 @@
         <v>693</v>
       </c>
       <c r="B154" s="112" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C154" s="131" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D154" s="129" t="s">
         <v>874</v>
@@ -16707,10 +17019,10 @@
         <v>695</v>
       </c>
       <c r="B155" s="112" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C155" s="131" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D155" s="129" t="s">
         <v>874</v>
@@ -16719,13 +17031,13 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="129" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B156" s="112" t="s">
         <v>1379</v>
       </c>
-      <c r="B156" s="112" t="s">
+      <c r="C156" s="131" t="s">
         <v>1380</v>
-      </c>
-      <c r="C156" s="131" t="s">
-        <v>1381</v>
       </c>
       <c r="D156" s="129" t="s">
         <v>874</v>
@@ -16737,44 +17049,44 @@
         <v>20</v>
       </c>
       <c r="B157" s="112" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C157" s="131" t="s">
         <v>1382</v>
       </c>
-      <c r="C157" s="131" t="s">
+      <c r="D157" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E157" s="131" t="s">
         <v>1383</v>
-      </c>
-      <c r="D157" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E157" s="131" t="s">
-        <v>1384</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="129" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B158" s="112" t="s">
         <v>1385</v>
       </c>
-      <c r="B158" s="112" t="s">
+      <c r="C158" s="131" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D158" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E158" s="131" t="s">
         <v>1386</v>
-      </c>
-      <c r="C158" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D158" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E158" s="131" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="129" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B159" s="112" t="s">
         <v>1388</v>
       </c>
-      <c r="B159" s="112" t="s">
+      <c r="C159" s="131" t="s">
         <v>1389</v>
-      </c>
-      <c r="C159" s="131" t="s">
-        <v>1390</v>
       </c>
       <c r="D159" s="129" t="s">
         <v>874</v>
@@ -16783,13 +17095,13 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B160" s="112" t="s">
         <v>1391</v>
       </c>
-      <c r="B160" s="112" t="s">
+      <c r="C160" s="131" t="s">
         <v>1392</v>
-      </c>
-      <c r="C160" s="131" t="s">
-        <v>1393</v>
       </c>
       <c r="D160" s="129" t="s">
         <v>874</v>
@@ -16798,13 +17110,13 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="129" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B161" s="112" t="s">
         <v>1394</v>
       </c>
-      <c r="B161" s="112" t="s">
+      <c r="C161" s="131" t="s">
         <v>1395</v>
-      </c>
-      <c r="C161" s="131" t="s">
-        <v>1396</v>
       </c>
       <c r="D161" s="129" t="s">
         <v>874</v>
@@ -16813,13 +17125,13 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="129" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B162" s="112" t="s">
         <v>1397</v>
       </c>
-      <c r="B162" s="112" t="s">
+      <c r="C162" s="131" t="s">
         <v>1398</v>
-      </c>
-      <c r="C162" s="131" t="s">
-        <v>1399</v>
       </c>
       <c r="D162" s="129" t="s">
         <v>874</v>
@@ -16828,13 +17140,13 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="129" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B163" s="112" t="s">
         <v>1400</v>
       </c>
-      <c r="B163" s="112" t="s">
+      <c r="C163" s="131" t="s">
         <v>1401</v>
-      </c>
-      <c r="C163" s="131" t="s">
-        <v>1402</v>
       </c>
       <c r="D163" s="129" t="s">
         <v>874</v>
@@ -16843,25 +17155,26 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="129" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B164" s="112" t="s">
         <v>1403</v>
       </c>
-      <c r="B164" s="112" t="s">
+      <c r="C164" s="131" t="s">
         <v>1404</v>
       </c>
-      <c r="C164" s="131" t="s">
-        <v>1405</v>
-      </c>
       <c r="D164" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E164" s="130"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A95:A96"/>
     <mergeCell ref="C95:C96"/>
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E61:E82"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16909,13 +17222,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="129" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="B2" s="130" t="s">
         <v>800</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -16924,13 +17237,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="129" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>1408</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="C3" s="131" t="s">
         <v>1409</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>1410</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -16939,19 +17252,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="129" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B4" s="130" t="s">
         <v>804</v>
       </c>
       <c r="C4" s="131" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E4" s="131" t="s">
         <v>1412</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E4" s="131" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -16959,16 +17272,16 @@
         <v>817</v>
       </c>
       <c r="B5" s="130" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E5" s="131" t="s">
         <v>1414</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>1412</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -16979,30 +17292,30 @@
         <v>806</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E6" s="131" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="B7" s="130" t="s">
         <v>808</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -17010,16 +17323,16 @@
         <v>817</v>
       </c>
       <c r="B8" s="130" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E8" s="131" t="s">
         <v>1419</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>1418</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E8" s="131" t="s">
-        <v>1420</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -17030,13 +17343,13 @@
         <v>810</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -17044,16 +17357,16 @@
         <v>811</v>
       </c>
       <c r="B10" s="130" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C10" s="131" t="s">
         <v>1421</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="D10" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E10" s="131" t="s">
         <v>1422</v>
-      </c>
-      <c r="D10" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E10" s="131" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -17061,16 +17374,16 @@
         <v>817</v>
       </c>
       <c r="B11" s="130" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E11" s="131" t="s">
         <v>1424</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D11" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E11" s="131" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -17081,13 +17394,13 @@
         <v>814</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -17098,13 +17411,13 @@
         <v>816</v>
       </c>
       <c r="C13" s="131" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E13" s="131" t="s">
         <v>1426</v>
-      </c>
-      <c r="D13" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E13" s="131" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -17112,16 +17425,16 @@
         <v>817</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E14" s="131" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -17132,41 +17445,41 @@
         <v>821</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E15" s="131" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B16" s="130" t="s">
         <v>1429</v>
       </c>
-      <c r="B16" s="130" t="s">
+      <c r="C16" s="131" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E16" s="131" t="s">
         <v>1430</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D16" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B17" s="130" t="s">
         <v>1432</v>
       </c>
-      <c r="B17" s="130" t="s">
+      <c r="C17" s="131" t="s">
         <v>1433</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>1434</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -17175,13 +17488,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B18" s="130" t="s">
         <v>1435</v>
       </c>
-      <c r="B18" s="130" t="s">
+      <c r="C18" s="131" t="s">
         <v>1436</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>1437</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -17190,13 +17503,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B19" s="130" t="s">
         <v>835</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -17205,13 +17518,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="B20" s="130" t="s">
         <v>837</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -17220,13 +17533,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B21" s="130" t="s">
         <v>1442</v>
       </c>
-      <c r="B21" s="130" t="s">
+      <c r="C21" s="131" t="s">
         <v>1443</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1444</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -17241,7 +17554,7 @@
         <v>841</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -17301,7 +17614,7 @@
         <v>535</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -17316,7 +17629,7 @@
         <v>537</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -17331,7 +17644,7 @@
         <v>539</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
@@ -17343,10 +17656,10 @@
         <v>544</v>
       </c>
       <c r="B5" s="112" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C5" s="131" t="s">
         <v>1449</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>1450</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
@@ -17358,10 +17671,10 @@
         <v>546</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -17373,10 +17686,10 @@
         <v>548</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -17388,10 +17701,10 @@
         <v>550</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -17403,10 +17716,10 @@
         <v>552</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -17418,10 +17731,10 @@
         <v>554</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -17436,7 +17749,7 @@
         <v>557</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -17445,13 +17758,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B12" s="112" t="s">
         <v>1457</v>
       </c>
-      <c r="B12" s="112" t="s">
+      <c r="C12" s="131" t="s">
         <v>1458</v>
-      </c>
-      <c r="C12" s="131" t="s">
-        <v>1459</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -17463,10 +17776,10 @@
         <v>560</v>
       </c>
       <c r="B13" s="112" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C13" s="131" t="s">
         <v>1460</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>1461</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -17475,13 +17788,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B14" s="112" t="s">
         <v>1462</v>
       </c>
-      <c r="B14" s="112" t="s">
+      <c r="C14" s="131" t="s">
         <v>1463</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1464</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
@@ -17493,10 +17806,10 @@
         <v>563</v>
       </c>
       <c r="B15" s="112" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C15" s="131" t="s">
         <v>1465</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1466</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -17505,13 +17818,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B16" s="112" t="s">
         <v>1467</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="C16" s="131" t="s">
         <v>1468</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>1469</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
@@ -17520,30 +17833,30 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="154" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B17" s="157" t="s">
         <v>1470</v>
       </c>
-      <c r="B17" s="157" t="s">
+      <c r="C17" s="155" t="s">
         <v>1471</v>
-      </c>
-      <c r="C17" s="155" t="s">
-        <v>1472</v>
       </c>
       <c r="D17" s="154" t="s">
         <v>1031</v>
       </c>
       <c r="E17" s="155" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B18" s="112" t="s">
         <v>1474</v>
       </c>
-      <c r="B18" s="112" t="s">
+      <c r="C18" s="131" t="s">
         <v>1475</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>1476</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -17552,13 +17865,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B19" s="112" t="s">
         <v>1477</v>
       </c>
-      <c r="B19" s="112" t="s">
-        <v>1478</v>
-      </c>
       <c r="C19" s="131" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -17567,13 +17880,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B20" s="112" t="s">
         <v>1479</v>
       </c>
-      <c r="B20" s="112" t="s">
-        <v>1480</v>
-      </c>
       <c r="C20" s="131" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -17582,13 +17895,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B21" s="112" t="s">
         <v>1481</v>
       </c>
-      <c r="B21" s="112" t="s">
-        <v>1482</v>
-      </c>
       <c r="C21" s="131" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -17597,13 +17910,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="129" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B22" s="112" t="s">
         <v>1483</v>
       </c>
-      <c r="B22" s="112" t="s">
-        <v>1484</v>
-      </c>
       <c r="C22" s="131" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -17612,13 +17925,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="129" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B23" s="112" t="s">
         <v>1485</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="C23" s="131" t="s">
         <v>1486</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>1487</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>874</v>
@@ -17627,13 +17940,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="129" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B24" s="112" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C24" s="131" t="s">
         <v>1488</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>1489</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -17642,13 +17955,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B25" s="112" t="s">
         <v>1490</v>
       </c>
-      <c r="B25" s="112" t="s">
+      <c r="C25" s="131" t="s">
         <v>1491</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>1492</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -17657,13 +17970,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="129" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B26" s="112" t="s">
         <v>1493</v>
       </c>
-      <c r="B26" s="112" t="s">
+      <c r="C26" s="131" t="s">
         <v>1494</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>1495</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -17672,13 +17985,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="129" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B27" s="112" t="s">
         <v>1496</v>
       </c>
-      <c r="B27" s="112" t="s">
+      <c r="C27" s="131" t="s">
         <v>1497</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>1498</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>874</v>
@@ -17687,13 +18000,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="129" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B28" s="112" t="s">
         <v>1499</v>
       </c>
-      <c r="B28" s="112" t="s">
+      <c r="C28" s="131" t="s">
         <v>1500</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>1501</v>
       </c>
       <c r="D28" s="129" t="s">
         <v>874</v>
@@ -17702,13 +18015,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="129" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B29" s="112" t="s">
         <v>1502</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="C29" s="131" t="s">
         <v>1503</v>
-      </c>
-      <c r="C29" s="131" t="s">
-        <v>1504</v>
       </c>
       <c r="D29" s="129" t="s">
         <v>874</v>
@@ -17717,13 +18030,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="129" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B30" s="112" t="s">
         <v>1505</v>
       </c>
-      <c r="B30" s="112" t="s">
+      <c r="C30" s="131" t="s">
         <v>1506</v>
-      </c>
-      <c r="C30" s="131" t="s">
-        <v>1507</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>874</v>
@@ -17732,13 +18045,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="129" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="B31" s="112" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C31" s="131" t="s">
         <v>1508</v>
-      </c>
-      <c r="C31" s="131" t="s">
-        <v>1509</v>
       </c>
       <c r="D31" s="129" t="s">
         <v>874</v>
@@ -17795,10 +18108,10 @@
         <v>75</v>
       </c>
       <c r="B2" s="130" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C2" s="131" t="s">
         <v>1510</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>1511</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -17810,10 +18123,10 @@
         <v>77</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="C3" s="192" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D3" s="182" t="s">
         <v>874</v>
@@ -17823,7 +18136,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="182"/>
       <c r="B4" s="131" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="C4" s="192"/>
       <c r="D4" s="182"/>
@@ -17832,7 +18145,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="182"/>
       <c r="B5" s="131" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="C5" s="192"/>
       <c r="D5" s="182"/>
@@ -17843,10 +18156,10 @@
         <v>79</v>
       </c>
       <c r="B6" s="130" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C6" s="131" t="s">
         <v>1516</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>1517</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -17861,7 +18174,7 @@
         <v>82</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -17876,7 +18189,7 @@
         <v>85</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -17885,13 +18198,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B9" s="130" t="s">
         <v>1519</v>
       </c>
-      <c r="B9" s="130" t="s">
-        <v>1520</v>
-      </c>
       <c r="C9" s="131" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -17900,13 +18213,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="B10" s="130" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -17918,10 +18231,10 @@
         <v>86</v>
       </c>
       <c r="B11" s="130" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C11" s="131" t="s">
         <v>1523</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>1524</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -17933,10 +18246,10 @@
         <v>88</v>
       </c>
       <c r="B12" s="130" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C12" s="131" t="s">
         <v>1525</v>
-      </c>
-      <c r="C12" s="131" t="s">
-        <v>1526</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -17948,10 +18261,10 @@
         <v>90</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -17960,13 +18273,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B14" s="130" t="s">
         <v>1528</v>
       </c>
-      <c r="B14" s="130" t="s">
+      <c r="C14" s="131" t="s">
         <v>1529</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1530</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
@@ -17975,13 +18288,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B15" s="130" t="s">
         <v>1531</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="C15" s="131" t="s">
         <v>1532</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1533</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -17990,13 +18303,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B16" s="130" t="s">
         <v>1534</v>
       </c>
-      <c r="B16" s="130" t="s">
-        <v>1535</v>
-      </c>
       <c r="C16" s="131" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
@@ -18005,13 +18318,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="B17" s="130" t="s">
         <v>87</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -18020,13 +18333,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B18" s="130" t="s">
         <v>1537</v>
       </c>
-      <c r="B18" s="130" t="s">
-        <v>1538</v>
-      </c>
       <c r="C18" s="131" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -18035,13 +18348,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B19" s="130" t="s">
         <v>1539</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="C19" s="131" t="s">
         <v>1540</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>1541</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -18053,10 +18366,10 @@
         <v>99</v>
       </c>
       <c r="B20" s="130" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C20" s="131" t="s">
         <v>1542</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>1543</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -18068,10 +18381,10 @@
         <v>101</v>
       </c>
       <c r="B21" s="130" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C21" s="131" t="s">
         <v>1544</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1545</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -18083,10 +18396,10 @@
         <v>103</v>
       </c>
       <c r="B22" s="130" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C22" s="131" t="s">
         <v>1546</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>1547</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -18098,10 +18411,10 @@
         <v>105</v>
       </c>
       <c r="B23" s="130" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C23" s="131" t="s">
         <v>1548</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>1549</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>874</v>
@@ -18113,10 +18426,10 @@
         <v>107</v>
       </c>
       <c r="B24" s="130" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C24" s="131" t="s">
         <v>1550</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>1551</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -18125,13 +18438,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B25" s="130" t="s">
         <v>1552</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="C25" s="131" t="s">
         <v>1553</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>1554</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -18269,7 +18582,7 @@
       <c r="F5" s="202" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="169"/>
+      <c r="G5" s="160"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -18284,7 +18597,7 @@
       <c r="D6" s="194"/>
       <c r="E6" s="204"/>
       <c r="F6" s="202"/>
-      <c r="G6" s="170"/>
+      <c r="G6" s="161"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -18299,7 +18612,7 @@
       <c r="D7" s="194"/>
       <c r="E7" s="204"/>
       <c r="F7" s="202"/>
-      <c r="G7" s="170"/>
+      <c r="G7" s="161"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -18314,7 +18627,7 @@
       <c r="D8" s="194"/>
       <c r="E8" s="204"/>
       <c r="F8" s="202"/>
-      <c r="G8" s="170"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -18329,7 +18642,7 @@
       <c r="D9" s="194"/>
       <c r="E9" s="204"/>
       <c r="F9" s="202"/>
-      <c r="G9" s="170"/>
+      <c r="G9" s="161"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -18344,7 +18657,7 @@
       <c r="D10" s="195"/>
       <c r="E10" s="205"/>
       <c r="F10" s="202"/>
-      <c r="G10" s="171"/>
+      <c r="G10" s="162"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -18493,10 +18806,10 @@
       <c r="E18" s="203" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="172" t="s">
+      <c r="F18" s="163" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="169"/>
+      <c r="G18" s="160"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -18510,8 +18823,8 @@
       </c>
       <c r="D19" s="194"/>
       <c r="E19" s="204"/>
-      <c r="F19" s="173"/>
-      <c r="G19" s="170"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="161"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -18525,8 +18838,8 @@
       </c>
       <c r="D20" s="194"/>
       <c r="E20" s="204"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="170"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="161"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -18540,8 +18853,8 @@
       </c>
       <c r="D21" s="195"/>
       <c r="E21" s="205"/>
-      <c r="F21" s="174"/>
-      <c r="G21" s="171"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="0216" sheetId="16" r:id="rId1"/>
-    <sheet name="0202" sheetId="8" r:id="rId2"/>
-    <sheet name="UHKA" sheetId="9" r:id="rId3"/>
-    <sheet name="UHKB" sheetId="10" r:id="rId4"/>
-    <sheet name="UHKC" sheetId="11" r:id="rId5"/>
-    <sheet name="UHKD" sheetId="12" r:id="rId6"/>
-    <sheet name="UHKE" sheetId="13" r:id="rId7"/>
-    <sheet name="UHKF" sheetId="14" r:id="rId8"/>
-    <sheet name="UHKP" sheetId="15" r:id="rId9"/>
-    <sheet name="0125" sheetId="6" r:id="rId10"/>
-    <sheet name="0119" sheetId="2" r:id="rId11"/>
-    <sheet name="0109" sheetId="1" r:id="rId12"/>
-    <sheet name="202312" sheetId="4" r:id="rId13"/>
+    <sheet name="0223" sheetId="17" r:id="rId1"/>
+    <sheet name="0216" sheetId="16" r:id="rId2"/>
+    <sheet name="0202" sheetId="8" r:id="rId3"/>
+    <sheet name="UHKA" sheetId="9" r:id="rId4"/>
+    <sheet name="UHKB" sheetId="10" r:id="rId5"/>
+    <sheet name="UHKC" sheetId="11" r:id="rId6"/>
+    <sheet name="UHKD" sheetId="12" r:id="rId7"/>
+    <sheet name="UHKE" sheetId="13" r:id="rId8"/>
+    <sheet name="UHKF" sheetId="14" r:id="rId9"/>
+    <sheet name="UHKP" sheetId="15" r:id="rId10"/>
+    <sheet name="0125" sheetId="6" r:id="rId11"/>
+    <sheet name="0119" sheetId="2" r:id="rId12"/>
+    <sheet name="0109" sheetId="1" r:id="rId13"/>
+    <sheet name="202312" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2643" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1566">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4656,64 +4657,19 @@
     <t>UHKE0301M0</t>
   </si>
   <si>
-    <t>/html/UHKE/UHKE0301M0_UHKE0501M0_[UHKE1302P0]재무정보.html</t>
-  </si>
-  <si>
-    <t>관련서비스 상세_팝업 24개 포함</t>
-  </si>
-  <si>
-    <t>재무_관련서비스</t>
-  </si>
-  <si>
-    <t>[UHKE0401M0] AS-IS 링크적용. 확인 필요</t>
-  </si>
-  <si>
     <t>AS-IS 링크적용. 확인 필요</t>
   </si>
   <si>
     <t>UHKE0601M0</t>
   </si>
   <si>
-    <t>/html/UHKE/UHKE0601M0_UHKE0801M0_[UHKE1302P0]건강정보.html</t>
-  </si>
-  <si>
-    <t>건강_관련서비스</t>
-  </si>
-  <si>
-    <t>[UHKE0701M0] AS-IS 링크적용. 확인 필요</t>
-  </si>
-  <si>
     <t>여가정보</t>
   </si>
   <si>
-    <t>/html/UHKE/UHKE0901M0_UHKE1101M0_[UHKE1302P0]여가정보.html</t>
-  </si>
-  <si>
-    <t>관련서비스 상세_팝업 15개 포함</t>
-  </si>
-  <si>
-    <t>여가_관련서비스</t>
-  </si>
-  <si>
-    <t>[UHKE1001M0] AS-IS 링크적용. 확인 필요</t>
-  </si>
-  <si>
-    <t>/html/UHKE/UHKE1201M0_UHKE1301M0_UHKE1401M0_[UHKE1302P0]대인관계.html</t>
-  </si>
-  <si>
-    <t>관련서비스 상세_팝업 13개 포함</t>
-  </si>
-  <si>
-    <t>대인관계_관련서비스</t>
-  </si>
-  <si>
     <t>UHKE1302P0</t>
   </si>
   <si>
     <t>[POP] 관련서비스 상세</t>
-  </si>
-  <si>
-    <t>관련서비스 상세_팝업 76개 - 각 관련 페이지내 제작.</t>
   </si>
   <si>
     <t>UHKE1501M0</t>
@@ -5613,6 +5569,445 @@
       </rPr>
       <t>.html</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합재무설계_step2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장애ㆍ유족연금 예상연금액 결과 (Tab2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0101M0_국민연금공단거점지사안내.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0101M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금공단 거점 지사 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인에서는 동일하게 되어 있어서 AS IS 화면으로 수정.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2201M0_종합재무설계_step2.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form-group-txt 클래스로 input+back-txt를 감싸주는게 없을 경우 퍼블에서도 보내주신 화면과 똑같이 세 글자가 아래로 내려갑니다. 
+input창이 모두 100%기본값을 가질수밖에 없기 때문에 (아니면 모든 페이지에 모든 사이즈를 px로 맞춰야 합니다. 반응형도 가능하지 않게 됩니다.) 
+form-group-txt가 텍스트와 인풋이 한 라인에 있게끔 컨트롤 하는 역할을 합니다. 
+만약 클래스로 감쌌는데도 같은 상황이라면 브라우저의 개발자 검사도구로 해당 영역의 소스화면을 캡쳐해서 보내주십시요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD7801M0_UHKD7901M0__예상연금모의계산결과.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD7901M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 팝업 모달 모두 포함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1301M0_UHKE1302P0_관련서비스.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1301M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE</t>
+  </si>
+  <si>
+    <t>UHKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0301M0_UHKE0501M0_재무정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0301M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0501M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0601M0_UHKE0801M0_건강정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0601M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0801M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0901M0_UHKE1101M0_여가정보.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE0901M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1101M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1201M0_UHKE1401M0_대인관계.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1201M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1401M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여가정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대인관계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1601M0_홍보영상.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1601M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보영상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>썸네일 형태 레이아웃으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1501M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1501M0_은퇴예정자의_노후준비강의.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은퇴예정자의_노후준비강의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스 탭 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE0301M0_UHKE0501M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재무정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE0301M0_UHKE0501M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재무정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관련서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE1302P0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세보기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE1201M0_UHKE1401M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대인관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE1301M0_UHKE1302P0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련서비스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE1201M0_UHKE1401M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대인관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE0901M0_UHKE1101M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여가정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE0601M0_UHKE0801M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건강정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/html/UHKE/UHKE0601M0_UHKE0801M0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건강정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.html</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKE1401M0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6189,7 +6584,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6673,54 +7068,72 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6772,6 +7185,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6820,39 +7236,48 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6862,32 +7287,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7170,10 +7589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7184,7 +7603,7 @@
     <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
     <col min="5" max="5" width="110.75" style="53" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="53.625" customWidth="1"/>
+    <col min="7" max="7" width="79.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
@@ -7211,36 +7630,347 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="158" t="s">
-        <v>567</v>
-      </c>
-      <c r="B2" s="158" t="s">
+      <c r="A2" s="105" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="112"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="112"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="115.5">
+      <c r="A7" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="105" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="105" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F9" s="105" t="s">
         <v>1515</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D2" s="159" t="s">
-        <v>726</v>
-      </c>
-      <c r="E2" s="160" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F2" s="159" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="17"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="54"/>
+      <c r="G9" s="107"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C10" s="236" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D10" s="234" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E10" s="236" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F10" s="234" t="s">
+        <v>530</v>
+      </c>
+      <c r="G10" s="236" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C11" s="238"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="238"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="237"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C12" s="236" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D12" s="234" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E12" s="239" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F12" s="234" t="s">
+        <v>530</v>
+      </c>
+      <c r="G12" s="237"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C13" s="238"/>
+      <c r="D13" s="235"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="235"/>
+      <c r="G13" s="237"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C14" s="236" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D14" s="234" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E14" s="239" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F14" s="234" t="s">
+        <v>530</v>
+      </c>
+      <c r="G14" s="237"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C15" s="238"/>
+      <c r="D15" s="235"/>
+      <c r="E15" s="240"/>
+      <c r="F15" s="235"/>
+      <c r="G15" s="237"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C16" s="236" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D16" s="234" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E16" s="239" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F16" s="234" t="s">
+        <v>530</v>
+      </c>
+      <c r="G16" s="237"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C17" s="238"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="240"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="238"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="110" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F18" s="110" t="s">
+        <v>1552</v>
+      </c>
+      <c r="G18" s="112"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>530</v>
+      </c>
+      <c r="G19" s="112" t="s">
+        <v>1547</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7248,6 +7978,405 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="124" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="124" customWidth="1"/>
+    <col min="3" max="3" width="87.875" style="124" customWidth="1"/>
+    <col min="4" max="4" width="11" style="124" customWidth="1"/>
+    <col min="5" max="5" width="75.375" style="124" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="124"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="144" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" s="144" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1" s="144" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1" s="144" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1" s="144" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="129" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="130" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E2" s="131"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="189" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="130" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D3" s="189" t="s">
+        <v>874</v>
+      </c>
+      <c r="E3" s="199"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="189"/>
+      <c r="B4" s="131" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C4" s="199"/>
+      <c r="D4" s="189"/>
+      <c r="E4" s="199"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="189"/>
+      <c r="B5" s="131" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C5" s="199"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="199"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="129" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="130" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E6" s="131"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="129" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="130" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E7" s="131"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="129" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E8" s="131"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="129" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B9" s="130" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E9" s="131"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="129" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B10" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="130" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E11" s="131"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="130" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E12" s="131"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="130" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E13" s="131"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="129" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B14" s="130" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E14" s="131"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="129" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B15" s="130" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E15" s="131"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="129" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B16" s="130" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E16" s="131"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="129" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B17" s="130" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="131" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E17" s="131"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="129" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B18" s="130" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E18" s="131"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="129" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B19" s="130" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E19" s="131"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="130" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E20" s="131"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="130" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E21" s="131"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="130" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E22" s="131"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="130" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E23" s="131"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="130" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>1484</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E24" s="131"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="129" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B25" s="130" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E25" s="130"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -7358,14 +8487,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="194"/>
-      <c r="E5" s="204" t="s">
+      <c r="D5" s="201"/>
+      <c r="E5" s="211" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="203" t="s">
+      <c r="F5" s="210" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="170"/>
+      <c r="G5" s="167"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -7377,10 +8506,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="203"/>
-      <c r="G6" s="171"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="210"/>
+      <c r="G6" s="168"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -7392,10 +8521,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="171"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="168"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -7407,10 +8536,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="171"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="168"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -7422,10 +8551,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="205"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="171"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="168"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -7437,10 +8566,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="172"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="169"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -7585,14 +8714,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="204" t="s">
+      <c r="D18" s="201"/>
+      <c r="E18" s="211" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="173" t="s">
+      <c r="F18" s="170" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="170"/>
+      <c r="G18" s="167"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -7604,10 +8733,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="195"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="171"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="168"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -7619,10 +8748,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="171"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="168"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -7634,10 +8763,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="172"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="172"/>
+      <c r="G21" s="169"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -7866,14 +8995,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="200" t="s">
+      <c r="D33" s="204"/>
+      <c r="E33" s="207" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="207" t="s">
+      <c r="F33" s="214" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="200" t="s">
+      <c r="G33" s="207" t="s">
         <v>639</v>
       </c>
     </row>
@@ -7887,10 +9016,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="201"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="215"/>
+      <c r="G34" s="208"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -7902,10 +9031,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="201"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="208"/>
+      <c r="F35" s="215"/>
+      <c r="G35" s="208"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -7917,10 +9046,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="198"/>
-      <c r="E36" s="201"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="201"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="208"/>
+      <c r="F36" s="215"/>
+      <c r="G36" s="208"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -7932,10 +9061,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="201"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="201"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="215"/>
+      <c r="G37" s="208"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -7947,10 +9076,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="198"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="201"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="215"/>
+      <c r="G38" s="208"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -7962,10 +9091,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="199"/>
-      <c r="E39" s="202"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="202"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="216"/>
+      <c r="G39" s="209"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -8189,7 +9318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
@@ -8319,14 +9448,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="210" t="s">
+      <c r="D6" s="201"/>
+      <c r="E6" s="222" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="203" t="s">
+      <c r="F6" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="173"/>
+      <c r="G6" s="170"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -8338,10 +9467,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="203"/>
-      <c r="G7" s="174"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="171"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -8353,10 +9482,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="174"/>
+      <c r="D8" s="202"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="171"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -8368,10 +9497,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="175"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="172"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -8440,14 +9569,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="194"/>
-      <c r="E13" s="211" t="s">
+      <c r="D13" s="201"/>
+      <c r="E13" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="203" t="s">
+      <c r="F13" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="173"/>
+      <c r="G13" s="170"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -8459,10 +9588,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="196"/>
-      <c r="E14" s="211"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="175"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="172"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -8474,14 +9603,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="194"/>
-      <c r="E15" s="210" t="s">
+      <c r="D15" s="201"/>
+      <c r="E15" s="222" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="203" t="s">
+      <c r="F15" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="173"/>
+      <c r="G15" s="170"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -8493,10 +9622,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="195"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="203"/>
-      <c r="G16" s="174"/>
+      <c r="D16" s="202"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="210"/>
+      <c r="G16" s="171"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -8508,10 +9637,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="195"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="174"/>
+      <c r="D17" s="202"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="171"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -8523,10 +9652,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="195"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="174"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="171"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -8538,10 +9667,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="195"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="174"/>
+      <c r="D19" s="202"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="171"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -8553,10 +9682,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="174"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="171"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -8568,10 +9697,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="195"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="174"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="222"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="171"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -8583,10 +9712,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="195"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="174"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="171"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -8598,10 +9727,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="195"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="174"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="222"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -8613,10 +9742,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="195"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="203"/>
-      <c r="G24" s="174"/>
+      <c r="D24" s="202"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="210"/>
+      <c r="G24" s="171"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -8628,10 +9757,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="195"/>
-      <c r="E25" s="210"/>
-      <c r="F25" s="203"/>
-      <c r="G25" s="174"/>
+      <c r="D25" s="202"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="171"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -8643,10 +9772,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="195"/>
-      <c r="E26" s="210"/>
-      <c r="F26" s="203"/>
-      <c r="G26" s="174"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="210"/>
+      <c r="G26" s="171"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -8658,10 +9787,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="195"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="174"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="210"/>
+      <c r="G27" s="171"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -8673,10 +9802,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="195"/>
-      <c r="E28" s="210"/>
-      <c r="F28" s="203"/>
-      <c r="G28" s="174"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="171"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -8688,10 +9817,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="195"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="174"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="171"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -8703,10 +9832,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="195"/>
-      <c r="E30" s="210"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="174"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="171"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -8718,10 +9847,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="196"/>
-      <c r="E31" s="210"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="175"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="222"/>
+      <c r="F31" s="210"/>
+      <c r="G31" s="172"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -8811,14 +9940,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="197"/>
-      <c r="E36" s="215" t="s">
+      <c r="D36" s="204"/>
+      <c r="E36" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="216" t="s">
+      <c r="F36" s="221" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="200"/>
+      <c r="G36" s="207"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -8830,10 +9959,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="198"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="201"/>
+      <c r="D37" s="205"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="208"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -8845,10 +9974,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="202"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="221"/>
+      <c r="G38" s="209"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -9128,14 +10257,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="212"/>
-      <c r="E53" s="215" t="s">
+      <c r="D53" s="217"/>
+      <c r="E53" s="220" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="216" t="s">
+      <c r="F53" s="221" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="200"/>
+      <c r="G53" s="207"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -9147,10 +10276,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="213"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="201"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="220"/>
+      <c r="F54" s="221"/>
+      <c r="G54" s="208"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -9162,10 +10291,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="214"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="216"/>
-      <c r="G55" s="202"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="221"/>
+      <c r="G55" s="209"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -9317,6 +10446,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -9329,21 +10466,13 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -9404,7 +10533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
@@ -9474,10 +10603,10 @@
       <c r="B3" s="224" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="218" t="s">
+      <c r="C3" s="227" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="218" t="s">
+      <c r="D3" s="227" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -9491,8 +10620,8 @@
     <row r="4" spans="1:7">
       <c r="A4" s="225"/>
       <c r="B4" s="225"/>
-      <c r="C4" s="219"/>
-      <c r="D4" s="219"/>
+      <c r="C4" s="228"/>
+      <c r="D4" s="228"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -9504,8 +10633,8 @@
     <row r="5" spans="1:7">
       <c r="A5" s="225"/>
       <c r="B5" s="225"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
+      <c r="C5" s="228"/>
+      <c r="D5" s="228"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -9517,8 +10646,8 @@
     <row r="6" spans="1:7">
       <c r="A6" s="226"/>
       <c r="B6" s="226"/>
-      <c r="C6" s="220"/>
-      <c r="D6" s="220"/>
+      <c r="C6" s="229"/>
+      <c r="D6" s="229"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -9578,10 +10707,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="204" t="s">
+      <c r="E9" s="211" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="173" t="s">
+      <c r="F9" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -9597,8 +10726,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="206"/>
-      <c r="F10" s="175"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="172"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -9631,10 +10760,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="204" t="s">
+      <c r="E12" s="211" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="173" t="s">
+      <c r="F12" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -9650,8 +10779,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="174"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -9665,8 +10794,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="206"/>
-      <c r="F14" s="175"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="172"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -9699,10 +10828,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="204" t="s">
+      <c r="E16" s="211" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="173" t="s">
+      <c r="F16" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -9718,8 +10847,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="174"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -9733,8 +10862,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="206"/>
-      <c r="F18" s="175"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="172"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -9767,10 +10896,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="204" t="s">
+      <c r="E20" s="211" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="173" t="s">
+      <c r="F20" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -9786,8 +10915,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="206"/>
-      <c r="F21" s="175"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="172"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -10893,11 +12022,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="221"/>
-      <c r="E79" s="204" t="s">
+      <c r="D79" s="231"/>
+      <c r="E79" s="211" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="173" t="s">
+      <c r="F79" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -10910,9 +12039,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="222"/>
-      <c r="E80" s="205"/>
-      <c r="F80" s="174"/>
+      <c r="D80" s="232"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="171"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -10925,9 +12054,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="222"/>
-      <c r="E81" s="205"/>
-      <c r="F81" s="174"/>
+      <c r="D81" s="232"/>
+      <c r="E81" s="212"/>
+      <c r="F81" s="171"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -10940,9 +12069,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="222"/>
-      <c r="E82" s="205"/>
-      <c r="F82" s="174"/>
+      <c r="D82" s="232"/>
+      <c r="E82" s="212"/>
+      <c r="F82" s="171"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -10955,9 +12084,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="222"/>
-      <c r="E83" s="205"/>
-      <c r="F83" s="174"/>
+      <c r="D83" s="232"/>
+      <c r="E83" s="212"/>
+      <c r="F83" s="171"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -10970,9 +12099,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="222"/>
-      <c r="E84" s="205"/>
-      <c r="F84" s="174"/>
+      <c r="D84" s="232"/>
+      <c r="E84" s="212"/>
+      <c r="F84" s="171"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -10985,9 +12114,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="222"/>
-      <c r="E85" s="205"/>
-      <c r="F85" s="174"/>
+      <c r="D85" s="232"/>
+      <c r="E85" s="212"/>
+      <c r="F85" s="171"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -11000,9 +12129,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="222"/>
-      <c r="E86" s="205"/>
-      <c r="F86" s="174"/>
+      <c r="D86" s="232"/>
+      <c r="E86" s="212"/>
+      <c r="F86" s="171"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -11015,9 +12144,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="223"/>
-      <c r="E87" s="206"/>
-      <c r="F87" s="175"/>
+      <c r="D87" s="233"/>
+      <c r="E87" s="213"/>
+      <c r="F87" s="172"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -11202,10 +12331,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="217" t="s">
+      <c r="E97" s="230" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="173" t="s">
+      <c r="F97" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -11221,8 +12350,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="217"/>
-      <c r="F98" s="174"/>
+      <c r="E98" s="230"/>
+      <c r="F98" s="171"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -11236,8 +12365,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="217"/>
-      <c r="F99" s="174"/>
+      <c r="E99" s="230"/>
+      <c r="F99" s="171"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -11251,8 +12380,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="217"/>
-      <c r="F100" s="174"/>
+      <c r="E100" s="230"/>
+      <c r="F100" s="171"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -11266,8 +12395,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="217"/>
-      <c r="F101" s="174"/>
+      <c r="E101" s="230"/>
+      <c r="F101" s="171"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -11281,8 +12410,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="217"/>
-      <c r="F102" s="174"/>
+      <c r="E102" s="230"/>
+      <c r="F102" s="171"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -11296,8 +12425,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="217"/>
-      <c r="F103" s="175"/>
+      <c r="E103" s="230"/>
+      <c r="F103" s="172"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -11348,11 +12477,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="167"/>
-      <c r="E106" s="217" t="s">
+      <c r="D106" s="173"/>
+      <c r="E106" s="230" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="167" t="s">
+      <c r="F106" s="173" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -11367,9 +12496,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="176"/>
-      <c r="E107" s="217"/>
-      <c r="F107" s="176"/>
+      <c r="D107" s="174"/>
+      <c r="E107" s="230"/>
+      <c r="F107" s="174"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -11382,9 +12511,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="168"/>
-      <c r="E108" s="217"/>
-      <c r="F108" s="168"/>
+      <c r="D108" s="175"/>
+      <c r="E108" s="230"/>
+      <c r="F108" s="175"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -11587,11 +12716,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="167"/>
-      <c r="E119" s="204" t="s">
+      <c r="D119" s="173"/>
+      <c r="E119" s="211" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="173" t="s">
+      <c r="F119" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -11606,9 +12735,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="176"/>
-      <c r="E120" s="205"/>
-      <c r="F120" s="174"/>
+      <c r="D120" s="174"/>
+      <c r="E120" s="212"/>
+      <c r="F120" s="171"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -11621,9 +12750,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="168"/>
-      <c r="E121" s="206"/>
-      <c r="F121" s="175"/>
+      <c r="D121" s="175"/>
+      <c r="E121" s="213"/>
+      <c r="F121" s="172"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -11674,11 +12803,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="167"/>
-      <c r="E124" s="217" t="s">
+      <c r="D124" s="173"/>
+      <c r="E124" s="230" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="173" t="s">
+      <c r="F124" s="170" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -11693,9 +12822,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="176"/>
-      <c r="E125" s="217"/>
-      <c r="F125" s="174"/>
+      <c r="D125" s="174"/>
+      <c r="E125" s="230"/>
+      <c r="F125" s="171"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -11708,9 +12837,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="176"/>
-      <c r="E126" s="217"/>
-      <c r="F126" s="174"/>
+      <c r="D126" s="174"/>
+      <c r="E126" s="230"/>
+      <c r="F126" s="171"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -11723,9 +12852,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="176"/>
-      <c r="E127" s="217"/>
-      <c r="F127" s="174"/>
+      <c r="D127" s="174"/>
+      <c r="E127" s="230"/>
+      <c r="F127" s="171"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -11738,9 +12867,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="168"/>
-      <c r="E128" s="217"/>
-      <c r="F128" s="175"/>
+      <c r="D128" s="175"/>
+      <c r="E128" s="230"/>
+      <c r="F128" s="172"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -11990,16 +13119,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -12016,6 +13135,16 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12024,9 +13153,88 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="110.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="53.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="158" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2" s="158" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D2" s="159" t="s">
+        <v>726</v>
+      </c>
+      <c r="E2" s="160" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F2" s="159" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="54"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="54"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -12114,11 +13322,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="167"/>
-      <c r="E4" s="170" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="167" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="173" t="s">
+      <c r="F4" s="170" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -12133,9 +13341,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="176"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="174"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -12148,9 +13356,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="176"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="174"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="171"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -12163,9 +13371,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="174"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="168"/>
+      <c r="F7" s="171"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -12178,9 +13386,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="176"/>
-      <c r="E8" s="171"/>
-      <c r="F8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="168"/>
+      <c r="F8" s="171"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -12193,9 +13401,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="174"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="171"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -12208,9 +13416,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="174"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="171"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -12223,9 +13431,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="176"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="174"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="171"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -12238,9 +13446,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="176"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="174"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="171"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -12253,9 +13461,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="176"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="174"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="171"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -12268,9 +13476,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="176"/>
-      <c r="E14" s="171"/>
-      <c r="F14" s="174"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="171"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -12283,9 +13491,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="176"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="174"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -12298,9 +13506,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="176"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="174"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="171"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -12313,9 +13521,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="176"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="174"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -12328,9 +13536,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="176"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="174"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="171"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -12343,9 +13551,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="176"/>
-      <c r="E19" s="171"/>
-      <c r="F19" s="174"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="171"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -12358,9 +13566,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="176"/>
-      <c r="E20" s="171"/>
-      <c r="F20" s="174"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="171"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -12373,9 +13581,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="171"/>
-      <c r="F21" s="174"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="171"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -12388,9 +13596,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="168"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="172"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -12559,14 +13767,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="167"/>
-      <c r="E31" s="163" t="s">
+      <c r="D31" s="173"/>
+      <c r="E31" s="176" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="161" t="s">
+      <c r="F31" s="178" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="163" t="s">
+      <c r="G31" s="176" t="s">
         <v>851</v>
       </c>
     </row>
@@ -12580,10 +13788,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="162"/>
-      <c r="G32" s="164"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="177"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -12595,14 +13803,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="167"/>
-      <c r="E33" s="163" t="s">
+      <c r="D33" s="173"/>
+      <c r="E33" s="176" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="161" t="s">
+      <c r="F33" s="178" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="163" t="s">
+      <c r="G33" s="176" t="s">
         <v>852</v>
       </c>
     </row>
@@ -12616,10 +13824,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="168"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="164"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="177"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="177"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -12631,14 +13839,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="167"/>
-      <c r="E35" s="163" t="s">
+      <c r="D35" s="173"/>
+      <c r="E35" s="176" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="161" t="s">
+      <c r="F35" s="178" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="163" t="s">
+      <c r="G35" s="176" t="s">
         <v>853</v>
       </c>
     </row>
@@ -12652,10 +13860,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="168"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="162"/>
-      <c r="G36" s="164"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="177"/>
+      <c r="F36" s="179"/>
+      <c r="G36" s="177"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -12667,14 +13875,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="169"/>
-      <c r="E37" s="163" t="s">
+      <c r="D37" s="180"/>
+      <c r="E37" s="176" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="161" t="s">
+      <c r="F37" s="178" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="163" t="s">
+      <c r="G37" s="176" t="s">
         <v>854</v>
       </c>
     </row>
@@ -12688,10 +13896,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="169"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="166"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="181"/>
+      <c r="F38" s="182"/>
+      <c r="G38" s="181"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -12703,10 +13911,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="169"/>
-      <c r="E39" s="166"/>
-      <c r="F39" s="165"/>
-      <c r="G39" s="166"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="181"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="181"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -12718,10 +13926,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="169"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="162"/>
-      <c r="G40" s="164"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="177"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="177"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -13031,6 +14239,18 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -13038,18 +14258,6 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13057,7 +14265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -13065,7 +14273,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E24" sqref="B24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -13115,7 +14323,7 @@
         <v>872</v>
       </c>
       <c r="B3" s="130" t="s">
-        <v>1504</v>
+        <v>1489</v>
       </c>
       <c r="C3" s="131" t="s">
         <v>873</v>
@@ -13130,7 +14338,7 @@
         <v>875</v>
       </c>
       <c r="B4" s="130" t="s">
-        <v>1505</v>
+        <v>1490</v>
       </c>
       <c r="C4" s="131" t="s">
         <v>876</v>
@@ -13144,8 +14352,8 @@
       <c r="A5" s="129" t="s">
         <v>732</v>
       </c>
-      <c r="B5" s="177" t="s">
-        <v>1506</v>
+      <c r="B5" s="183" t="s">
+        <v>1491</v>
       </c>
       <c r="C5" s="131" t="s">
         <v>877</v>
@@ -13159,7 +14367,7 @@
       <c r="A6" s="129" t="s">
         <v>734</v>
       </c>
-      <c r="B6" s="178"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="131" t="s">
         <v>877</v>
       </c>
@@ -13172,7 +14380,7 @@
       <c r="A7" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="178"/>
+      <c r="B7" s="184"/>
       <c r="C7" s="131" t="s">
         <v>877</v>
       </c>
@@ -13185,7 +14393,7 @@
       <c r="A8" s="129" t="s">
         <v>738</v>
       </c>
-      <c r="B8" s="178"/>
+      <c r="B8" s="184"/>
       <c r="C8" s="131" t="s">
         <v>877</v>
       </c>
@@ -13198,7 +14406,7 @@
       <c r="A9" s="129" t="s">
         <v>740</v>
       </c>
-      <c r="B9" s="178"/>
+      <c r="B9" s="184"/>
       <c r="C9" s="131" t="s">
         <v>877</v>
       </c>
@@ -13211,7 +14419,7 @@
       <c r="A10" s="129" t="s">
         <v>742</v>
       </c>
-      <c r="B10" s="178"/>
+      <c r="B10" s="184"/>
       <c r="C10" s="131" t="s">
         <v>877</v>
       </c>
@@ -13224,7 +14432,7 @@
       <c r="A11" s="129" t="s">
         <v>744</v>
       </c>
-      <c r="B11" s="178"/>
+      <c r="B11" s="184"/>
       <c r="C11" s="131" t="s">
         <v>877</v>
       </c>
@@ -13237,7 +14445,7 @@
       <c r="A12" s="129" t="s">
         <v>746</v>
       </c>
-      <c r="B12" s="178"/>
+      <c r="B12" s="184"/>
       <c r="C12" s="131" t="s">
         <v>877</v>
       </c>
@@ -13250,7 +14458,7 @@
       <c r="A13" s="129" t="s">
         <v>748</v>
       </c>
-      <c r="B13" s="178"/>
+      <c r="B13" s="184"/>
       <c r="C13" s="131" t="s">
         <v>877</v>
       </c>
@@ -13263,7 +14471,7 @@
       <c r="A14" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="178"/>
+      <c r="B14" s="184"/>
       <c r="C14" s="131" t="s">
         <v>877</v>
       </c>
@@ -13276,7 +14484,7 @@
       <c r="A15" s="129" t="s">
         <v>878</v>
       </c>
-      <c r="B15" s="178"/>
+      <c r="B15" s="184"/>
       <c r="C15" s="131" t="s">
         <v>877</v>
       </c>
@@ -13289,7 +14497,7 @@
       <c r="A16" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="B16" s="178"/>
+      <c r="B16" s="184"/>
       <c r="C16" s="131" t="s">
         <v>877</v>
       </c>
@@ -13302,7 +14510,7 @@
       <c r="A17" s="129" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="178"/>
+      <c r="B17" s="184"/>
       <c r="C17" s="131" t="s">
         <v>877</v>
       </c>
@@ -13315,7 +14523,7 @@
       <c r="A18" s="129" t="s">
         <v>757</v>
       </c>
-      <c r="B18" s="178"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="131" t="s">
         <v>877</v>
       </c>
@@ -13328,7 +14536,7 @@
       <c r="A19" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="B19" s="178"/>
+      <c r="B19" s="184"/>
       <c r="C19" s="131" t="s">
         <v>877</v>
       </c>
@@ -13341,7 +14549,7 @@
       <c r="A20" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="B20" s="178"/>
+      <c r="B20" s="184"/>
       <c r="C20" s="131" t="s">
         <v>877</v>
       </c>
@@ -13354,7 +14562,7 @@
       <c r="A21" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="178"/>
+      <c r="B21" s="184"/>
       <c r="C21" s="131" t="s">
         <v>877</v>
       </c>
@@ -13367,7 +14575,7 @@
       <c r="A22" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="B22" s="179"/>
+      <c r="B22" s="185"/>
       <c r="C22" s="131" t="s">
         <v>877</v>
       </c>
@@ -13381,7 +14589,7 @@
         <v>879</v>
       </c>
       <c r="B23" s="130" t="s">
-        <v>1507</v>
+        <v>1492</v>
       </c>
       <c r="C23" s="131" t="s">
         <v>880</v>
@@ -13405,11 +14613,11 @@
         <v>874</v>
       </c>
       <c r="E24" s="150" t="s">
-        <v>1503</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="189" t="s">
         <v>884</v>
       </c>
       <c r="B25" s="130" t="s">
@@ -13418,42 +14626,42 @@
       <c r="C25" s="131" t="s">
         <v>889</v>
       </c>
-      <c r="D25" s="183" t="s">
+      <c r="D25" s="189" t="s">
         <v>874</v>
       </c>
       <c r="E25" s="130"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="183"/>
+      <c r="A26" s="189"/>
       <c r="B26" s="130" t="s">
         <v>886</v>
       </c>
       <c r="C26" s="131" t="s">
         <v>890</v>
       </c>
-      <c r="D26" s="183"/>
+      <c r="D26" s="189"/>
       <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="183"/>
+      <c r="A27" s="189"/>
       <c r="B27" s="130" t="s">
         <v>887</v>
       </c>
       <c r="C27" s="131" t="s">
         <v>891</v>
       </c>
-      <c r="D27" s="183"/>
+      <c r="D27" s="189"/>
       <c r="E27" s="130"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="183"/>
+      <c r="A28" s="189"/>
       <c r="B28" s="130" t="s">
         <v>888</v>
       </c>
       <c r="C28" s="131" t="s">
         <v>892</v>
       </c>
-      <c r="D28" s="183"/>
+      <c r="D28" s="189"/>
       <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
@@ -13697,25 +14905,25 @@
       <c r="E65" s="125"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="184"/>
+      <c r="A66" s="190"/>
       <c r="B66" s="141"/>
       <c r="C66" s="126"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="180"/>
+      <c r="D66" s="190"/>
+      <c r="E66" s="186"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="185"/>
+      <c r="A67" s="191"/>
       <c r="B67" s="142"/>
       <c r="C67" s="127"/>
-      <c r="D67" s="185"/>
-      <c r="E67" s="181"/>
+      <c r="D67" s="191"/>
+      <c r="E67" s="187"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A68" s="186"/>
+      <c r="A68" s="192"/>
       <c r="B68" s="137"/>
       <c r="C68" s="128"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="182"/>
+      <c r="D68" s="192"/>
+      <c r="E68" s="188"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1">
       <c r="A69" s="123"/>
@@ -13899,14 +15107,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -14025,7 +15233,7 @@
         <v>910</v>
       </c>
       <c r="E7" s="152" t="s">
-        <v>1512</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17.25" thickBot="1"/>
@@ -14269,25 +15477,25 @@
       <c r="E44" s="115"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="187"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="117"/>
       <c r="C45" s="120"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="190"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="196"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="188"/>
+      <c r="A46" s="194"/>
       <c r="B46" s="118"/>
       <c r="C46" s="121"/>
-      <c r="D46" s="188"/>
-      <c r="E46" s="191"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="197"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A47" s="189"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="119"/>
       <c r="C47" s="122"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="192"/>
+      <c r="D47" s="195"/>
+      <c r="E47" s="198"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="113"/>
@@ -14468,7 +15676,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -14623,7 +15831,7 @@
         <v>910</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -14698,7 +15906,7 @@
         <v>910</v>
       </c>
       <c r="E14" s="157" t="s">
-        <v>1508</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -14773,7 +15981,7 @@
         <v>910</v>
       </c>
       <c r="E19" s="157" t="s">
-        <v>1509</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -14833,7 +16041,7 @@
         <v>910</v>
       </c>
       <c r="E23" s="157" t="s">
-        <v>1510</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -14927,7 +16135,7 @@
       <c r="E29" s="131"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="189" t="s">
         <v>203</v>
       </c>
       <c r="B30" s="130" t="s">
@@ -14936,32 +16144,32 @@
       <c r="C30" s="131" t="s">
         <v>986</v>
       </c>
-      <c r="D30" s="183" t="s">
-        <v>874</v>
-      </c>
-      <c r="E30" s="193"/>
+      <c r="D30" s="189" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" s="199"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="183"/>
+      <c r="A31" s="189"/>
       <c r="B31" s="130" t="s">
         <v>984</v>
       </c>
       <c r="C31" s="131" t="s">
         <v>987</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="193"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="199"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="183"/>
+      <c r="A32" s="189"/>
       <c r="B32" s="130" t="s">
         <v>985</v>
       </c>
       <c r="C32" s="131" t="s">
         <v>988</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="193"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="199"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="129" t="s">
@@ -15175,7 +16383,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="151" t="s">
-        <v>1511</v>
+        <v>1496</v>
       </c>
       <c r="B47" s="152" t="s">
         <v>1025</v>
@@ -15183,10 +16391,10 @@
       <c r="C47" s="152" t="s">
         <v>1026</v>
       </c>
-      <c r="D47" s="228" t="s">
+      <c r="D47" s="162" t="s">
         <v>910</v>
       </c>
-      <c r="E47" s="229" t="s">
+      <c r="E47" s="163" t="s">
         <v>1027</v>
       </c>
     </row>
@@ -15197,14 +16405,14 @@
       <c r="B48" s="139" t="s">
         <v>1029</v>
       </c>
-      <c r="C48" s="227" t="s">
+      <c r="C48" s="161" t="s">
         <v>1030</v>
       </c>
-      <c r="D48" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E48" s="231" t="s">
-        <v>1517</v>
+      <c r="D48" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E48" s="200" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -15214,13 +16422,13 @@
       <c r="B49" s="139" t="s">
         <v>1032</v>
       </c>
-      <c r="C49" s="227" t="s">
+      <c r="C49" s="161" t="s">
         <v>1033</v>
       </c>
-      <c r="D49" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E49" s="231"/>
+      <c r="D49" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E49" s="200"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="138" t="s">
@@ -15229,13 +16437,13 @@
       <c r="B50" s="139" t="s">
         <v>1034</v>
       </c>
-      <c r="C50" s="227" t="s">
+      <c r="C50" s="161" t="s">
         <v>1035</v>
       </c>
-      <c r="D50" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E50" s="231"/>
+      <c r="D50" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E50" s="200"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="138" t="s">
@@ -15244,13 +16452,13 @@
       <c r="B51" s="139" t="s">
         <v>1036</v>
       </c>
-      <c r="C51" s="227" t="s">
+      <c r="C51" s="161" t="s">
         <v>1037</v>
       </c>
-      <c r="D51" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E51" s="231"/>
+      <c r="D51" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E51" s="200"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="138" t="s">
@@ -15259,13 +16467,13 @@
       <c r="B52" s="139" t="s">
         <v>1038</v>
       </c>
-      <c r="C52" s="227" t="s">
+      <c r="C52" s="161" t="s">
         <v>1039</v>
       </c>
-      <c r="D52" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E52" s="231"/>
+      <c r="D52" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E52" s="200"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="138" t="s">
@@ -15274,13 +16482,13 @@
       <c r="B53" s="139" t="s">
         <v>1040</v>
       </c>
-      <c r="C53" s="227" t="s">
+      <c r="C53" s="161" t="s">
         <v>1041</v>
       </c>
-      <c r="D53" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E53" s="231"/>
+      <c r="D53" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E53" s="200"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="138" t="s">
@@ -15289,13 +16497,13 @@
       <c r="B54" s="139" t="s">
         <v>1042</v>
       </c>
-      <c r="C54" s="227" t="s">
+      <c r="C54" s="161" t="s">
         <v>1043</v>
       </c>
-      <c r="D54" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E54" s="231"/>
+      <c r="D54" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E54" s="200"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="138" t="s">
@@ -15304,13 +16512,13 @@
       <c r="B55" s="139" t="s">
         <v>1045</v>
       </c>
-      <c r="C55" s="227" t="s">
+      <c r="C55" s="161" t="s">
         <v>1046</v>
       </c>
-      <c r="D55" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E55" s="231"/>
+      <c r="D55" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E55" s="200"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="138" t="s">
@@ -15319,13 +16527,13 @@
       <c r="B56" s="140" t="s">
         <v>1048</v>
       </c>
-      <c r="C56" s="227" t="s">
-        <v>1518</v>
-      </c>
-      <c r="D56" s="230" t="s">
-        <v>874</v>
-      </c>
-      <c r="E56" s="232"/>
+      <c r="C56" s="161" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D56" s="164" t="s">
+        <v>874</v>
+      </c>
+      <c r="E56" s="165"/>
     </row>
     <row r="57" spans="1:5" ht="17.25" thickBot="1">
       <c r="A57" s="136"/>
@@ -15437,14 +16645,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView topLeftCell="B112" workbookViewId="0">
+    <sheetView topLeftCell="B94" workbookViewId="0">
       <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
@@ -15843,7 +17051,7 @@
         <v>1107</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>1513</v>
+        <v>1498</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -16541,28 +17749,28 @@
       <c r="E72" s="131"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="183" t="s">
+      <c r="A73" s="189" t="s">
         <v>347</v>
       </c>
       <c r="B73" s="112" t="s">
         <v>1226</v>
       </c>
-      <c r="C73" s="193" t="s">
+      <c r="C73" s="199" t="s">
         <v>1228</v>
       </c>
-      <c r="D73" s="183" t="s">
-        <v>874</v>
-      </c>
-      <c r="E73" s="193"/>
+      <c r="D73" s="189" t="s">
+        <v>874</v>
+      </c>
+      <c r="E73" s="199"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="183"/>
+      <c r="A74" s="189"/>
       <c r="B74" s="112" t="s">
         <v>1227</v>
       </c>
-      <c r="C74" s="193"/>
-      <c r="D74" s="183"/>
-      <c r="E74" s="193"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="189"/>
+      <c r="E74" s="199"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="129" t="s">
@@ -17609,15 +18817,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17685,228 +18893,212 @@
         <v>804</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1360</v>
+        <v>1555</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E4" s="131" t="s">
-        <v>1361</v>
-      </c>
+      <c r="E4" s="131"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="129" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="B5" s="130" t="s">
-        <v>1362</v>
+        <v>806</v>
       </c>
       <c r="C5" s="131" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E5" s="131" t="s">
         <v>1360</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E5" s="131" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="s">
-        <v>805</v>
+        <v>1361</v>
       </c>
       <c r="B6" s="130" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1360</v>
+        <v>1563</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E6" s="131" t="s">
-        <v>1364</v>
-      </c>
+      <c r="E6" s="131"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="s">
-        <v>1365</v>
+        <v>809</v>
       </c>
       <c r="B7" s="130" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1366</v>
+        <v>1564</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="129" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B8" s="130" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1366</v>
+        <v>1562</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E8" s="131" t="s">
-        <v>1368</v>
-      </c>
+      <c r="E8" s="131"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="B9" s="130" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1366</v>
+        <v>1562</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E9" s="131" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="B10" s="130" t="s">
-        <v>1369</v>
+        <v>816</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1370</v>
+        <v>1561</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E10" s="131" t="s">
-        <v>1371</v>
-      </c>
+      <c r="E10" s="131"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="129" t="s">
         <v>817</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>1372</v>
+        <v>1557</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1370</v>
+        <v>1560</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E11" s="131" t="s">
-        <v>1373</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
-        <v>813</v>
+        <v>1565</v>
       </c>
       <c r="B12" s="130" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1370</v>
+        <v>1559</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="129" t="s">
-        <v>815</v>
+        <v>1363</v>
       </c>
       <c r="B13" s="130" t="s">
-        <v>816</v>
+        <v>1364</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1374</v>
+        <v>1558</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E13" s="131" t="s">
-        <v>1375</v>
-      </c>
+      <c r="E13" s="131"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
-        <v>817</v>
+        <v>1365</v>
       </c>
       <c r="B14" s="130" t="s">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>1374</v>
+        <v>1367</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E14" s="131" t="s">
-        <v>1364</v>
-      </c>
+      <c r="E14" s="131"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
-        <v>820</v>
+        <v>1368</v>
       </c>
       <c r="B15" s="130" t="s">
-        <v>821</v>
+        <v>1369</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E15" s="131" t="s">
-        <v>1364</v>
-      </c>
+      <c r="E15" s="131"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>1378</v>
+        <v>835</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E16" s="131" t="s">
-        <v>1379</v>
-      </c>
+      <c r="E16" s="131"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>1381</v>
+        <v>837</v>
       </c>
       <c r="C17" s="131" t="s">
-        <v>1382</v>
+        <v>1374</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
@@ -17915,13 +19107,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
-        <v>1383</v>
+        <v>1375</v>
       </c>
       <c r="B18" s="130" t="s">
-        <v>1384</v>
+        <v>1376</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>1385</v>
+        <v>1377</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -17930,63 +19122,18 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
-        <v>1386</v>
+        <v>840</v>
       </c>
       <c r="B19" s="130" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E19" s="131"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="129" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>837</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E20" s="131"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="129" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E21" s="131"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="129" t="s">
-        <v>840</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>841</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>1393</v>
-      </c>
-      <c r="D22" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E22" s="130"/>
+      <c r="E19" s="130"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -17995,7 +19142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -18041,7 +19188,7 @@
         <v>535</v>
       </c>
       <c r="C2" s="131" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="D2" s="129" t="s">
         <v>874</v>
@@ -18056,7 +19203,7 @@
         <v>537</v>
       </c>
       <c r="C3" s="131" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="D3" s="129" t="s">
         <v>874</v>
@@ -18071,7 +19218,7 @@
         <v>539</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
@@ -18083,10 +19230,10 @@
         <v>544</v>
       </c>
       <c r="B5" s="112" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
@@ -18098,10 +19245,10 @@
         <v>546</v>
       </c>
       <c r="B6" s="112" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -18113,10 +19260,10 @@
         <v>548</v>
       </c>
       <c r="B7" s="112" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -18128,10 +19275,10 @@
         <v>550</v>
       </c>
       <c r="B8" s="112" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -18143,10 +19290,10 @@
         <v>552</v>
       </c>
       <c r="B9" s="112" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -18158,10 +19305,10 @@
         <v>554</v>
       </c>
       <c r="B10" s="112" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -18176,7 +19323,7 @@
         <v>557</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -18185,13 +19332,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="B12" s="112" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -18203,10 +19350,10 @@
         <v>560</v>
       </c>
       <c r="B13" s="112" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
@@ -18215,13 +19362,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="B14" s="112" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="C14" s="131" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
@@ -18233,10 +19380,10 @@
         <v>563</v>
       </c>
       <c r="B15" s="112" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="C15" s="131" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
@@ -18245,13 +19392,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="B16" s="112" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="C16" s="131" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
@@ -18260,30 +19407,30 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="153" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="B17" s="156" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="C17" s="154" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="D17" s="153" t="s">
         <v>1031</v>
       </c>
       <c r="E17" s="154" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="B18" s="112" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
       <c r="C18" s="131" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
@@ -18292,13 +19439,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="B19" s="112" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="C19" s="131" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
@@ -18307,13 +19454,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="B20" s="112" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="C20" s="131" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
@@ -18322,13 +19469,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="B21" s="112" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="C21" s="131" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
@@ -18337,13 +19484,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="129" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="B22" s="112" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="C22" s="131" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
@@ -18352,13 +19499,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="129" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="B23" s="112" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="C23" s="131" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="D23" s="129" t="s">
         <v>874</v>
@@ -18367,13 +19514,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="129" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="B24" s="112" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="C24" s="131" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="D24" s="129" t="s">
         <v>874</v>
@@ -18382,13 +19529,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="129" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="B25" s="112" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="C25" s="131" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="D25" s="129" t="s">
         <v>874</v>
@@ -18397,13 +19544,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="129" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="B26" s="112" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="C26" s="131" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="D26" s="129" t="s">
         <v>874</v>
@@ -18412,13 +19559,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="129" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="B27" s="112" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="C27" s="131" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="D27" s="129" t="s">
         <v>874</v>
@@ -18427,13 +19574,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="129" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="B28" s="112" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="C28" s="131" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="D28" s="129" t="s">
         <v>874</v>
@@ -18442,13 +19589,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="129" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="B29" s="112" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="C29" s="131" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="D29" s="129" t="s">
         <v>874</v>
@@ -18457,13 +19604,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="129" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="B30" s="112" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="C30" s="131" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>874</v>
@@ -18472,13 +19619,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="129" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="C31" s="131" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="D31" s="129" t="s">
         <v>874</v>
@@ -18490,403 +19637,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF7030A0"/>
-  </sheetPr>
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="17.875" style="124" customWidth="1"/>
-    <col min="2" max="2" width="62.5" style="124" customWidth="1"/>
-    <col min="3" max="3" width="87.875" style="124" customWidth="1"/>
-    <col min="4" max="4" width="11" style="124" customWidth="1"/>
-    <col min="5" max="5" width="75.375" style="124" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="124"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="144" t="s">
-        <v>869</v>
-      </c>
-      <c r="B1" s="144" t="s">
-        <v>870</v>
-      </c>
-      <c r="C1" s="144" t="s">
-        <v>871</v>
-      </c>
-      <c r="D1" s="144" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E1" s="144" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="129" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="130" t="s">
-        <v>1458</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>1459</v>
-      </c>
-      <c r="D2" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E2" s="131"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="183" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="130" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C3" s="193" t="s">
-        <v>1463</v>
-      </c>
-      <c r="D3" s="183" t="s">
-        <v>874</v>
-      </c>
-      <c r="E3" s="193"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="183"/>
-      <c r="B4" s="131" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="183"/>
-      <c r="E4" s="193"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="183"/>
-      <c r="B5" s="131" t="s">
-        <v>1462</v>
-      </c>
-      <c r="C5" s="193"/>
-      <c r="D5" s="183"/>
-      <c r="E5" s="193"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="129" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="130" t="s">
-        <v>1464</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D6" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E6" s="131"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="129" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="131" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E7" s="131"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="129" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="130" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E8" s="131"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="129" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B9" s="130" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>1466</v>
-      </c>
-      <c r="D9" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E9" s="131"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="129" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B10" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>1470</v>
-      </c>
-      <c r="D10" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E10" s="131"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="129" t="s">
-        <v>86</v>
-      </c>
-      <c r="B11" s="130" t="s">
-        <v>1471</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>1472</v>
-      </c>
-      <c r="D11" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E11" s="131"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="130" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C12" s="131" t="s">
-        <v>1474</v>
-      </c>
-      <c r="D12" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E12" s="131"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="130" t="s">
-        <v>1473</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>1475</v>
-      </c>
-      <c r="D13" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E13" s="131"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="129" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B14" s="130" t="s">
-        <v>1477</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D14" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E14" s="131"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="129" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B15" s="130" t="s">
-        <v>1480</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D15" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E15" s="131"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="129" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B16" s="130" t="s">
-        <v>1483</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D16" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="131"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="129" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B17" s="130" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="131" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D17" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E17" s="131"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="129" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B18" s="130" t="s">
-        <v>1486</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D18" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E18" s="131"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="129" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B19" s="130" t="s">
-        <v>1488</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>1489</v>
-      </c>
-      <c r="D19" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E19" s="131"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>1490</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E20" s="131"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>1492</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E21" s="131"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="130" t="s">
-        <v>1494</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>1495</v>
-      </c>
-      <c r="D22" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E22" s="131"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="130" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D23" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E23" s="131"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="129" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="130" t="s">
-        <v>1498</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>1499</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E24" s="131"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="129" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B25" s="130" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D25" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E25" s="130"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="E3:E5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="0223" sheetId="17" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1566">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5766,10 +5766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관련서비스 탭 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6008,6 +6004,161 @@
   </si>
   <si>
     <t>UHKE1401M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완료후</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캡쳐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적용해야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>함</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6584,7 +6735,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7086,6 +7237,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7164,6 +7336,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7286,27 +7467,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7591,8 +7751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7646,7 +7806,7 @@
         <v>1522</v>
       </c>
       <c r="F2" s="110" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="G2" s="112" t="s">
         <v>1521</v>
@@ -7776,20 +7936,20 @@
       <c r="B10" s="109" t="s">
         <v>1529</v>
       </c>
-      <c r="C10" s="236" t="s">
+      <c r="C10" s="167" t="s">
         <v>1531</v>
       </c>
-      <c r="D10" s="234" t="s">
+      <c r="D10" s="172" t="s">
         <v>1524</v>
       </c>
-      <c r="E10" s="236" t="s">
+      <c r="E10" s="167" t="s">
         <v>1528</v>
       </c>
-      <c r="F10" s="234" t="s">
+      <c r="F10" s="172" t="s">
         <v>530</v>
       </c>
-      <c r="G10" s="236" t="s">
-        <v>1553</v>
+      <c r="G10" s="167" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -7799,11 +7959,11 @@
       <c r="B11" s="109" t="s">
         <v>1530</v>
       </c>
-      <c r="C11" s="238"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="237"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="173"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="173"/>
+      <c r="G11" s="169"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="105" t="s">
@@ -7812,19 +7972,19 @@
       <c r="B12" s="110" t="s">
         <v>1533</v>
       </c>
-      <c r="C12" s="236" t="s">
+      <c r="C12" s="167" t="s">
         <v>1535</v>
       </c>
-      <c r="D12" s="234" t="s">
+      <c r="D12" s="172" t="s">
         <v>1524</v>
       </c>
-      <c r="E12" s="239" t="s">
+      <c r="E12" s="170" t="s">
         <v>1532</v>
       </c>
-      <c r="F12" s="234" t="s">
+      <c r="F12" s="172" t="s">
         <v>530</v>
       </c>
-      <c r="G12" s="237"/>
+      <c r="G12" s="169"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="105" t="s">
@@ -7833,11 +7993,11 @@
       <c r="B13" s="110" t="s">
         <v>1534</v>
       </c>
-      <c r="C13" s="238"/>
-      <c r="D13" s="235"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="235"/>
-      <c r="G13" s="237"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="173"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="169"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="105" t="s">
@@ -7846,19 +8006,19 @@
       <c r="B14" s="110" t="s">
         <v>1537</v>
       </c>
-      <c r="C14" s="236" t="s">
+      <c r="C14" s="167" t="s">
         <v>1542</v>
       </c>
-      <c r="D14" s="234" t="s">
+      <c r="D14" s="172" t="s">
         <v>1524</v>
       </c>
-      <c r="E14" s="239" t="s">
+      <c r="E14" s="170" t="s">
         <v>1536</v>
       </c>
-      <c r="F14" s="234" t="s">
+      <c r="F14" s="172" t="s">
         <v>530</v>
       </c>
-      <c r="G14" s="237"/>
+      <c r="G14" s="169"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="105" t="s">
@@ -7867,11 +8027,11 @@
       <c r="B15" s="110" t="s">
         <v>1538</v>
       </c>
-      <c r="C15" s="238"/>
-      <c r="D15" s="235"/>
-      <c r="E15" s="240"/>
-      <c r="F15" s="235"/>
-      <c r="G15" s="237"/>
+      <c r="C15" s="168"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="173"/>
+      <c r="G15" s="169"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="105" t="s">
@@ -7880,19 +8040,19 @@
       <c r="B16" s="110" t="s">
         <v>1540</v>
       </c>
-      <c r="C16" s="236" t="s">
+      <c r="C16" s="167" t="s">
         <v>1543</v>
       </c>
-      <c r="D16" s="234" t="s">
+      <c r="D16" s="172" t="s">
         <v>1524</v>
       </c>
-      <c r="E16" s="239" t="s">
+      <c r="E16" s="170" t="s">
         <v>1539</v>
       </c>
-      <c r="F16" s="234" t="s">
+      <c r="F16" s="172" t="s">
         <v>530</v>
       </c>
-      <c r="G16" s="237"/>
+      <c r="G16" s="169"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="105" t="s">
@@ -7901,11 +8061,11 @@
       <c r="B17" s="110" t="s">
         <v>1541</v>
       </c>
-      <c r="C17" s="238"/>
-      <c r="D17" s="235"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="235"/>
-      <c r="G17" s="238"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="173"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="168"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="110" t="s">
@@ -7923,8 +8083,8 @@
       <c r="E18" s="111" t="s">
         <v>1549</v>
       </c>
-      <c r="F18" s="110" t="s">
-        <v>1552</v>
+      <c r="F18" s="105" t="s">
+        <v>530</v>
       </c>
       <c r="G18" s="112"/>
     </row>
@@ -7953,11 +8113,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
@@ -7970,6 +8125,11 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8031,37 +8191,37 @@
       <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="196" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="130" t="s">
         <v>1445</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="209" t="s">
         <v>1448</v>
       </c>
-      <c r="D3" s="189" t="s">
-        <v>874</v>
-      </c>
-      <c r="E3" s="199"/>
+      <c r="D3" s="196" t="s">
+        <v>874</v>
+      </c>
+      <c r="E3" s="209"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="189"/>
+      <c r="A4" s="196"/>
       <c r="B4" s="131" t="s">
         <v>1446</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="189"/>
-      <c r="E4" s="199"/>
+      <c r="C4" s="209"/>
+      <c r="D4" s="196"/>
+      <c r="E4" s="209"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="189"/>
+      <c r="A5" s="196"/>
       <c r="B5" s="131" t="s">
         <v>1447</v>
       </c>
-      <c r="C5" s="199"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="199"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="209"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="s">
@@ -8487,14 +8647,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="201"/>
-      <c r="E5" s="211" t="s">
+      <c r="D5" s="211"/>
+      <c r="E5" s="221" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="210" t="s">
+      <c r="F5" s="220" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="167"/>
+      <c r="G5" s="174"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -8506,10 +8666,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="202"/>
-      <c r="E6" s="212"/>
-      <c r="F6" s="210"/>
-      <c r="G6" s="168"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="175"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -8521,10 +8681,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="212"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="168"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="175"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -8536,10 +8696,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="202"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="168"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="175"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -8551,10 +8711,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="202"/>
-      <c r="E9" s="212"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="168"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="175"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -8566,10 +8726,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="169"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="176"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -8714,14 +8874,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="201"/>
-      <c r="E18" s="211" t="s">
+      <c r="D18" s="211"/>
+      <c r="E18" s="221" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="170" t="s">
+      <c r="F18" s="177" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="167"/>
+      <c r="G18" s="174"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -8733,10 +8893,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="171"/>
-      <c r="G19" s="168"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="222"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="175"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -8748,10 +8908,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="171"/>
-      <c r="G20" s="168"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="175"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -8763,10 +8923,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="169"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="176"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -8995,14 +9155,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="204"/>
-      <c r="E33" s="207" t="s">
+      <c r="D33" s="214"/>
+      <c r="E33" s="217" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="214" t="s">
+      <c r="F33" s="224" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="207" t="s">
+      <c r="G33" s="217" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9016,10 +9176,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="205"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="215"/>
-      <c r="G34" s="208"/>
+      <c r="D34" s="215"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="218"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -9031,10 +9191,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="205"/>
-      <c r="E35" s="208"/>
-      <c r="F35" s="215"/>
-      <c r="G35" s="208"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="218"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -9046,10 +9206,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="205"/>
-      <c r="E36" s="208"/>
-      <c r="F36" s="215"/>
-      <c r="G36" s="208"/>
+      <c r="D36" s="215"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="225"/>
+      <c r="G36" s="218"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -9061,10 +9221,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="205"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="215"/>
-      <c r="G37" s="208"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="225"/>
+      <c r="G37" s="218"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -9076,10 +9236,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="205"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="215"/>
-      <c r="G38" s="208"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="225"/>
+      <c r="G38" s="218"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -9091,10 +9251,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="206"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="216"/>
-      <c r="G39" s="209"/>
+      <c r="D39" s="216"/>
+      <c r="E39" s="219"/>
+      <c r="F39" s="226"/>
+      <c r="G39" s="219"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -9448,14 +9608,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="201"/>
-      <c r="E6" s="222" t="s">
+      <c r="D6" s="211"/>
+      <c r="E6" s="232" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="210" t="s">
+      <c r="F6" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="170"/>
+      <c r="G6" s="177"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -9467,10 +9627,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="202"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="171"/>
+      <c r="D7" s="212"/>
+      <c r="E7" s="232"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="178"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -9482,10 +9642,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="202"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="171"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="178"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -9497,10 +9657,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="203"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="172"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="179"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -9569,14 +9729,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="201"/>
-      <c r="E13" s="223" t="s">
+      <c r="D13" s="211"/>
+      <c r="E13" s="233" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="210" t="s">
+      <c r="F13" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="170"/>
+      <c r="G13" s="177"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -9588,10 +9748,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="172"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="233"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="179"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -9603,14 +9763,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="201"/>
-      <c r="E15" s="222" t="s">
+      <c r="D15" s="211"/>
+      <c r="E15" s="232" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="210" t="s">
+      <c r="F15" s="220" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="170"/>
+      <c r="G15" s="177"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -9622,10 +9782,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="202"/>
-      <c r="E16" s="222"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="171"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="232"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="178"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -9637,10 +9797,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="202"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="171"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="232"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="178"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -9652,10 +9812,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="202"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="171"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="232"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="178"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -9667,10 +9827,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="202"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="171"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="232"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="178"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -9682,10 +9842,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="202"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="171"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="232"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="178"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -9697,10 +9857,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="202"/>
-      <c r="E21" s="222"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="171"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="232"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="178"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -9712,10 +9872,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="171"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="232"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="178"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -9727,10 +9887,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="202"/>
-      <c r="E23" s="222"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="171"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="232"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="178"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -9742,10 +9902,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="202"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="171"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="178"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -9757,10 +9917,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="210"/>
-      <c r="G25" s="171"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="232"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="178"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -9772,10 +9932,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="202"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="210"/>
-      <c r="G26" s="171"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="232"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="178"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -9787,10 +9947,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="202"/>
-      <c r="E27" s="222"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="171"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="232"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="178"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -9802,10 +9962,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="202"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="171"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="232"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="178"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -9817,10 +9977,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="202"/>
-      <c r="E29" s="222"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="171"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="232"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="178"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -9832,10 +9992,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="171"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="232"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="178"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -9847,10 +10007,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="203"/>
-      <c r="E31" s="222"/>
-      <c r="F31" s="210"/>
-      <c r="G31" s="172"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="232"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="179"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -9940,14 +10100,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="204"/>
-      <c r="E36" s="220" t="s">
+      <c r="D36" s="214"/>
+      <c r="E36" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="221" t="s">
+      <c r="F36" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="207"/>
+      <c r="G36" s="217"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -9959,10 +10119,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="205"/>
-      <c r="E37" s="220"/>
-      <c r="F37" s="221"/>
-      <c r="G37" s="208"/>
+      <c r="D37" s="215"/>
+      <c r="E37" s="230"/>
+      <c r="F37" s="231"/>
+      <c r="G37" s="218"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -9974,10 +10134,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="221"/>
-      <c r="G38" s="209"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="230"/>
+      <c r="F38" s="231"/>
+      <c r="G38" s="219"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -10257,14 +10417,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="217"/>
-      <c r="E53" s="220" t="s">
+      <c r="D53" s="227"/>
+      <c r="E53" s="230" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="221" t="s">
+      <c r="F53" s="231" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="207"/>
+      <c r="G53" s="217"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -10276,10 +10436,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="218"/>
-      <c r="E54" s="220"/>
-      <c r="F54" s="221"/>
-      <c r="G54" s="208"/>
+      <c r="D54" s="228"/>
+      <c r="E54" s="230"/>
+      <c r="F54" s="231"/>
+      <c r="G54" s="218"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -10291,10 +10451,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="219"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="221"/>
-      <c r="G55" s="209"/>
+      <c r="D55" s="229"/>
+      <c r="E55" s="230"/>
+      <c r="F55" s="231"/>
+      <c r="G55" s="219"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -10597,16 +10757,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="224" t="s">
+      <c r="B3" s="234" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="237" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="227" t="s">
+      <c r="D3" s="237" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -10618,10 +10778,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="225"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="228"/>
-      <c r="D4" s="228"/>
+      <c r="A4" s="235"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="238"/>
+      <c r="D4" s="238"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -10631,10 +10791,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="225"/>
-      <c r="B5" s="225"/>
-      <c r="C5" s="228"/>
-      <c r="D5" s="228"/>
+      <c r="A5" s="235"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="238"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -10644,10 +10804,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="226"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="229"/>
-      <c r="D6" s="229"/>
+      <c r="A6" s="236"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="239"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -10707,10 +10867,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="211" t="s">
+      <c r="E9" s="221" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="170" t="s">
+      <c r="F9" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -10726,8 +10886,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="213"/>
-      <c r="F10" s="172"/>
+      <c r="E10" s="223"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -10760,10 +10920,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="211" t="s">
+      <c r="E12" s="221" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="170" t="s">
+      <c r="F12" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -10779,8 +10939,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="212"/>
-      <c r="F13" s="171"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="178"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -10794,8 +10954,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="213"/>
-      <c r="F14" s="172"/>
+      <c r="E14" s="223"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -10828,10 +10988,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="211" t="s">
+      <c r="E16" s="221" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="170" t="s">
+      <c r="F16" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -10847,8 +11007,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="171"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -10862,8 +11022,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="172"/>
+      <c r="E18" s="223"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -10896,10 +11056,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="211" t="s">
+      <c r="E20" s="221" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="170" t="s">
+      <c r="F20" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -10915,8 +11075,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="172"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -12022,11 +12182,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="231"/>
-      <c r="E79" s="211" t="s">
+      <c r="D79" s="241"/>
+      <c r="E79" s="221" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="170" t="s">
+      <c r="F79" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -12039,9 +12199,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="232"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="171"/>
+      <c r="D80" s="242"/>
+      <c r="E80" s="222"/>
+      <c r="F80" s="178"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -12054,9 +12214,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="232"/>
-      <c r="E81" s="212"/>
-      <c r="F81" s="171"/>
+      <c r="D81" s="242"/>
+      <c r="E81" s="222"/>
+      <c r="F81" s="178"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -12069,9 +12229,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="232"/>
-      <c r="E82" s="212"/>
-      <c r="F82" s="171"/>
+      <c r="D82" s="242"/>
+      <c r="E82" s="222"/>
+      <c r="F82" s="178"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -12084,9 +12244,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="232"/>
-      <c r="E83" s="212"/>
-      <c r="F83" s="171"/>
+      <c r="D83" s="242"/>
+      <c r="E83" s="222"/>
+      <c r="F83" s="178"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -12099,9 +12259,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="232"/>
-      <c r="E84" s="212"/>
-      <c r="F84" s="171"/>
+      <c r="D84" s="242"/>
+      <c r="E84" s="222"/>
+      <c r="F84" s="178"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -12114,9 +12274,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="232"/>
-      <c r="E85" s="212"/>
-      <c r="F85" s="171"/>
+      <c r="D85" s="242"/>
+      <c r="E85" s="222"/>
+      <c r="F85" s="178"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -12129,9 +12289,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="232"/>
-      <c r="E86" s="212"/>
-      <c r="F86" s="171"/>
+      <c r="D86" s="242"/>
+      <c r="E86" s="222"/>
+      <c r="F86" s="178"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -12144,9 +12304,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="233"/>
-      <c r="E87" s="213"/>
-      <c r="F87" s="172"/>
+      <c r="D87" s="243"/>
+      <c r="E87" s="223"/>
+      <c r="F87" s="179"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -12331,10 +12491,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="230" t="s">
+      <c r="E97" s="240" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="170" t="s">
+      <c r="F97" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -12350,8 +12510,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="230"/>
-      <c r="F98" s="171"/>
+      <c r="E98" s="240"/>
+      <c r="F98" s="178"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -12365,8 +12525,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="230"/>
-      <c r="F99" s="171"/>
+      <c r="E99" s="240"/>
+      <c r="F99" s="178"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -12380,8 +12540,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="230"/>
-      <c r="F100" s="171"/>
+      <c r="E100" s="240"/>
+      <c r="F100" s="178"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -12395,8 +12555,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="230"/>
-      <c r="F101" s="171"/>
+      <c r="E101" s="240"/>
+      <c r="F101" s="178"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -12410,8 +12570,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="230"/>
-      <c r="F102" s="171"/>
+      <c r="E102" s="240"/>
+      <c r="F102" s="178"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -12425,8 +12585,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="230"/>
-      <c r="F103" s="172"/>
+      <c r="E103" s="240"/>
+      <c r="F103" s="179"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -12477,11 +12637,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="173"/>
-      <c r="E106" s="230" t="s">
+      <c r="D106" s="180"/>
+      <c r="E106" s="240" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="173" t="s">
+      <c r="F106" s="180" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -12496,9 +12656,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="174"/>
-      <c r="E107" s="230"/>
-      <c r="F107" s="174"/>
+      <c r="D107" s="181"/>
+      <c r="E107" s="240"/>
+      <c r="F107" s="181"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -12511,9 +12671,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="175"/>
-      <c r="E108" s="230"/>
-      <c r="F108" s="175"/>
+      <c r="D108" s="182"/>
+      <c r="E108" s="240"/>
+      <c r="F108" s="182"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -12716,11 +12876,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="173"/>
-      <c r="E119" s="211" t="s">
+      <c r="D119" s="180"/>
+      <c r="E119" s="221" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="170" t="s">
+      <c r="F119" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -12735,9 +12895,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="174"/>
-      <c r="E120" s="212"/>
-      <c r="F120" s="171"/>
+      <c r="D120" s="181"/>
+      <c r="E120" s="222"/>
+      <c r="F120" s="178"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -12750,9 +12910,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="175"/>
-      <c r="E121" s="213"/>
-      <c r="F121" s="172"/>
+      <c r="D121" s="182"/>
+      <c r="E121" s="223"/>
+      <c r="F121" s="179"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -12803,11 +12963,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="173"/>
-      <c r="E124" s="230" t="s">
+      <c r="D124" s="180"/>
+      <c r="E124" s="240" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="170" t="s">
+      <c r="F124" s="177" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -12822,9 +12982,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="174"/>
-      <c r="E125" s="230"/>
-      <c r="F125" s="171"/>
+      <c r="D125" s="181"/>
+      <c r="E125" s="240"/>
+      <c r="F125" s="178"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -12837,9 +12997,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="174"/>
-      <c r="E126" s="230"/>
-      <c r="F126" s="171"/>
+      <c r="D126" s="181"/>
+      <c r="E126" s="240"/>
+      <c r="F126" s="178"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -12852,9 +13012,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="174"/>
-      <c r="E127" s="230"/>
-      <c r="F127" s="171"/>
+      <c r="D127" s="181"/>
+      <c r="E127" s="240"/>
+      <c r="F127" s="178"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -12867,9 +13027,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="175"/>
-      <c r="E128" s="230"/>
-      <c r="F128" s="172"/>
+      <c r="D128" s="182"/>
+      <c r="E128" s="240"/>
+      <c r="F128" s="179"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -13322,11 +13482,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="167" t="s">
+      <c r="D4" s="180"/>
+      <c r="E4" s="174" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="170" t="s">
+      <c r="F4" s="177" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -13341,9 +13501,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="174"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="171"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="175"/>
+      <c r="F5" s="178"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -13356,9 +13516,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="174"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="171"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="178"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -13371,9 +13531,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="174"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="171"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="178"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -13386,9 +13546,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="171"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="178"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -13401,9 +13561,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="174"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="171"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="178"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -13416,9 +13576,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="174"/>
-      <c r="E10" s="168"/>
-      <c r="F10" s="171"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="178"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -13431,9 +13591,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="174"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="171"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="178"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -13446,9 +13606,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="174"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="171"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="178"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -13461,9 +13621,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="174"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="171"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="178"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -13476,9 +13636,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="174"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="171"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="178"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -13491,9 +13651,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="174"/>
-      <c r="E15" s="168"/>
-      <c r="F15" s="171"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -13506,9 +13666,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="174"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="171"/>
+      <c r="D16" s="181"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="178"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -13521,9 +13681,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="171"/>
+      <c r="D17" s="181"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="178"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -13536,9 +13696,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="174"/>
-      <c r="E18" s="168"/>
-      <c r="F18" s="171"/>
+      <c r="D18" s="181"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="178"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -13551,9 +13711,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="174"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="171"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="178"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -13566,9 +13726,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="174"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="171"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="178"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -13581,9 +13741,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="168"/>
-      <c r="F21" s="171"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="178"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -13596,9 +13756,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="172"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -13767,14 +13927,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="173"/>
-      <c r="E31" s="176" t="s">
+      <c r="D31" s="180"/>
+      <c r="E31" s="183" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="178" t="s">
+      <c r="F31" s="185" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="176" t="s">
+      <c r="G31" s="183" t="s">
         <v>851</v>
       </c>
     </row>
@@ -13788,10 +13948,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="177"/>
+      <c r="D32" s="182"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="184"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -13803,14 +13963,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="176" t="s">
+      <c r="D33" s="180"/>
+      <c r="E33" s="183" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="178" t="s">
+      <c r="F33" s="185" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="176" t="s">
+      <c r="G33" s="183" t="s">
         <v>852</v>
       </c>
     </row>
@@ -13824,10 +13984,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="175"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="177"/>
+      <c r="D34" s="182"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="186"/>
+      <c r="G34" s="184"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -13839,14 +13999,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="176" t="s">
+      <c r="D35" s="180"/>
+      <c r="E35" s="183" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="178" t="s">
+      <c r="F35" s="185" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="176" t="s">
+      <c r="G35" s="183" t="s">
         <v>853</v>
       </c>
     </row>
@@ -13860,10 +14020,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="175"/>
-      <c r="E36" s="177"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="177"/>
+      <c r="D36" s="182"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="184"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -13875,14 +14035,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="176" t="s">
+      <c r="D37" s="187"/>
+      <c r="E37" s="183" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="178" t="s">
+      <c r="F37" s="185" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="176" t="s">
+      <c r="G37" s="183" t="s">
         <v>854</v>
       </c>
     </row>
@@ -13896,10 +14056,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="180"/>
-      <c r="E38" s="181"/>
-      <c r="F38" s="182"/>
-      <c r="G38" s="181"/>
+      <c r="D38" s="187"/>
+      <c r="E38" s="188"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="188"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -13911,10 +14071,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="180"/>
-      <c r="E39" s="181"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="181"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="188"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -13926,10 +14086,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="180"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="179"/>
-      <c r="G40" s="177"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="184"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -14273,7 +14433,7 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="B24:E24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -14352,7 +14512,7 @@
       <c r="A5" s="129" t="s">
         <v>732</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="190" t="s">
         <v>1491</v>
       </c>
       <c r="C5" s="131" t="s">
@@ -14361,228 +14521,230 @@
       <c r="D5" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E5" s="131"/>
+      <c r="E5" s="200" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="s">
         <v>734</v>
       </c>
-      <c r="B6" s="184"/>
+      <c r="B6" s="191"/>
       <c r="C6" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E6" s="131"/>
+      <c r="E6" s="201"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="184"/>
+      <c r="B7" s="191"/>
       <c r="C7" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="201"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="129" t="s">
         <v>738</v>
       </c>
-      <c r="B8" s="184"/>
+      <c r="B8" s="191"/>
       <c r="C8" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E8" s="131"/>
+      <c r="E8" s="201"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="s">
         <v>740</v>
       </c>
-      <c r="B9" s="184"/>
+      <c r="B9" s="191"/>
       <c r="C9" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E9" s="131"/>
+      <c r="E9" s="201"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="s">
         <v>742</v>
       </c>
-      <c r="B10" s="184"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E10" s="131"/>
+      <c r="E10" s="201"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="129" t="s">
         <v>744</v>
       </c>
-      <c r="B11" s="184"/>
+      <c r="B11" s="191"/>
       <c r="C11" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E11" s="131"/>
+      <c r="E11" s="201"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
         <v>746</v>
       </c>
-      <c r="B12" s="184"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E12" s="131"/>
+      <c r="E12" s="201"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="129" t="s">
         <v>748</v>
       </c>
-      <c r="B13" s="184"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E13" s="131"/>
+      <c r="E13" s="201"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="184"/>
+      <c r="B14" s="191"/>
       <c r="C14" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E14" s="131"/>
+      <c r="E14" s="201"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
         <v>878</v>
       </c>
-      <c r="B15" s="184"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="201"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="B16" s="184"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E16" s="131"/>
+      <c r="E16" s="201"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="184"/>
+      <c r="B17" s="191"/>
       <c r="C17" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E17" s="131"/>
+      <c r="E17" s="201"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
         <v>757</v>
       </c>
-      <c r="B18" s="184"/>
+      <c r="B18" s="191"/>
       <c r="C18" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E18" s="131"/>
+      <c r="E18" s="201"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="B19" s="184"/>
+      <c r="B19" s="191"/>
       <c r="C19" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="201"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="B20" s="184"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E20" s="131"/>
+      <c r="E20" s="201"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="184"/>
+      <c r="B21" s="191"/>
       <c r="C21" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E21" s="131"/>
+      <c r="E21" s="201"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="B22" s="185"/>
+      <c r="B22" s="192"/>
       <c r="C22" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E22" s="131"/>
+      <c r="E22" s="202"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="129" t="s">
@@ -14617,7 +14779,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="189" t="s">
+      <c r="A25" s="196" t="s">
         <v>884</v>
       </c>
       <c r="B25" s="130" t="s">
@@ -14626,42 +14788,42 @@
       <c r="C25" s="131" t="s">
         <v>889</v>
       </c>
-      <c r="D25" s="189" t="s">
+      <c r="D25" s="196" t="s">
         <v>874</v>
       </c>
       <c r="E25" s="130"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="189"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="130" t="s">
         <v>886</v>
       </c>
       <c r="C26" s="131" t="s">
         <v>890</v>
       </c>
-      <c r="D26" s="189"/>
+      <c r="D26" s="196"/>
       <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="189"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="130" t="s">
         <v>887</v>
       </c>
       <c r="C27" s="131" t="s">
         <v>891</v>
       </c>
-      <c r="D27" s="189"/>
+      <c r="D27" s="196"/>
       <c r="E27" s="130"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="189"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="130" t="s">
         <v>888</v>
       </c>
       <c r="C28" s="131" t="s">
         <v>892</v>
       </c>
-      <c r="D28" s="189"/>
+      <c r="D28" s="196"/>
       <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
@@ -14905,25 +15067,25 @@
       <c r="E65" s="125"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="190"/>
+      <c r="A66" s="197"/>
       <c r="B66" s="141"/>
       <c r="C66" s="126"/>
-      <c r="D66" s="190"/>
-      <c r="E66" s="186"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="193"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="191"/>
+      <c r="A67" s="198"/>
       <c r="B67" s="142"/>
       <c r="C67" s="127"/>
-      <c r="D67" s="191"/>
-      <c r="E67" s="187"/>
+      <c r="D67" s="198"/>
+      <c r="E67" s="194"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A68" s="192"/>
+      <c r="A68" s="199"/>
       <c r="B68" s="137"/>
       <c r="C68" s="128"/>
-      <c r="D68" s="192"/>
-      <c r="E68" s="188"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="195"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1">
       <c r="A69" s="123"/>
@@ -15093,13 +15255,14 @@
       <c r="D92" s="123"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B5:B22"/>
     <mergeCell ref="E66:E68"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="D25:D28"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="D66:D68"/>
+    <mergeCell ref="E5:E22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15477,25 +15640,25 @@
       <c r="E44" s="115"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="193"/>
+      <c r="A45" s="203"/>
       <c r="B45" s="117"/>
       <c r="C45" s="120"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="196"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="206"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="194"/>
+      <c r="A46" s="204"/>
       <c r="B46" s="118"/>
       <c r="C46" s="121"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="197"/>
+      <c r="D46" s="204"/>
+      <c r="E46" s="207"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A47" s="195"/>
+      <c r="A47" s="205"/>
       <c r="B47" s="119"/>
       <c r="C47" s="122"/>
-      <c r="D47" s="195"/>
-      <c r="E47" s="198"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="208"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="113"/>
@@ -16135,7 +16298,7 @@
       <c r="E29" s="131"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="189" t="s">
+      <c r="A30" s="196" t="s">
         <v>203</v>
       </c>
       <c r="B30" s="130" t="s">
@@ -16144,32 +16307,32 @@
       <c r="C30" s="131" t="s">
         <v>986</v>
       </c>
-      <c r="D30" s="189" t="s">
-        <v>874</v>
-      </c>
-      <c r="E30" s="199"/>
+      <c r="D30" s="196" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" s="209"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="189"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="130" t="s">
         <v>984</v>
       </c>
       <c r="C31" s="131" t="s">
         <v>987</v>
       </c>
-      <c r="D31" s="189"/>
-      <c r="E31" s="199"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="209"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="189"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="130" t="s">
         <v>985</v>
       </c>
       <c r="C32" s="131" t="s">
         <v>988</v>
       </c>
-      <c r="D32" s="189"/>
-      <c r="E32" s="199"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="209"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="129" t="s">
@@ -16411,7 +16574,7 @@
       <c r="D48" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E48" s="200" t="s">
+      <c r="E48" s="210" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -16428,7 +16591,7 @@
       <c r="D49" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E49" s="200"/>
+      <c r="E49" s="210"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="138" t="s">
@@ -16443,7 +16606,7 @@
       <c r="D50" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E50" s="200"/>
+      <c r="E50" s="210"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="138" t="s">
@@ -16458,7 +16621,7 @@
       <c r="D51" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E51" s="200"/>
+      <c r="E51" s="210"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="138" t="s">
@@ -16473,7 +16636,7 @@
       <c r="D52" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E52" s="200"/>
+      <c r="E52" s="210"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="138" t="s">
@@ -16488,7 +16651,7 @@
       <c r="D53" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E53" s="200"/>
+      <c r="E53" s="210"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="138" t="s">
@@ -16503,7 +16666,7 @@
       <c r="D54" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E54" s="200"/>
+      <c r="E54" s="210"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="138" t="s">
@@ -16518,7 +16681,7 @@
       <c r="D55" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E55" s="200"/>
+      <c r="E55" s="210"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="138" t="s">
@@ -17749,28 +17912,28 @@
       <c r="E72" s="131"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="189" t="s">
+      <c r="A73" s="196" t="s">
         <v>347</v>
       </c>
       <c r="B73" s="112" t="s">
         <v>1226</v>
       </c>
-      <c r="C73" s="199" t="s">
+      <c r="C73" s="209" t="s">
         <v>1228</v>
       </c>
-      <c r="D73" s="189" t="s">
-        <v>874</v>
-      </c>
-      <c r="E73" s="199"/>
+      <c r="D73" s="196" t="s">
+        <v>874</v>
+      </c>
+      <c r="E73" s="209"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="189"/>
+      <c r="A74" s="196"/>
       <c r="B74" s="112" t="s">
         <v>1227</v>
       </c>
-      <c r="C74" s="199"/>
-      <c r="D74" s="189"/>
-      <c r="E74" s="199"/>
+      <c r="C74" s="209"/>
+      <c r="D74" s="196"/>
+      <c r="E74" s="209"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="129" t="s">
@@ -18824,7 +18987,7 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -18893,7 +19056,7 @@
         <v>804</v>
       </c>
       <c r="C4" s="131" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="D4" s="129" t="s">
         <v>874</v>
@@ -18908,7 +19071,7 @@
         <v>806</v>
       </c>
       <c r="C5" s="131" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="D5" s="129" t="s">
         <v>874</v>
@@ -18925,7 +19088,7 @@
         <v>808</v>
       </c>
       <c r="C6" s="131" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
@@ -18940,7 +19103,7 @@
         <v>810</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
@@ -18957,7 +19120,7 @@
         <v>1362</v>
       </c>
       <c r="C8" s="131" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
@@ -18972,7 +19135,7 @@
         <v>814</v>
       </c>
       <c r="C9" s="131" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
@@ -18989,7 +19152,7 @@
         <v>816</v>
       </c>
       <c r="C10" s="131" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
@@ -19001,10 +19164,10 @@
         <v>817</v>
       </c>
       <c r="B11" s="130" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C11" s="131" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
@@ -19015,13 +19178,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="B12" s="130" t="s">
         <v>821</v>
       </c>
       <c r="C12" s="131" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
@@ -19038,7 +19201,7 @@
         <v>1364</v>
       </c>
       <c r="C13" s="131" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -12,20 +12,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="0223" sheetId="17" r:id="rId1"/>
-    <sheet name="0216" sheetId="16" r:id="rId2"/>
-    <sheet name="0202" sheetId="8" r:id="rId3"/>
-    <sheet name="UHKA" sheetId="9" r:id="rId4"/>
-    <sheet name="UHKB" sheetId="10" r:id="rId5"/>
-    <sheet name="UHKC" sheetId="11" r:id="rId6"/>
-    <sheet name="UHKD" sheetId="12" r:id="rId7"/>
-    <sheet name="UHKE" sheetId="13" r:id="rId8"/>
-    <sheet name="UHKF" sheetId="14" r:id="rId9"/>
-    <sheet name="UHKP" sheetId="15" r:id="rId10"/>
-    <sheet name="0125" sheetId="6" r:id="rId11"/>
-    <sheet name="0119" sheetId="2" r:id="rId12"/>
-    <sheet name="0109" sheetId="1" r:id="rId13"/>
-    <sheet name="202312" sheetId="4" r:id="rId14"/>
+    <sheet name="0308" sheetId="19" r:id="rId1"/>
+    <sheet name="0223" sheetId="17" r:id="rId2"/>
+    <sheet name="0216" sheetId="16" r:id="rId3"/>
+    <sheet name="0202" sheetId="8" r:id="rId4"/>
+    <sheet name="UHKA" sheetId="9" r:id="rId5"/>
+    <sheet name="UHKB" sheetId="10" r:id="rId6"/>
+    <sheet name="UHKC" sheetId="11" r:id="rId7"/>
+    <sheet name="UHKD" sheetId="12" r:id="rId8"/>
+    <sheet name="UHKE" sheetId="13" r:id="rId9"/>
+    <sheet name="UHKF" sheetId="14" r:id="rId10"/>
+    <sheet name="UHKP" sheetId="15" r:id="rId11"/>
+    <sheet name="0125" sheetId="6" r:id="rId12"/>
+    <sheet name="0119" sheetId="2" r:id="rId13"/>
+    <sheet name="0109" sheetId="1" r:id="rId14"/>
+    <sheet name="202312" sheetId="4" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="1566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="1581">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6159,6 +6160,67 @@
       </rPr>
       <t>.</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나의 식생활 습관 알아보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD2001M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합재무설계_약관동의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약관동의 페이지가 전체공통으로 인식해서 UHKD2101M0_종합재무설계_step1.html파일에만
+안내문구를 삽입했던 부분을 수정요구사항대로 수정완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD</t>
+  </si>
+  <si>
+    <t>수정요청온 스크롤 부분에 대해 전에 보내드린 파일과 현재 파일 모두 정상작동중.
+JS파일 비교 해서 적용해 주세요. this.modalScrollBarCustom(); 적용여부 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC0601M0_노후준비종합진단_step3.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5801M0_노후를위한국민연금준비정도알아보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html 파일내에 클래스와 스타일 추가.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후를위한국민연금준비정도알아보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6735,7 +6797,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7237,6 +7299,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7245,18 +7322,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -7749,10 +7814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7790,27 +7855,13 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="105" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>1526</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>1525</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>1553</v>
-      </c>
-      <c r="G2" s="112" t="s">
-        <v>1521</v>
-      </c>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="105"/>
@@ -7862,275 +7913,94 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="115.5">
+    <row r="7" spans="1:7" ht="33">
       <c r="A7" s="105" t="s">
-        <v>1508</v>
+        <v>1566</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>1504</v>
+        <v>932</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>1506</v>
+        <v>1567</v>
       </c>
       <c r="D7" s="110" t="s">
-        <v>1505</v>
+        <v>1568</v>
       </c>
       <c r="E7" s="111" t="s">
-        <v>1517</v>
+        <v>1575</v>
       </c>
       <c r="F7" s="105" t="s">
-        <v>1507</v>
+        <v>1578</v>
       </c>
       <c r="G7" s="166" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="33">
       <c r="A8" s="105" t="s">
-        <v>1509</v>
+        <v>1566</v>
       </c>
       <c r="B8" s="106" t="s">
-        <v>1520</v>
+        <v>1569</v>
       </c>
       <c r="C8" s="107" t="s">
-        <v>1510</v>
+        <v>1570</v>
       </c>
       <c r="D8" s="110" t="s">
-        <v>1505</v>
+        <v>1573</v>
       </c>
       <c r="E8" s="108" t="s">
-        <v>1519</v>
+        <v>453</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>530</v>
-      </c>
-      <c r="G8" s="107" t="s">
-        <v>1516</v>
+        <v>1571</v>
+      </c>
+      <c r="G8" s="167" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="105" t="s">
-        <v>1509</v>
+        <v>567</v>
       </c>
       <c r="B9" s="109" t="s">
-        <v>1513</v>
+        <v>359</v>
       </c>
       <c r="C9" s="107" t="s">
-        <v>1514</v>
-      </c>
-      <c r="D9" s="105" t="s">
-        <v>1511</v>
+        <v>1580</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>1573</v>
       </c>
       <c r="E9" s="108" t="s">
-        <v>1512</v>
+        <v>1576</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G9" s="107"/>
+        <v>1577</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>1579</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>1529</v>
-      </c>
-      <c r="C10" s="167" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D10" s="172" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E10" s="167" t="s">
-        <v>1528</v>
-      </c>
-      <c r="F10" s="172" t="s">
-        <v>530</v>
-      </c>
-      <c r="G10" s="167" t="s">
-        <v>1552</v>
-      </c>
+      <c r="A10" s="110"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="112"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B11" s="109" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="173"/>
-      <c r="G11" s="169"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>1533</v>
-      </c>
-      <c r="C12" s="167" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D12" s="172" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E12" s="170" t="s">
-        <v>1532</v>
-      </c>
-      <c r="F12" s="172" t="s">
-        <v>530</v>
-      </c>
-      <c r="G12" s="169"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="169"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>1537</v>
-      </c>
-      <c r="C14" s="167" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D14" s="172" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E14" s="170" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F14" s="172" t="s">
-        <v>530</v>
-      </c>
-      <c r="G14" s="169"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C15" s="168"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="173"/>
-      <c r="G15" s="169"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B16" s="110" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C16" s="167" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D16" s="172" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E16" s="170" t="s">
-        <v>1539</v>
-      </c>
-      <c r="F16" s="172" t="s">
-        <v>530</v>
-      </c>
-      <c r="G16" s="169"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B17" s="110" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="173"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="168"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="110" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B18" s="110" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E18" s="111" t="s">
-        <v>1549</v>
-      </c>
-      <c r="F18" s="105" t="s">
-        <v>530</v>
-      </c>
-      <c r="G18" s="112"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="105" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B19" s="110" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C19" s="107" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E19" s="111" t="s">
-        <v>1544</v>
-      </c>
-      <c r="F19" s="105" t="s">
-        <v>530</v>
-      </c>
-      <c r="G19" s="112" t="s">
-        <v>1547</v>
-      </c>
+      <c r="A11" s="105"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G10:G17"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8138,6 +8008,503 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF002060"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="17.875" style="124" customWidth="1"/>
+    <col min="2" max="2" width="62.5" style="124" customWidth="1"/>
+    <col min="3" max="3" width="84.125" style="124" customWidth="1"/>
+    <col min="4" max="4" width="11" style="124" customWidth="1"/>
+    <col min="5" max="5" width="75.375" style="124" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="124"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="143" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>870</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E1" s="143" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="129" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="131" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D2" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E2" s="131"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="129" t="s">
+        <v>536</v>
+      </c>
+      <c r="B3" s="112" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="131" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D3" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E3" s="131"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="129" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>539</v>
+      </c>
+      <c r="C4" s="131" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E4" s="131"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="129" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="112" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C5" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E5" s="131"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="129" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C6" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D6" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E6" s="131"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="129" t="s">
+        <v>548</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C7" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D7" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E7" s="131"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="129" t="s">
+        <v>550</v>
+      </c>
+      <c r="B8" s="112" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C8" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D8" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E8" s="131"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="129" t="s">
+        <v>552</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C9" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D9" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E9" s="131"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="129" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C10" s="131" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D10" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E10" s="131"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="129" t="s">
+        <v>556</v>
+      </c>
+      <c r="B11" s="112" t="s">
+        <v>557</v>
+      </c>
+      <c r="C11" s="131" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D11" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E11" s="131"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C12" s="131" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D12" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E12" s="131"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="129" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C13" s="131" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D13" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E13" s="131"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="129" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D14" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E14" s="131"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="129" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C15" s="131" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D15" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E15" s="131"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="129" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B16" s="112" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C16" s="131" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D16" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E16" s="131"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="153" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B17" s="156" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C17" s="154" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D17" s="153" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E17" s="154" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="129" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E18" s="131"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="129" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C19" s="131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E19" s="131"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="129" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B20" s="112" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C20" s="131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E20" s="131"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="129" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C21" s="131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D21" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E21" s="131"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="129" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B22" s="112" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C22" s="131" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D22" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E22" s="131"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="129" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B23" s="112" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C23" s="131" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D23" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E23" s="131"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="129" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B24" s="112" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C24" s="131" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D24" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E24" s="131"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="129" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B25" s="112" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C25" s="131" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D25" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E25" s="131"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="129" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C26" s="131" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D26" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E26" s="131"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="129" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B27" s="112" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C27" s="131" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D27" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E27" s="131"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="129" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B28" s="112" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C28" s="131" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D28" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E28" s="131"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="129" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B29" s="112" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C29" s="131" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D29" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E29" s="131"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="129" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B30" s="112" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C30" s="131" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D30" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" s="131"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="129" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B31" s="112" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C31" s="131" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D31" s="129" t="s">
+        <v>874</v>
+      </c>
+      <c r="E31" s="130"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -8191,37 +8558,37 @@
       <c r="E2" s="131"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="197" t="s">
         <v>77</v>
       </c>
       <c r="B3" s="130" t="s">
         <v>1445</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="210" t="s">
         <v>1448</v>
       </c>
-      <c r="D3" s="196" t="s">
-        <v>874</v>
-      </c>
-      <c r="E3" s="209"/>
+      <c r="D3" s="197" t="s">
+        <v>874</v>
+      </c>
+      <c r="E3" s="210"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="196"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="131" t="s">
         <v>1446</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="196"/>
-      <c r="E4" s="209"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="210"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="196"/>
+      <c r="A5" s="197"/>
       <c r="B5" s="131" t="s">
         <v>1447</v>
       </c>
-      <c r="C5" s="209"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="209"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="197"/>
+      <c r="E5" s="210"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="129" t="s">
@@ -8536,7 +8903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
@@ -8647,14 +9014,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="211"/>
-      <c r="E5" s="221" t="s">
+      <c r="D5" s="212"/>
+      <c r="E5" s="222" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="220" t="s">
+      <c r="F5" s="221" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="174"/>
+      <c r="G5" s="175"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -8666,10 +9033,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="212"/>
-      <c r="E6" s="222"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="175"/>
+      <c r="D6" s="213"/>
+      <c r="E6" s="223"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -8681,10 +9048,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="212"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="175"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="223"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -8696,10 +9063,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="212"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="175"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="176"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -8711,10 +9078,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="212"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="175"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="223"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="176"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -8726,10 +9093,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="213"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="176"/>
+      <c r="D10" s="214"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="177"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -8874,14 +9241,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="221" t="s">
+      <c r="D18" s="212"/>
+      <c r="E18" s="222" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="177" t="s">
+      <c r="F18" s="178" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="174"/>
+      <c r="G18" s="175"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -8893,10 +9260,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="212"/>
-      <c r="E19" s="222"/>
-      <c r="F19" s="178"/>
-      <c r="G19" s="175"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="176"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -8908,10 +9275,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="212"/>
-      <c r="E20" s="222"/>
-      <c r="F20" s="178"/>
-      <c r="G20" s="175"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="176"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -8923,10 +9290,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="213"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="179"/>
-      <c r="G21" s="176"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="180"/>
+      <c r="G21" s="177"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -9155,14 +9522,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="214"/>
-      <c r="E33" s="217" t="s">
+      <c r="D33" s="215"/>
+      <c r="E33" s="218" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="224" t="s">
+      <c r="F33" s="225" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="217" t="s">
+      <c r="G33" s="218" t="s">
         <v>639</v>
       </c>
     </row>
@@ -9176,10 +9543,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="215"/>
-      <c r="E34" s="218"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="218"/>
+      <c r="D34" s="216"/>
+      <c r="E34" s="219"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="219"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -9191,10 +9558,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="215"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="218"/>
+      <c r="D35" s="216"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="219"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -9206,10 +9573,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="215"/>
-      <c r="E36" s="218"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="218"/>
+      <c r="D36" s="216"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="219"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -9221,10 +9588,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="218"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="218"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="219"/>
+      <c r="F37" s="226"/>
+      <c r="G37" s="219"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -9236,10 +9603,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="215"/>
-      <c r="E38" s="218"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="218"/>
+      <c r="D38" s="216"/>
+      <c r="E38" s="219"/>
+      <c r="F38" s="226"/>
+      <c r="G38" s="219"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -9251,10 +9618,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="216"/>
-      <c r="E39" s="219"/>
-      <c r="F39" s="226"/>
-      <c r="G39" s="219"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="227"/>
+      <c r="G39" s="220"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -9478,7 +9845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
@@ -9608,14 +9975,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="211"/>
-      <c r="E6" s="232" t="s">
+      <c r="D6" s="212"/>
+      <c r="E6" s="233" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="220" t="s">
+      <c r="F6" s="221" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="177"/>
+      <c r="G6" s="178"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -9627,10 +9994,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="212"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="178"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="233"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="179"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -9642,10 +10009,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="212"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="220"/>
-      <c r="G8" s="178"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="179"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -9657,10 +10024,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="213"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="179"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="180"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -9729,14 +10096,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="233" t="s">
+      <c r="D13" s="212"/>
+      <c r="E13" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="220" t="s">
+      <c r="F13" s="221" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="177"/>
+      <c r="G13" s="178"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -9748,10 +10115,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="213"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="220"/>
-      <c r="G14" s="179"/>
+      <c r="D14" s="214"/>
+      <c r="E14" s="234"/>
+      <c r="F14" s="221"/>
+      <c r="G14" s="180"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -9763,14 +10130,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="211"/>
-      <c r="E15" s="232" t="s">
+      <c r="D15" s="212"/>
+      <c r="E15" s="233" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="220" t="s">
+      <c r="F15" s="221" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="177"/>
+      <c r="G15" s="178"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -9782,10 +10149,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="212"/>
-      <c r="E16" s="232"/>
-      <c r="F16" s="220"/>
-      <c r="G16" s="178"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="233"/>
+      <c r="F16" s="221"/>
+      <c r="G16" s="179"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -9797,10 +10164,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="212"/>
-      <c r="E17" s="232"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="178"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="233"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="179"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -9812,10 +10179,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="232"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="178"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="179"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -9827,10 +10194,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="212"/>
-      <c r="E19" s="232"/>
-      <c r="F19" s="220"/>
-      <c r="G19" s="178"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="233"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="179"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -9842,10 +10209,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="212"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="220"/>
-      <c r="G20" s="178"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="233"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="179"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -9857,10 +10224,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="212"/>
-      <c r="E21" s="232"/>
-      <c r="F21" s="220"/>
-      <c r="G21" s="178"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="233"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="179"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -9872,10 +10239,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="212"/>
-      <c r="E22" s="232"/>
-      <c r="F22" s="220"/>
-      <c r="G22" s="178"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="233"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="179"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -9887,10 +10254,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="212"/>
-      <c r="E23" s="232"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="178"/>
+      <c r="D23" s="213"/>
+      <c r="E23" s="233"/>
+      <c r="F23" s="221"/>
+      <c r="G23" s="179"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -9902,10 +10269,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="212"/>
-      <c r="E24" s="232"/>
-      <c r="F24" s="220"/>
-      <c r="G24" s="178"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="233"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="179"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -9917,10 +10284,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="212"/>
-      <c r="E25" s="232"/>
-      <c r="F25" s="220"/>
-      <c r="G25" s="178"/>
+      <c r="D25" s="213"/>
+      <c r="E25" s="233"/>
+      <c r="F25" s="221"/>
+      <c r="G25" s="179"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -9932,10 +10299,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="212"/>
-      <c r="E26" s="232"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="178"/>
+      <c r="D26" s="213"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="179"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -9947,10 +10314,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="212"/>
-      <c r="E27" s="232"/>
-      <c r="F27" s="220"/>
-      <c r="G27" s="178"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="221"/>
+      <c r="G27" s="179"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -9962,10 +10329,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="212"/>
-      <c r="E28" s="232"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="178"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="233"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="179"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -9977,10 +10344,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="212"/>
-      <c r="E29" s="232"/>
-      <c r="F29" s="220"/>
-      <c r="G29" s="178"/>
+      <c r="D29" s="213"/>
+      <c r="E29" s="233"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="179"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -9992,10 +10359,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="212"/>
-      <c r="E30" s="232"/>
-      <c r="F30" s="220"/>
-      <c r="G30" s="178"/>
+      <c r="D30" s="213"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="179"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -10007,10 +10374,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="213"/>
-      <c r="E31" s="232"/>
-      <c r="F31" s="220"/>
-      <c r="G31" s="179"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="180"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -10100,14 +10467,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="214"/>
-      <c r="E36" s="230" t="s">
+      <c r="D36" s="215"/>
+      <c r="E36" s="231" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="231" t="s">
+      <c r="F36" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="217"/>
+      <c r="G36" s="218"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -10119,10 +10486,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="215"/>
-      <c r="E37" s="230"/>
-      <c r="F37" s="231"/>
-      <c r="G37" s="218"/>
+      <c r="D37" s="216"/>
+      <c r="E37" s="231"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="219"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -10134,10 +10501,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="216"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="231"/>
-      <c r="G38" s="219"/>
+      <c r="D38" s="217"/>
+      <c r="E38" s="231"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="220"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -10417,14 +10784,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="227"/>
-      <c r="E53" s="230" t="s">
+      <c r="D53" s="228"/>
+      <c r="E53" s="231" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="231" t="s">
+      <c r="F53" s="232" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="217"/>
+      <c r="G53" s="218"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -10436,10 +10803,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="228"/>
-      <c r="E54" s="230"/>
-      <c r="F54" s="231"/>
-      <c r="G54" s="218"/>
+      <c r="D54" s="229"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="219"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -10451,10 +10818,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="229"/>
-      <c r="E55" s="230"/>
-      <c r="F55" s="231"/>
-      <c r="G55" s="219"/>
+      <c r="D55" s="230"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="220"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -10632,7 +10999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
@@ -10693,7 +11060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
@@ -10757,16 +11124,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="235" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="234" t="s">
+      <c r="B3" s="235" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="237" t="s">
+      <c r="C3" s="238" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="237" t="s">
+      <c r="D3" s="238" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -10778,10 +11145,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="235"/>
-      <c r="B4" s="235"/>
-      <c r="C4" s="238"/>
-      <c r="D4" s="238"/>
+      <c r="A4" s="236"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="239"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -10791,10 +11158,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="235"/>
-      <c r="B5" s="235"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
+      <c r="A5" s="236"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -10804,10 +11171,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="236"/>
-      <c r="B6" s="236"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="239"/>
+      <c r="A6" s="237"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="240"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -10867,10 +11234,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="221" t="s">
+      <c r="E9" s="222" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="177" t="s">
+      <c r="F9" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -10886,8 +11253,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="223"/>
-      <c r="F10" s="179"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="180"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -10920,10 +11287,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="221" t="s">
+      <c r="E12" s="222" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="177" t="s">
+      <c r="F12" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -10939,8 +11306,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="178"/>
+      <c r="E13" s="223"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -10954,8 +11321,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="179"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="180"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -10988,10 +11355,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="221" t="s">
+      <c r="E16" s="222" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="177" t="s">
+      <c r="F16" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -11007,8 +11374,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="178"/>
+      <c r="E17" s="223"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -11022,8 +11389,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="223"/>
-      <c r="F18" s="179"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="180"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -11056,10 +11423,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="221" t="s">
+      <c r="E20" s="222" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="177" t="s">
+      <c r="F20" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -11075,8 +11442,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="179"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="180"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -12182,11 +12549,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="241"/>
-      <c r="E79" s="221" t="s">
+      <c r="D79" s="242"/>
+      <c r="E79" s="222" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="177" t="s">
+      <c r="F79" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -12199,9 +12566,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="242"/>
-      <c r="E80" s="222"/>
-      <c r="F80" s="178"/>
+      <c r="D80" s="243"/>
+      <c r="E80" s="223"/>
+      <c r="F80" s="179"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -12214,9 +12581,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="242"/>
-      <c r="E81" s="222"/>
-      <c r="F81" s="178"/>
+      <c r="D81" s="243"/>
+      <c r="E81" s="223"/>
+      <c r="F81" s="179"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -12229,9 +12596,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="242"/>
-      <c r="E82" s="222"/>
-      <c r="F82" s="178"/>
+      <c r="D82" s="243"/>
+      <c r="E82" s="223"/>
+      <c r="F82" s="179"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -12244,9 +12611,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="242"/>
-      <c r="E83" s="222"/>
-      <c r="F83" s="178"/>
+      <c r="D83" s="243"/>
+      <c r="E83" s="223"/>
+      <c r="F83" s="179"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -12259,9 +12626,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="242"/>
-      <c r="E84" s="222"/>
-      <c r="F84" s="178"/>
+      <c r="D84" s="243"/>
+      <c r="E84" s="223"/>
+      <c r="F84" s="179"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -12274,9 +12641,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="242"/>
-      <c r="E85" s="222"/>
-      <c r="F85" s="178"/>
+      <c r="D85" s="243"/>
+      <c r="E85" s="223"/>
+      <c r="F85" s="179"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -12289,9 +12656,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="242"/>
-      <c r="E86" s="222"/>
-      <c r="F86" s="178"/>
+      <c r="D86" s="243"/>
+      <c r="E86" s="223"/>
+      <c r="F86" s="179"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -12304,9 +12671,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="243"/>
-      <c r="E87" s="223"/>
-      <c r="F87" s="179"/>
+      <c r="D87" s="244"/>
+      <c r="E87" s="224"/>
+      <c r="F87" s="180"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -12491,10 +12858,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="240" t="s">
+      <c r="E97" s="241" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="177" t="s">
+      <c r="F97" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -12510,8 +12877,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="240"/>
-      <c r="F98" s="178"/>
+      <c r="E98" s="241"/>
+      <c r="F98" s="179"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -12525,8 +12892,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="240"/>
-      <c r="F99" s="178"/>
+      <c r="E99" s="241"/>
+      <c r="F99" s="179"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -12540,8 +12907,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="240"/>
-      <c r="F100" s="178"/>
+      <c r="E100" s="241"/>
+      <c r="F100" s="179"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -12555,8 +12922,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="240"/>
-      <c r="F101" s="178"/>
+      <c r="E101" s="241"/>
+      <c r="F101" s="179"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -12570,8 +12937,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="240"/>
-      <c r="F102" s="178"/>
+      <c r="E102" s="241"/>
+      <c r="F102" s="179"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -12585,8 +12952,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="240"/>
-      <c r="F103" s="179"/>
+      <c r="E103" s="241"/>
+      <c r="F103" s="180"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -12637,11 +13004,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="180"/>
-      <c r="E106" s="240" t="s">
+      <c r="D106" s="181"/>
+      <c r="E106" s="241" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="180" t="s">
+      <c r="F106" s="181" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -12656,9 +13023,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="181"/>
-      <c r="E107" s="240"/>
-      <c r="F107" s="181"/>
+      <c r="D107" s="182"/>
+      <c r="E107" s="241"/>
+      <c r="F107" s="182"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -12671,9 +13038,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="182"/>
-      <c r="E108" s="240"/>
-      <c r="F108" s="182"/>
+      <c r="D108" s="183"/>
+      <c r="E108" s="241"/>
+      <c r="F108" s="183"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -12876,11 +13243,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="180"/>
-      <c r="E119" s="221" t="s">
+      <c r="D119" s="181"/>
+      <c r="E119" s="222" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="177" t="s">
+      <c r="F119" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -12895,9 +13262,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="181"/>
-      <c r="E120" s="222"/>
-      <c r="F120" s="178"/>
+      <c r="D120" s="182"/>
+      <c r="E120" s="223"/>
+      <c r="F120" s="179"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -12910,9 +13277,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="182"/>
-      <c r="E121" s="223"/>
-      <c r="F121" s="179"/>
+      <c r="D121" s="183"/>
+      <c r="E121" s="224"/>
+      <c r="F121" s="180"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -12963,11 +13330,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="180"/>
-      <c r="E124" s="240" t="s">
+      <c r="D124" s="181"/>
+      <c r="E124" s="241" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="177" t="s">
+      <c r="F124" s="178" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -12982,9 +13349,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="181"/>
-      <c r="E125" s="240"/>
-      <c r="F125" s="178"/>
+      <c r="D125" s="182"/>
+      <c r="E125" s="241"/>
+      <c r="F125" s="179"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -12997,9 +13364,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="181"/>
-      <c r="E126" s="240"/>
-      <c r="F126" s="178"/>
+      <c r="D126" s="182"/>
+      <c r="E126" s="241"/>
+      <c r="F126" s="179"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -13012,9 +13379,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="181"/>
-      <c r="E127" s="240"/>
-      <c r="F127" s="178"/>
+      <c r="D127" s="182"/>
+      <c r="E127" s="241"/>
+      <c r="F127" s="179"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -13027,9 +13394,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="182"/>
-      <c r="E128" s="240"/>
-      <c r="F128" s="179"/>
+      <c r="D128" s="183"/>
+      <c r="E128" s="241"/>
+      <c r="F128" s="180"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -13313,6 +13680,396 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="110.75" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="79.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="105" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B2" s="105" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>1526</v>
+      </c>
+      <c r="D2" s="110" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F2" s="110" t="s">
+        <v>1553</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="112"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="112"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="115.5">
+      <c r="A7" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>1506</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="105" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C8" s="107" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E8" s="108" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>530</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="105" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B9" s="109" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C9" s="107" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D9" s="105" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E9" s="108" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G9" s="107"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C10" s="172" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D10" s="170" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E10" s="172" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F10" s="170" t="s">
+        <v>530</v>
+      </c>
+      <c r="G10" s="172" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C11" s="173"/>
+      <c r="D11" s="171"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="174"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C12" s="172" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D12" s="170" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E12" s="168" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F12" s="170" t="s">
+        <v>530</v>
+      </c>
+      <c r="G12" s="174"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C13" s="173"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="174"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C14" s="172" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D14" s="170" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E14" s="168" t="s">
+        <v>1536</v>
+      </c>
+      <c r="F14" s="170" t="s">
+        <v>530</v>
+      </c>
+      <c r="G14" s="174"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C15" s="173"/>
+      <c r="D15" s="171"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="174"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C16" s="172" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D16" s="170" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E16" s="168" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F16" s="170" t="s">
+        <v>530</v>
+      </c>
+      <c r="G16" s="174"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B17" s="110" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C17" s="173"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="173"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="110" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D18" s="105" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E18" s="111" t="s">
+        <v>1549</v>
+      </c>
+      <c r="F18" s="105" t="s">
+        <v>530</v>
+      </c>
+      <c r="G18" s="112"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="105" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C19" s="107" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D19" s="105" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E19" s="111" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>530</v>
+      </c>
+      <c r="G19" s="112" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G10:G17"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D14:D15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13390,7 +14147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
@@ -13482,11 +14239,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="180"/>
-      <c r="E4" s="174" t="s">
+      <c r="D4" s="181"/>
+      <c r="E4" s="175" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="F4" s="178" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -13501,9 +14258,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="181"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="178"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -13516,9 +14273,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="181"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="178"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -13531,9 +14288,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="181"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="178"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="179"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -13546,9 +14303,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="178"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="179"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -13561,9 +14318,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="181"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="178"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="179"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -13576,9 +14333,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="181"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="178"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -13591,9 +14348,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="181"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="178"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -13606,9 +14363,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="181"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="178"/>
+      <c r="D12" s="182"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -13621,9 +14378,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="181"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="178"/>
+      <c r="D13" s="182"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -13636,9 +14393,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="178"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -13651,9 +14408,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="181"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="178"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -13666,9 +14423,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="181"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="178"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="179"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -13681,9 +14438,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="178"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -13696,9 +14453,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="178"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -13711,9 +14468,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="178"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="179"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -13726,9 +14483,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="178"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="179"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -13741,9 +14498,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="178"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="176"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -13756,9 +14513,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="182"/>
-      <c r="E22" s="176"/>
-      <c r="F22" s="179"/>
+      <c r="D22" s="183"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="180"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -13927,14 +14684,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="183" t="s">
+      <c r="D31" s="181"/>
+      <c r="E31" s="184" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="185" t="s">
+      <c r="F31" s="186" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="183" t="s">
+      <c r="G31" s="184" t="s">
         <v>851</v>
       </c>
     </row>
@@ -13948,10 +14705,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="182"/>
-      <c r="E32" s="184"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="184"/>
+      <c r="D32" s="183"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="187"/>
+      <c r="G32" s="185"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -13963,14 +14720,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="180"/>
-      <c r="E33" s="183" t="s">
+      <c r="D33" s="181"/>
+      <c r="E33" s="184" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="185" t="s">
+      <c r="F33" s="186" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="183" t="s">
+      <c r="G33" s="184" t="s">
         <v>852</v>
       </c>
     </row>
@@ -13984,10 +14741,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="182"/>
-      <c r="E34" s="184"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="184"/>
+      <c r="D34" s="183"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="187"/>
+      <c r="G34" s="185"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -13999,14 +14756,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="183" t="s">
+      <c r="D35" s="181"/>
+      <c r="E35" s="184" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="185" t="s">
+      <c r="F35" s="186" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="183" t="s">
+      <c r="G35" s="184" t="s">
         <v>853</v>
       </c>
     </row>
@@ -14020,10 +14777,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="184"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="184"/>
+      <c r="D36" s="183"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="187"/>
+      <c r="G36" s="185"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -14035,14 +14792,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="183" t="s">
+      <c r="D37" s="188"/>
+      <c r="E37" s="184" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="185" t="s">
+      <c r="F37" s="186" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="183" t="s">
+      <c r="G37" s="184" t="s">
         <v>854</v>
       </c>
     </row>
@@ -14056,10 +14813,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="188"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="188"/>
+      <c r="D38" s="188"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="189"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -14071,10 +14828,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="187"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="190"/>
+      <c r="G39" s="189"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -14086,10 +14843,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="187"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="184"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="185"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -14425,7 +15182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
@@ -14512,7 +15269,7 @@
       <c r="A5" s="129" t="s">
         <v>732</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="191" t="s">
         <v>1491</v>
       </c>
       <c r="C5" s="131" t="s">
@@ -14521,7 +15278,7 @@
       <c r="D5" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E5" s="200" t="s">
+      <c r="E5" s="201" t="s">
         <v>1565</v>
       </c>
     </row>
@@ -14529,222 +15286,222 @@
       <c r="A6" s="129" t="s">
         <v>734</v>
       </c>
-      <c r="B6" s="191"/>
+      <c r="B6" s="192"/>
       <c r="C6" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D6" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E6" s="201"/>
+      <c r="E6" s="202"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="129" t="s">
         <v>736</v>
       </c>
-      <c r="B7" s="191"/>
+      <c r="B7" s="192"/>
       <c r="C7" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D7" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E7" s="201"/>
+      <c r="E7" s="202"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="129" t="s">
         <v>738</v>
       </c>
-      <c r="B8" s="191"/>
+      <c r="B8" s="192"/>
       <c r="C8" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D8" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E8" s="201"/>
+      <c r="E8" s="202"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="129" t="s">
         <v>740</v>
       </c>
-      <c r="B9" s="191"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D9" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E9" s="201"/>
+      <c r="E9" s="202"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="129" t="s">
         <v>742</v>
       </c>
-      <c r="B10" s="191"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D10" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E10" s="201"/>
+      <c r="E10" s="202"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="129" t="s">
         <v>744</v>
       </c>
-      <c r="B11" s="191"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D11" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E11" s="201"/>
+      <c r="E11" s="202"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="129" t="s">
         <v>746</v>
       </c>
-      <c r="B12" s="191"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D12" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E12" s="201"/>
+      <c r="E12" s="202"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="129" t="s">
         <v>748</v>
       </c>
-      <c r="B13" s="191"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D13" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E13" s="201"/>
+      <c r="E13" s="202"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="129" t="s">
         <v>750</v>
       </c>
-      <c r="B14" s="191"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D14" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E14" s="201"/>
+      <c r="E14" s="202"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="129" t="s">
         <v>878</v>
       </c>
-      <c r="B15" s="191"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D15" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E15" s="201"/>
+      <c r="E15" s="202"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="129" t="s">
         <v>754</v>
       </c>
-      <c r="B16" s="191"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D16" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E16" s="201"/>
+      <c r="E16" s="202"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="129" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="191"/>
+      <c r="B17" s="192"/>
       <c r="C17" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D17" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E17" s="201"/>
+      <c r="E17" s="202"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="129" t="s">
         <v>757</v>
       </c>
-      <c r="B18" s="191"/>
+      <c r="B18" s="192"/>
       <c r="C18" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D18" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E18" s="201"/>
+      <c r="E18" s="202"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="129" t="s">
         <v>759</v>
       </c>
-      <c r="B19" s="191"/>
+      <c r="B19" s="192"/>
       <c r="C19" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D19" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E19" s="201"/>
+      <c r="E19" s="202"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="129" t="s">
         <v>761</v>
       </c>
-      <c r="B20" s="191"/>
+      <c r="B20" s="192"/>
       <c r="C20" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D20" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E20" s="201"/>
+      <c r="E20" s="202"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="129" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="191"/>
+      <c r="B21" s="192"/>
       <c r="C21" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D21" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E21" s="201"/>
+      <c r="E21" s="202"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="129" t="s">
         <v>765</v>
       </c>
-      <c r="B22" s="192"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="131" t="s">
         <v>877</v>
       </c>
       <c r="D22" s="129" t="s">
         <v>874</v>
       </c>
-      <c r="E22" s="202"/>
+      <c r="E22" s="203"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="129" t="s">
@@ -14779,7 +15536,7 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="196" t="s">
+      <c r="A25" s="197" t="s">
         <v>884</v>
       </c>
       <c r="B25" s="130" t="s">
@@ -14788,42 +15545,42 @@
       <c r="C25" s="131" t="s">
         <v>889</v>
       </c>
-      <c r="D25" s="196" t="s">
+      <c r="D25" s="197" t="s">
         <v>874</v>
       </c>
       <c r="E25" s="130"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="196"/>
+      <c r="A26" s="197"/>
       <c r="B26" s="130" t="s">
         <v>886</v>
       </c>
       <c r="C26" s="131" t="s">
         <v>890</v>
       </c>
-      <c r="D26" s="196"/>
+      <c r="D26" s="197"/>
       <c r="E26" s="130"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="196"/>
+      <c r="A27" s="197"/>
       <c r="B27" s="130" t="s">
         <v>887</v>
       </c>
       <c r="C27" s="131" t="s">
         <v>891</v>
       </c>
-      <c r="D27" s="196"/>
+      <c r="D27" s="197"/>
       <c r="E27" s="130"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="196"/>
+      <c r="A28" s="197"/>
       <c r="B28" s="130" t="s">
         <v>888</v>
       </c>
       <c r="C28" s="131" t="s">
         <v>892</v>
       </c>
-      <c r="D28" s="196"/>
+      <c r="D28" s="197"/>
       <c r="E28" s="130"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1"/>
@@ -15067,25 +15824,25 @@
       <c r="E65" s="125"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="197"/>
+      <c r="A66" s="198"/>
       <c r="B66" s="141"/>
       <c r="C66" s="126"/>
-      <c r="D66" s="197"/>
-      <c r="E66" s="193"/>
+      <c r="D66" s="198"/>
+      <c r="E66" s="194"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="198"/>
+      <c r="A67" s="199"/>
       <c r="B67" s="142"/>
       <c r="C67" s="127"/>
-      <c r="D67" s="198"/>
-      <c r="E67" s="194"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="195"/>
     </row>
     <row r="68" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A68" s="199"/>
+      <c r="A68" s="200"/>
       <c r="B68" s="137"/>
       <c r="C68" s="128"/>
-      <c r="D68" s="199"/>
-      <c r="E68" s="195"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="196"/>
     </row>
     <row r="69" spans="1:5" ht="17.25" thickBot="1">
       <c r="A69" s="123"/>
@@ -15270,7 +16027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
@@ -15640,25 +16397,25 @@
       <c r="E44" s="115"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="203"/>
+      <c r="A45" s="204"/>
       <c r="B45" s="117"/>
       <c r="C45" s="120"/>
-      <c r="D45" s="203"/>
-      <c r="E45" s="206"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="207"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="204"/>
+      <c r="A46" s="205"/>
       <c r="B46" s="118"/>
       <c r="C46" s="121"/>
-      <c r="D46" s="204"/>
-      <c r="E46" s="207"/>
+      <c r="D46" s="205"/>
+      <c r="E46" s="208"/>
     </row>
     <row r="47" spans="1:5" ht="17.25" thickBot="1">
-      <c r="A47" s="205"/>
+      <c r="A47" s="206"/>
       <c r="B47" s="119"/>
       <c r="C47" s="122"/>
-      <c r="D47" s="205"/>
-      <c r="E47" s="208"/>
+      <c r="D47" s="206"/>
+      <c r="E47" s="209"/>
     </row>
     <row r="48" spans="1:5" ht="17.25" thickBot="1">
       <c r="A48" s="113"/>
@@ -15839,7 +16596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -15847,7 +16604,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -16298,7 +17055,7 @@
       <c r="E29" s="131"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="197" t="s">
         <v>203</v>
       </c>
       <c r="B30" s="130" t="s">
@@ -16307,32 +17064,32 @@
       <c r="C30" s="131" t="s">
         <v>986</v>
       </c>
-      <c r="D30" s="196" t="s">
-        <v>874</v>
-      </c>
-      <c r="E30" s="209"/>
+      <c r="D30" s="197" t="s">
+        <v>874</v>
+      </c>
+      <c r="E30" s="210"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="196"/>
+      <c r="A31" s="197"/>
       <c r="B31" s="130" t="s">
         <v>984</v>
       </c>
       <c r="C31" s="131" t="s">
         <v>987</v>
       </c>
-      <c r="D31" s="196"/>
-      <c r="E31" s="209"/>
+      <c r="D31" s="197"/>
+      <c r="E31" s="210"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="196"/>
+      <c r="A32" s="197"/>
       <c r="B32" s="130" t="s">
         <v>985</v>
       </c>
       <c r="C32" s="131" t="s">
         <v>988</v>
       </c>
-      <c r="D32" s="196"/>
-      <c r="E32" s="209"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="210"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="129" t="s">
@@ -16574,7 +17331,7 @@
       <c r="D48" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E48" s="210" t="s">
+      <c r="E48" s="211" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -16591,7 +17348,7 @@
       <c r="D49" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E49" s="210"/>
+      <c r="E49" s="211"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="138" t="s">
@@ -16606,7 +17363,7 @@
       <c r="D50" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E50" s="210"/>
+      <c r="E50" s="211"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="138" t="s">
@@ -16621,7 +17378,7 @@
       <c r="D51" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E51" s="210"/>
+      <c r="E51" s="211"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="138" t="s">
@@ -16636,7 +17393,7 @@
       <c r="D52" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E52" s="210"/>
+      <c r="E52" s="211"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="138" t="s">
@@ -16651,7 +17408,7 @@
       <c r="D53" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E53" s="210"/>
+      <c r="E53" s="211"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="138" t="s">
@@ -16666,7 +17423,7 @@
       <c r="D54" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E54" s="210"/>
+      <c r="E54" s="211"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="138" t="s">
@@ -16681,7 +17438,7 @@
       <c r="D55" s="164" t="s">
         <v>874</v>
       </c>
-      <c r="E55" s="210"/>
+      <c r="E55" s="211"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="138" t="s">
@@ -16808,7 +17565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -17912,28 +18669,28 @@
       <c r="E72" s="131"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="196" t="s">
+      <c r="A73" s="197" t="s">
         <v>347</v>
       </c>
       <c r="B73" s="112" t="s">
         <v>1226</v>
       </c>
-      <c r="C73" s="209" t="s">
+      <c r="C73" s="210" t="s">
         <v>1228</v>
       </c>
-      <c r="D73" s="196" t="s">
-        <v>874</v>
-      </c>
-      <c r="E73" s="209"/>
+      <c r="D73" s="197" t="s">
+        <v>874</v>
+      </c>
+      <c r="E73" s="210"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="196"/>
+      <c r="A74" s="197"/>
       <c r="B74" s="112" t="s">
         <v>1227</v>
       </c>
-      <c r="C74" s="209"/>
-      <c r="D74" s="196"/>
-      <c r="E74" s="209"/>
+      <c r="C74" s="210"/>
+      <c r="D74" s="197"/>
+      <c r="E74" s="210"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="129" t="s">
@@ -18980,7 +19737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
@@ -19303,501 +20060,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF002060"/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="17.875" style="124" customWidth="1"/>
-    <col min="2" max="2" width="62.5" style="124" customWidth="1"/>
-    <col min="3" max="3" width="84.125" style="124" customWidth="1"/>
-    <col min="4" max="4" width="11" style="124" customWidth="1"/>
-    <col min="5" max="5" width="75.375" style="124" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="124"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="134" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A1" s="143" t="s">
-        <v>869</v>
-      </c>
-      <c r="B1" s="143" t="s">
-        <v>870</v>
-      </c>
-      <c r="C1" s="143" t="s">
-        <v>871</v>
-      </c>
-      <c r="D1" s="143" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E1" s="143" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="129" t="s">
-        <v>534</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>535</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>1379</v>
-      </c>
-      <c r="D2" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E2" s="131"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="129" t="s">
-        <v>536</v>
-      </c>
-      <c r="B3" s="112" t="s">
-        <v>537</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D3" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E3" s="131"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="129" t="s">
-        <v>538</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>539</v>
-      </c>
-      <c r="C4" s="131" t="s">
-        <v>1381</v>
-      </c>
-      <c r="D4" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E4" s="131"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="129" t="s">
-        <v>544</v>
-      </c>
-      <c r="B5" s="112" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D5" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E5" s="131"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="129" t="s">
-        <v>546</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D6" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E6" s="131"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="129" t="s">
-        <v>548</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C7" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D7" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E7" s="131"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="129" t="s">
-        <v>550</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C8" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E8" s="131"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="129" t="s">
-        <v>552</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C9" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D9" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E9" s="131"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="129" t="s">
-        <v>554</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C10" s="131" t="s">
-        <v>1383</v>
-      </c>
-      <c r="D10" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E10" s="131"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="129" t="s">
-        <v>556</v>
-      </c>
-      <c r="B11" s="112" t="s">
-        <v>557</v>
-      </c>
-      <c r="C11" s="131" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D11" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E11" s="131"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="129" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C12" s="131" t="s">
-        <v>1392</v>
-      </c>
-      <c r="D12" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E12" s="131"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="129" t="s">
-        <v>560</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C13" s="131" t="s">
-        <v>1394</v>
-      </c>
-      <c r="D13" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E13" s="131"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="129" t="s">
-        <v>1395</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C14" s="131" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D14" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E14" s="131"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="129" t="s">
-        <v>563</v>
-      </c>
-      <c r="B15" s="112" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C15" s="131" t="s">
-        <v>1399</v>
-      </c>
-      <c r="D15" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E15" s="131"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="129" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>1402</v>
-      </c>
-      <c r="D16" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E16" s="131"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="153" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B17" s="156" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C17" s="154" t="s">
-        <v>1405</v>
-      </c>
-      <c r="D17" s="153" t="s">
-        <v>1031</v>
-      </c>
-      <c r="E17" s="154" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="129" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B18" s="112" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C18" s="131" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D18" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E18" s="131"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="129" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B19" s="112" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C19" s="131" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D19" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E19" s="131"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="129" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B20" s="112" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C20" s="131" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E20" s="131"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="129" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B21" s="112" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D21" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E21" s="131"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="129" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B22" s="112" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>1409</v>
-      </c>
-      <c r="D22" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E22" s="131"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="129" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C23" s="131" t="s">
-        <v>1420</v>
-      </c>
-      <c r="D23" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E23" s="131"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="129" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B24" s="112" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>1422</v>
-      </c>
-      <c r="D24" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E24" s="131"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="129" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B25" s="112" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D25" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E25" s="131"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="129" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B26" s="112" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C26" s="131" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D26" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E26" s="131"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="129" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B27" s="112" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C27" s="131" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D27" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E27" s="131"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="129" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B28" s="112" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C28" s="131" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D28" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E28" s="131"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="129" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B29" s="112" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C29" s="131" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D29" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E29" s="131"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="129" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B30" s="112" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C30" s="131" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D30" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E30" s="131"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="129" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>1441</v>
-      </c>
-      <c r="C31" s="131" t="s">
-        <v>1442</v>
-      </c>
-      <c r="D31" s="129" t="s">
-        <v>874</v>
-      </c>
-      <c r="E31" s="130"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -7832,104 +7832,104 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>UHKC0902P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합진단_대인관계진단 실천과제 설정하기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0502P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>재무 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0602P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0702P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>여가활동 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKF0802P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대인관계 실천과제 보기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA교육 조회 - CSA교육 수료내역 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSA교육 수료증 출력 - 수료증이미지없음</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKH2402P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>지사 코드 조회</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKB0601M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담안내-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC3101M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육신청현황(단체) 상세 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UHKC0502P0</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>UHKC0702P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKC1102P0</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>종합진단_재무진단 실천과제 설정하기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKC0702P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>종합진단_건강진단 실천과제 설정하기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>UHKC0902P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>종합진단_여가활동진단 실천과제 설정하기</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC1102P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>종합진단_대인관계진단 실천과제 설정하기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0502P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>재무 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0602P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0702P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>여가활동 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKF0802P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>대인관계 실천과제 보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA교육 조회 - CSA교육 수료내역 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSA교육 수료증 출력 - 수료증이미지없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKH2402P0</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>지사 코드 조회</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Main</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKB0601M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상담안내-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UHKC3101M0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>교육신청현황(단체) 상세 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UHKF1202P0</t>
@@ -8122,7 +8122,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -8133,7 +8133,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -8219,12 +8219,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -8244,6 +8238,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8489,7 +8489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8901,22 +8901,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -8931,19 +8931,19 @@
     <xf numFmtId="14" fontId="17" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -8958,7 +8958,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8997,22 +8997,16 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9025,6 +9019,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9045,34 +9066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9123,6 +9117,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9138,11 +9138,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9153,26 +9168,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9852,15 +9855,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>317501</xdr:colOff>
-      <xdr:row>532</xdr:row>
-      <xdr:rowOff>4601</xdr:rowOff>
+      <xdr:colOff>418354</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>94248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1121</xdr:colOff>
-      <xdr:row>534</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>101974</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9869,8 +9872,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13681076" y="112323401"/>
-          <a:ext cx="2426820" cy="604999"/>
+          <a:off x="13775766" y="53378219"/>
+          <a:ext cx="2888502" cy="611722"/>
         </a:xfrm>
         <a:prstGeom prst="callout2">
           <a:avLst>
@@ -9918,7 +9921,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>수료증 이미지 필요</a:t>
+            <a:t>합격증 이미지 필요</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
@@ -10661,7 +10664,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10744,7 +10747,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="105" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B4" s="105" t="s">
         <v>1063</v>
@@ -10765,7 +10768,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B5" s="105" t="s">
         <v>1065</v>
@@ -10786,7 +10789,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="105" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B6" s="105" t="s">
         <v>1066</v>
@@ -10807,7 +10810,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="105" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B7" s="105" t="s">
         <v>1067</v>
@@ -10828,7 +10831,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="105" t="s">
-        <v>2203</v>
+        <v>2197</v>
       </c>
       <c r="B8" s="105" t="s">
         <v>1068</v>
@@ -10947,8 +10950,8 @@
   </sheetPr>
   <dimension ref="A1:XFC536"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F541" sqref="F541"/>
+    <sheetView tabSelected="1" topLeftCell="A243" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12440,20 +12443,20 @@
       </c>
     </row>
     <row r="25" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="169" t="s">
         <v>1147</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="171" t="s">
+      <c r="B25" s="169"/>
+      <c r="C25" s="169" t="s">
         <v>1101</v>
       </c>
-      <c r="D25" s="171" t="s">
+      <c r="D25" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="171" t="s">
+      <c r="E25" s="169" t="s">
         <v>1148</v>
       </c>
-      <c r="F25" s="171" t="s">
+      <c r="F25" s="169" t="s">
         <v>1147</v>
       </c>
       <c r="G25" s="126" t="s">
@@ -12501,20 +12504,20 @@
       </c>
     </row>
     <row r="26" spans="1:16383" x14ac:dyDescent="0.3">
-      <c r="A26" s="171" t="s">
+      <c r="A26" s="169" t="s">
         <v>1150</v>
       </c>
-      <c r="B26" s="171"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="169"/>
+      <c r="C26" s="169" t="s">
         <v>1101</v>
       </c>
-      <c r="D26" s="171" t="s">
+      <c r="D26" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="171" t="s">
+      <c r="E26" s="169" t="s">
         <v>1151</v>
       </c>
-      <c r="F26" s="171" t="s">
+      <c r="F26" s="169" t="s">
         <v>1152</v>
       </c>
       <c r="G26" s="119" t="s">
@@ -29298,10 +29301,10 @@
         <v>10</v>
       </c>
       <c r="E33" s="137" t="s">
-        <v>2204</v>
+        <v>2198</v>
       </c>
       <c r="F33" s="137" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="G33" s="119" t="s">
         <v>1167</v>
@@ -29403,22 +29406,22 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="171" t="s">
+      <c r="A35" s="169" t="s">
         <v>1169</v>
       </c>
-      <c r="B35" s="171" t="s">
+      <c r="B35" s="169" t="s">
         <v>1175</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="169" t="s">
         <v>1101</v>
       </c>
-      <c r="D35" s="171" t="s">
+      <c r="D35" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="171" t="s">
+      <c r="E35" s="169" t="s">
         <v>1176</v>
       </c>
-      <c r="F35" s="171" t="s">
+      <c r="F35" s="169" t="s">
         <v>1177</v>
       </c>
       <c r="G35" s="126" t="s">
@@ -31819,10 +31822,10 @@
         <v>10</v>
       </c>
       <c r="E74" s="137" t="s">
-        <v>2206</v>
+        <v>2200</v>
       </c>
       <c r="F74" s="137" t="s">
-        <v>2207</v>
+        <v>2201</v>
       </c>
       <c r="G74" s="119" t="s">
         <v>1157</v>
@@ -39297,22 +39300,22 @@
       </c>
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A197" s="171" t="s">
+      <c r="A197" s="169" t="s">
         <v>1259</v>
       </c>
-      <c r="B197" s="171" t="s">
+      <c r="B197" s="169" t="s">
         <v>1434</v>
       </c>
-      <c r="C197" s="171" t="s">
+      <c r="C197" s="169" t="s">
         <v>1101</v>
       </c>
-      <c r="D197" s="171" t="s">
+      <c r="D197" s="169" t="s">
         <v>9</v>
       </c>
-      <c r="E197" s="171" t="s">
+      <c r="E197" s="169" t="s">
         <v>1437</v>
       </c>
-      <c r="F197" s="171" t="s">
+      <c r="F197" s="169" t="s">
         <v>1438</v>
       </c>
       <c r="G197" s="126" t="s">
@@ -42609,20 +42612,20 @@
       </c>
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A251" s="125" t="s">
+      <c r="A251" s="226" t="s">
         <v>1502</v>
       </c>
-      <c r="B251" s="125" t="s">
+      <c r="B251" s="227" t="s">
         <v>1517</v>
       </c>
-      <c r="C251" s="125"/>
-      <c r="D251" s="125" t="s">
+      <c r="C251" s="227"/>
+      <c r="D251" s="227" t="s">
         <v>9</v>
       </c>
-      <c r="E251" s="125" t="s">
+      <c r="E251" s="227" t="s">
         <v>1518</v>
       </c>
-      <c r="F251" s="125" t="s">
+      <c r="F251" s="227" t="s">
         <v>566</v>
       </c>
       <c r="G251" s="126" t="e">
@@ -52332,20 +52335,20 @@
       </c>
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A416" s="171" t="s">
+      <c r="A416" s="169" t="s">
         <v>1874</v>
       </c>
-      <c r="B416" s="171" t="s">
+      <c r="B416" s="169" t="s">
         <v>1906</v>
       </c>
-      <c r="C416" s="171"/>
-      <c r="D416" s="171" t="s">
+      <c r="C416" s="169"/>
+      <c r="D416" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E416" s="171" t="s">
+      <c r="E416" s="169" t="s">
         <v>1907</v>
       </c>
-      <c r="F416" s="171" t="s">
+      <c r="F416" s="169" t="s">
         <v>1908</v>
       </c>
       <c r="G416" s="119" t="s">
@@ -52393,20 +52396,20 @@
       </c>
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A417" s="171" t="s">
+      <c r="A417" s="169" t="s">
         <v>1874</v>
       </c>
-      <c r="B417" s="171" t="s">
+      <c r="B417" s="169" t="s">
         <v>1906</v>
       </c>
-      <c r="C417" s="171"/>
-      <c r="D417" s="171" t="s">
+      <c r="C417" s="169"/>
+      <c r="D417" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="E417" s="171" t="s">
+      <c r="E417" s="169" t="s">
         <v>1910</v>
       </c>
-      <c r="F417" s="171" t="s">
+      <c r="F417" s="169" t="s">
         <v>1911</v>
       </c>
       <c r="G417" s="119" t="s">
@@ -57960,10 +57963,10 @@
         <v>1963</v>
       </c>
       <c r="E527" s="118" t="s">
-        <v>2183</v>
+        <v>2202</v>
       </c>
       <c r="F527" s="118" t="s">
-        <v>2184</v>
+        <v>2205</v>
       </c>
       <c r="G527" s="126" t="s">
         <v>1968</v>
@@ -58009,10 +58012,10 @@
         <v>1963</v>
       </c>
       <c r="E528" s="118" t="s">
-        <v>2185</v>
+        <v>2203</v>
       </c>
       <c r="F528" s="118" t="s">
-        <v>2186</v>
+        <v>2206</v>
       </c>
       <c r="G528" s="126" t="s">
         <v>1968</v>
@@ -58058,10 +58061,10 @@
         <v>1963</v>
       </c>
       <c r="E529" s="118" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="F529" s="118" t="s">
-        <v>2188</v>
+        <v>2207</v>
       </c>
       <c r="G529" s="126" t="s">
         <v>1968</v>
@@ -58107,10 +58110,10 @@
         <v>1963</v>
       </c>
       <c r="E530" s="118" t="s">
-        <v>2189</v>
+        <v>2204</v>
       </c>
       <c r="F530" s="118" t="s">
-        <v>2190</v>
+        <v>2184</v>
       </c>
       <c r="G530" s="126" t="s">
         <v>1968</v>
@@ -58156,10 +58159,10 @@
         <v>1963</v>
       </c>
       <c r="E531" s="143" t="s">
-        <v>2191</v>
+        <v>2185</v>
       </c>
       <c r="F531" s="125" t="s">
-        <v>2192</v>
+        <v>2186</v>
       </c>
       <c r="G531" s="126" t="s">
         <v>2082</v>
@@ -58205,10 +58208,10 @@
         <v>1963</v>
       </c>
       <c r="E532" s="143" t="s">
-        <v>2193</v>
+        <v>2187</v>
       </c>
       <c r="F532" s="125" t="s">
-        <v>2194</v>
+        <v>2188</v>
       </c>
       <c r="G532" s="126" t="s">
         <v>1162</v>
@@ -58254,10 +58257,10 @@
         <v>1963</v>
       </c>
       <c r="E533" s="143" t="s">
-        <v>2195</v>
+        <v>2189</v>
       </c>
       <c r="F533" s="125" t="s">
-        <v>2196</v>
+        <v>2190</v>
       </c>
       <c r="G533" s="126" t="s">
         <v>1162</v>
@@ -58303,10 +58306,10 @@
         <v>1963</v>
       </c>
       <c r="E534" s="143" t="s">
-        <v>2197</v>
+        <v>2191</v>
       </c>
       <c r="F534" s="125" t="s">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="G534" s="126" t="s">
         <v>1162</v>
@@ -58341,21 +58344,21 @@
       </c>
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A535" s="169" t="s">
+      <c r="A535" s="158" t="s">
         <v>1502</v>
       </c>
-      <c r="B535" s="169" t="s">
-        <v>2199</v>
-      </c>
-      <c r="C535" s="170"/>
-      <c r="D535" s="170" t="s">
+      <c r="B535" s="158" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C535" s="228"/>
+      <c r="D535" s="228" t="s">
         <v>1963</v>
       </c>
-      <c r="E535" s="169" t="s">
+      <c r="E535" s="158" t="s">
         <v>2208</v>
       </c>
-      <c r="F535" s="170" t="s">
-        <v>2200</v>
+      <c r="F535" s="228" t="s">
+        <v>2194</v>
       </c>
       <c r="G535" s="119" t="s">
         <v>1958</v>
@@ -58401,10 +58404,10 @@
         <v>1963</v>
       </c>
       <c r="E536" s="163" t="s">
-        <v>2201</v>
+        <v>2195</v>
       </c>
       <c r="F536" s="161" t="s">
-        <v>2202</v>
+        <v>2196</v>
       </c>
       <c r="G536" s="161" t="s">
         <v>1162</v>
@@ -58856,19 +58859,19 @@
       <c r="B10" s="109" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="172" t="s">
+      <c r="C10" s="170" t="s">
         <v>1013</v>
       </c>
-      <c r="D10" s="177" t="s">
+      <c r="D10" s="175" t="s">
         <v>1006</v>
       </c>
-      <c r="E10" s="172" t="s">
+      <c r="E10" s="170" t="s">
         <v>1010</v>
       </c>
-      <c r="F10" s="177" t="s">
+      <c r="F10" s="175" t="s">
         <v>530</v>
       </c>
-      <c r="G10" s="172" t="s">
+      <c r="G10" s="170" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -58879,11 +58882,11 @@
       <c r="B11" s="109" t="s">
         <v>1012</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="178"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="173"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="171"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="172"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="105" t="s">
@@ -58892,19 +58895,19 @@
       <c r="B12" s="110" t="s">
         <v>1015</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="170" t="s">
         <v>1017</v>
       </c>
-      <c r="D12" s="177" t="s">
+      <c r="D12" s="175" t="s">
         <v>1006</v>
       </c>
-      <c r="E12" s="175" t="s">
+      <c r="E12" s="173" t="s">
         <v>1014</v>
       </c>
-      <c r="F12" s="177" t="s">
+      <c r="F12" s="175" t="s">
         <v>530</v>
       </c>
-      <c r="G12" s="173"/>
+      <c r="G12" s="172"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="105" t="s">
@@ -58913,11 +58916,11 @@
       <c r="B13" s="110" t="s">
         <v>1016</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="173"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="172"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="105" t="s">
@@ -58926,19 +58929,19 @@
       <c r="B14" s="110" t="s">
         <v>1019</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="170" t="s">
         <v>1024</v>
       </c>
-      <c r="D14" s="177" t="s">
+      <c r="D14" s="175" t="s">
         <v>1006</v>
       </c>
-      <c r="E14" s="175" t="s">
+      <c r="E14" s="173" t="s">
         <v>1018</v>
       </c>
-      <c r="F14" s="177" t="s">
+      <c r="F14" s="175" t="s">
         <v>530</v>
       </c>
-      <c r="G14" s="173"/>
+      <c r="G14" s="172"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="105" t="s">
@@ -58947,11 +58950,11 @@
       <c r="B15" s="110" t="s">
         <v>1020</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="178"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="173"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="172"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="105" t="s">
@@ -58960,19 +58963,19 @@
       <c r="B16" s="110" t="s">
         <v>1022</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="170" t="s">
         <v>1025</v>
       </c>
-      <c r="D16" s="177" t="s">
+      <c r="D16" s="175" t="s">
         <v>1006</v>
       </c>
-      <c r="E16" s="175" t="s">
+      <c r="E16" s="173" t="s">
         <v>1021</v>
       </c>
-      <c r="F16" s="177" t="s">
+      <c r="F16" s="175" t="s">
         <v>530</v>
       </c>
-      <c r="G16" s="173"/>
+      <c r="G16" s="172"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="105" t="s">
@@ -58981,11 +58984,11 @@
       <c r="B17" s="110" t="s">
         <v>1023</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="178"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="174"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="171"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="110" t="s">
@@ -59033,6 +59036,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="G10:G17"/>
     <mergeCell ref="E10:E11"/>
@@ -59049,7 +59053,6 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C14:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -59140,7 +59143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -59228,11 +59231,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="185"/>
-      <c r="E4" s="179" t="s">
+      <c r="D4" s="183"/>
+      <c r="E4" s="186" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="182" t="s">
+      <c r="F4" s="189" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -59247,9 +59250,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="186"/>
-      <c r="E5" s="180"/>
-      <c r="F5" s="183"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="187"/>
+      <c r="F5" s="190"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -59262,9 +59265,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="186"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="183"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="190"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -59277,9 +59280,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="180"/>
-      <c r="F7" s="183"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="187"/>
+      <c r="F7" s="190"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -59292,9 +59295,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="186"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="183"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="190"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -59307,9 +59310,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="180"/>
-      <c r="F9" s="183"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="187"/>
+      <c r="F9" s="190"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -59322,9 +59325,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="183"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="190"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -59337,9 +59340,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="183"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="187"/>
+      <c r="F11" s="190"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -59352,9 +59355,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="183"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="187"/>
+      <c r="F12" s="190"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -59367,9 +59370,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="183"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="187"/>
+      <c r="F13" s="190"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -59382,9 +59385,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="186"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="183"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="187"/>
+      <c r="F14" s="190"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -59397,9 +59400,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="186"/>
-      <c r="E15" s="180"/>
-      <c r="F15" s="183"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="187"/>
+      <c r="F15" s="190"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -59412,9 +59415,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="186"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="183"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="190"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -59427,9 +59430,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="186"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="183"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="190"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -59442,9 +59445,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="186"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="183"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="187"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -59457,9 +59460,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="183"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="187"/>
+      <c r="F19" s="190"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -59472,9 +59475,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="183"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="190"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -59487,9 +59490,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="186"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="183"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="187"/>
+      <c r="F21" s="190"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -59502,9 +59505,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="187"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="184"/>
+      <c r="D22" s="184"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="191"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
@@ -59673,14 +59676,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="185"/>
-      <c r="E31" s="188" t="s">
+      <c r="D31" s="183"/>
+      <c r="E31" s="179" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="190" t="s">
+      <c r="F31" s="177" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="188" t="s">
+      <c r="G31" s="179" t="s">
         <v>851</v>
       </c>
     </row>
@@ -59694,10 +59697,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="187"/>
-      <c r="E32" s="189"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="189"/>
+      <c r="D32" s="184"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="180"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -59709,14 +59712,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="185"/>
-      <c r="E33" s="188" t="s">
+      <c r="D33" s="183"/>
+      <c r="E33" s="179" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="190" t="s">
+      <c r="F33" s="177" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="188" t="s">
+      <c r="G33" s="179" t="s">
         <v>852</v>
       </c>
     </row>
@@ -59730,10 +59733,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="187"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="191"/>
-      <c r="G34" s="189"/>
+      <c r="D34" s="184"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="178"/>
+      <c r="G34" s="180"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -59745,14 +59748,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="188" t="s">
+      <c r="D35" s="183"/>
+      <c r="E35" s="179" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="190" t="s">
+      <c r="F35" s="177" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="188" t="s">
+      <c r="G35" s="179" t="s">
         <v>853</v>
       </c>
     </row>
@@ -59766,10 +59769,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="187"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="191"/>
-      <c r="G36" s="189"/>
+      <c r="D36" s="184"/>
+      <c r="E36" s="180"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="180"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
@@ -59781,14 +59784,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="192"/>
-      <c r="E37" s="188" t="s">
+      <c r="D37" s="185"/>
+      <c r="E37" s="179" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="190" t="s">
+      <c r="F37" s="177" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="188" t="s">
+      <c r="G37" s="179" t="s">
         <v>854</v>
       </c>
     </row>
@@ -59802,10 +59805,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="192"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="193"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="182"/>
+      <c r="F38" s="181"/>
+      <c r="G38" s="182"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -59817,10 +59820,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="192"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="193"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="181"/>
+      <c r="G39" s="182"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -59832,10 +59835,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="192"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="189"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="180"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="180"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
@@ -60145,18 +60148,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -60164,6 +60155,18 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60175,7 +60178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -60282,14 +60285,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="205" t="s">
+      <c r="D5" s="193"/>
+      <c r="E5" s="203" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="204" t="s">
+      <c r="F5" s="202" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="179"/>
+      <c r="G5" s="186"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -60301,10 +60304,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="204"/>
-      <c r="G6" s="180"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="204"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="187"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -60316,10 +60319,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="206"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="180"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="187"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -60331,10 +60334,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="180"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="187"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -60346,10 +60349,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="206"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="180"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="187"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -60361,10 +60364,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="197"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="181"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="188"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -60509,14 +60512,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="195"/>
-      <c r="E18" s="205" t="s">
+      <c r="D18" s="193"/>
+      <c r="E18" s="203" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="182" t="s">
+      <c r="F18" s="189" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="179"/>
+      <c r="G18" s="186"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -60528,10 +60531,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="196"/>
-      <c r="E19" s="206"/>
-      <c r="F19" s="183"/>
-      <c r="G19" s="180"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="187"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -60543,10 +60546,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="206"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="180"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="187"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -60558,10 +60561,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="197"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="181"/>
+      <c r="D21" s="195"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="188"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -60790,14 +60793,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="201" t="s">
+      <c r="D33" s="196"/>
+      <c r="E33" s="199" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="208" t="s">
+      <c r="F33" s="206" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="201" t="s">
+      <c r="G33" s="199" t="s">
         <v>639</v>
       </c>
     </row>
@@ -60811,10 +60814,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="202"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="200"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="69" t="s">
@@ -60826,10 +60829,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="202"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="200"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="69" t="s">
@@ -60841,10 +60844,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="202"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="202"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="200"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="69" t="s">
@@ -60856,10 +60859,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="199"/>
-      <c r="E37" s="202"/>
-      <c r="F37" s="209"/>
-      <c r="G37" s="202"/>
+      <c r="D37" s="197"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="200"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="69" t="s">
@@ -60871,10 +60874,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="199"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="209"/>
-      <c r="G38" s="202"/>
+      <c r="D38" s="197"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="200"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="69" t="s">
@@ -60886,10 +60889,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="200"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="203"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="201"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="69" t="s">
@@ -61117,7 +61120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -61243,14 +61246,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="195"/>
-      <c r="E6" s="216" t="s">
+      <c r="D6" s="193"/>
+      <c r="E6" s="209" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="204" t="s">
+      <c r="F6" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="182"/>
+      <c r="G6" s="189"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
@@ -61262,10 +61265,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="183"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="190"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
@@ -61277,10 +61280,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="183"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="202"/>
+      <c r="G8" s="190"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
@@ -61292,10 +61295,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="197"/>
-      <c r="E9" s="216"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="184"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="202"/>
+      <c r="G9" s="191"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -61364,14 +61367,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="195"/>
-      <c r="E13" s="217" t="s">
+      <c r="D13" s="193"/>
+      <c r="E13" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="204" t="s">
+      <c r="F13" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="182"/>
+      <c r="G13" s="189"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -61383,10 +61386,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="197"/>
-      <c r="E14" s="217"/>
-      <c r="F14" s="204"/>
-      <c r="G14" s="184"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="210"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="191"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -61398,14 +61401,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="195"/>
-      <c r="E15" s="216" t="s">
+      <c r="D15" s="193"/>
+      <c r="E15" s="209" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="204" t="s">
+      <c r="F15" s="202" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="182"/>
+      <c r="G15" s="189"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
@@ -61417,10 +61420,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="196"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="204"/>
-      <c r="G16" s="183"/>
+      <c r="D16" s="194"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="202"/>
+      <c r="G16" s="190"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -61432,10 +61435,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="196"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="204"/>
-      <c r="G17" s="183"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="202"/>
+      <c r="G17" s="190"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -61447,10 +61450,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="183"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="190"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -61462,10 +61465,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="196"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="183"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="202"/>
+      <c r="G19" s="190"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
@@ -61477,10 +61480,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="183"/>
+      <c r="D20" s="194"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="190"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
@@ -61492,10 +61495,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="183"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="190"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -61507,10 +61510,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="196"/>
-      <c r="E22" s="216"/>
-      <c r="F22" s="204"/>
-      <c r="G22" s="183"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="190"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -61522,10 +61525,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="196"/>
-      <c r="E23" s="216"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="183"/>
+      <c r="D23" s="194"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="202"/>
+      <c r="G23" s="190"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
@@ -61537,10 +61540,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="196"/>
-      <c r="E24" s="216"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="183"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="209"/>
+      <c r="F24" s="202"/>
+      <c r="G24" s="190"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
@@ -61552,10 +61555,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="196"/>
-      <c r="E25" s="216"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="183"/>
+      <c r="D25" s="194"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="202"/>
+      <c r="G25" s="190"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -61567,10 +61570,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="216"/>
-      <c r="F26" s="204"/>
-      <c r="G26" s="183"/>
+      <c r="D26" s="194"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="190"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -61582,10 +61585,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="196"/>
-      <c r="E27" s="216"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="183"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="209"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="190"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -61597,10 +61600,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="196"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="183"/>
+      <c r="D28" s="194"/>
+      <c r="E28" s="209"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="190"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -61612,10 +61615,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="196"/>
-      <c r="E29" s="216"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="183"/>
+      <c r="D29" s="194"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="190"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
@@ -61627,10 +61630,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="196"/>
-      <c r="E30" s="216"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="183"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="209"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="190"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
@@ -61642,10 +61645,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="197"/>
-      <c r="E31" s="216"/>
-      <c r="F31" s="204"/>
-      <c r="G31" s="184"/>
+      <c r="D31" s="195"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="202"/>
+      <c r="G31" s="191"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
@@ -61735,14 +61738,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="198"/>
+      <c r="D36" s="196"/>
       <c r="E36" s="214" t="s">
         <v>149</v>
       </c>
       <c r="F36" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="201"/>
+      <c r="G36" s="199"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
@@ -61754,10 +61757,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="199"/>
+      <c r="D37" s="197"/>
       <c r="E37" s="214"/>
       <c r="F37" s="215"/>
-      <c r="G37" s="202"/>
+      <c r="G37" s="200"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="76" t="s">
@@ -61769,10 +61772,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="200"/>
+      <c r="D38" s="198"/>
       <c r="E38" s="214"/>
       <c r="F38" s="215"/>
-      <c r="G38" s="203"/>
+      <c r="G38" s="201"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="76" t="s">
@@ -62059,7 +62062,7 @@
       <c r="F53" s="215" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="201"/>
+      <c r="G53" s="199"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="76" t="s">
@@ -62074,7 +62077,7 @@
       <c r="D54" s="212"/>
       <c r="E54" s="214"/>
       <c r="F54" s="215"/>
-      <c r="G54" s="202"/>
+      <c r="G54" s="200"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="76" t="s">
@@ -62089,7 +62092,7 @@
       <c r="D55" s="213"/>
       <c r="E55" s="214"/>
       <c r="F55" s="215"/>
-      <c r="G55" s="203"/>
+      <c r="G55" s="201"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="76" t="s">
@@ -62241,14 +62244,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -62261,6 +62256,14 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62332,8 +62335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -62392,16 +62395,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="223" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="221" t="s">
+      <c r="C3" s="217" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="221" t="s">
+      <c r="D3" s="217" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -62413,10 +62416,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="219"/>
-      <c r="B4" s="219"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="218"/>
+      <c r="D4" s="218"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -62426,10 +62429,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="219"/>
-      <c r="B5" s="219"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -62439,10 +62442,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="220"/>
-      <c r="B6" s="220"/>
-      <c r="C6" s="223"/>
-      <c r="D6" s="223"/>
+      <c r="A6" s="225"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -62502,10 +62505,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="205" t="s">
+      <c r="E9" s="203" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="182" t="s">
+      <c r="F9" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -62521,8 +62524,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="207"/>
-      <c r="F10" s="184"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -62555,10 +62558,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="205" t="s">
+      <c r="E12" s="203" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="182" t="s">
+      <c r="F12" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -62574,8 +62577,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="206"/>
-      <c r="F13" s="183"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="190"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -62589,8 +62592,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="207"/>
-      <c r="F14" s="184"/>
+      <c r="E14" s="205"/>
+      <c r="F14" s="191"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -62623,10 +62626,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="205" t="s">
+      <c r="E16" s="203" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="182" t="s">
+      <c r="F16" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -62642,8 +62645,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="206"/>
-      <c r="F17" s="183"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="190"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -62657,8 +62660,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="207"/>
-      <c r="F18" s="184"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -62691,10 +62694,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="205" t="s">
+      <c r="E20" s="203" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="182" t="s">
+      <c r="F20" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -62710,8 +62713,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="207"/>
-      <c r="F21" s="184"/>
+      <c r="E21" s="205"/>
+      <c r="F21" s="191"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -63817,11 +63820,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="225"/>
-      <c r="E79" s="205" t="s">
+      <c r="D79" s="220"/>
+      <c r="E79" s="203" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="182" t="s">
+      <c r="F79" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -63834,9 +63837,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="226"/>
-      <c r="E80" s="206"/>
-      <c r="F80" s="183"/>
+      <c r="D80" s="221"/>
+      <c r="E80" s="204"/>
+      <c r="F80" s="190"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -63849,9 +63852,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="226"/>
-      <c r="E81" s="206"/>
-      <c r="F81" s="183"/>
+      <c r="D81" s="221"/>
+      <c r="E81" s="204"/>
+      <c r="F81" s="190"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -63864,9 +63867,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="226"/>
-      <c r="E82" s="206"/>
-      <c r="F82" s="183"/>
+      <c r="D82" s="221"/>
+      <c r="E82" s="204"/>
+      <c r="F82" s="190"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
@@ -63879,9 +63882,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="226"/>
-      <c r="E83" s="206"/>
-      <c r="F83" s="183"/>
+      <c r="D83" s="221"/>
+      <c r="E83" s="204"/>
+      <c r="F83" s="190"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -63894,9 +63897,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="226"/>
-      <c r="E84" s="206"/>
-      <c r="F84" s="183"/>
+      <c r="D84" s="221"/>
+      <c r="E84" s="204"/>
+      <c r="F84" s="190"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -63909,9 +63912,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="226"/>
-      <c r="E85" s="206"/>
-      <c r="F85" s="183"/>
+      <c r="D85" s="221"/>
+      <c r="E85" s="204"/>
+      <c r="F85" s="190"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -63924,9 +63927,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="226"/>
-      <c r="E86" s="206"/>
-      <c r="F86" s="183"/>
+      <c r="D86" s="221"/>
+      <c r="E86" s="204"/>
+      <c r="F86" s="190"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -63939,9 +63942,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="227"/>
-      <c r="E87" s="207"/>
-      <c r="F87" s="184"/>
+      <c r="D87" s="222"/>
+      <c r="E87" s="205"/>
+      <c r="F87" s="191"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -64126,10 +64129,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="224" t="s">
+      <c r="E97" s="216" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="182" t="s">
+      <c r="F97" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -64145,8 +64148,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="224"/>
-      <c r="F98" s="183"/>
+      <c r="E98" s="216"/>
+      <c r="F98" s="190"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -64160,8 +64163,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="224"/>
-      <c r="F99" s="183"/>
+      <c r="E99" s="216"/>
+      <c r="F99" s="190"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
@@ -64175,8 +64178,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="224"/>
-      <c r="F100" s="183"/>
+      <c r="E100" s="216"/>
+      <c r="F100" s="190"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
@@ -64190,8 +64193,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="224"/>
-      <c r="F101" s="183"/>
+      <c r="E101" s="216"/>
+      <c r="F101" s="190"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -64205,8 +64208,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="224"/>
-      <c r="F102" s="183"/>
+      <c r="E102" s="216"/>
+      <c r="F102" s="190"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -64220,8 +64223,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="224"/>
-      <c r="F103" s="184"/>
+      <c r="E103" s="216"/>
+      <c r="F103" s="191"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -64272,11 +64275,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="185"/>
-      <c r="E106" s="224" t="s">
+      <c r="D106" s="183"/>
+      <c r="E106" s="216" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="185" t="s">
+      <c r="F106" s="183" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -64291,9 +64294,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="186"/>
-      <c r="E107" s="224"/>
-      <c r="F107" s="186"/>
+      <c r="D107" s="192"/>
+      <c r="E107" s="216"/>
+      <c r="F107" s="192"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
@@ -64306,9 +64309,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="187"/>
-      <c r="E108" s="224"/>
-      <c r="F108" s="187"/>
+      <c r="D108" s="184"/>
+      <c r="E108" s="216"/>
+      <c r="F108" s="184"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
@@ -64511,11 +64514,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="185"/>
-      <c r="E119" s="205" t="s">
+      <c r="D119" s="183"/>
+      <c r="E119" s="203" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="182" t="s">
+      <c r="F119" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -64530,9 +64533,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="186"/>
-      <c r="E120" s="206"/>
-      <c r="F120" s="183"/>
+      <c r="D120" s="192"/>
+      <c r="E120" s="204"/>
+      <c r="F120" s="190"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
@@ -64545,9 +64548,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="187"/>
-      <c r="E121" s="207"/>
-      <c r="F121" s="184"/>
+      <c r="D121" s="184"/>
+      <c r="E121" s="205"/>
+      <c r="F121" s="191"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
@@ -64598,11 +64601,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="185"/>
-      <c r="E124" s="224" t="s">
+      <c r="D124" s="183"/>
+      <c r="E124" s="216" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="182" t="s">
+      <c r="F124" s="189" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -64617,9 +64620,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="186"/>
-      <c r="E125" s="224"/>
-      <c r="F125" s="183"/>
+      <c r="D125" s="192"/>
+      <c r="E125" s="216"/>
+      <c r="F125" s="190"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
@@ -64632,9 +64635,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="186"/>
-      <c r="E126" s="224"/>
-      <c r="F126" s="183"/>
+      <c r="D126" s="192"/>
+      <c r="E126" s="216"/>
+      <c r="F126" s="190"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
@@ -64647,9 +64650,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="186"/>
-      <c r="E127" s="224"/>
-      <c r="F127" s="183"/>
+      <c r="D127" s="192"/>
+      <c r="E127" s="216"/>
+      <c r="F127" s="190"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
@@ -64662,9 +64665,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="187"/>
-      <c r="E128" s="224"/>
-      <c r="F128" s="184"/>
+      <c r="D128" s="184"/>
+      <c r="E128" s="216"/>
+      <c r="F128" s="191"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
@@ -64914,6 +64917,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -64930,16 +64943,6 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8238" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8237" uniqueCount="2246">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9158,6 +9158,24 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9173,10 +9191,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9197,34 +9236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9275,6 +9287,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9290,20 +9308,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9314,9 +9320,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9326,16 +9329,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10825,7 +10825,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10881,7 +10881,7 @@
       <c r="F2" s="110" t="s">
         <v>2231</v>
       </c>
-      <c r="G2" s="230" t="s">
+      <c r="G2" s="174" t="s">
         <v>2245</v>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
       <c r="F3" s="110" t="s">
         <v>2231</v>
       </c>
-      <c r="G3" s="231"/>
+      <c r="G3" s="175"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="105" t="s">
@@ -10921,7 +10921,7 @@
       <c r="F4" s="110" t="s">
         <v>2231</v>
       </c>
-      <c r="G4" s="232"/>
+      <c r="G4" s="176"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="105"/>
@@ -10983,7 +10983,7 @@
       <c r="F8" s="105" t="s">
         <v>2214</v>
       </c>
-      <c r="G8" s="229" t="s">
+      <c r="G8" s="173" t="s">
         <v>2215</v>
       </c>
     </row>
@@ -11088,9 +11088,7 @@
       <c r="C14" s="107"/>
       <c r="D14" s="105"/>
       <c r="E14" s="111"/>
-      <c r="F14" s="105" t="s">
-        <v>2242</v>
-      </c>
+      <c r="F14" s="105"/>
       <c r="G14" s="112"/>
     </row>
   </sheetData>
@@ -11167,16 +11165,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="230" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="230" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="222" t="s">
+      <c r="C3" s="224" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="222" t="s">
+      <c r="D3" s="224" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -11188,10 +11186,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="220"/>
-      <c r="B4" s="220"/>
-      <c r="C4" s="223"/>
-      <c r="D4" s="223"/>
+      <c r="A4" s="231"/>
+      <c r="B4" s="231"/>
+      <c r="C4" s="225"/>
+      <c r="D4" s="225"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -11201,10 +11199,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="220"/>
-      <c r="B5" s="220"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
+      <c r="A5" s="231"/>
+      <c r="B5" s="231"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -11214,10 +11212,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="221"/>
-      <c r="B6" s="221"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
+      <c r="A6" s="232"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="226"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -11277,10 +11275,10 @@
         <v>178</v>
       </c>
       <c r="D9" s="28"/>
-      <c r="E9" s="206" t="s">
+      <c r="E9" s="210" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -11296,8 +11294,8 @@
         <v>179</v>
       </c>
       <c r="D10" s="28"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="185"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="198"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -11330,10 +11328,10 @@
         <v>181</v>
       </c>
       <c r="D12" s="28"/>
-      <c r="E12" s="206" t="s">
+      <c r="E12" s="210" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="183" t="s">
+      <c r="F12" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -11349,8 +11347,8 @@
         <v>253</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="207"/>
-      <c r="F13" s="184"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="197"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -11364,8 +11362,8 @@
         <v>183</v>
       </c>
       <c r="D14" s="28"/>
-      <c r="E14" s="208"/>
-      <c r="F14" s="185"/>
+      <c r="E14" s="212"/>
+      <c r="F14" s="198"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -11398,10 +11396,10 @@
         <v>187</v>
       </c>
       <c r="D16" s="28"/>
-      <c r="E16" s="206" t="s">
+      <c r="E16" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="183" t="s">
+      <c r="F16" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -11417,8 +11415,8 @@
         <v>188</v>
       </c>
       <c r="D17" s="28"/>
-      <c r="E17" s="207"/>
-      <c r="F17" s="184"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="197"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -11432,8 +11430,8 @@
         <v>190</v>
       </c>
       <c r="D18" s="28"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="185"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="198"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -11466,10 +11464,10 @@
         <v>192</v>
       </c>
       <c r="D20" s="28"/>
-      <c r="E20" s="206" t="s">
+      <c r="E20" s="210" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="183" t="s">
+      <c r="F20" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -11485,8 +11483,8 @@
         <v>193</v>
       </c>
       <c r="D21" s="28"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="185"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="198"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -12592,11 +12590,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="226"/>
-      <c r="E79" s="206" t="s">
+      <c r="D79" s="227"/>
+      <c r="E79" s="210" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="183" t="s">
+      <c r="F79" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -12609,9 +12607,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="227"/>
-      <c r="E80" s="207"/>
-      <c r="F80" s="184"/>
+      <c r="D80" s="228"/>
+      <c r="E80" s="211"/>
+      <c r="F80" s="197"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -12624,9 +12622,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="227"/>
-      <c r="E81" s="207"/>
-      <c r="F81" s="184"/>
+      <c r="D81" s="228"/>
+      <c r="E81" s="211"/>
+      <c r="F81" s="197"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -12639,9 +12637,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="227"/>
-      <c r="E82" s="207"/>
-      <c r="F82" s="184"/>
+      <c r="D82" s="228"/>
+      <c r="E82" s="211"/>
+      <c r="F82" s="197"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -12654,9 +12652,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="227"/>
-      <c r="E83" s="207"/>
-      <c r="F83" s="184"/>
+      <c r="D83" s="228"/>
+      <c r="E83" s="211"/>
+      <c r="F83" s="197"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -12669,9 +12667,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="227"/>
-      <c r="E84" s="207"/>
-      <c r="F84" s="184"/>
+      <c r="D84" s="228"/>
+      <c r="E84" s="211"/>
+      <c r="F84" s="197"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -12684,9 +12682,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="227"/>
-      <c r="E85" s="207"/>
-      <c r="F85" s="184"/>
+      <c r="D85" s="228"/>
+      <c r="E85" s="211"/>
+      <c r="F85" s="197"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -12699,9 +12697,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="227"/>
-      <c r="E86" s="207"/>
-      <c r="F86" s="184"/>
+      <c r="D86" s="228"/>
+      <c r="E86" s="211"/>
+      <c r="F86" s="197"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -12714,9 +12712,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="228"/>
-      <c r="E87" s="208"/>
-      <c r="F87" s="185"/>
+      <c r="D87" s="229"/>
+      <c r="E87" s="212"/>
+      <c r="F87" s="198"/>
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7">
@@ -12901,10 +12899,10 @@
         <v>488</v>
       </c>
       <c r="D97" s="6"/>
-      <c r="E97" s="225" t="s">
+      <c r="E97" s="223" t="s">
         <v>696</v>
       </c>
-      <c r="F97" s="183" t="s">
+      <c r="F97" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G97" s="24"/>
@@ -12920,8 +12918,8 @@
         <v>487</v>
       </c>
       <c r="D98" s="6"/>
-      <c r="E98" s="225"/>
-      <c r="F98" s="184"/>
+      <c r="E98" s="223"/>
+      <c r="F98" s="197"/>
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7">
@@ -12935,8 +12933,8 @@
         <v>484</v>
       </c>
       <c r="D99" s="6"/>
-      <c r="E99" s="225"/>
-      <c r="F99" s="184"/>
+      <c r="E99" s="223"/>
+      <c r="F99" s="197"/>
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="1:7">
@@ -12950,8 +12948,8 @@
         <v>485</v>
       </c>
       <c r="D100" s="6"/>
-      <c r="E100" s="225"/>
-      <c r="F100" s="184"/>
+      <c r="E100" s="223"/>
+      <c r="F100" s="197"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7">
@@ -12965,8 +12963,8 @@
         <v>486</v>
       </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="225"/>
-      <c r="F101" s="184"/>
+      <c r="E101" s="223"/>
+      <c r="F101" s="197"/>
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7">
@@ -12980,8 +12978,8 @@
         <v>482</v>
       </c>
       <c r="D102" s="6"/>
-      <c r="E102" s="225"/>
-      <c r="F102" s="184"/>
+      <c r="E102" s="223"/>
+      <c r="F102" s="197"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7">
@@ -12995,8 +12993,8 @@
         <v>483</v>
       </c>
       <c r="D103" s="6"/>
-      <c r="E103" s="225"/>
-      <c r="F103" s="185"/>
+      <c r="E103" s="223"/>
+      <c r="F103" s="198"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7">
@@ -13047,11 +13045,11 @@
       <c r="C106" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="D106" s="186"/>
-      <c r="E106" s="225" t="s">
+      <c r="D106" s="190"/>
+      <c r="E106" s="223" t="s">
         <v>690</v>
       </c>
-      <c r="F106" s="186" t="s">
+      <c r="F106" s="190" t="s">
         <v>599</v>
       </c>
       <c r="G106" s="65"/>
@@ -13066,9 +13064,9 @@
       <c r="C107" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="D107" s="187"/>
-      <c r="E107" s="225"/>
-      <c r="F107" s="187"/>
+      <c r="D107" s="199"/>
+      <c r="E107" s="223"/>
+      <c r="F107" s="199"/>
       <c r="G107" s="65"/>
     </row>
     <row r="108" spans="1:7">
@@ -13081,9 +13079,9 @@
       <c r="C108" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="D108" s="188"/>
-      <c r="E108" s="225"/>
-      <c r="F108" s="188"/>
+      <c r="D108" s="191"/>
+      <c r="E108" s="223"/>
+      <c r="F108" s="191"/>
       <c r="G108" s="65"/>
     </row>
     <row r="109" spans="1:7">
@@ -13286,11 +13284,11 @@
       <c r="C119" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="D119" s="186"/>
-      <c r="E119" s="206" t="s">
+      <c r="D119" s="190"/>
+      <c r="E119" s="210" t="s">
         <v>502</v>
       </c>
-      <c r="F119" s="183" t="s">
+      <c r="F119" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G119" s="24"/>
@@ -13305,9 +13303,9 @@
       <c r="C120" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D120" s="187"/>
-      <c r="E120" s="207"/>
-      <c r="F120" s="184"/>
+      <c r="D120" s="199"/>
+      <c r="E120" s="211"/>
+      <c r="F120" s="197"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7">
@@ -13320,9 +13318,9 @@
       <c r="C121" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="D121" s="188"/>
-      <c r="E121" s="208"/>
-      <c r="F121" s="185"/>
+      <c r="D121" s="191"/>
+      <c r="E121" s="212"/>
+      <c r="F121" s="198"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7">
@@ -13373,11 +13371,11 @@
       <c r="C124" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D124" s="186"/>
-      <c r="E124" s="225" t="s">
+      <c r="D124" s="190"/>
+      <c r="E124" s="223" t="s">
         <v>604</v>
       </c>
-      <c r="F124" s="183" t="s">
+      <c r="F124" s="196" t="s">
         <v>141</v>
       </c>
       <c r="G124" s="24"/>
@@ -13392,9 +13390,9 @@
       <c r="C125" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D125" s="187"/>
-      <c r="E125" s="225"/>
-      <c r="F125" s="184"/>
+      <c r="D125" s="199"/>
+      <c r="E125" s="223"/>
+      <c r="F125" s="197"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7">
@@ -13407,9 +13405,9 @@
       <c r="C126" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="D126" s="187"/>
-      <c r="E126" s="225"/>
-      <c r="F126" s="184"/>
+      <c r="D126" s="199"/>
+      <c r="E126" s="223"/>
+      <c r="F126" s="197"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7">
@@ -13422,9 +13420,9 @@
       <c r="C127" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="D127" s="187"/>
-      <c r="E127" s="225"/>
-      <c r="F127" s="184"/>
+      <c r="D127" s="199"/>
+      <c r="E127" s="223"/>
+      <c r="F127" s="197"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7">
@@ -13437,9 +13435,9 @@
       <c r="C128" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="188"/>
-      <c r="E128" s="225"/>
-      <c r="F128" s="185"/>
+      <c r="D128" s="191"/>
+      <c r="E128" s="223"/>
+      <c r="F128" s="198"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7">
@@ -13689,6 +13687,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="D124:D128"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="E97:E103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="E79:E87"/>
+    <mergeCell ref="F79:F87"/>
+    <mergeCell ref="D79:D87"/>
     <mergeCell ref="E119:E121"/>
     <mergeCell ref="F119:F121"/>
     <mergeCell ref="E124:E128"/>
@@ -13705,16 +13713,6 @@
     <mergeCell ref="E106:E108"/>
     <mergeCell ref="D106:D108"/>
     <mergeCell ref="F106:F108"/>
-    <mergeCell ref="E97:E103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="E79:E87"/>
-    <mergeCell ref="F79:F87"/>
-    <mergeCell ref="D79:D87"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="D124:D128"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61921,19 +61919,19 @@
       <c r="B10" s="109" t="s">
         <v>1011</v>
       </c>
-      <c r="C10" s="173" t="s">
+      <c r="C10" s="179" t="s">
         <v>1013</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="177" t="s">
         <v>1006</v>
       </c>
-      <c r="E10" s="173" t="s">
+      <c r="E10" s="179" t="s">
         <v>1010</v>
       </c>
-      <c r="F10" s="178" t="s">
+      <c r="F10" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="G10" s="173" t="s">
+      <c r="G10" s="179" t="s">
         <v>1034</v>
       </c>
     </row>
@@ -61944,11 +61942,11 @@
       <c r="B11" s="109" t="s">
         <v>1012</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="174"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="175"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="181"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="105" t="s">
@@ -61957,19 +61955,19 @@
       <c r="B12" s="110" t="s">
         <v>1015</v>
       </c>
-      <c r="C12" s="173" t="s">
+      <c r="C12" s="179" t="s">
         <v>1017</v>
       </c>
-      <c r="D12" s="178" t="s">
+      <c r="D12" s="177" t="s">
         <v>1006</v>
       </c>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="182" t="s">
         <v>1014</v>
       </c>
-      <c r="F12" s="178" t="s">
+      <c r="F12" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="G12" s="175"/>
+      <c r="G12" s="181"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="105" t="s">
@@ -61978,11 +61976,11 @@
       <c r="B13" s="110" t="s">
         <v>1016</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="177"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="175"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="181"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="105" t="s">
@@ -61991,19 +61989,19 @@
       <c r="B14" s="110" t="s">
         <v>1019</v>
       </c>
-      <c r="C14" s="173" t="s">
+      <c r="C14" s="179" t="s">
         <v>1024</v>
       </c>
-      <c r="D14" s="178" t="s">
+      <c r="D14" s="177" t="s">
         <v>1006</v>
       </c>
-      <c r="E14" s="176" t="s">
+      <c r="E14" s="182" t="s">
         <v>1018</v>
       </c>
-      <c r="F14" s="178" t="s">
+      <c r="F14" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="G14" s="175"/>
+      <c r="G14" s="181"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="105" t="s">
@@ -62012,11 +62010,11 @@
       <c r="B15" s="110" t="s">
         <v>1020</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="179"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="175"/>
+      <c r="C15" s="180"/>
+      <c r="D15" s="178"/>
+      <c r="E15" s="183"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="181"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="105" t="s">
@@ -62025,19 +62023,19 @@
       <c r="B16" s="110" t="s">
         <v>1022</v>
       </c>
-      <c r="C16" s="173" t="s">
+      <c r="C16" s="179" t="s">
         <v>1025</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="177" t="s">
         <v>1006</v>
       </c>
-      <c r="E16" s="176" t="s">
+      <c r="E16" s="182" t="s">
         <v>1021</v>
       </c>
-      <c r="F16" s="178" t="s">
+      <c r="F16" s="177" t="s">
         <v>530</v>
       </c>
-      <c r="G16" s="175"/>
+      <c r="G16" s="181"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="105" t="s">
@@ -62046,11 +62044,11 @@
       <c r="B17" s="110" t="s">
         <v>1023</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="179"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="174"/>
+      <c r="C17" s="180"/>
+      <c r="D17" s="178"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="180"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="110" t="s">
@@ -62098,6 +62096,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
@@ -62114,7 +62113,6 @@
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -62293,11 +62291,11 @@
       <c r="C4" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="D4" s="186"/>
-      <c r="E4" s="180" t="s">
+      <c r="D4" s="190"/>
+      <c r="E4" s="193" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="183" t="s">
+      <c r="F4" s="196" t="s">
         <v>779</v>
       </c>
       <c r="G4" s="54"/>
@@ -62312,9 +62310,9 @@
       <c r="C5" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="D5" s="187"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="184"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="197"/>
       <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
@@ -62327,9 +62325,9 @@
       <c r="C6" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="184"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="197"/>
       <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
@@ -62342,9 +62340,9 @@
       <c r="C7" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="D7" s="187"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="184"/>
+      <c r="D7" s="199"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="197"/>
       <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
@@ -62357,9 +62355,9 @@
       <c r="C8" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="D8" s="187"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="184"/>
+      <c r="D8" s="199"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="197"/>
       <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
@@ -62372,9 +62370,9 @@
       <c r="C9" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="184"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="197"/>
       <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
@@ -62387,9 +62385,9 @@
       <c r="C10" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="184"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="197"/>
       <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
@@ -62402,9 +62400,9 @@
       <c r="C11" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="184"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="197"/>
       <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
@@ -62417,9 +62415,9 @@
       <c r="C12" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="D12" s="187"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="184"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="197"/>
       <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
@@ -62432,9 +62430,9 @@
       <c r="C13" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D13" s="187"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="184"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="197"/>
       <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
@@ -62447,9 +62445,9 @@
       <c r="C14" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="D14" s="187"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="184"/>
+      <c r="D14" s="199"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="197"/>
       <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7">
@@ -62462,9 +62460,9 @@
       <c r="C15" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="D15" s="187"/>
-      <c r="E15" s="181"/>
-      <c r="F15" s="184"/>
+      <c r="D15" s="199"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="197"/>
       <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7">
@@ -62477,9 +62475,9 @@
       <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="184"/>
+      <c r="D16" s="199"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="197"/>
       <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7">
@@ -62492,9 +62490,9 @@
       <c r="C17" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="184"/>
+      <c r="D17" s="199"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="197"/>
       <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7">
@@ -62507,9 +62505,9 @@
       <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="184"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="197"/>
       <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7">
@@ -62522,9 +62520,9 @@
       <c r="C19" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="184"/>
+      <c r="D19" s="199"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="197"/>
       <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7">
@@ -62537,9 +62535,9 @@
       <c r="C20" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="184"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="197"/>
       <c r="G20" s="54"/>
     </row>
     <row r="21" spans="1:7">
@@ -62552,9 +62550,9 @@
       <c r="C21" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="184"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="197"/>
       <c r="G21" s="54"/>
     </row>
     <row r="22" spans="1:7">
@@ -62567,9 +62565,9 @@
       <c r="C22" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D22" s="188"/>
-      <c r="E22" s="182"/>
-      <c r="F22" s="185"/>
+      <c r="D22" s="191"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="198"/>
       <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" s="57" customFormat="1">
@@ -62738,14 +62736,14 @@
       <c r="C31" s="8" t="s">
         <v>804</v>
       </c>
-      <c r="D31" s="186"/>
-      <c r="E31" s="189" t="s">
+      <c r="D31" s="190"/>
+      <c r="E31" s="186" t="s">
         <v>850</v>
       </c>
-      <c r="F31" s="191" t="s">
+      <c r="F31" s="184" t="s">
         <v>827</v>
       </c>
-      <c r="G31" s="189" t="s">
+      <c r="G31" s="186" t="s">
         <v>851</v>
       </c>
     </row>
@@ -62759,10 +62757,10 @@
       <c r="C32" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D32" s="188"/>
-      <c r="E32" s="190"/>
-      <c r="F32" s="192"/>
-      <c r="G32" s="190"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="187"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="187"/>
     </row>
     <row r="33" spans="1:7" s="57" customFormat="1">
       <c r="A33" s="6" t="s">
@@ -62774,14 +62772,14 @@
       <c r="C33" s="8" t="s">
         <v>808</v>
       </c>
-      <c r="D33" s="186"/>
-      <c r="E33" s="189" t="s">
+      <c r="D33" s="190"/>
+      <c r="E33" s="186" t="s">
         <v>849</v>
       </c>
-      <c r="F33" s="191" t="s">
+      <c r="F33" s="184" t="s">
         <v>828</v>
       </c>
-      <c r="G33" s="189" t="s">
+      <c r="G33" s="186" t="s">
         <v>852</v>
       </c>
     </row>
@@ -62795,10 +62793,10 @@
       <c r="C34" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="D34" s="188"/>
-      <c r="E34" s="190"/>
-      <c r="F34" s="192"/>
-      <c r="G34" s="190"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="187"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="187"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="6" t="s">
@@ -62810,14 +62808,14 @@
       <c r="C35" s="8" t="s">
         <v>812</v>
       </c>
-      <c r="D35" s="186"/>
-      <c r="E35" s="189" t="s">
+      <c r="D35" s="190"/>
+      <c r="E35" s="186" t="s">
         <v>848</v>
       </c>
-      <c r="F35" s="191" t="s">
+      <c r="F35" s="184" t="s">
         <v>827</v>
       </c>
-      <c r="G35" s="189" t="s">
+      <c r="G35" s="186" t="s">
         <v>853</v>
       </c>
     </row>
@@ -62831,10 +62829,10 @@
       <c r="C36" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="D36" s="188"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="190"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="187"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="187"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="6" t="s">
@@ -62846,14 +62844,14 @@
       <c r="C37" s="8" t="s">
         <v>816</v>
       </c>
-      <c r="D37" s="193"/>
-      <c r="E37" s="189" t="s">
+      <c r="D37" s="192"/>
+      <c r="E37" s="186" t="s">
         <v>825</v>
       </c>
-      <c r="F37" s="191" t="s">
+      <c r="F37" s="184" t="s">
         <v>828</v>
       </c>
-      <c r="G37" s="189" t="s">
+      <c r="G37" s="186" t="s">
         <v>854</v>
       </c>
     </row>
@@ -62867,10 +62865,10 @@
       <c r="C38" s="8" t="s">
         <v>818</v>
       </c>
-      <c r="D38" s="193"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="195"/>
-      <c r="G38" s="194"/>
+      <c r="D38" s="192"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="188"/>
+      <c r="G38" s="189"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="6" t="s">
@@ -62882,10 +62880,10 @@
       <c r="C39" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="D39" s="193"/>
-      <c r="E39" s="194"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="194"/>
+      <c r="D39" s="192"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="189"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="6" t="s">
@@ -62897,10 +62895,10 @@
       <c r="C40" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="D40" s="193"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="192"/>
-      <c r="G40" s="190"/>
+      <c r="D40" s="192"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="187"/>
     </row>
     <row r="41" spans="1:7" s="57" customFormat="1">
       <c r="A41" s="6" t="s">
@@ -63210,18 +63208,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:E40"/>
     <mergeCell ref="E4:E22"/>
     <mergeCell ref="F4:F22"/>
     <mergeCell ref="D4:D22"/>
@@ -63229,6 +63215,18 @@
     <mergeCell ref="E33:E34"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -63347,14 +63345,14 @@
       <c r="C5" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="196"/>
-      <c r="E5" s="206" t="s">
+      <c r="D5" s="200"/>
+      <c r="E5" s="210" t="s">
         <v>597</v>
       </c>
-      <c r="F5" s="205" t="s">
+      <c r="F5" s="209" t="s">
         <v>599</v>
       </c>
-      <c r="G5" s="180"/>
+      <c r="G5" s="193"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
@@ -63366,10 +63364,10 @@
       <c r="C6" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="D6" s="197"/>
-      <c r="E6" s="207"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="181"/>
+      <c r="D6" s="201"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="194"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
@@ -63381,10 +63379,10 @@
       <c r="C7" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="181"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="194"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
@@ -63396,10 +63394,10 @@
       <c r="C8" s="8" t="s">
         <v>551</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="181"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="194"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
@@ -63411,10 +63409,10 @@
       <c r="C9" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="D9" s="197"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="181"/>
+      <c r="D9" s="201"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="194"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
@@ -63426,10 +63424,10 @@
       <c r="C10" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="198"/>
-      <c r="E10" s="208"/>
-      <c r="F10" s="205"/>
-      <c r="G10" s="182"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="212"/>
+      <c r="F10" s="209"/>
+      <c r="G10" s="195"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
@@ -63574,14 +63572,14 @@
       <c r="C18" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D18" s="196"/>
-      <c r="E18" s="206" t="s">
+      <c r="D18" s="200"/>
+      <c r="E18" s="210" t="s">
         <v>608</v>
       </c>
-      <c r="F18" s="183" t="s">
+      <c r="F18" s="196" t="s">
         <v>599</v>
       </c>
-      <c r="G18" s="180"/>
+      <c r="G18" s="193"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
@@ -63593,10 +63591,10 @@
       <c r="C19" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="D19" s="197"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="184"/>
-      <c r="G19" s="181"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="197"/>
+      <c r="G19" s="194"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="s">
@@ -63608,10 +63606,10 @@
       <c r="C20" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="184"/>
-      <c r="G20" s="181"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="194"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="s">
@@ -63623,10 +63621,10 @@
       <c r="C21" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="185"/>
-      <c r="G21" s="182"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="195"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="s">
@@ -63855,14 +63853,14 @@
       <c r="C33" s="73" t="s">
         <v>622</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="202" t="s">
+      <c r="D33" s="203"/>
+      <c r="E33" s="206" t="s">
         <v>666</v>
       </c>
-      <c r="F33" s="209" t="s">
+      <c r="F33" s="213" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="202" t="s">
+      <c r="G33" s="206" t="s">
         <v>639</v>
       </c>
     </row>
@@ -63876,10 +63874,10 @@
       <c r="C34" s="73" t="s">
         <v>624</v>
       </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="203"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="207"/>
     </row>
     <row r="35" spans="1:7" s="57" customFormat="1">
       <c r="A35" s="69" t="s">
@@ -63891,10 +63889,10 @@
       <c r="C35" s="73" t="s">
         <v>626</v>
       </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="210"/>
-      <c r="G35" s="203"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="207"/>
     </row>
     <row r="36" spans="1:7" s="57" customFormat="1">
       <c r="A36" s="69" t="s">
@@ -63906,10 +63904,10 @@
       <c r="C36" s="73" t="s">
         <v>628</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="203"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="207"/>
     </row>
     <row r="37" spans="1:7" s="57" customFormat="1">
       <c r="A37" s="69" t="s">
@@ -63921,10 +63919,10 @@
       <c r="C37" s="73" t="s">
         <v>630</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="203"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="214"/>
+      <c r="G37" s="207"/>
     </row>
     <row r="38" spans="1:7" s="57" customFormat="1">
       <c r="A38" s="69" t="s">
@@ -63936,10 +63934,10 @@
       <c r="C38" s="73" t="s">
         <v>632</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="203"/>
+      <c r="D38" s="204"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="207"/>
     </row>
     <row r="39" spans="1:7" s="57" customFormat="1">
       <c r="A39" s="69" t="s">
@@ -63951,10 +63949,10 @@
       <c r="C39" s="73" t="s">
         <v>634</v>
       </c>
-      <c r="D39" s="201"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="204"/>
+      <c r="D39" s="205"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="208"/>
     </row>
     <row r="40" spans="1:7" s="57" customFormat="1">
       <c r="A40" s="69" t="s">
@@ -64308,14 +64306,14 @@
       <c r="C6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="196"/>
-      <c r="E6" s="217" t="s">
+      <c r="D6" s="200"/>
+      <c r="E6" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="F6" s="205" t="s">
+      <c r="F6" s="209" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="183"/>
+      <c r="G6" s="196"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="16" t="s">
@@ -64327,10 +64325,10 @@
       <c r="C7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="217"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="184"/>
+      <c r="D7" s="201"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="197"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="16" t="s">
@@ -64342,10 +64340,10 @@
       <c r="C8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="197"/>
-      <c r="E8" s="217"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="184"/>
+      <c r="D8" s="201"/>
+      <c r="E8" s="216"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="197"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="16" t="s">
@@ -64357,10 +64355,10 @@
       <c r="C9" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="198"/>
-      <c r="E9" s="217"/>
-      <c r="F9" s="205"/>
-      <c r="G9" s="185"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="216"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="198"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
@@ -64429,14 +64427,14 @@
       <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="218" t="s">
+      <c r="D13" s="200"/>
+      <c r="E13" s="217" t="s">
         <v>138</v>
       </c>
-      <c r="F13" s="205" t="s">
+      <c r="F13" s="209" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="183"/>
+      <c r="G13" s="196"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="16" t="s">
@@ -64448,10 +64446,10 @@
       <c r="C14" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="198"/>
-      <c r="E14" s="218"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="185"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="217"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="198"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="16" t="s">
@@ -64463,14 +64461,14 @@
       <c r="C15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="196"/>
-      <c r="E15" s="217" t="s">
+      <c r="D15" s="200"/>
+      <c r="E15" s="216" t="s">
         <v>136</v>
       </c>
-      <c r="F15" s="205" t="s">
+      <c r="F15" s="209" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="183"/>
+      <c r="G15" s="196"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="16" t="s">
@@ -64482,10 +64480,10 @@
       <c r="C16" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="197"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="184"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="197"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
@@ -64497,10 +64495,10 @@
       <c r="C17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="197"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="184"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="197"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
@@ -64512,10 +64510,10 @@
       <c r="C18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="197"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="184"/>
+      <c r="D18" s="201"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="197"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="16" t="s">
@@ -64527,10 +64525,10 @@
       <c r="C19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="197"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="184"/>
+      <c r="D19" s="201"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="197"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
@@ -64542,10 +64540,10 @@
       <c r="C20" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="197"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="184"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="197"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
@@ -64557,10 +64555,10 @@
       <c r="C21" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="197"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="184"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="197"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
@@ -64572,10 +64570,10 @@
       <c r="C22" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="197"/>
-      <c r="E22" s="217"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="184"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="216"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="197"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
@@ -64587,10 +64585,10 @@
       <c r="C23" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="197"/>
-      <c r="E23" s="217"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="184"/>
+      <c r="D23" s="201"/>
+      <c r="E23" s="216"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="197"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="16" t="s">
@@ -64602,10 +64600,10 @@
       <c r="C24" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="197"/>
-      <c r="E24" s="217"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="184"/>
+      <c r="D24" s="201"/>
+      <c r="E24" s="216"/>
+      <c r="F24" s="209"/>
+      <c r="G24" s="197"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="16" t="s">
@@ -64617,10 +64615,10 @@
       <c r="C25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="197"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="184"/>
+      <c r="D25" s="201"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="197"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="16" t="s">
@@ -64632,10 +64630,10 @@
       <c r="C26" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="184"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="197"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="16" t="s">
@@ -64647,10 +64645,10 @@
       <c r="C27" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="197"/>
-      <c r="E27" s="217"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="184"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="216"/>
+      <c r="F27" s="209"/>
+      <c r="G27" s="197"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="16" t="s">
@@ -64662,10 +64660,10 @@
       <c r="C28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D28" s="197"/>
-      <c r="E28" s="217"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="184"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="209"/>
+      <c r="G28" s="197"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="16" t="s">
@@ -64677,10 +64675,10 @@
       <c r="C29" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="197"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="205"/>
-      <c r="G29" s="184"/>
+      <c r="D29" s="201"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="197"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="16" t="s">
@@ -64692,10 +64690,10 @@
       <c r="C30" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="197"/>
-      <c r="E30" s="217"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="184"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="209"/>
+      <c r="G30" s="197"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="16" t="s">
@@ -64707,10 +64705,10 @@
       <c r="C31" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="185"/>
+      <c r="D31" s="202"/>
+      <c r="E31" s="216"/>
+      <c r="F31" s="209"/>
+      <c r="G31" s="198"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="16" t="s">
@@ -64800,14 +64798,14 @@
       <c r="C36" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="215" t="s">
+      <c r="D36" s="203"/>
+      <c r="E36" s="221" t="s">
         <v>149</v>
       </c>
-      <c r="F36" s="216" t="s">
+      <c r="F36" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="G36" s="202"/>
+      <c r="G36" s="206"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="76" t="s">
@@ -64819,10 +64817,10 @@
       <c r="C37" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="200"/>
-      <c r="E37" s="215"/>
-      <c r="F37" s="216"/>
-      <c r="G37" s="203"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="222"/>
+      <c r="G37" s="207"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="76" t="s">
@@ -64834,10 +64832,10 @@
       <c r="C38" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="201"/>
-      <c r="E38" s="215"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="204"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="208"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="76" t="s">
@@ -65117,14 +65115,14 @@
       <c r="C53" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="212"/>
-      <c r="E53" s="215" t="s">
+      <c r="D53" s="218"/>
+      <c r="E53" s="221" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="216" t="s">
+      <c r="F53" s="222" t="s">
         <v>141</v>
       </c>
-      <c r="G53" s="202"/>
+      <c r="G53" s="206"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="76" t="s">
@@ -65136,10 +65134,10 @@
       <c r="C54" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="D54" s="213"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="203"/>
+      <c r="D54" s="219"/>
+      <c r="E54" s="221"/>
+      <c r="F54" s="222"/>
+      <c r="G54" s="207"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="76" t="s">
@@ -65151,10 +65149,10 @@
       <c r="C55" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="D55" s="214"/>
-      <c r="E55" s="215"/>
-      <c r="F55" s="216"/>
-      <c r="G55" s="204"/>
+      <c r="D55" s="220"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="222"/>
+      <c r="G55" s="208"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="76" t="s">
@@ -65306,14 +65304,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="G53:G55"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="D36:D38"/>
@@ -65326,6 +65316,14 @@
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="E15:E31"/>
     <mergeCell ref="F15:F31"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E13:E14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WorkList.xlsx
+++ b/WorkList.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
-    <sheet name="0313" sheetId="22" r:id="rId1"/>
-    <sheet name="0311" sheetId="20" r:id="rId2"/>
-    <sheet name="0308" sheetId="19" r:id="rId3"/>
-    <sheet name="0223" sheetId="17" r:id="rId4"/>
-    <sheet name="0216" sheetId="16" r:id="rId5"/>
-    <sheet name="0202" sheetId="8" r:id="rId6"/>
-    <sheet name="0125" sheetId="6" r:id="rId7"/>
-    <sheet name="0119" sheetId="2" r:id="rId8"/>
-    <sheet name="0109" sheetId="1" r:id="rId9"/>
-    <sheet name="202312" sheetId="4" r:id="rId10"/>
-    <sheet name="파일리스트" sheetId="21" r:id="rId11"/>
+    <sheet name="0319" sheetId="23" r:id="rId1"/>
+    <sheet name="0313" sheetId="22" r:id="rId2"/>
+    <sheet name="0311" sheetId="20" r:id="rId3"/>
+    <sheet name="0308" sheetId="19" r:id="rId4"/>
+    <sheet name="0223" sheetId="17" r:id="rId5"/>
+    <sheet name="0216" sheetId="16" r:id="rId6"/>
+    <sheet name="0202" sheetId="8" r:id="rId7"/>
+    <sheet name="0125" sheetId="6" r:id="rId8"/>
+    <sheet name="0119" sheetId="2" r:id="rId9"/>
+    <sheet name="0109" sheetId="1" r:id="rId10"/>
+    <sheet name="202312" sheetId="4" r:id="rId11"/>
+    <sheet name="파일리스트" sheetId="21" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8237" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8257" uniqueCount="2252">
   <si>
     <t>화면 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8082,6 +8083,29 @@
   </si>
   <si>
     <t>기존 탭 3개로 구성된 팝업 페이지를 각각 내용별로 나눔으로 신규 html파일 3개 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5801M0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노후를위한국민연금준비정도알아보기-나의 예상연금월액정도는?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5801M0_노후를위한국민연금준비정도알아보기.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UHKD5801M</t>
+  </si>
+  <si>
+    <t>Main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8638,7 +8662,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9170,6 +9194,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9184,39 +9214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9236,7 +9233,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9287,12 +9311,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9308,8 +9326,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9320,6 +9350,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9329,14 +9362,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10822,10 +10852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10863,238 +10893,104 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="105" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B2" s="105" t="s">
-        <v>691</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>2237</v>
-      </c>
-      <c r="D2" s="110" t="s">
-        <v>2234</v>
-      </c>
-      <c r="E2" s="111" t="s">
-        <v>2235</v>
-      </c>
-      <c r="F2" s="110" t="s">
-        <v>2231</v>
-      </c>
-      <c r="G2" s="174" t="s">
-        <v>2245</v>
-      </c>
+      <c r="A2" s="105"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="233"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="105" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B3" s="105" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C3" s="107" t="s">
-        <v>2238</v>
-      </c>
+      <c r="A3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="107"/>
       <c r="D3" s="110"/>
-      <c r="E3" s="111" t="s">
-        <v>2229</v>
-      </c>
-      <c r="F3" s="110" t="s">
-        <v>2231</v>
-      </c>
-      <c r="G3" s="175"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="234"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="105" t="s">
-        <v>2236</v>
-      </c>
-      <c r="B4" s="105" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C4" s="107" t="s">
-        <v>2239</v>
-      </c>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111" t="s">
-        <v>2230</v>
-      </c>
-      <c r="F4" s="110" t="s">
-        <v>2231</v>
-      </c>
-      <c r="G4" s="176"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="112"/>
-    </row>
-    <row r="6" spans="1:7" ht="33" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="27"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="112"/>
+    </row>
+    <row r="5" spans="1:7" ht="33" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="27"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="105" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C7" s="107" t="s">
+        <v>2247</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>2248</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>2251</v>
+      </c>
+      <c r="G7" s="173"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="105" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>2209</v>
-      </c>
-      <c r="C8" s="107" t="s">
-        <v>2212</v>
-      </c>
-      <c r="D8" s="110" t="s">
-        <v>2210</v>
-      </c>
-      <c r="E8" s="111" t="s">
-        <v>2211</v>
-      </c>
-      <c r="F8" s="105" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G8" s="173" t="s">
-        <v>2215</v>
-      </c>
+      <c r="A8" s="105"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="112"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="105" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>2216</v>
-      </c>
-      <c r="C9" s="107" t="s">
-        <v>2225</v>
-      </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="108" t="s">
-        <v>2220</v>
-      </c>
-      <c r="F9" s="105" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G9" s="117"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="105" t="s">
-        <v>2213</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>2217</v>
-      </c>
-      <c r="C10" s="107" t="s">
-        <v>2226</v>
-      </c>
-      <c r="D10" s="110"/>
-      <c r="E10" s="108" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F10" s="105" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G10" s="107"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="110" t="s">
-        <v>2228</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>2218</v>
-      </c>
-      <c r="C11" s="112" t="s">
-        <v>2227</v>
-      </c>
-      <c r="D11" s="105"/>
-      <c r="E11" s="111" t="s">
-        <v>2222</v>
-      </c>
-      <c r="F11" s="105" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G11" s="112"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="105" t="s">
-        <v>2240</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>2219</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>2224</v>
-      </c>
-      <c r="D12" s="105"/>
-      <c r="E12" s="111" t="s">
-        <v>2223</v>
-      </c>
-      <c r="F12" s="105" t="s">
-        <v>2214</v>
-      </c>
-      <c r="G12" s="112"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="105" t="s">
-        <v>1950</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>2243</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>2244</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="111" t="s">
-        <v>2241</v>
-      </c>
-      <c r="F13" s="105" t="s">
-        <v>2242</v>
-      </c>
-      <c r="G13" s="112"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="105"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="112"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G2:G4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11102,6 +10998,67 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="94.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="40"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="33" customHeight="1">
+      <c r="A7" s="42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G141"/>
   <sheetViews>
@@ -11165,16 +11122,16 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="230" t="s">
+      <c r="A3" s="223" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="230" t="s">
+      <c r="B3" s="223" t="s">
         <v>247</v>
       </c>
-      <c r="C3" s="224" t="s">
+      <c r="C3" s="226" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="224" t="s">
+      <c r="D3" s="226" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -11186,10 +11143,10 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="231"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
+      <c r="A4" s="224"/>
+      <c r="B4" s="224"/>
+      <c r="C4" s="227"/>
+      <c r="D4" s="227"/>
       <c r="E4" s="31" t="s">
         <v>382</v>
       </c>
@@ -11199,10 +11156,10 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="231"/>
-      <c r="B5" s="231"/>
-      <c r="C5" s="225"/>
-      <c r="D5" s="225"/>
+      <c r="A5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="227"/>
+      <c r="D5" s="227"/>
       <c r="E5" s="31" t="s">
         <v>383</v>
       </c>
@@ -11212,10 +11169,10 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="232"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="226"/>
+      <c r="A6" s="225"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="228"/>
+      <c r="D6" s="228"/>
       <c r="E6" s="31" t="s">
         <v>384</v>
       </c>
@@ -11278,7 +11235,7 @@
       <c r="E9" s="210" t="s">
         <v>387</v>
       </c>
-      <c r="F9" s="196" t="s">
+      <c r="F9" s="187" t="s">
         <v>141</v>
       </c>
       <c r="G9" s="24"/>
@@ -11295,7 +11252,7 @@
       </c>
       <c r="D10" s="28"/>
       <c r="E10" s="212"/>
-      <c r="F10" s="198"/>
+      <c r="F10" s="189"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
@@ -11331,7 +11288,7 @@
       <c r="E12" s="210" t="s">
         <v>389</v>
       </c>
-      <c r="F12" s="196" t="s">
+      <c r="F12" s="187" t="s">
         <v>141</v>
       </c>
       <c r="G12" s="24"/>
@@ -11348,7 +11305,7 @@
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="211"/>
-      <c r="F13" s="197"/>
+      <c r="F13" s="188"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
@@ -11363,7 +11320,7 @@
       </c>
       <c r="D14" s="28"/>
       <c r="E14" s="212"/>
-      <c r="F14" s="198"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7">
@@ -11399,7 +11356,7 @@
       <c r="E16" s="210" t="s">
         <v>391</v>
       </c>
-      <c r="F16" s="196" t="s">
+      <c r="F16" s="187" t="s">
         <v>141</v>
       </c>
       <c r="G16" s="24"/>
@@ -11416,7 +11373,7 @@
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="211"/>
-      <c r="F17" s="197"/>
+      <c r="F17" s="188"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
@@ -11431,7 +11388,7 @@
       </c>
       <c r="D18" s="28"/>
       <c r="E18" s="212"/>
-      <c r="F18" s="198"/>
+      <c r="F18" s="189"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:7">
@@ -11467,7 +11424,7 @@
       <c r="E20" s="210" t="s">
         <v>393</v>
       </c>
-      <c r="F20" s="196" t="s">
+      <c r="F20" s="187" t="s">
         <v>141</v>
       </c>
       <c r="G20" s="24"/>
@@ -11484,7 +11441,7 @@
       </c>
       <c r="D21" s="28"/>
       <c r="E21" s="212"/>
-      <c r="F21" s="198"/>
+      <c r="F21" s="189"/>
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="1:7">
@@ -12590,11 +12547,11 @@
       <c r="C79" s="8" t="s">
         <v>687</v>
       </c>
-      <c r="D79" s="227"/>
+      <c r="D79" s="230"/>
       <c r="E79" s="210" t="s">
         <v>686</v>
       </c>
-      <c r="F79" s="196" t="s">
+      <c r="F79" s="187" t="s">
         <v>141</v>
       </c>
       <c r="G79" s="24"/>
@@ -12607,9 +12564,9 @@
       <c r="C80" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="D80" s="228"/>
+      <c r="D80" s="231"/>
       <c r="E80" s="211"/>
-      <c r="F80" s="197"/>
+      <c r="F80" s="188"/>
       <c r="G80" s="65"/>
     </row>
     <row r="81" spans="1:7">
@@ -12622,9 +12579,9 @@
       <c r="C81" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="D81" s="228"/>
+      <c r="D81" s="231"/>
       <c r="E81" s="211"/>
-      <c r="F81" s="197"/>
+      <c r="F81" s="188"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7">
@@ -12637,9 +12594,9 @@
       <c r="C82" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="D82" s="228"/>
+      <c r="D82" s="231"/>
       <c r="E82" s="211"/>
-      <c r="F82" s="197"/>
+      <c r="F82" s="188"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7">
@@ -12652,9 +12609,9 @@
       <c r="C83" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="D83" s="228"/>
+      <c r="D83" s="231"/>
       <c r="E83" s="211"/>
-      <c r="F83" s="197"/>
+      <c r="F83" s="188"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7">
@@ -12667,9 +12624,9 @@
       <c r="C84" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D84" s="228"/>
+      <c r="D84" s="231"/>
       <c r="E84" s="211"/>
-      <c r="F84" s="197"/>
+      <c r="F84" s="188"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7">
@@ -12682,9 +12639,9 @@
       <c r="C85" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="D85" s="228"/>
+      <c r="D85" s="231"/>
       <c r="E85" s="211"/>
-      <c r="F85" s="197"/>
+      <c r="F85" s="188"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7">
@@ -12697,9 +12654,9 @@
       <c r="C86" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="D86" s="228"/>
+      <c r="D86" s="231"/>
       <c r="E86" s="211"/>
-      <c r="F86" s="197"/>
+      <c r="F86" s="188"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7">
@@ -12712,9 +12669,9 @@
       <c r="C87" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="D87" s="229"/>
+      <c r="D87" s="232"/>
       <c r